--- a/RECC_Config_V2_4.xlsx
+++ b/RECC_Config_V2_4.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12491" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12491" uniqueCount="810">
   <si>
     <t>User Name</t>
   </si>
@@ -1822,12 +1822,6 @@
     <t>V4.1</t>
   </si>
   <si>
-    <t>b8369ae7-71b4-4acb-9d38-ca997d3d211f</t>
-  </si>
-  <si>
-    <t>95309e7e-ef30-40ca-af35-75e647b4ddb9</t>
-  </si>
-  <si>
     <t>54a8e373-bcef-4967-9590-6049061c48c7</t>
   </si>
   <si>
@@ -2456,6 +2450,18 @@
   </si>
   <si>
     <t>passenger vehicles. future development of per capita product stock. none. none. none. (this info extracted from the target table excel sheet, refer to it for details.)</t>
+  </si>
+  <si>
+    <t>V4.2</t>
+  </si>
+  <si>
+    <t>e97f26de-e3cc-444f-b98a-9d1455be54b1</t>
+  </si>
+  <si>
+    <t>227ee5a9-5cf3-47bd-9f3c-df5adb1ba966</t>
+  </si>
+  <si>
+    <t>3e3e00b2-1b18-459f-87e1-014aeb1850d4</t>
   </si>
 </sst>
 </file>
@@ -3337,7 +3343,7 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="45" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="G4" s="23"/>
     </row>
@@ -4101,7 +4107,7 @@
         <v>256</v>
       </c>
       <c r="D4" s="95" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.45">
@@ -4109,7 +4115,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="95" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.45">
@@ -4125,7 +4131,7 @@
         <v>261</v>
       </c>
       <c r="D7" s="93" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E7" t="s">
         <v>263</v>
@@ -4335,7 +4341,7 @@
         <v>287</v>
       </c>
       <c r="G21" s="93" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="H21" s="34" t="s">
         <v>47</v>
@@ -7679,7 +7685,7 @@
         <v>256</v>
       </c>
       <c r="D4" s="95" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.45">
@@ -7687,7 +7693,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="95" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.45">
@@ -7703,7 +7709,7 @@
         <v>261</v>
       </c>
       <c r="D7" s="93" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E7" t="s">
         <v>263</v>
@@ -7913,7 +7919,7 @@
         <v>287</v>
       </c>
       <c r="G21" s="93" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="H21" s="34" t="s">
         <v>47</v>
@@ -11257,7 +11263,7 @@
         <v>256</v>
       </c>
       <c r="D4" s="95" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.45">
@@ -11265,7 +11271,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="95" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.45">
@@ -11281,7 +11287,7 @@
         <v>261</v>
       </c>
       <c r="D7" s="93" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E7" t="s">
         <v>263</v>
@@ -11491,7 +11497,7 @@
         <v>287</v>
       </c>
       <c r="G21" s="93" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H21" s="34" t="s">
         <v>47</v>
@@ -14835,7 +14841,7 @@
         <v>256</v>
       </c>
       <c r="D4" s="95" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.45">
@@ -14843,7 +14849,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="95" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.45">
@@ -14859,7 +14865,7 @@
         <v>261</v>
       </c>
       <c r="D7" s="93" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E7" t="s">
         <v>263</v>
@@ -15069,7 +15075,7 @@
         <v>287</v>
       </c>
       <c r="G21" s="93" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H21" s="34" t="s">
         <v>47</v>
@@ -18413,7 +18419,7 @@
         <v>256</v>
       </c>
       <c r="D4" s="95" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.45">
@@ -18421,7 +18427,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="95" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.45">
@@ -18437,7 +18443,7 @@
         <v>261</v>
       </c>
       <c r="D7" s="93" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E7" t="s">
         <v>263</v>
@@ -18647,7 +18653,7 @@
         <v>287</v>
       </c>
       <c r="G21" s="93" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H21" s="34" t="s">
         <v>47</v>
@@ -23535,8 +23541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -23587,7 +23593,7 @@
         <v>256</v>
       </c>
       <c r="D4" s="95" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.45">
@@ -23595,7 +23601,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="95" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.45">
@@ -23603,7 +23609,7 @@
         <v>259</v>
       </c>
       <c r="D6" s="95" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.45">
@@ -23611,7 +23617,7 @@
         <v>261</v>
       </c>
       <c r="D7" s="93" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E7" s="48" t="s">
         <v>263</v>
@@ -23821,7 +23827,7 @@
         <v>287</v>
       </c>
       <c r="G21" s="93" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="H21" s="34" t="s">
         <v>47</v>
@@ -23960,7 +23966,7 @@
         <v>302</v>
       </c>
       <c r="G27" s="93" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="H27" s="34" t="s">
         <v>81</v>
@@ -23983,7 +23989,7 @@
         <v>85</v>
       </c>
       <c r="G28" s="93" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="H28" s="34" t="s">
         <v>88</v>
@@ -24006,7 +24012,7 @@
         <v>307</v>
       </c>
       <c r="G29" s="93" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="H29" s="34" t="s">
         <v>95</v>
@@ -24089,7 +24095,7 @@
         <v>117</v>
       </c>
       <c r="D33" s="93" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E33" s="93" t="s">
         <v>87</v>
@@ -24098,7 +24104,7 @@
         <v>316</v>
       </c>
       <c r="G33" s="93" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="H33" s="34" t="s">
         <v>119</v>
@@ -24213,7 +24219,7 @@
         <v>326</v>
       </c>
       <c r="G38" s="93" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H38" s="34" t="s">
         <v>146</v>
@@ -24282,7 +24288,7 @@
         <v>334</v>
       </c>
       <c r="G41" s="93" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="H41" s="34" t="s">
         <v>164</v>
@@ -24431,94 +24437,94 @@
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C48" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D48" s="93" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E48" s="93" t="s">
         <v>87</v>
       </c>
       <c r="F48" s="93" t="s">
+        <v>685</v>
+      </c>
+      <c r="G48" s="93" t="s">
+        <v>736</v>
+      </c>
+      <c r="H48" s="34" t="s">
+        <v>686</v>
+      </c>
+      <c r="I48" s="93" t="s">
         <v>687</v>
-      </c>
-      <c r="G48" s="93" t="s">
-        <v>738</v>
-      </c>
-      <c r="H48" s="34" t="s">
-        <v>688</v>
-      </c>
-      <c r="I48" s="93" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C49" s="33" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D49" s="93" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E49" s="93" t="s">
         <v>87</v>
       </c>
       <c r="F49" s="93" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G49" s="93" t="s">
         <v>285</v>
       </c>
       <c r="H49" s="34" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="I49" s="93" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C50" s="33" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D50" s="93" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E50" s="93" t="s">
         <v>87</v>
       </c>
       <c r="F50" s="93" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G50" s="93" t="s">
         <v>285</v>
       </c>
       <c r="H50" s="34" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="I50" s="93" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C51" s="33" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D51" s="93" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E51" s="93" t="s">
         <v>162</v>
       </c>
       <c r="F51" s="93" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G51" s="93" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="H51" s="34" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="I51" s="93" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.45">
@@ -24861,7 +24867,7 @@
         <v>340</v>
       </c>
       <c r="I77" s="48" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="J77" s="48" t="s">
         <v>391</v>
@@ -24896,7 +24902,7 @@
         <v>340</v>
       </c>
       <c r="I78" s="48" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="J78" s="48" t="s">
         <v>391</v>
@@ -24984,16 +24990,16 @@
         <v>364</v>
       </c>
       <c r="C81" s="94" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D81" s="93" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E81" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F81" s="37" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G81" s="93" t="s">
         <v>410</v>
@@ -25002,7 +25008,7 @@
         <v>340</v>
       </c>
       <c r="I81" s="30" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="J81" s="48" t="s">
         <v>395</v>
@@ -25018,16 +25024,16 @@
         <v>364</v>
       </c>
       <c r="C82" s="94" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D82" s="93" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E82" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F82" s="37" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G82" s="93" t="s">
         <v>410</v>
@@ -25036,7 +25042,7 @@
         <v>340</v>
       </c>
       <c r="I82" s="30" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="J82" s="48" t="s">
         <v>395</v>
@@ -25052,16 +25058,16 @@
         <v>364</v>
       </c>
       <c r="C83" s="94" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D83" s="93" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E83" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F83" s="37" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="G83" s="93" t="s">
         <v>338</v>
@@ -25070,7 +25076,7 @@
         <v>340</v>
       </c>
       <c r="I83" s="30" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="J83" s="48" t="s">
         <v>395</v>
@@ -25086,13 +25092,13 @@
         <v>364</v>
       </c>
       <c r="C84" s="94" t="s">
+        <v>803</v>
+      </c>
+      <c r="D84" s="93" t="s">
         <v>805</v>
       </c>
-      <c r="D84" s="93" t="s">
-        <v>807</v>
-      </c>
       <c r="E84" s="93" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F84" s="37" t="s">
         <v>41</v>
@@ -25104,7 +25110,7 @@
         <v>340</v>
       </c>
       <c r="I84" s="30" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="J84" s="48" t="s">
         <v>395</v>
@@ -25140,7 +25146,7 @@
         <v>340</v>
       </c>
       <c r="I85" s="30" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="J85" s="48" t="s">
         <v>388</v>
@@ -25280,7 +25286,7 @@
         <v>340</v>
       </c>
       <c r="I89" s="50" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="J89" s="50" t="s">
         <v>388</v>
@@ -25319,7 +25325,7 @@
         <v>340</v>
       </c>
       <c r="I90" s="48" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="J90" s="50" t="s">
         <v>388</v>
@@ -25432,7 +25438,7 @@
         <v>340</v>
       </c>
       <c r="I93" s="48" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J93" s="48" t="s">
         <v>391</v>
@@ -25573,7 +25579,7 @@
         <v>340</v>
       </c>
       <c r="I97" s="48" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="J97" s="48" t="s">
         <v>391</v>
@@ -25625,10 +25631,10 @@
         <v>364</v>
       </c>
       <c r="C99" s="94" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D99" s="93" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E99" s="93" t="s">
         <v>55</v>
@@ -25643,7 +25649,7 @@
         <v>340</v>
       </c>
       <c r="I99" s="48" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="J99" s="48" t="s">
         <v>391</v>
@@ -25660,10 +25666,10 @@
         <v>364</v>
       </c>
       <c r="C100" s="94" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D100" s="93" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E100" s="93" t="s">
         <v>55</v>
@@ -25678,7 +25684,7 @@
         <v>340</v>
       </c>
       <c r="I100" s="48" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="J100" s="48" t="s">
         <v>391</v>
@@ -25695,16 +25701,16 @@
         <v>364</v>
       </c>
       <c r="C101" s="94" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D101" s="93" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E101" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F101" s="37" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="G101" s="93" t="s">
         <v>333</v>
@@ -25713,7 +25719,7 @@
         <v>340</v>
       </c>
       <c r="I101" s="48" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="J101" s="48" t="s">
         <v>391</v>
@@ -25757,7 +25763,6 @@
         <v>110</v>
       </c>
       <c r="L102" s="50"/>
-      <c r="M102" s="50"/>
       <c r="N102" s="50"/>
       <c r="O102" s="50"/>
     </row>
@@ -25787,7 +25792,7 @@
         <v>340</v>
       </c>
       <c r="I103" s="50" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="J103" s="50" t="s">
         <v>391</v>
@@ -25796,7 +25801,6 @@
         <v>104</v>
       </c>
       <c r="L103" s="50"/>
-      <c r="M103" s="50"/>
       <c r="N103" s="50"/>
       <c r="O103" s="50"/>
     </row>
@@ -25835,7 +25839,6 @@
         <v>104</v>
       </c>
       <c r="L104" s="50"/>
-      <c r="M104" s="50"/>
       <c r="N104" s="50"/>
       <c r="O104" s="50"/>
     </row>
@@ -25847,16 +25850,16 @@
         <v>364</v>
       </c>
       <c r="C105" s="94" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D105" s="98" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E105" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F105" s="41" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="G105" s="93" t="s">
         <v>338</v>
@@ -25865,7 +25868,7 @@
         <v>340</v>
       </c>
       <c r="I105" s="48" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="J105" s="50" t="s">
         <v>391</v>
@@ -25874,7 +25877,6 @@
         <v>104</v>
       </c>
       <c r="L105" s="50"/>
-      <c r="M105" s="50"/>
       <c r="N105" s="50"/>
       <c r="O105" s="50"/>
     </row>
@@ -25886,16 +25888,16 @@
         <v>364</v>
       </c>
       <c r="C106" s="94" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D106" s="98" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E106" s="93" t="s">
         <v>28</v>
       </c>
       <c r="F106" s="41" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="G106" s="93" t="s">
         <v>338</v>
@@ -25904,14 +25906,13 @@
         <v>340</v>
       </c>
       <c r="I106" s="48" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="J106" s="50" t="s">
         <v>391</v>
       </c>
       <c r="K106" s="50"/>
       <c r="L106" s="50"/>
-      <c r="M106" s="50"/>
       <c r="N106" s="50"/>
       <c r="O106" s="50"/>
     </row>
@@ -25923,16 +25924,16 @@
         <v>364</v>
       </c>
       <c r="C107" s="94" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D107" s="98" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E107" s="93" t="s">
         <v>28</v>
       </c>
       <c r="F107" s="41" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G107" s="93" t="s">
         <v>333</v>
@@ -25941,7 +25942,7 @@
         <v>340</v>
       </c>
       <c r="I107" s="26" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="J107" s="50" t="s">
         <v>391</v>
@@ -25978,7 +25979,7 @@
         <v>340</v>
       </c>
       <c r="I108" s="48" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="J108" s="48" t="s">
         <v>391</v>
@@ -26013,7 +26014,7 @@
         <v>340</v>
       </c>
       <c r="I109" s="48" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="J109" s="48" t="s">
         <v>391</v>
@@ -26109,7 +26110,7 @@
         <v>431</v>
       </c>
       <c r="E112" s="93" t="s">
-        <v>595</v>
+        <v>806</v>
       </c>
       <c r="F112" s="39" t="s">
         <v>137</v>
@@ -26120,8 +26121,8 @@
       <c r="H112" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I112" s="96" t="s">
-        <v>596</v>
+      <c r="I112" s="50" t="s">
+        <v>807</v>
       </c>
       <c r="J112" s="48" t="s">
         <v>395</v>
@@ -26144,7 +26145,7 @@
         <v>433</v>
       </c>
       <c r="E113" s="93" t="s">
-        <v>97</v>
+        <v>595</v>
       </c>
       <c r="F113" s="37" t="s">
         <v>143</v>
@@ -26155,8 +26156,8 @@
       <c r="H113" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I113" s="48" t="s">
-        <v>434</v>
+      <c r="I113" s="50" t="s">
+        <v>808</v>
       </c>
       <c r="J113" s="48" t="s">
         <v>395</v>
@@ -26179,7 +26180,7 @@
         <v>435</v>
       </c>
       <c r="E114" s="93" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F114" s="37" t="s">
         <v>148</v>
@@ -26190,8 +26191,8 @@
       <c r="H114" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I114" s="48" t="s">
-        <v>597</v>
+      <c r="I114" s="50" t="s">
+        <v>809</v>
       </c>
       <c r="J114" s="48" t="s">
         <v>395</v>
@@ -26296,7 +26297,7 @@
         <v>340</v>
       </c>
       <c r="I117" s="48" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="J117" s="48" t="s">
         <v>391</v>
@@ -26319,7 +26320,7 @@
         <v>445</v>
       </c>
       <c r="E118" s="93" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F118" s="37" t="s">
         <v>172</v>
@@ -26331,7 +26332,7 @@
         <v>340</v>
       </c>
       <c r="I118" s="48" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="J118" s="48" t="s">
         <v>391</v>
@@ -26366,7 +26367,7 @@
         <v>340</v>
       </c>
       <c r="I119" s="48" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="J119" s="48" t="s">
         <v>391</v>
@@ -26508,7 +26509,7 @@
         <v>340</v>
       </c>
       <c r="I123" s="48" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="J123" s="55" t="s">
         <v>457</v>
@@ -26597,16 +26598,16 @@
         <v>364</v>
       </c>
       <c r="C126" s="94" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D126" s="93" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E126" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F126" s="37" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G126" s="93" t="s">
         <v>338</v>
@@ -26615,7 +26616,7 @@
         <v>340</v>
       </c>
       <c r="I126" s="48" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="J126" s="55" t="s">
         <v>457</v>
@@ -26708,10 +26709,10 @@
         <v>206</v>
       </c>
       <c r="D129" s="93" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E129" s="93" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F129" s="37" t="s">
         <v>207</v>
@@ -26723,7 +26724,7 @@
         <v>340</v>
       </c>
       <c r="I129" s="48" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="J129" s="55" t="s">
         <v>457</v>
@@ -26744,7 +26745,7 @@
         <v>208</v>
       </c>
       <c r="D130" s="93" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E130" s="93" t="s">
         <v>40</v>
@@ -26777,16 +26778,16 @@
         <v>444</v>
       </c>
       <c r="C131" s="94" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D131" s="93" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E131" s="93" t="s">
         <v>28</v>
       </c>
       <c r="F131" s="37" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G131" s="93" t="s">
         <v>333</v>
@@ -26795,7 +26796,7 @@
         <v>340</v>
       </c>
       <c r="I131" s="48" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="J131" s="55" t="s">
         <v>457</v>
@@ -26831,7 +26832,7 @@
         <v>340</v>
       </c>
       <c r="I132" s="48" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="J132" s="48" t="s">
         <v>391</v>
@@ -26938,7 +26939,7 @@
         <v>340</v>
       </c>
       <c r="I135" s="48" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="J135" s="48" t="s">
         <v>395</v>
@@ -26973,7 +26974,7 @@
         <v>340</v>
       </c>
       <c r="I136" s="30" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="J136" s="48" t="s">
         <v>395</v>
@@ -26990,7 +26991,7 @@
         <v>364</v>
       </c>
       <c r="C137" s="94" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D137" s="95" t="s">
         <v>475</v>
@@ -26999,7 +27000,7 @@
         <v>55</v>
       </c>
       <c r="F137" s="37" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G137" s="93" t="s">
         <v>386</v>
@@ -27008,7 +27009,7 @@
         <v>340</v>
       </c>
       <c r="I137" s="30" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="J137" s="48" t="s">
         <v>395</v>
@@ -27063,7 +27064,7 @@
         <v>222</v>
       </c>
       <c r="D139" s="95" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E139" s="93" t="s">
         <v>238</v>
@@ -27078,7 +27079,7 @@
         <v>340</v>
       </c>
       <c r="I139" s="48" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J139" s="48" t="s">
         <v>395</v>
@@ -27095,10 +27096,10 @@
         <v>364</v>
       </c>
       <c r="C140" s="94" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D140" s="95" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E140" s="93" t="s">
         <v>55</v>
@@ -27113,7 +27114,7 @@
         <v>340</v>
       </c>
       <c r="I140" s="48" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="J140" s="48" t="s">
         <v>395</v>
@@ -27183,7 +27184,7 @@
         <v>340</v>
       </c>
       <c r="I142" s="48" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="J142" s="48" t="s">
         <v>395</v>
@@ -27200,10 +27201,10 @@
         <v>364</v>
       </c>
       <c r="C143" s="94" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D143" s="93" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E143" s="93" t="s">
         <v>55</v>
@@ -27218,7 +27219,7 @@
         <v>340</v>
       </c>
       <c r="I143" s="48" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="J143" s="48" t="s">
         <v>395</v>
@@ -27288,7 +27289,7 @@
         <v>340</v>
       </c>
       <c r="I145" s="48" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="J145" s="48" t="s">
         <v>395</v>
@@ -27305,10 +27306,10 @@
         <v>364</v>
       </c>
       <c r="C146" s="94" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D146" s="93" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E146" s="93" t="s">
         <v>55</v>
@@ -27323,7 +27324,7 @@
         <v>340</v>
       </c>
       <c r="I146" s="48" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="J146" s="48" t="s">
         <v>395</v>
@@ -27393,7 +27394,7 @@
         <v>340</v>
       </c>
       <c r="I148" s="30" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="J148" s="48" t="s">
         <v>395</v>
@@ -27481,10 +27482,10 @@
         <v>364</v>
       </c>
       <c r="C151" s="94" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D151" s="42" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E151" s="93" t="s">
         <v>55</v>
@@ -27499,7 +27500,7 @@
         <v>340</v>
       </c>
       <c r="I151" s="97" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="J151" s="48" t="s">
         <v>395</v>
@@ -27516,10 +27517,10 @@
         <v>364</v>
       </c>
       <c r="C152" s="94" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D152" s="42" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E152" s="93" t="s">
         <v>55</v>
@@ -27534,7 +27535,7 @@
         <v>340</v>
       </c>
       <c r="I152" s="30" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J152" s="48" t="s">
         <v>395</v>
@@ -27557,7 +27558,7 @@
         <v>498</v>
       </c>
       <c r="E153" s="93" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F153" s="37" t="s">
         <v>247</v>
@@ -27569,7 +27570,7 @@
         <v>340</v>
       </c>
       <c r="I153" s="48" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="J153" s="48" t="s">
         <v>391</v>
@@ -27691,16 +27692,16 @@
         <v>444</v>
       </c>
       <c r="C157" s="94" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D157" s="43" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E157" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F157" s="37" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G157" s="93" t="s">
         <v>333</v>
@@ -27709,13 +27710,13 @@
         <v>340</v>
       </c>
       <c r="I157" s="48" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="J157" s="48" t="s">
         <v>391</v>
       </c>
       <c r="K157" s="55" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.45">
@@ -27723,13 +27724,13 @@
         <v>82</v>
       </c>
       <c r="B158" s="53" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C158" s="94" t="s">
+        <v>776</v>
+      </c>
+      <c r="D158" s="43" t="s">
         <v>778</v>
-      </c>
-      <c r="D158" s="43" t="s">
-        <v>780</v>
       </c>
       <c r="E158" s="93" t="s">
         <v>55</v>
@@ -27744,10 +27745,10 @@
         <v>340</v>
       </c>
       <c r="I158" s="48" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="J158" s="48" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="K158" s="55" t="s">
         <v>92</v>
@@ -27758,13 +27759,13 @@
         <v>83</v>
       </c>
       <c r="B159" s="53" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C159" s="94" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D159" s="43" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E159" s="93" t="s">
         <v>55</v>
@@ -27779,10 +27780,10 @@
         <v>340</v>
       </c>
       <c r="I159" s="48" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="J159" s="48" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="K159" s="55" t="s">
         <v>92</v>
@@ -27796,16 +27797,16 @@
         <v>444</v>
       </c>
       <c r="C160" s="94" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D160" s="43" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E160" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F160" s="37" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="G160" s="93" t="s">
         <v>338</v>
@@ -27814,7 +27815,7 @@
         <v>340</v>
       </c>
       <c r="I160" s="26" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="J160" s="48" t="s">
         <v>391</v>
@@ -27831,16 +27832,16 @@
         <v>430</v>
       </c>
       <c r="C161" s="94" t="s">
+        <v>799</v>
+      </c>
+      <c r="D161" s="43" t="s">
         <v>801</v>
-      </c>
-      <c r="D161" s="43" t="s">
-        <v>803</v>
       </c>
       <c r="E161" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F161" s="37" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G161" s="93" t="s">
         <v>338</v>
@@ -27849,7 +27850,7 @@
         <v>340</v>
       </c>
       <c r="I161" s="26" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="J161" s="48" t="s">
         <v>391</v>
@@ -27866,16 +27867,16 @@
         <v>441</v>
       </c>
       <c r="C162" s="94" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D162" s="43" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E162" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F162" s="37" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="G162" s="93" t="s">
         <v>338</v>
@@ -27884,7 +27885,7 @@
         <v>340</v>
       </c>
       <c r="I162" s="26" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="J162" s="48" t="s">
         <v>391</v>
@@ -27901,16 +27902,16 @@
         <v>364</v>
       </c>
       <c r="C163" s="94" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D163" s="43" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E163" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F163" s="37" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G163" s="93" t="s">
         <v>333</v>
@@ -27919,7 +27920,7 @@
         <v>340</v>
       </c>
       <c r="I163" s="30" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="J163" s="48" t="s">
         <v>395</v>
@@ -27936,16 +27937,16 @@
         <v>364</v>
       </c>
       <c r="C164" s="94" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D164" s="43" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E164" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F164" s="37" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G164" s="93" t="s">
         <v>333</v>
@@ -27954,7 +27955,7 @@
         <v>340</v>
       </c>
       <c r="I164" s="30" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="J164" s="48" t="s">
         <v>395</v>
@@ -27971,16 +27972,16 @@
         <v>364</v>
       </c>
       <c r="C165" s="94" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D165" s="43" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E165" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F165" s="37" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G165" s="93" t="s">
         <v>333</v>
@@ -27989,7 +27990,7 @@
         <v>340</v>
       </c>
       <c r="I165" s="30" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J165" s="48" t="s">
         <v>395</v>
@@ -28006,16 +28007,16 @@
         <v>364</v>
       </c>
       <c r="C166" s="94" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D166" s="93" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E166" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F166" s="37" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G166" s="93" t="s">
         <v>333</v>
@@ -28024,7 +28025,7 @@
         <v>340</v>
       </c>
       <c r="I166" s="30" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="J166" s="48" t="s">
         <v>395</v>
@@ -28038,19 +28039,19 @@
         <v>91</v>
       </c>
       <c r="B167" s="53" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C167" s="94" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D167" s="93" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E167" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F167" s="37" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G167" s="93" t="s">
         <v>338</v>
@@ -28059,13 +28060,13 @@
         <v>340</v>
       </c>
       <c r="I167" s="30" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="J167" s="48" t="s">
         <v>391</v>
       </c>
       <c r="K167" s="48" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="168" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -28345,7 +28346,7 @@
         <v>536</v>
       </c>
       <c r="G186" s="55" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="H186" s="55"/>
       <c r="I186" s="55"/>
@@ -28354,13 +28355,13 @@
     <row r="187" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B187" s="53"/>
       <c r="C187" s="31" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D187" s="43" t="s">
         <v>514</v>
       </c>
       <c r="E187" s="55" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F187" s="55"/>
       <c r="G187" s="55"/>
@@ -28371,13 +28372,13 @@
     <row r="188" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B188" s="53"/>
       <c r="C188" s="31" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D188" s="43" t="s">
         <v>514</v>
       </c>
       <c r="E188" s="55" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F188" s="55"/>
       <c r="G188" s="55"/>
@@ -28388,14 +28389,14 @@
     <row r="189" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B189" s="53"/>
       <c r="C189" s="31" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D189" s="43" t="s">
         <v>513</v>
       </c>
       <c r="E189" s="55"/>
       <c r="F189" s="55" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G189" s="55"/>
       <c r="H189" s="55"/>
@@ -28405,14 +28406,14 @@
     <row r="190" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B190" s="53"/>
       <c r="C190" s="31" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D190" s="43" t="s">
         <v>513</v>
       </c>
       <c r="E190" s="55"/>
       <c r="F190" s="55" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="G190" s="55"/>
       <c r="H190" s="55"/>
@@ -28422,7 +28423,7 @@
     <row r="191" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B191" s="53"/>
       <c r="C191" s="31" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D191" s="43" t="s">
         <v>513</v>
@@ -28437,7 +28438,7 @@
     <row r="192" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B192" s="53"/>
       <c r="C192" s="31" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D192" s="43" t="s">
         <v>513</v>
@@ -28452,7 +28453,7 @@
     <row r="193" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B193" s="53"/>
       <c r="C193" s="31" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D193" s="43" t="s">
         <v>513</v>
@@ -39313,7 +39314,7 @@
   <dimension ref="A2:Q210"/>
   <sheetViews>
     <sheetView topLeftCell="A69" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+      <selection activeCell="C112" sqref="C112:I114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -39379,7 +39380,7 @@
         <v>259</v>
       </c>
       <c r="D6" s="95" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.45">
@@ -39736,7 +39737,7 @@
         <v>302</v>
       </c>
       <c r="G27" s="93" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="H27" s="34" t="s">
         <v>81</v>
@@ -39759,7 +39760,7 @@
         <v>85</v>
       </c>
       <c r="G28" s="93" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="H28" s="34" t="s">
         <v>88</v>
@@ -39782,7 +39783,7 @@
         <v>307</v>
       </c>
       <c r="G29" s="93" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="H29" s="34" t="s">
         <v>95</v>
@@ -39865,7 +39866,7 @@
         <v>117</v>
       </c>
       <c r="D33" s="93" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E33" s="93" t="s">
         <v>87</v>
@@ -39874,7 +39875,7 @@
         <v>316</v>
       </c>
       <c r="G33" s="93" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="H33" s="34" t="s">
         <v>119</v>
@@ -39989,7 +39990,7 @@
         <v>326</v>
       </c>
       <c r="G38" s="93" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H38" s="34" t="s">
         <v>146</v>
@@ -40207,94 +40208,94 @@
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C48" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D48" s="93" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E48" s="93" t="s">
         <v>87</v>
       </c>
       <c r="F48" s="93" t="s">
+        <v>685</v>
+      </c>
+      <c r="G48" s="93" t="s">
+        <v>736</v>
+      </c>
+      <c r="H48" s="34" t="s">
+        <v>686</v>
+      </c>
+      <c r="I48" s="93" t="s">
         <v>687</v>
-      </c>
-      <c r="G48" s="93" t="s">
-        <v>738</v>
-      </c>
-      <c r="H48" s="34" t="s">
-        <v>688</v>
-      </c>
-      <c r="I48" s="93" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C49" s="33" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D49" s="93" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E49" s="93" t="s">
         <v>87</v>
       </c>
       <c r="F49" s="93" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G49" s="93" t="s">
         <v>285</v>
       </c>
       <c r="H49" s="34" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="I49" s="93" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C50" s="33" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D50" s="93" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E50" s="93" t="s">
         <v>87</v>
       </c>
       <c r="F50" s="93" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G50" s="93" t="s">
         <v>285</v>
       </c>
       <c r="H50" s="34" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="I50" s="93" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C51" s="33" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D51" s="93" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E51" s="93" t="s">
         <v>162</v>
       </c>
       <c r="F51" s="93" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G51" s="93" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="H51" s="34" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="I51" s="93" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.45">
@@ -40638,7 +40639,7 @@
         <v>340</v>
       </c>
       <c r="I77" s="48" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="J77" t="s">
         <v>391</v>
@@ -40673,7 +40674,7 @@
         <v>340</v>
       </c>
       <c r="I78" s="48" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="J78" t="s">
         <v>391</v>
@@ -40761,16 +40762,16 @@
         <v>364</v>
       </c>
       <c r="C81" s="94" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D81" s="93" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E81" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F81" s="37" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G81" s="93" t="s">
         <v>410</v>
@@ -40779,7 +40780,7 @@
         <v>340</v>
       </c>
       <c r="I81" s="30" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="J81" s="48" t="s">
         <v>395</v>
@@ -40795,16 +40796,16 @@
         <v>364</v>
       </c>
       <c r="C82" s="94" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D82" s="93" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E82" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F82" s="37" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G82" s="93" t="s">
         <v>410</v>
@@ -40813,7 +40814,7 @@
         <v>340</v>
       </c>
       <c r="I82" s="30" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="J82" s="48" t="s">
         <v>395</v>
@@ -40829,16 +40830,16 @@
         <v>364</v>
       </c>
       <c r="C83" s="94" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D83" s="93" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E83" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F83" s="37" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="G83" s="93" t="s">
         <v>338</v>
@@ -40847,7 +40848,7 @@
         <v>340</v>
       </c>
       <c r="I83" s="30" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="J83" s="48" t="s">
         <v>395</v>
@@ -40863,13 +40864,13 @@
         <v>364</v>
       </c>
       <c r="C84" s="94" t="s">
+        <v>803</v>
+      </c>
+      <c r="D84" s="93" t="s">
         <v>805</v>
       </c>
-      <c r="D84" s="93" t="s">
-        <v>807</v>
-      </c>
       <c r="E84" s="93" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F84" s="37" t="s">
         <v>41</v>
@@ -40881,7 +40882,7 @@
         <v>340</v>
       </c>
       <c r="I84" s="30" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="J84" s="48" t="s">
         <v>395</v>
@@ -40917,7 +40918,7 @@
         <v>340</v>
       </c>
       <c r="I85" s="30" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="J85" t="s">
         <v>388</v>
@@ -41057,7 +41058,7 @@
         <v>340</v>
       </c>
       <c r="I89" s="50" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="J89" s="50" t="s">
         <v>388</v>
@@ -41096,7 +41097,7 @@
         <v>340</v>
       </c>
       <c r="I90" s="48" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="J90" s="50" t="s">
         <v>388</v>
@@ -41209,7 +41210,7 @@
         <v>340</v>
       </c>
       <c r="I93" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J93" t="s">
         <v>391</v>
@@ -41350,7 +41351,7 @@
         <v>340</v>
       </c>
       <c r="I97" s="48" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="J97" t="s">
         <v>391</v>
@@ -41402,10 +41403,10 @@
         <v>364</v>
       </c>
       <c r="C99" s="94" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D99" s="93" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E99" s="93" t="s">
         <v>55</v>
@@ -41420,7 +41421,7 @@
         <v>340</v>
       </c>
       <c r="I99" s="48" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="J99" s="48" t="s">
         <v>391</v>
@@ -41437,10 +41438,10 @@
         <v>364</v>
       </c>
       <c r="C100" s="94" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D100" s="93" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E100" s="93" t="s">
         <v>55</v>
@@ -41455,7 +41456,7 @@
         <v>340</v>
       </c>
       <c r="I100" s="48" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="J100" s="48" t="s">
         <v>391</v>
@@ -41472,16 +41473,16 @@
         <v>364</v>
       </c>
       <c r="C101" s="94" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D101" s="93" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E101" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F101" s="37" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="G101" s="93" t="s">
         <v>333</v>
@@ -41490,7 +41491,7 @@
         <v>340</v>
       </c>
       <c r="I101" s="48" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="J101" s="48" t="s">
         <v>391</v>
@@ -41564,7 +41565,7 @@
         <v>340</v>
       </c>
       <c r="I103" s="50" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="J103" s="50" t="s">
         <v>391</v>
@@ -41624,16 +41625,16 @@
         <v>364</v>
       </c>
       <c r="C105" s="94" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D105" s="98" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E105" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F105" s="41" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="G105" s="93" t="s">
         <v>338</v>
@@ -41642,7 +41643,7 @@
         <v>340</v>
       </c>
       <c r="I105" s="48" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="J105" s="50" t="s">
         <v>391</v>
@@ -41663,16 +41664,16 @@
         <v>364</v>
       </c>
       <c r="C106" s="94" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D106" s="98" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E106" s="93" t="s">
         <v>28</v>
       </c>
       <c r="F106" s="41" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="G106" s="93" t="s">
         <v>338</v>
@@ -41681,7 +41682,7 @@
         <v>340</v>
       </c>
       <c r="I106" s="48" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="J106" s="50" t="s">
         <v>391</v>
@@ -41700,16 +41701,16 @@
         <v>364</v>
       </c>
       <c r="C107" s="94" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D107" s="98" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E107" s="93" t="s">
         <v>28</v>
       </c>
       <c r="F107" s="41" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G107" s="93" t="s">
         <v>333</v>
@@ -41718,7 +41719,7 @@
         <v>340</v>
       </c>
       <c r="I107" s="26" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="J107" s="50" t="s">
         <v>391</v>
@@ -41755,7 +41756,7 @@
         <v>340</v>
       </c>
       <c r="I108" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="J108" t="s">
         <v>391</v>
@@ -41790,7 +41791,7 @@
         <v>340</v>
       </c>
       <c r="I109" s="48" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="J109" t="s">
         <v>391</v>
@@ -41886,7 +41887,7 @@
         <v>431</v>
       </c>
       <c r="E112" s="93" t="s">
-        <v>595</v>
+        <v>806</v>
       </c>
       <c r="F112" s="39" t="s">
         <v>137</v>
@@ -41897,8 +41898,8 @@
       <c r="H112" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I112" s="96" t="s">
-        <v>596</v>
+      <c r="I112" s="50" t="s">
+        <v>807</v>
       </c>
       <c r="J112" t="s">
         <v>395</v>
@@ -41921,7 +41922,7 @@
         <v>433</v>
       </c>
       <c r="E113" s="93" t="s">
-        <v>97</v>
+        <v>595</v>
       </c>
       <c r="F113" s="37" t="s">
         <v>143</v>
@@ -41932,8 +41933,8 @@
       <c r="H113" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I113" t="s">
-        <v>434</v>
+      <c r="I113" s="50" t="s">
+        <v>808</v>
       </c>
       <c r="J113" t="s">
         <v>395</v>
@@ -41956,7 +41957,7 @@
         <v>435</v>
       </c>
       <c r="E114" s="93" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F114" s="37" t="s">
         <v>148</v>
@@ -41967,8 +41968,8 @@
       <c r="H114" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I114" t="s">
-        <v>597</v>
+      <c r="I114" s="50" t="s">
+        <v>809</v>
       </c>
       <c r="J114" t="s">
         <v>395</v>
@@ -42073,7 +42074,7 @@
         <v>340</v>
       </c>
       <c r="I117" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="J117" t="s">
         <v>391</v>
@@ -42096,7 +42097,7 @@
         <v>445</v>
       </c>
       <c r="E118" s="93" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F118" s="37" t="s">
         <v>172</v>
@@ -42108,7 +42109,7 @@
         <v>340</v>
       </c>
       <c r="I118" s="48" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="J118" t="s">
         <v>391</v>
@@ -42143,7 +42144,7 @@
         <v>340</v>
       </c>
       <c r="I119" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="J119" t="s">
         <v>391</v>
@@ -42285,7 +42286,7 @@
         <v>340</v>
       </c>
       <c r="I123" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="J123" s="55" t="s">
         <v>457</v>
@@ -42374,16 +42375,16 @@
         <v>364</v>
       </c>
       <c r="C126" s="94" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D126" s="93" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E126" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F126" s="37" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G126" s="93" t="s">
         <v>338</v>
@@ -42392,7 +42393,7 @@
         <v>340</v>
       </c>
       <c r="I126" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="J126" s="55" t="s">
         <v>457</v>
@@ -42485,10 +42486,10 @@
         <v>206</v>
       </c>
       <c r="D129" s="93" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E129" s="93" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F129" s="37" t="s">
         <v>207</v>
@@ -42500,7 +42501,7 @@
         <v>340</v>
       </c>
       <c r="I129" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="J129" s="55" t="s">
         <v>457</v>
@@ -42521,7 +42522,7 @@
         <v>208</v>
       </c>
       <c r="D130" s="93" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E130" s="93" t="s">
         <v>40</v>
@@ -42554,16 +42555,16 @@
         <v>444</v>
       </c>
       <c r="C131" s="94" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D131" s="93" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E131" s="93" t="s">
         <v>28</v>
       </c>
       <c r="F131" s="37" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G131" s="93" t="s">
         <v>333</v>
@@ -42572,7 +42573,7 @@
         <v>340</v>
       </c>
       <c r="I131" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="J131" s="55" t="s">
         <v>457</v>
@@ -42608,7 +42609,7 @@
         <v>340</v>
       </c>
       <c r="I132" s="48" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="J132" t="s">
         <v>391</v>
@@ -42715,7 +42716,7 @@
         <v>340</v>
       </c>
       <c r="I135" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="J135" t="s">
         <v>395</v>
@@ -42750,7 +42751,7 @@
         <v>340</v>
       </c>
       <c r="I136" s="30" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="J136" t="s">
         <v>395</v>
@@ -42767,7 +42768,7 @@
         <v>364</v>
       </c>
       <c r="C137" s="94" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D137" s="95" t="s">
         <v>475</v>
@@ -42776,7 +42777,7 @@
         <v>55</v>
       </c>
       <c r="F137" s="37" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G137" s="93" t="s">
         <v>386</v>
@@ -42785,7 +42786,7 @@
         <v>340</v>
       </c>
       <c r="I137" s="30" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="J137" t="s">
         <v>395</v>
@@ -42840,7 +42841,7 @@
         <v>222</v>
       </c>
       <c r="D139" s="95" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E139" s="93" t="s">
         <v>238</v>
@@ -42855,7 +42856,7 @@
         <v>340</v>
       </c>
       <c r="I139" s="48" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J139" t="s">
         <v>395</v>
@@ -42872,10 +42873,10 @@
         <v>364</v>
       </c>
       <c r="C140" s="94" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D140" s="95" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E140" s="93" t="s">
         <v>55</v>
@@ -42890,7 +42891,7 @@
         <v>340</v>
       </c>
       <c r="I140" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="J140" t="s">
         <v>395</v>
@@ -42960,7 +42961,7 @@
         <v>340</v>
       </c>
       <c r="I142" s="48" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="J142" t="s">
         <v>395</v>
@@ -42977,10 +42978,10 @@
         <v>364</v>
       </c>
       <c r="C143" s="94" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D143" s="93" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E143" s="93" t="s">
         <v>55</v>
@@ -42995,7 +42996,7 @@
         <v>340</v>
       </c>
       <c r="I143" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="J143" t="s">
         <v>395</v>
@@ -43065,7 +43066,7 @@
         <v>340</v>
       </c>
       <c r="I145" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="J145" t="s">
         <v>395</v>
@@ -43082,10 +43083,10 @@
         <v>364</v>
       </c>
       <c r="C146" s="94" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D146" s="93" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E146" s="93" t="s">
         <v>55</v>
@@ -43100,7 +43101,7 @@
         <v>340</v>
       </c>
       <c r="I146" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="J146" t="s">
         <v>395</v>
@@ -43170,7 +43171,7 @@
         <v>340</v>
       </c>
       <c r="I148" s="30" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="J148" t="s">
         <v>395</v>
@@ -43258,10 +43259,10 @@
         <v>364</v>
       </c>
       <c r="C151" s="94" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D151" s="42" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E151" s="93" t="s">
         <v>55</v>
@@ -43276,7 +43277,7 @@
         <v>340</v>
       </c>
       <c r="I151" s="97" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="J151" t="s">
         <v>395</v>
@@ -43293,10 +43294,10 @@
         <v>364</v>
       </c>
       <c r="C152" s="94" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D152" s="42" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E152" s="93" t="s">
         <v>55</v>
@@ -43311,7 +43312,7 @@
         <v>340</v>
       </c>
       <c r="I152" s="30" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J152" t="s">
         <v>395</v>
@@ -43334,7 +43335,7 @@
         <v>498</v>
       </c>
       <c r="E153" s="93" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F153" s="37" t="s">
         <v>247</v>
@@ -43346,7 +43347,7 @@
         <v>340</v>
       </c>
       <c r="I153" s="48" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="J153" t="s">
         <v>391</v>
@@ -43468,16 +43469,16 @@
         <v>444</v>
       </c>
       <c r="C157" s="94" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D157" s="43" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E157" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F157" s="37" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G157" s="93" t="s">
         <v>333</v>
@@ -43486,13 +43487,13 @@
         <v>340</v>
       </c>
       <c r="I157" s="48" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="J157" s="48" t="s">
         <v>391</v>
       </c>
       <c r="K157" s="55" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.45">
@@ -43500,13 +43501,13 @@
         <v>82</v>
       </c>
       <c r="B158" s="53" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C158" s="94" t="s">
+        <v>776</v>
+      </c>
+      <c r="D158" s="43" t="s">
         <v>778</v>
-      </c>
-      <c r="D158" s="43" t="s">
-        <v>780</v>
       </c>
       <c r="E158" s="93" t="s">
         <v>55</v>
@@ -43521,10 +43522,10 @@
         <v>340</v>
       </c>
       <c r="I158" s="48" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="J158" s="48" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="K158" s="55" t="s">
         <v>92</v>
@@ -43535,13 +43536,13 @@
         <v>83</v>
       </c>
       <c r="B159" s="53" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C159" s="94" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D159" s="43" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E159" s="93" t="s">
         <v>55</v>
@@ -43556,10 +43557,10 @@
         <v>340</v>
       </c>
       <c r="I159" s="48" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="J159" s="48" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="K159" s="55" t="s">
         <v>92</v>
@@ -43573,16 +43574,16 @@
         <v>444</v>
       </c>
       <c r="C160" s="94" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D160" s="43" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E160" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F160" s="37" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="G160" s="93" t="s">
         <v>338</v>
@@ -43591,7 +43592,7 @@
         <v>340</v>
       </c>
       <c r="I160" s="26" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="J160" s="48" t="s">
         <v>391</v>
@@ -43608,16 +43609,16 @@
         <v>430</v>
       </c>
       <c r="C161" s="94" t="s">
+        <v>799</v>
+      </c>
+      <c r="D161" s="43" t="s">
         <v>801</v>
-      </c>
-      <c r="D161" s="43" t="s">
-        <v>803</v>
       </c>
       <c r="E161" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F161" s="37" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G161" s="93" t="s">
         <v>338</v>
@@ -43626,7 +43627,7 @@
         <v>340</v>
       </c>
       <c r="I161" s="26" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="J161" s="48" t="s">
         <v>391</v>
@@ -43643,16 +43644,16 @@
         <v>441</v>
       </c>
       <c r="C162" s="94" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D162" s="43" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E162" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F162" s="37" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="G162" s="93" t="s">
         <v>338</v>
@@ -43661,7 +43662,7 @@
         <v>340</v>
       </c>
       <c r="I162" s="26" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="J162" s="48" t="s">
         <v>391</v>
@@ -43678,16 +43679,16 @@
         <v>364</v>
       </c>
       <c r="C163" s="94" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D163" s="43" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E163" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F163" s="37" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G163" s="93" t="s">
         <v>333</v>
@@ -43696,7 +43697,7 @@
         <v>340</v>
       </c>
       <c r="I163" s="30" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="J163" s="48" t="s">
         <v>395</v>
@@ -43713,16 +43714,16 @@
         <v>364</v>
       </c>
       <c r="C164" s="94" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D164" s="43" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E164" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F164" s="37" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G164" s="93" t="s">
         <v>333</v>
@@ -43731,7 +43732,7 @@
         <v>340</v>
       </c>
       <c r="I164" s="30" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="J164" s="48" t="s">
         <v>395</v>
@@ -43748,16 +43749,16 @@
         <v>364</v>
       </c>
       <c r="C165" s="94" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D165" s="43" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E165" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F165" s="37" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G165" s="93" t="s">
         <v>333</v>
@@ -43766,7 +43767,7 @@
         <v>340</v>
       </c>
       <c r="I165" s="30" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J165" s="48" t="s">
         <v>395</v>
@@ -43783,16 +43784,16 @@
         <v>364</v>
       </c>
       <c r="C166" s="94" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D166" s="93" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E166" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F166" s="37" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G166" s="93" t="s">
         <v>333</v>
@@ -43801,7 +43802,7 @@
         <v>340</v>
       </c>
       <c r="I166" s="30" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="J166" s="48" t="s">
         <v>395</v>
@@ -43815,19 +43816,19 @@
         <v>91</v>
       </c>
       <c r="B167" s="53" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C167" s="94" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D167" s="93" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E167" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F167" s="37" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G167" s="93" t="s">
         <v>338</v>
@@ -43836,13 +43837,13 @@
         <v>340</v>
       </c>
       <c r="I167" s="30" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="J167" s="48" t="s">
         <v>391</v>
       </c>
       <c r="K167" s="48" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="168" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -44113,7 +44114,7 @@
         <v>534</v>
       </c>
       <c r="D186" s="43" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E186" s="55" t="s">
         <v>535</v>
@@ -44122,7 +44123,7 @@
         <v>536</v>
       </c>
       <c r="G186" s="55" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="H186" s="55"/>
       <c r="I186" s="55"/>
@@ -44131,13 +44132,13 @@
     <row r="187" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B187" s="53"/>
       <c r="C187" s="31" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D187" s="43" t="s">
         <v>514</v>
       </c>
       <c r="E187" s="55" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F187" s="55"/>
       <c r="G187" s="55"/>
@@ -44148,13 +44149,13 @@
     <row r="188" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B188" s="53"/>
       <c r="C188" s="31" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D188" s="43" t="s">
         <v>514</v>
       </c>
       <c r="E188" s="55" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F188" s="55"/>
       <c r="G188" s="55"/>
@@ -44165,14 +44166,14 @@
     <row r="189" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B189" s="53"/>
       <c r="C189" s="31" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D189" s="43" t="s">
         <v>513</v>
       </c>
       <c r="E189" s="55"/>
       <c r="F189" s="55" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G189" s="55"/>
       <c r="H189" s="55"/>
@@ -44182,14 +44183,14 @@
     <row r="190" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B190" s="53"/>
       <c r="C190" s="31" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D190" s="43" t="s">
         <v>513</v>
       </c>
       <c r="E190" s="55"/>
       <c r="F190" s="55" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="G190" s="55"/>
       <c r="H190" s="55"/>
@@ -44199,7 +44200,7 @@
     <row r="191" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B191" s="53"/>
       <c r="C191" s="31" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D191" s="43" t="s">
         <v>513</v>
@@ -44214,7 +44215,7 @@
     <row r="192" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B192" s="53"/>
       <c r="C192" s="31" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D192" s="43" t="s">
         <v>513</v>
@@ -44229,7 +44230,7 @@
     <row r="193" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B193" s="53"/>
       <c r="C193" s="31" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D193" s="43" t="s">
         <v>513</v>
@@ -44425,7 +44426,7 @@
         <v>256</v>
       </c>
       <c r="D4" s="95" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.45">
@@ -44433,7 +44434,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="95" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.45">
@@ -44449,7 +44450,7 @@
         <v>261</v>
       </c>
       <c r="D7" s="93" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E7" t="s">
         <v>263</v>
@@ -44659,7 +44660,7 @@
         <v>287</v>
       </c>
       <c r="G21" s="93" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H21" s="34" t="s">
         <v>47</v>
@@ -48003,7 +48004,7 @@
         <v>256</v>
       </c>
       <c r="D4" s="95" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.45">
@@ -48011,7 +48012,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="95" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.45">
@@ -48027,7 +48028,7 @@
         <v>261</v>
       </c>
       <c r="D7" s="93" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E7" t="s">
         <v>263</v>
@@ -48237,7 +48238,7 @@
         <v>287</v>
       </c>
       <c r="G21" s="93" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="H21" s="34" t="s">
         <v>47</v>

--- a/RECC_Config_V2_4.xlsx
+++ b/RECC_Config_V2_4.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12491" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12529" uniqueCount="823">
   <si>
     <t>User Name</t>
   </si>
@@ -1837,9 +1837,6 @@
     <t>Nr</t>
   </si>
   <si>
-    <t>66af0258-485c-435d-9a46-6bf3cca6108b</t>
-  </si>
-  <si>
     <t>RE strategy: EoL product re-use res. buildings</t>
   </si>
   <si>
@@ -1861,9 +1858,6 @@
     <t>mNo</t>
   </si>
   <si>
-    <t>0061dfc2-c7bd-4635-bd5d-7d617ee2dfd6</t>
-  </si>
-  <si>
     <t>85d6a252-9914-4795-9537-86beb5fec27e</t>
   </si>
   <si>
@@ -2278,9 +2272,6 @@
     <t>Global</t>
   </si>
   <si>
-    <t>[33,40,41,42,43,44]</t>
-  </si>
-  <si>
     <t>f0fa7739-8618-48a3-95df-4570b2341c62</t>
   </si>
   <si>
@@ -2462,6 +2453,54 @@
   </si>
   <si>
     <t>3e3e00b2-1b18-459f-87e1-014aeb1850d4</t>
+  </si>
+  <si>
+    <t>5ccb9a9e-55c0-4762-9312-b0403c0ef205</t>
+  </si>
+  <si>
+    <t>6bb4684b-ca95-4589-9059-995e49726b63</t>
+  </si>
+  <si>
+    <t>RE strategy: useful product lifetime extension, appliances</t>
+  </si>
+  <si>
+    <t>RE strategy: useful product lifetime extension, industry</t>
+  </si>
+  <si>
+    <t>6_PR_LifeTimeExtension_appliances</t>
+  </si>
+  <si>
+    <t>6_PR_LifeTimeExtension_industry</t>
+  </si>
+  <si>
+    <t>916ff437-cf29-4e15-8982-7067e197a761</t>
+  </si>
+  <si>
+    <t>d20eeb34-598e-43d2-af84-16d81980c8e3</t>
+  </si>
+  <si>
+    <t>aoS</t>
+  </si>
+  <si>
+    <t>IlS</t>
+  </si>
+  <si>
+    <t>b182136d-2ce8-43e6-a975-f36f8546f725</t>
+  </si>
+  <si>
+    <t>V3.4</t>
+  </si>
+  <si>
+    <t>974c89b9-e9c5-43ca-bd30-09b87fcac111</t>
+  </si>
+  <si>
+    <t>PXotRS</t>
+  </si>
+  <si>
+    <t>PntoR</t>
+  </si>
+  <si>
+    <t>[2,13,31,32,33,34,37,35,36,38,39,9,4,12,40,41,42,43,44]</t>
   </si>
 </sst>
 </file>
@@ -3303,7 +3342,7 @@
   <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3343,7 +3382,7 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="45" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="G4" s="23"/>
     </row>
@@ -4107,7 +4146,7 @@
         <v>256</v>
       </c>
       <c r="D4" s="95" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.45">
@@ -4115,7 +4154,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="95" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.45">
@@ -4131,7 +4170,7 @@
         <v>261</v>
       </c>
       <c r="D7" s="93" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E7" t="s">
         <v>263</v>
@@ -4341,7 +4380,7 @@
         <v>287</v>
       </c>
       <c r="G21" s="93" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="H21" s="34" t="s">
         <v>47</v>
@@ -7685,7 +7724,7 @@
         <v>256</v>
       </c>
       <c r="D4" s="95" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.45">
@@ -7693,7 +7732,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="95" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.45">
@@ -7709,7 +7748,7 @@
         <v>261</v>
       </c>
       <c r="D7" s="93" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E7" t="s">
         <v>263</v>
@@ -7919,7 +7958,7 @@
         <v>287</v>
       </c>
       <c r="G21" s="93" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="H21" s="34" t="s">
         <v>47</v>
@@ -11263,7 +11302,7 @@
         <v>256</v>
       </c>
       <c r="D4" s="95" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.45">
@@ -11271,7 +11310,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="95" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.45">
@@ -11287,7 +11326,7 @@
         <v>261</v>
       </c>
       <c r="D7" s="93" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E7" t="s">
         <v>263</v>
@@ -11497,7 +11536,7 @@
         <v>287</v>
       </c>
       <c r="G21" s="93" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="H21" s="34" t="s">
         <v>47</v>
@@ -14841,7 +14880,7 @@
         <v>256</v>
       </c>
       <c r="D4" s="95" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.45">
@@ -14849,7 +14888,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="95" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.45">
@@ -14865,7 +14904,7 @@
         <v>261</v>
       </c>
       <c r="D7" s="93" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E7" t="s">
         <v>263</v>
@@ -15075,7 +15114,7 @@
         <v>287</v>
       </c>
       <c r="G21" s="93" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H21" s="34" t="s">
         <v>47</v>
@@ -18368,7 +18407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q163"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
@@ -18419,7 +18458,7 @@
         <v>256</v>
       </c>
       <c r="D4" s="95" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.45">
@@ -18427,7 +18466,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="95" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.45">
@@ -18443,7 +18482,7 @@
         <v>261</v>
       </c>
       <c r="D7" s="93" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E7" t="s">
         <v>263</v>
@@ -18653,7 +18692,7 @@
         <v>287</v>
       </c>
       <c r="G21" s="93" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H21" s="34" t="s">
         <v>47</v>
@@ -23539,10 +23578,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q210"/>
+  <dimension ref="A2:Q212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G192" sqref="G192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -23593,7 +23632,7 @@
         <v>256</v>
       </c>
       <c r="D4" s="95" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.45">
@@ -23601,7 +23640,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="95" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.45">
@@ -23609,7 +23648,7 @@
         <v>259</v>
       </c>
       <c r="D6" s="95" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.45">
@@ -23617,7 +23656,7 @@
         <v>261</v>
       </c>
       <c r="D7" s="93" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E7" s="48" t="s">
         <v>263</v>
@@ -23680,6 +23719,9 @@
       <c r="J13" s="55"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B14" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.45">
@@ -23827,7 +23869,7 @@
         <v>287</v>
       </c>
       <c r="G21" s="93" t="s">
-        <v>748</v>
+        <v>822</v>
       </c>
       <c r="H21" s="34" t="s">
         <v>47</v>
@@ -23966,7 +24008,7 @@
         <v>302</v>
       </c>
       <c r="G27" s="93" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="H27" s="34" t="s">
         <v>81</v>
@@ -23989,7 +24031,7 @@
         <v>85</v>
       </c>
       <c r="G28" s="93" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="H28" s="34" t="s">
         <v>88</v>
@@ -24012,7 +24054,7 @@
         <v>307</v>
       </c>
       <c r="G29" s="93" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="H29" s="34" t="s">
         <v>95</v>
@@ -24095,7 +24137,7 @@
         <v>117</v>
       </c>
       <c r="D33" s="93" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E33" s="93" t="s">
         <v>87</v>
@@ -24104,7 +24146,7 @@
         <v>316</v>
       </c>
       <c r="G33" s="93" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="H33" s="34" t="s">
         <v>119</v>
@@ -24219,7 +24261,7 @@
         <v>326</v>
       </c>
       <c r="G38" s="93" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="H38" s="34" t="s">
         <v>146</v>
@@ -24288,7 +24330,7 @@
         <v>334</v>
       </c>
       <c r="G41" s="93" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="H41" s="34" t="s">
         <v>164</v>
@@ -24437,94 +24479,94 @@
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C48" s="33" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D48" s="93" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E48" s="93" t="s">
         <v>87</v>
       </c>
       <c r="F48" s="93" t="s">
+        <v>683</v>
+      </c>
+      <c r="G48" s="93" t="s">
+        <v>734</v>
+      </c>
+      <c r="H48" s="34" t="s">
+        <v>684</v>
+      </c>
+      <c r="I48" s="93" t="s">
         <v>685</v>
-      </c>
-      <c r="G48" s="93" t="s">
-        <v>736</v>
-      </c>
-      <c r="H48" s="34" t="s">
-        <v>686</v>
-      </c>
-      <c r="I48" s="93" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C49" s="33" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D49" s="93" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E49" s="93" t="s">
         <v>87</v>
       </c>
       <c r="F49" s="93" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G49" s="93" t="s">
         <v>285</v>
       </c>
       <c r="H49" s="34" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="I49" s="93" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C50" s="33" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D50" s="93" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E50" s="93" t="s">
         <v>87</v>
       </c>
       <c r="F50" s="93" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G50" s="93" t="s">
         <v>285</v>
       </c>
       <c r="H50" s="34" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="I50" s="93" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C51" s="33" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D51" s="93" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="E51" s="93" t="s">
         <v>162</v>
       </c>
       <c r="F51" s="93" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="G51" s="93" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="H51" s="34" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="I51" s="93" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.45">
@@ -24867,7 +24909,7 @@
         <v>340</v>
       </c>
       <c r="I77" s="48" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="J77" s="48" t="s">
         <v>391</v>
@@ -24902,7 +24944,7 @@
         <v>340</v>
       </c>
       <c r="I78" s="48" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="J78" s="48" t="s">
         <v>391</v>
@@ -24990,16 +25032,16 @@
         <v>364</v>
       </c>
       <c r="C81" s="94" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D81" s="93" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E81" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F81" s="37" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G81" s="93" t="s">
         <v>410</v>
@@ -25008,7 +25050,7 @@
         <v>340</v>
       </c>
       <c r="I81" s="30" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="J81" s="48" t="s">
         <v>395</v>
@@ -25024,16 +25066,16 @@
         <v>364</v>
       </c>
       <c r="C82" s="94" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D82" s="93" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E82" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F82" s="37" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G82" s="93" t="s">
         <v>410</v>
@@ -25042,7 +25084,7 @@
         <v>340</v>
       </c>
       <c r="I82" s="30" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="J82" s="48" t="s">
         <v>395</v>
@@ -25058,16 +25100,16 @@
         <v>364</v>
       </c>
       <c r="C83" s="94" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D83" s="93" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E83" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F83" s="37" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="G83" s="93" t="s">
         <v>338</v>
@@ -25076,7 +25118,7 @@
         <v>340</v>
       </c>
       <c r="I83" s="30" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="J83" s="48" t="s">
         <v>395</v>
@@ -25092,13 +25134,13 @@
         <v>364</v>
       </c>
       <c r="C84" s="94" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="D84" s="93" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E84" s="93" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F84" s="37" t="s">
         <v>41</v>
@@ -25110,7 +25152,7 @@
         <v>340</v>
       </c>
       <c r="I84" s="30" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="J84" s="48" t="s">
         <v>395</v>
@@ -25146,7 +25188,7 @@
         <v>340</v>
       </c>
       <c r="I85" s="30" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="J85" s="48" t="s">
         <v>388</v>
@@ -25286,7 +25328,7 @@
         <v>340</v>
       </c>
       <c r="I89" s="50" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="J89" s="50" t="s">
         <v>388</v>
@@ -25325,7 +25367,7 @@
         <v>340</v>
       </c>
       <c r="I90" s="48" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="J90" s="50" t="s">
         <v>388</v>
@@ -25438,7 +25480,7 @@
         <v>340</v>
       </c>
       <c r="I93" s="48" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="J93" s="48" t="s">
         <v>391</v>
@@ -25579,7 +25621,7 @@
         <v>340</v>
       </c>
       <c r="I97" s="48" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="J97" s="48" t="s">
         <v>391</v>
@@ -25631,10 +25673,10 @@
         <v>364</v>
       </c>
       <c r="C99" s="94" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D99" s="93" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E99" s="93" t="s">
         <v>55</v>
@@ -25649,7 +25691,7 @@
         <v>340</v>
       </c>
       <c r="I99" s="48" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="J99" s="48" t="s">
         <v>391</v>
@@ -25666,10 +25708,10 @@
         <v>364</v>
       </c>
       <c r="C100" s="94" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D100" s="93" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E100" s="93" t="s">
         <v>55</v>
@@ -25684,7 +25726,7 @@
         <v>340</v>
       </c>
       <c r="I100" s="48" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="J100" s="48" t="s">
         <v>391</v>
@@ -25701,16 +25743,16 @@
         <v>364</v>
       </c>
       <c r="C101" s="94" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D101" s="93" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E101" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F101" s="37" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="G101" s="93" t="s">
         <v>333</v>
@@ -25719,7 +25761,7 @@
         <v>340</v>
       </c>
       <c r="I101" s="48" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J101" s="48" t="s">
         <v>391</v>
@@ -25792,7 +25834,7 @@
         <v>340</v>
       </c>
       <c r="I103" s="50" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="J103" s="50" t="s">
         <v>391</v>
@@ -25850,16 +25892,16 @@
         <v>364</v>
       </c>
       <c r="C105" s="94" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D105" s="98" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E105" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F105" s="41" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="G105" s="93" t="s">
         <v>338</v>
@@ -25868,7 +25910,7 @@
         <v>340</v>
       </c>
       <c r="I105" s="48" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="J105" s="50" t="s">
         <v>391</v>
@@ -25888,16 +25930,16 @@
         <v>364</v>
       </c>
       <c r="C106" s="94" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D106" s="98" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E106" s="93" t="s">
         <v>28</v>
       </c>
       <c r="F106" s="41" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="G106" s="93" t="s">
         <v>338</v>
@@ -25906,7 +25948,7 @@
         <v>340</v>
       </c>
       <c r="I106" s="48" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="J106" s="50" t="s">
         <v>391</v>
@@ -25924,16 +25966,16 @@
         <v>364</v>
       </c>
       <c r="C107" s="94" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D107" s="98" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E107" s="93" t="s">
         <v>28</v>
       </c>
       <c r="F107" s="41" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G107" s="93" t="s">
         <v>333</v>
@@ -25942,7 +25984,7 @@
         <v>340</v>
       </c>
       <c r="I107" s="26" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="J107" s="50" t="s">
         <v>391</v>
@@ -25979,7 +26021,7 @@
         <v>340</v>
       </c>
       <c r="I108" s="48" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="J108" s="48" t="s">
         <v>391</v>
@@ -26014,7 +26056,7 @@
         <v>340</v>
       </c>
       <c r="I109" s="48" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="J109" s="48" t="s">
         <v>391</v>
@@ -26110,7 +26152,7 @@
         <v>431</v>
       </c>
       <c r="E112" s="93" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="F112" s="39" t="s">
         <v>137</v>
@@ -26122,7 +26164,7 @@
         <v>340</v>
       </c>
       <c r="I112" s="50" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="J112" s="48" t="s">
         <v>395</v>
@@ -26157,7 +26199,7 @@
         <v>340</v>
       </c>
       <c r="I113" s="50" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="J113" s="48" t="s">
         <v>395</v>
@@ -26192,7 +26234,7 @@
         <v>340</v>
       </c>
       <c r="I114" s="50" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="J114" s="48" t="s">
         <v>395</v>
@@ -26215,19 +26257,19 @@
         <v>437</v>
       </c>
       <c r="E115" s="93" t="s">
-        <v>131</v>
+        <v>818</v>
       </c>
       <c r="F115" s="37" t="s">
-        <v>154</v>
+        <v>820</v>
       </c>
       <c r="G115" s="93" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="H115" s="93" t="s">
         <v>340</v>
       </c>
       <c r="I115" s="30" t="s">
-        <v>438</v>
+        <v>817</v>
       </c>
       <c r="J115" s="48" t="s">
         <v>391</v>
@@ -26250,19 +26292,19 @@
         <v>439</v>
       </c>
       <c r="E116" s="93" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="F116" s="37" t="s">
-        <v>160</v>
+        <v>821</v>
       </c>
       <c r="G116" s="93" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="H116" s="93" t="s">
         <v>340</v>
       </c>
       <c r="I116" s="26" t="s">
-        <v>440</v>
+        <v>819</v>
       </c>
       <c r="J116" s="48" t="s">
         <v>391</v>
@@ -26320,7 +26362,7 @@
         <v>445</v>
       </c>
       <c r="E118" s="93" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F118" s="37" t="s">
         <v>172</v>
@@ -26332,7 +26374,7 @@
         <v>340</v>
       </c>
       <c r="I118" s="48" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="J118" s="48" t="s">
         <v>391</v>
@@ -26367,7 +26409,7 @@
         <v>340</v>
       </c>
       <c r="I119" s="48" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="J119" s="48" t="s">
         <v>391</v>
@@ -26604,7 +26646,7 @@
         <v>599</v>
       </c>
       <c r="E126" s="93" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="F126" s="37" t="s">
         <v>600</v>
@@ -26616,7 +26658,7 @@
         <v>340</v>
       </c>
       <c r="I126" s="48" t="s">
-        <v>601</v>
+        <v>808</v>
       </c>
       <c r="J126" s="55" t="s">
         <v>457</v>
@@ -26631,28 +26673,28 @@
         <v>51</v>
       </c>
       <c r="B127" s="53" t="s">
-        <v>441</v>
-      </c>
-      <c r="C127" s="46" t="s">
-        <v>202</v>
+        <v>364</v>
+      </c>
+      <c r="C127" s="94" t="s">
+        <v>811</v>
       </c>
       <c r="D127" s="93" t="s">
-        <v>462</v>
+        <v>809</v>
       </c>
       <c r="E127" s="93" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F127" s="37" t="s">
-        <v>203</v>
+        <v>815</v>
       </c>
       <c r="G127" s="93" t="s">
-        <v>386</v>
+        <v>333</v>
       </c>
       <c r="H127" s="93" t="s">
         <v>340</v>
       </c>
       <c r="I127" s="48" t="s">
-        <v>463</v>
+        <v>813</v>
       </c>
       <c r="J127" s="55" t="s">
         <v>457</v>
@@ -26667,28 +26709,28 @@
         <v>52</v>
       </c>
       <c r="B128" s="53" t="s">
-        <v>441</v>
+        <v>364</v>
       </c>
       <c r="C128" s="94" t="s">
-        <v>204</v>
+        <v>812</v>
       </c>
       <c r="D128" s="93" t="s">
-        <v>464</v>
+        <v>810</v>
       </c>
       <c r="E128" s="93" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F128" s="37" t="s">
-        <v>205</v>
+        <v>816</v>
       </c>
       <c r="G128" s="93" t="s">
-        <v>386</v>
+        <v>333</v>
       </c>
       <c r="H128" s="93" t="s">
         <v>340</v>
       </c>
       <c r="I128" s="48" t="s">
-        <v>465</v>
+        <v>814</v>
       </c>
       <c r="J128" s="55" t="s">
         <v>457</v>
@@ -26703,28 +26745,28 @@
         <v>53</v>
       </c>
       <c r="B129" s="53" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C129" s="46" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D129" s="93" t="s">
-        <v>602</v>
+        <v>462</v>
       </c>
       <c r="E129" s="93" t="s">
-        <v>603</v>
+        <v>20</v>
       </c>
       <c r="F129" s="37" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G129" s="93" t="s">
-        <v>333</v>
+        <v>386</v>
       </c>
       <c r="H129" s="93" t="s">
         <v>340</v>
       </c>
       <c r="I129" s="48" t="s">
-        <v>604</v>
+        <v>463</v>
       </c>
       <c r="J129" s="55" t="s">
         <v>457</v>
@@ -26739,28 +26781,28 @@
         <v>54</v>
       </c>
       <c r="B130" s="53" t="s">
-        <v>444</v>
-      </c>
-      <c r="C130" s="99" t="s">
-        <v>208</v>
+        <v>441</v>
+      </c>
+      <c r="C130" s="94" t="s">
+        <v>204</v>
       </c>
       <c r="D130" s="93" t="s">
-        <v>605</v>
+        <v>464</v>
       </c>
       <c r="E130" s="93" t="s">
         <v>40</v>
       </c>
       <c r="F130" s="37" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G130" s="93" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="H130" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I130" s="30" t="s">
-        <v>468</v>
+      <c r="I130" s="48" t="s">
+        <v>465</v>
       </c>
       <c r="J130" s="55" t="s">
         <v>457</v>
@@ -26777,17 +26819,17 @@
       <c r="B131" s="53" t="s">
         <v>444</v>
       </c>
-      <c r="C131" s="94" t="s">
-        <v>606</v>
+      <c r="C131" s="46" t="s">
+        <v>206</v>
       </c>
       <c r="D131" s="93" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="E131" s="93" t="s">
-        <v>28</v>
+        <v>602</v>
       </c>
       <c r="F131" s="37" t="s">
-        <v>608</v>
+        <v>207</v>
       </c>
       <c r="G131" s="93" t="s">
         <v>333</v>
@@ -26796,7 +26838,7 @@
         <v>340</v>
       </c>
       <c r="I131" s="48" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="J131" s="55" t="s">
         <v>457</v>
@@ -26811,66 +26853,67 @@
         <v>56</v>
       </c>
       <c r="B132" s="53" t="s">
-        <v>384</v>
-      </c>
-      <c r="C132" s="46" t="s">
-        <v>211</v>
+        <v>444</v>
+      </c>
+      <c r="C132" s="99" t="s">
+        <v>208</v>
       </c>
       <c r="D132" s="93" t="s">
-        <v>469</v>
+        <v>604</v>
       </c>
       <c r="E132" s="93" t="s">
         <v>40</v>
       </c>
       <c r="F132" s="37" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G132" s="93" t="s">
-        <v>338</v>
+        <v>410</v>
       </c>
       <c r="H132" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I132" s="48" t="s">
-        <v>762</v>
-      </c>
-      <c r="J132" s="48" t="s">
-        <v>391</v>
-      </c>
-      <c r="K132" s="48" t="s">
-        <v>138</v>
-      </c>
+      <c r="I132" s="30" t="s">
+        <v>468</v>
+      </c>
+      <c r="J132" s="55" t="s">
+        <v>457</v>
+      </c>
+      <c r="K132" s="55">
+        <v>1</v>
+      </c>
+      <c r="M132" s="55"/>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A133" s="48">
         <v>57</v>
       </c>
       <c r="B133" s="53" t="s">
-        <v>364</v>
+        <v>444</v>
       </c>
       <c r="C133" s="94" t="s">
-        <v>213</v>
+        <v>605</v>
       </c>
       <c r="D133" s="93" t="s">
-        <v>471</v>
+        <v>606</v>
       </c>
       <c r="E133" s="93" t="s">
         <v>40</v>
       </c>
       <c r="F133" s="37" t="s">
-        <v>214</v>
+        <v>607</v>
       </c>
       <c r="G133" s="93" t="s">
-        <v>386</v>
+        <v>333</v>
       </c>
       <c r="H133" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I133" s="30" t="s">
-        <v>472</v>
-      </c>
-      <c r="J133" s="48" t="s">
-        <v>395</v>
+      <c r="I133" s="48" t="s">
+        <v>807</v>
+      </c>
+      <c r="J133" s="55" t="s">
+        <v>457</v>
       </c>
       <c r="K133" s="55">
         <v>1</v>
@@ -26882,36 +26925,35 @@
         <v>58</v>
       </c>
       <c r="B134" s="53" t="s">
-        <v>364</v>
-      </c>
-      <c r="C134" s="94" t="s">
-        <v>215</v>
+        <v>384</v>
+      </c>
+      <c r="C134" s="46" t="s">
+        <v>211</v>
       </c>
       <c r="D134" s="93" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E134" s="93" t="s">
         <v>40</v>
       </c>
       <c r="F134" s="37" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G134" s="93" t="s">
-        <v>386</v>
+        <v>338</v>
       </c>
       <c r="H134" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I134" s="30" t="s">
-        <v>474</v>
+      <c r="I134" s="48" t="s">
+        <v>759</v>
       </c>
       <c r="J134" s="48" t="s">
-        <v>395</v>
-      </c>
-      <c r="K134" s="55">
-        <v>1</v>
-      </c>
-      <c r="M134" s="55"/>
+        <v>391</v>
+      </c>
+      <c r="K134" s="48" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A135" s="48">
@@ -26920,33 +26962,34 @@
       <c r="B135" s="53" t="s">
         <v>364</v>
       </c>
-      <c r="C135" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="D135" s="95" t="s">
-        <v>475</v>
+      <c r="C135" s="94" t="s">
+        <v>213</v>
+      </c>
+      <c r="D135" s="93" t="s">
+        <v>471</v>
       </c>
       <c r="E135" s="93" t="s">
-        <v>238</v>
+        <v>40</v>
       </c>
       <c r="F135" s="37" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G135" s="93" t="s">
-        <v>476</v>
+        <v>386</v>
       </c>
       <c r="H135" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I135" s="48" t="s">
-        <v>610</v>
+      <c r="I135" s="30" t="s">
+        <v>472</v>
       </c>
       <c r="J135" s="48" t="s">
         <v>395</v>
       </c>
-      <c r="K135" s="48" t="s">
-        <v>57</v>
-      </c>
+      <c r="K135" s="55">
+        <v>1</v>
+      </c>
+      <c r="M135" s="55"/>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A136" s="48">
@@ -26955,17 +26998,17 @@
       <c r="B136" s="53" t="s">
         <v>364</v>
       </c>
-      <c r="C136" s="46" t="s">
-        <v>218</v>
-      </c>
-      <c r="D136" s="95" t="s">
-        <v>475</v>
+      <c r="C136" s="94" t="s">
+        <v>215</v>
+      </c>
+      <c r="D136" s="93" t="s">
+        <v>473</v>
       </c>
       <c r="E136" s="93" t="s">
-        <v>243</v>
+        <v>40</v>
       </c>
       <c r="F136" s="37" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G136" s="93" t="s">
         <v>386</v>
@@ -26974,14 +27017,15 @@
         <v>340</v>
       </c>
       <c r="I136" s="30" t="s">
-        <v>760</v>
+        <v>474</v>
       </c>
       <c r="J136" s="48" t="s">
         <v>395</v>
       </c>
-      <c r="K136" s="48" t="s">
-        <v>57</v>
-      </c>
+      <c r="K136" s="55">
+        <v>1</v>
+      </c>
+      <c r="M136" s="55"/>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A137" s="48">
@@ -26990,26 +27034,26 @@
       <c r="B137" s="53" t="s">
         <v>364</v>
       </c>
-      <c r="C137" s="94" t="s">
-        <v>611</v>
+      <c r="C137" s="46" t="s">
+        <v>216</v>
       </c>
       <c r="D137" s="95" t="s">
         <v>475</v>
       </c>
       <c r="E137" s="93" t="s">
-        <v>55</v>
+        <v>238</v>
       </c>
       <c r="F137" s="37" t="s">
-        <v>612</v>
+        <v>217</v>
       </c>
       <c r="G137" s="93" t="s">
-        <v>386</v>
+        <v>476</v>
       </c>
       <c r="H137" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I137" s="30" t="s">
-        <v>613</v>
+      <c r="I137" s="48" t="s">
+        <v>608</v>
       </c>
       <c r="J137" s="48" t="s">
         <v>395</v>
@@ -27026,28 +27070,28 @@
         <v>364</v>
       </c>
       <c r="C138" s="46" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D138" s="95" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E138" s="93" t="s">
-        <v>28</v>
+        <v>243</v>
       </c>
       <c r="F138" s="37" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G138" s="93" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="H138" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I138" s="48" t="s">
-        <v>480</v>
+      <c r="I138" s="30" t="s">
+        <v>757</v>
       </c>
       <c r="J138" s="48" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="K138" s="48" t="s">
         <v>57</v>
@@ -27060,26 +27104,26 @@
       <c r="B139" s="53" t="s">
         <v>364</v>
       </c>
-      <c r="C139" s="46" t="s">
-        <v>222</v>
+      <c r="C139" s="94" t="s">
+        <v>609</v>
       </c>
       <c r="D139" s="95" t="s">
-        <v>614</v>
+        <v>475</v>
       </c>
       <c r="E139" s="93" t="s">
-        <v>238</v>
+        <v>55</v>
       </c>
       <c r="F139" s="37" t="s">
-        <v>223</v>
+        <v>610</v>
       </c>
       <c r="G139" s="93" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="H139" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I139" s="48" t="s">
-        <v>798</v>
+      <c r="I139" s="30" t="s">
+        <v>611</v>
       </c>
       <c r="J139" s="48" t="s">
         <v>395</v>
@@ -27095,29 +27139,29 @@
       <c r="B140" s="53" t="s">
         <v>364</v>
       </c>
-      <c r="C140" s="94" t="s">
-        <v>615</v>
+      <c r="C140" s="46" t="s">
+        <v>220</v>
       </c>
       <c r="D140" s="95" t="s">
-        <v>616</v>
+        <v>479</v>
       </c>
       <c r="E140" s="93" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="F140" s="37" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G140" s="93" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="H140" s="93" t="s">
         <v>340</v>
       </c>
       <c r="I140" s="48" t="s">
-        <v>617</v>
+        <v>480</v>
       </c>
       <c r="J140" s="48" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K140" s="48" t="s">
         <v>57</v>
@@ -27131,31 +27175,31 @@
         <v>364</v>
       </c>
       <c r="C141" s="46" t="s">
-        <v>224</v>
-      </c>
-      <c r="D141" s="93" t="s">
-        <v>483</v>
+        <v>222</v>
+      </c>
+      <c r="D141" s="95" t="s">
+        <v>612</v>
       </c>
       <c r="E141" s="93" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="F141" s="37" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G141" s="93" t="s">
-        <v>338</v>
+        <v>410</v>
       </c>
       <c r="H141" s="93" t="s">
         <v>340</v>
       </c>
       <c r="I141" s="48" t="s">
-        <v>434</v>
+        <v>795</v>
       </c>
       <c r="J141" s="48" t="s">
         <v>395</v>
       </c>
       <c r="K141" s="48" t="s">
-        <v>227</v>
+        <v>57</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.45">
@@ -27165,32 +27209,32 @@
       <c r="B142" s="53" t="s">
         <v>364</v>
       </c>
-      <c r="C142" s="46" t="s">
-        <v>232</v>
-      </c>
-      <c r="D142" s="93" t="s">
-        <v>486</v>
+      <c r="C142" s="94" t="s">
+        <v>613</v>
+      </c>
+      <c r="D142" s="95" t="s">
+        <v>614</v>
       </c>
       <c r="E142" s="93" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F142" s="37" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="G142" s="93" t="s">
-        <v>333</v>
+        <v>410</v>
       </c>
       <c r="H142" s="93" t="s">
         <v>340</v>
       </c>
       <c r="I142" s="48" t="s">
-        <v>757</v>
+        <v>615</v>
       </c>
       <c r="J142" s="48" t="s">
         <v>395</v>
       </c>
       <c r="K142" s="48" t="s">
-        <v>227</v>
+        <v>57</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.45">
@@ -27200,26 +27244,26 @@
       <c r="B143" s="53" t="s">
         <v>364</v>
       </c>
-      <c r="C143" s="94" t="s">
-        <v>618</v>
+      <c r="C143" s="46" t="s">
+        <v>224</v>
       </c>
       <c r="D143" s="93" t="s">
-        <v>619</v>
+        <v>483</v>
       </c>
       <c r="E143" s="93" t="s">
-        <v>55</v>
+        <v>225</v>
       </c>
       <c r="F143" s="37" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G143" s="93" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="H143" s="93" t="s">
         <v>340</v>
       </c>
       <c r="I143" s="48" t="s">
-        <v>620</v>
+        <v>434</v>
       </c>
       <c r="J143" s="48" t="s">
         <v>395</v>
@@ -27236,31 +27280,31 @@
         <v>364</v>
       </c>
       <c r="C144" s="46" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D144" s="93" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E144" s="93" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="F144" s="37" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G144" s="93" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H144" s="93" t="s">
         <v>340</v>
       </c>
       <c r="I144" s="48" t="s">
-        <v>485</v>
+        <v>754</v>
       </c>
       <c r="J144" s="48" t="s">
         <v>395</v>
       </c>
       <c r="K144" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.45">
@@ -27270,32 +27314,32 @@
       <c r="B145" s="53" t="s">
         <v>364</v>
       </c>
-      <c r="C145" s="46" t="s">
-        <v>235</v>
+      <c r="C145" s="94" t="s">
+        <v>616</v>
       </c>
       <c r="D145" s="93" t="s">
-        <v>488</v>
+        <v>617</v>
       </c>
       <c r="E145" s="93" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F145" s="37" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G145" s="93" t="s">
-        <v>386</v>
+        <v>333</v>
       </c>
       <c r="H145" s="93" t="s">
         <v>340</v>
       </c>
       <c r="I145" s="48" t="s">
-        <v>758</v>
+        <v>618</v>
       </c>
       <c r="J145" s="48" t="s">
         <v>395</v>
       </c>
       <c r="K145" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.45">
@@ -27305,26 +27349,26 @@
       <c r="B146" s="53" t="s">
         <v>364</v>
       </c>
-      <c r="C146" s="94" t="s">
-        <v>621</v>
+      <c r="C146" s="46" t="s">
+        <v>229</v>
       </c>
       <c r="D146" s="93" t="s">
-        <v>622</v>
+        <v>484</v>
       </c>
       <c r="E146" s="93" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="F146" s="37" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G146" s="93" t="s">
-        <v>386</v>
+        <v>338</v>
       </c>
       <c r="H146" s="93" t="s">
         <v>340</v>
       </c>
       <c r="I146" s="48" t="s">
-        <v>623</v>
+        <v>485</v>
       </c>
       <c r="J146" s="48" t="s">
         <v>395</v>
@@ -27341,16 +27385,16 @@
         <v>364</v>
       </c>
       <c r="C147" s="46" t="s">
-        <v>237</v>
-      </c>
-      <c r="D147" s="42" t="s">
-        <v>490</v>
+        <v>235</v>
+      </c>
+      <c r="D147" s="93" t="s">
+        <v>488</v>
       </c>
       <c r="E147" s="93" t="s">
-        <v>238</v>
+        <v>40</v>
       </c>
       <c r="F147" s="37" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G147" s="93" t="s">
         <v>386</v>
@@ -27358,14 +27402,14 @@
       <c r="H147" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I147" s="30" t="s">
-        <v>491</v>
+      <c r="I147" s="48" t="s">
+        <v>755</v>
       </c>
       <c r="J147" s="48" t="s">
         <v>395</v>
       </c>
       <c r="K147" s="48" t="s">
-        <v>57</v>
+        <v>231</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.45">
@@ -27375,17 +27419,17 @@
       <c r="B148" s="53" t="s">
         <v>364</v>
       </c>
-      <c r="C148" s="46" t="s">
-        <v>240</v>
-      </c>
-      <c r="D148" s="42" t="s">
-        <v>492</v>
+      <c r="C148" s="94" t="s">
+        <v>619</v>
+      </c>
+      <c r="D148" s="93" t="s">
+        <v>620</v>
       </c>
       <c r="E148" s="93" t="s">
-        <v>243</v>
+        <v>55</v>
       </c>
       <c r="F148" s="37" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G148" s="93" t="s">
         <v>386</v>
@@ -27393,16 +27437,15 @@
       <c r="H148" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I148" s="30" t="s">
-        <v>751</v>
+      <c r="I148" s="48" t="s">
+        <v>621</v>
       </c>
       <c r="J148" s="48" t="s">
         <v>395</v>
       </c>
       <c r="K148" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="O148" s="50"/>
+        <v>231</v>
+      </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A149" s="48">
@@ -27412,16 +27455,16 @@
         <v>364</v>
       </c>
       <c r="C149" s="46" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D149" s="42" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E149" s="93" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F149" s="37" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G149" s="93" t="s">
         <v>386</v>
@@ -27430,7 +27473,7 @@
         <v>340</v>
       </c>
       <c r="I149" s="30" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="J149" s="48" t="s">
         <v>395</v>
@@ -27446,17 +27489,17 @@
       <c r="B150" s="53" t="s">
         <v>364</v>
       </c>
-      <c r="C150" s="94" t="s">
-        <v>245</v>
+      <c r="C150" s="46" t="s">
+        <v>240</v>
       </c>
       <c r="D150" s="42" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E150" s="93" t="s">
-        <v>49</v>
+        <v>243</v>
       </c>
       <c r="F150" s="37" t="s">
-        <v>41</v>
+        <v>241</v>
       </c>
       <c r="G150" s="93" t="s">
         <v>386</v>
@@ -27465,7 +27508,7 @@
         <v>340</v>
       </c>
       <c r="I150" s="30" t="s">
-        <v>497</v>
+        <v>748</v>
       </c>
       <c r="J150" s="48" t="s">
         <v>395</v>
@@ -27473,6 +27516,7 @@
       <c r="K150" s="48" t="s">
         <v>57</v>
       </c>
+      <c r="O150" s="50"/>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A151" s="48">
@@ -27481,14 +27525,14 @@
       <c r="B151" s="53" t="s">
         <v>364</v>
       </c>
-      <c r="C151" s="94" t="s">
-        <v>624</v>
+      <c r="C151" s="46" t="s">
+        <v>242</v>
       </c>
       <c r="D151" s="42" t="s">
-        <v>625</v>
+        <v>494</v>
       </c>
       <c r="E151" s="93" t="s">
-        <v>55</v>
+        <v>243</v>
       </c>
       <c r="F151" s="37" t="s">
         <v>244</v>
@@ -27499,8 +27543,8 @@
       <c r="H151" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I151" s="97" t="s">
-        <v>626</v>
+      <c r="I151" s="30" t="s">
+        <v>495</v>
       </c>
       <c r="J151" s="48" t="s">
         <v>395</v>
@@ -27517,13 +27561,13 @@
         <v>364</v>
       </c>
       <c r="C152" s="94" t="s">
-        <v>627</v>
+        <v>245</v>
       </c>
       <c r="D152" s="42" t="s">
-        <v>628</v>
+        <v>496</v>
       </c>
       <c r="E152" s="93" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F152" s="37" t="s">
         <v>41</v>
@@ -27535,7 +27579,7 @@
         <v>340</v>
       </c>
       <c r="I152" s="30" t="s">
-        <v>629</v>
+        <v>497</v>
       </c>
       <c r="J152" s="48" t="s">
         <v>395</v>
@@ -27551,32 +27595,32 @@
       <c r="B153" s="53" t="s">
         <v>364</v>
       </c>
-      <c r="C153" s="46" t="s">
-        <v>246</v>
+      <c r="C153" s="94" t="s">
+        <v>622</v>
       </c>
       <c r="D153" s="42" t="s">
-        <v>498</v>
+        <v>623</v>
       </c>
       <c r="E153" s="93" t="s">
-        <v>742</v>
+        <v>55</v>
       </c>
       <c r="F153" s="37" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G153" s="93" t="s">
-        <v>338</v>
+        <v>386</v>
       </c>
       <c r="H153" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I153" s="48" t="s">
-        <v>752</v>
+      <c r="I153" s="97" t="s">
+        <v>624</v>
       </c>
       <c r="J153" s="48" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="K153" s="48" t="s">
-        <v>248</v>
+        <v>57</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.45">
@@ -27587,31 +27631,31 @@
         <v>364</v>
       </c>
       <c r="C154" s="94" t="s">
-        <v>249</v>
+        <v>625</v>
       </c>
       <c r="D154" s="42" t="s">
-        <v>500</v>
+        <v>626</v>
       </c>
       <c r="E154" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F154" s="37" t="s">
-        <v>250</v>
+        <v>41</v>
       </c>
       <c r="G154" s="93" t="s">
-        <v>501</v>
+        <v>386</v>
       </c>
       <c r="H154" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I154" s="48" t="s">
-        <v>502</v>
+      <c r="I154" s="30" t="s">
+        <v>627</v>
       </c>
       <c r="J154" s="48" t="s">
         <v>395</v>
       </c>
-      <c r="K154" s="55">
-        <v>1</v>
+      <c r="K154" s="48" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.45">
@@ -27621,32 +27665,32 @@
       <c r="B155" s="53" t="s">
         <v>364</v>
       </c>
-      <c r="C155" s="94" t="s">
-        <v>251</v>
-      </c>
-      <c r="D155" s="43" t="s">
-        <v>503</v>
+      <c r="C155" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="D155" s="42" t="s">
+        <v>498</v>
       </c>
       <c r="E155" s="93" t="s">
-        <v>55</v>
+        <v>740</v>
       </c>
       <c r="F155" s="37" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G155" s="93" t="s">
-        <v>501</v>
+        <v>338</v>
       </c>
       <c r="H155" s="93" t="s">
         <v>340</v>
       </c>
       <c r="I155" s="48" t="s">
-        <v>504</v>
+        <v>749</v>
       </c>
       <c r="J155" s="48" t="s">
-        <v>395</v>
-      </c>
-      <c r="K155" s="55">
-        <v>1</v>
+        <v>391</v>
+      </c>
+      <c r="K155" s="48" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.45">
@@ -27657,28 +27701,28 @@
         <v>364</v>
       </c>
       <c r="C156" s="94" t="s">
-        <v>252</v>
-      </c>
-      <c r="D156" s="43" t="s">
-        <v>505</v>
+        <v>249</v>
+      </c>
+      <c r="D156" s="42" t="s">
+        <v>500</v>
       </c>
       <c r="E156" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F156" s="37" t="s">
-        <v>26</v>
+        <v>250</v>
       </c>
       <c r="G156" s="93" t="s">
-        <v>340</v>
+        <v>501</v>
       </c>
       <c r="H156" s="93" t="s">
         <v>340</v>
       </c>
       <c r="I156" s="48" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="J156" s="48" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="K156" s="55">
         <v>1</v>
@@ -27689,34 +27733,34 @@
         <v>81</v>
       </c>
       <c r="B157" s="53" t="s">
-        <v>444</v>
+        <v>364</v>
       </c>
       <c r="C157" s="94" t="s">
-        <v>779</v>
+        <v>251</v>
       </c>
       <c r="D157" s="43" t="s">
-        <v>780</v>
+        <v>503</v>
       </c>
       <c r="E157" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F157" s="37" t="s">
-        <v>782</v>
+        <v>250</v>
       </c>
       <c r="G157" s="93" t="s">
-        <v>333</v>
+        <v>501</v>
       </c>
       <c r="H157" s="93" t="s">
         <v>340</v>
       </c>
       <c r="I157" s="48" t="s">
-        <v>781</v>
+        <v>504</v>
       </c>
       <c r="J157" s="48" t="s">
-        <v>391</v>
-      </c>
-      <c r="K157" s="55" t="s">
-        <v>783</v>
+        <v>395</v>
+      </c>
+      <c r="K157" s="55">
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.45">
@@ -27724,19 +27768,19 @@
         <v>82</v>
       </c>
       <c r="B158" s="53" t="s">
-        <v>772</v>
+        <v>364</v>
       </c>
       <c r="C158" s="94" t="s">
-        <v>776</v>
+        <v>252</v>
       </c>
       <c r="D158" s="43" t="s">
-        <v>778</v>
+        <v>505</v>
       </c>
       <c r="E158" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F158" s="37" t="s">
-        <v>152</v>
+        <v>26</v>
       </c>
       <c r="G158" s="93" t="s">
         <v>340</v>
@@ -27745,13 +27789,13 @@
         <v>340</v>
       </c>
       <c r="I158" s="48" t="s">
-        <v>777</v>
+        <v>506</v>
       </c>
       <c r="J158" s="48" t="s">
-        <v>773</v>
-      </c>
-      <c r="K158" s="55" t="s">
-        <v>92</v>
+        <v>391</v>
+      </c>
+      <c r="K158" s="55">
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.45">
@@ -27759,34 +27803,34 @@
         <v>83</v>
       </c>
       <c r="B159" s="53" t="s">
-        <v>772</v>
+        <v>444</v>
       </c>
       <c r="C159" s="94" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="D159" s="43" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="E159" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F159" s="37" t="s">
-        <v>77</v>
+        <v>779</v>
       </c>
       <c r="G159" s="93" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="H159" s="93" t="s">
         <v>340</v>
       </c>
       <c r="I159" s="48" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="J159" s="48" t="s">
-        <v>773</v>
+        <v>391</v>
       </c>
       <c r="K159" s="55" t="s">
-        <v>92</v>
+        <v>780</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.45">
@@ -27794,34 +27838,34 @@
         <v>84</v>
       </c>
       <c r="B160" s="53" t="s">
-        <v>444</v>
+        <v>769</v>
       </c>
       <c r="C160" s="94" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="D160" s="43" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="E160" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F160" s="37" t="s">
-        <v>769</v>
+        <v>152</v>
       </c>
       <c r="G160" s="93" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H160" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I160" s="26" t="s">
-        <v>768</v>
+      <c r="I160" s="48" t="s">
+        <v>774</v>
       </c>
       <c r="J160" s="48" t="s">
-        <v>391</v>
-      </c>
-      <c r="K160" s="55">
-        <v>1</v>
+        <v>770</v>
+      </c>
+      <c r="K160" s="55" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.45">
@@ -27829,34 +27873,34 @@
         <v>85</v>
       </c>
       <c r="B161" s="53" t="s">
-        <v>430</v>
+        <v>769</v>
       </c>
       <c r="C161" s="94" t="s">
-        <v>799</v>
+        <v>768</v>
       </c>
       <c r="D161" s="43" t="s">
-        <v>801</v>
+        <v>772</v>
       </c>
       <c r="E161" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F161" s="37" t="s">
-        <v>800</v>
+        <v>77</v>
       </c>
       <c r="G161" s="93" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H161" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I161" s="26" t="s">
-        <v>802</v>
+      <c r="I161" s="48" t="s">
+        <v>771</v>
       </c>
       <c r="J161" s="48" t="s">
-        <v>391</v>
+        <v>770</v>
       </c>
       <c r="K161" s="55" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.45">
@@ -27864,19 +27908,19 @@
         <v>86</v>
       </c>
       <c r="B162" s="53" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C162" s="94" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D162" s="43" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E162" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F162" s="37" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="G162" s="93" t="s">
         <v>338</v>
@@ -27899,34 +27943,34 @@
         <v>87</v>
       </c>
       <c r="B163" s="53" t="s">
-        <v>364</v>
+        <v>430</v>
       </c>
       <c r="C163" s="94" t="s">
-        <v>630</v>
+        <v>796</v>
       </c>
       <c r="D163" s="43" t="s">
-        <v>631</v>
+        <v>798</v>
       </c>
       <c r="E163" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F163" s="37" t="s">
-        <v>632</v>
+        <v>797</v>
       </c>
       <c r="G163" s="93" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="H163" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I163" s="30" t="s">
-        <v>633</v>
+      <c r="I163" s="26" t="s">
+        <v>799</v>
       </c>
       <c r="J163" s="48" t="s">
-        <v>395</v>
-      </c>
-      <c r="K163" s="48" t="s">
-        <v>57</v>
+        <v>391</v>
+      </c>
+      <c r="K163" s="55" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.45">
@@ -27934,34 +27978,34 @@
         <v>88</v>
       </c>
       <c r="B164" s="53" t="s">
-        <v>364</v>
+        <v>441</v>
       </c>
       <c r="C164" s="94" t="s">
-        <v>634</v>
+        <v>760</v>
       </c>
       <c r="D164" s="43" t="s">
-        <v>635</v>
+        <v>763</v>
       </c>
       <c r="E164" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F164" s="37" t="s">
-        <v>636</v>
+        <v>761</v>
       </c>
       <c r="G164" s="93" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="H164" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I164" s="30" t="s">
-        <v>637</v>
+      <c r="I164" s="26" t="s">
+        <v>762</v>
       </c>
       <c r="J164" s="48" t="s">
-        <v>395</v>
-      </c>
-      <c r="K164" s="48" t="s">
-        <v>57</v>
+        <v>391</v>
+      </c>
+      <c r="K164" s="55">
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.45">
@@ -27972,16 +28016,16 @@
         <v>364</v>
       </c>
       <c r="C165" s="94" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="D165" s="43" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="E165" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F165" s="37" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="G165" s="93" t="s">
         <v>333</v>
@@ -27990,7 +28034,7 @@
         <v>340</v>
       </c>
       <c r="I165" s="30" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="J165" s="48" t="s">
         <v>395</v>
@@ -28007,16 +28051,16 @@
         <v>364</v>
       </c>
       <c r="C166" s="94" t="s">
-        <v>642</v>
-      </c>
-      <c r="D166" s="93" t="s">
-        <v>643</v>
+        <v>632</v>
+      </c>
+      <c r="D166" s="43" t="s">
+        <v>633</v>
       </c>
       <c r="E166" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F166" s="37" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="G166" s="93" t="s">
         <v>333</v>
@@ -28025,7 +28069,7 @@
         <v>340</v>
       </c>
       <c r="I166" s="30" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="J166" s="48" t="s">
         <v>395</v>
@@ -28039,203 +28083,243 @@
         <v>91</v>
       </c>
       <c r="B167" s="53" t="s">
-        <v>790</v>
+        <v>364</v>
       </c>
       <c r="C167" s="94" t="s">
-        <v>794</v>
-      </c>
-      <c r="D167" s="93" t="s">
-        <v>793</v>
+        <v>636</v>
+      </c>
+      <c r="D167" s="43" t="s">
+        <v>637</v>
       </c>
       <c r="E167" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F167" s="37" t="s">
+        <v>638</v>
+      </c>
+      <c r="G167" s="93" t="s">
+        <v>333</v>
+      </c>
+      <c r="H167" s="93" t="s">
+        <v>340</v>
+      </c>
+      <c r="I167" s="30" t="s">
+        <v>639</v>
+      </c>
+      <c r="J167" s="48" t="s">
+        <v>395</v>
+      </c>
+      <c r="K167" s="48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A168" s="48">
+        <v>92</v>
+      </c>
+      <c r="B168" s="53" t="s">
+        <v>364</v>
+      </c>
+      <c r="C168" s="94" t="s">
+        <v>640</v>
+      </c>
+      <c r="D168" s="93" t="s">
+        <v>641</v>
+      </c>
+      <c r="E168" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="F168" s="37" t="s">
+        <v>642</v>
+      </c>
+      <c r="G168" s="93" t="s">
+        <v>333</v>
+      </c>
+      <c r="H168" s="93" t="s">
+        <v>340</v>
+      </c>
+      <c r="I168" s="30" t="s">
+        <v>643</v>
+      </c>
+      <c r="J168" s="48" t="s">
+        <v>395</v>
+      </c>
+      <c r="K168" s="48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A169" s="48">
+        <v>93</v>
+      </c>
+      <c r="B169" s="53" t="s">
+        <v>787</v>
+      </c>
+      <c r="C169" s="94" t="s">
+        <v>791</v>
+      </c>
+      <c r="D169" s="93" t="s">
+        <v>790</v>
+      </c>
+      <c r="E169" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="F169" s="37" t="s">
+        <v>789</v>
+      </c>
+      <c r="G169" s="93" t="s">
+        <v>338</v>
+      </c>
+      <c r="H169" s="93" t="s">
+        <v>340</v>
+      </c>
+      <c r="I169" s="30" t="s">
         <v>792</v>
       </c>
-      <c r="G167" s="93" t="s">
-        <v>338</v>
-      </c>
-      <c r="H167" s="93" t="s">
-        <v>340</v>
-      </c>
-      <c r="I167" s="30" t="s">
-        <v>795</v>
-      </c>
-      <c r="J167" s="48" t="s">
+      <c r="J169" s="48" t="s">
         <v>391</v>
       </c>
-      <c r="K167" s="48" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="169" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B169" s="12" t="s">
+      <c r="K169" s="48" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="171" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B171" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="C169" s="13"/>
-      <c r="D169" s="13"/>
-      <c r="E169" s="13"/>
-      <c r="F169" s="13"/>
-      <c r="G169" s="13"/>
-      <c r="H169" s="14"/>
-      <c r="K169" s="51"/>
-      <c r="N169" s="51"/>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C170" s="27" t="s">
+      <c r="C171" s="13"/>
+      <c r="D171" s="13"/>
+      <c r="E171" s="13"/>
+      <c r="F171" s="13"/>
+      <c r="G171" s="13"/>
+      <c r="H171" s="14"/>
+      <c r="K171" s="51"/>
+      <c r="N171" s="51"/>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C172" s="27" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C171" s="31" t="s">
-        <v>509</v>
-      </c>
-      <c r="D171" s="93" t="s">
-        <v>510</v>
-      </c>
-      <c r="E171" s="48" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C172" s="31" t="s">
-        <v>512</v>
-      </c>
-      <c r="D172" s="93" t="s">
-        <v>513</v>
-      </c>
-      <c r="E172" s="48" t="s">
-        <v>514</v>
-      </c>
-      <c r="F172" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="I172" s="59"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C173" s="31" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="D173" s="93" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E173" s="48" t="s">
-        <v>514</v>
-      </c>
-      <c r="F173" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="I173" s="59"/>
-    </row>
-    <row r="174" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C174" s="31" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D174" s="93" t="s">
         <v>513</v>
       </c>
-      <c r="E174" s="55" t="s">
+      <c r="E174" s="48" t="s">
         <v>514</v>
       </c>
       <c r="F174" s="48" t="s">
         <v>513</v>
       </c>
-      <c r="J174" s="52"/>
-    </row>
-    <row r="175" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="I174" s="59"/>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C175" s="31" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D175" s="93" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E175" s="48" t="s">
         <v>514</v>
       </c>
       <c r="F175" s="48" t="s">
-        <v>514</v>
-      </c>
-      <c r="G175" s="55" t="s">
-        <v>518</v>
-      </c>
-      <c r="J175" s="52"/>
+        <v>513</v>
+      </c>
+      <c r="I175" s="59"/>
     </row>
     <row r="176" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C176" s="31" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D176" s="93" t="s">
         <v>513</v>
       </c>
-      <c r="E176" s="48" t="s">
-        <v>513</v>
+      <c r="E176" s="55" t="s">
+        <v>514</v>
       </c>
       <c r="F176" s="48" t="s">
         <v>513</v>
       </c>
-      <c r="G176" s="55" t="s">
-        <v>520</v>
-      </c>
       <c r="J176" s="52"/>
     </row>
     <row r="177" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C177" s="31" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D177" s="93" t="s">
         <v>514</v>
       </c>
-      <c r="E177" s="55" t="s">
+      <c r="E177" s="48" t="s">
         <v>514</v>
       </c>
       <c r="F177" s="48" t="s">
         <v>514</v>
       </c>
       <c r="G177" s="55" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="J177" s="52"/>
     </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="178" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C178" s="31" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D178" s="93" t="s">
         <v>513</v>
       </c>
       <c r="E178" s="48" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F178" s="48" t="s">
         <v>513</v>
       </c>
-      <c r="J178" s="53"/>
-    </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="G178" s="55" t="s">
+        <v>520</v>
+      </c>
+      <c r="J178" s="52"/>
+    </row>
+    <row r="179" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C179" s="31" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D179" s="93" t="s">
-        <v>513</v>
-      </c>
-      <c r="E179" s="48" t="s">
         <v>514</v>
       </c>
+      <c r="E179" s="55" t="s">
+        <v>514</v>
+      </c>
       <c r="F179" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="J179" s="53"/>
+        <v>514</v>
+      </c>
+      <c r="G179" s="55" t="s">
+        <v>522</v>
+      </c>
+      <c r="J179" s="52"/>
     </row>
     <row r="180" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C180" s="31" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D180" s="93" t="s">
         <v>513</v>
       </c>
-      <c r="E180" s="55" t="s">
+      <c r="E180" s="48" t="s">
         <v>514</v>
       </c>
       <c r="F180" s="48" t="s">
@@ -28245,12 +28329,12 @@
     </row>
     <row r="181" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C181" s="31" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D181" s="93" t="s">
         <v>513</v>
       </c>
-      <c r="E181" s="55" t="s">
+      <c r="E181" s="48" t="s">
         <v>514</v>
       </c>
       <c r="F181" s="48" t="s">
@@ -28259,11 +28343,8 @@
       <c r="J181" s="53"/>
     </row>
     <row r="182" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B182" s="53" t="s">
-        <v>527</v>
-      </c>
       <c r="C182" s="31" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D182" s="93" t="s">
         <v>513</v>
@@ -28277,11 +28358,8 @@
       <c r="J182" s="53"/>
     </row>
     <row r="183" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B183" s="53" t="s">
-        <v>529</v>
-      </c>
       <c r="C183" s="31" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D183" s="93" t="s">
         <v>513</v>
@@ -28296,10 +28374,10 @@
     </row>
     <row r="184" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B184" s="53" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C184" s="31" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D184" s="93" t="s">
         <v>513</v>
@@ -28317,7 +28395,7 @@
         <v>529</v>
       </c>
       <c r="C185" s="31" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D185" s="93" t="s">
         <v>513</v>
@@ -28328,60 +28406,62 @@
       <c r="F185" s="48" t="s">
         <v>513</v>
       </c>
+      <c r="J185" s="53"/>
     </row>
     <row r="186" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B186" s="53" t="s">
+        <v>529</v>
+      </c>
+      <c r="C186" s="31" t="s">
+        <v>531</v>
+      </c>
+      <c r="D186" s="93" t="s">
+        <v>513</v>
+      </c>
+      <c r="E186" s="55" t="s">
+        <v>514</v>
+      </c>
+      <c r="F186" s="48" t="s">
+        <v>513</v>
+      </c>
+      <c r="J186" s="53"/>
+    </row>
+    <row r="187" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B187" s="53" t="s">
+        <v>529</v>
+      </c>
+      <c r="C187" s="31" t="s">
+        <v>532</v>
+      </c>
+      <c r="D187" s="93" t="s">
+        <v>513</v>
+      </c>
+      <c r="E187" s="55" t="s">
+        <v>514</v>
+      </c>
+      <c r="F187" s="48" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="188" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B188" s="53" t="s">
         <v>533</v>
       </c>
-      <c r="C186" s="31" t="s">
+      <c r="C188" s="31" t="s">
         <v>534</v>
       </c>
-      <c r="D186" s="43" t="s">
+      <c r="D188" s="43" t="s">
+        <v>728</v>
+      </c>
+      <c r="E188" s="55" t="s">
+        <v>535</v>
+      </c>
+      <c r="F188" s="55" t="s">
         <v>536</v>
       </c>
-      <c r="E186" s="55" t="s">
-        <v>535</v>
-      </c>
-      <c r="F186" s="55" t="s">
-        <v>536</v>
-      </c>
-      <c r="G186" s="55" t="s">
-        <v>731</v>
-      </c>
-      <c r="H186" s="55"/>
-      <c r="I186" s="55"/>
-      <c r="J186" s="53"/>
-    </row>
-    <row r="187" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B187" s="53"/>
-      <c r="C187" s="31" t="s">
-        <v>646</v>
-      </c>
-      <c r="D187" s="43" t="s">
-        <v>514</v>
-      </c>
-      <c r="E187" s="55" t="s">
-        <v>647</v>
-      </c>
-      <c r="F187" s="55"/>
-      <c r="G187" s="55"/>
-      <c r="H187" s="55"/>
-      <c r="I187" s="55"/>
-      <c r="J187" s="53"/>
-    </row>
-    <row r="188" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B188" s="53"/>
-      <c r="C188" s="31" t="s">
-        <v>648</v>
-      </c>
-      <c r="D188" s="43" t="s">
-        <v>514</v>
-      </c>
-      <c r="E188" s="55" t="s">
-        <v>649</v>
-      </c>
-      <c r="F188" s="55"/>
-      <c r="G188" s="55"/>
+      <c r="G188" s="55" t="s">
+        <v>729</v>
+      </c>
       <c r="H188" s="55"/>
       <c r="I188" s="55"/>
       <c r="J188" s="53"/>
@@ -28389,15 +28469,15 @@
     <row r="189" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B189" s="53"/>
       <c r="C189" s="31" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="D189" s="43" t="s">
-        <v>513</v>
-      </c>
-      <c r="E189" s="55"/>
-      <c r="F189" s="55" t="s">
-        <v>730</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="E189" s="55" t="s">
+        <v>645</v>
+      </c>
+      <c r="F189" s="55"/>
       <c r="G189" s="55"/>
       <c r="H189" s="55"/>
       <c r="I189" s="55"/>
@@ -28406,15 +28486,15 @@
     <row r="190" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B190" s="53"/>
       <c r="C190" s="31" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="D190" s="43" t="s">
-        <v>513</v>
-      </c>
-      <c r="E190" s="55"/>
-      <c r="F190" s="55" t="s">
-        <v>744</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="E190" s="55" t="s">
+        <v>647</v>
+      </c>
+      <c r="F190" s="55"/>
       <c r="G190" s="55"/>
       <c r="H190" s="55"/>
       <c r="I190" s="55"/>
@@ -28423,13 +28503,15 @@
     <row r="191" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B191" s="53"/>
       <c r="C191" s="31" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D191" s="43" t="s">
         <v>513</v>
       </c>
       <c r="E191" s="55"/>
-      <c r="F191" s="55"/>
+      <c r="F191" s="55" t="s">
+        <v>728</v>
+      </c>
       <c r="G191" s="55"/>
       <c r="H191" s="55"/>
       <c r="I191" s="55"/>
@@ -28438,13 +28520,15 @@
     <row r="192" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B192" s="53"/>
       <c r="C192" s="31" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D192" s="43" t="s">
         <v>513</v>
       </c>
       <c r="E192" s="55"/>
-      <c r="F192" s="55"/>
+      <c r="F192" s="55" t="s">
+        <v>742</v>
+      </c>
       <c r="G192" s="55"/>
       <c r="H192" s="55"/>
       <c r="I192" s="55"/>
@@ -28453,53 +28537,69 @@
     <row r="193" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B193" s="53"/>
       <c r="C193" s="31" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="D193" s="43" t="s">
         <v>513</v>
       </c>
       <c r="E193" s="55"/>
-      <c r="F193" s="55"/>
+      <c r="F193" s="55" t="s">
+        <v>537</v>
+      </c>
       <c r="G193" s="55"/>
       <c r="H193" s="55"/>
       <c r="I193" s="55"/>
       <c r="J193" s="53"/>
     </row>
+    <row r="194" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B194" s="53"/>
+      <c r="C194" s="31" t="s">
+        <v>651</v>
+      </c>
+      <c r="D194" s="43" t="s">
+        <v>513</v>
+      </c>
+      <c r="E194" s="55"/>
+      <c r="F194" s="55"/>
+      <c r="G194" s="55"/>
+      <c r="H194" s="55"/>
+      <c r="I194" s="55"/>
+      <c r="J194" s="53"/>
+    </row>
     <row r="195" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B195" s="12" t="s">
+      <c r="B195" s="53"/>
+      <c r="C195" s="31" t="s">
+        <v>652</v>
+      </c>
+      <c r="D195" s="43" t="s">
+        <v>513</v>
+      </c>
+      <c r="E195" s="55"/>
+      <c r="F195" s="55"/>
+      <c r="G195" s="55"/>
+      <c r="H195" s="55"/>
+      <c r="I195" s="55"/>
+      <c r="J195" s="53"/>
+    </row>
+    <row r="197" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B197" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="C195" s="13"/>
-      <c r="D195" s="13"/>
-      <c r="E195" s="13"/>
-      <c r="F195" s="13"/>
-      <c r="G195" s="13"/>
-      <c r="H195" s="14"/>
-    </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C196" s="27" t="s">
+      <c r="C197" s="13"/>
+      <c r="D197" s="13"/>
+      <c r="E197" s="13"/>
+      <c r="F197" s="13"/>
+      <c r="G197" s="13"/>
+      <c r="H197" s="14"/>
+    </row>
+    <row r="198" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C198" s="27" t="s">
         <v>539</v>
-      </c>
-    </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C197" s="93" t="s">
-        <v>540</v>
-      </c>
-      <c r="D197" s="95" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C198" s="93" t="s">
-        <v>541</v>
-      </c>
-      <c r="D198" s="95" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="199" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C199" s="93" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D199" s="95" t="s">
         <v>514</v>
@@ -28507,86 +28607,102 @@
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C200" s="93" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D200" s="95" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="201" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C201" s="93" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D201" s="95" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="202" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C202" s="93" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D202" s="95" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="203" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C203" s="43" t="s">
-        <v>546</v>
-      </c>
-      <c r="D203" s="44">
-        <v>1500</v>
+      <c r="C203" s="93" t="s">
+        <v>544</v>
+      </c>
+      <c r="D203" s="95" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="204" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C204" s="43" t="s">
-        <v>547</v>
-      </c>
-      <c r="D204" s="44">
-        <v>800</v>
+      <c r="C204" s="93" t="s">
+        <v>545</v>
+      </c>
+      <c r="D204" s="95" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="205" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C205" s="43" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D205" s="44">
-        <v>150</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="206" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C206" s="43" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D206" s="44">
-        <v>0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="207" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C207" s="43" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D207" s="44">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="208" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C208" s="43" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D208" s="44">
         <v>0</v>
       </c>
     </row>
+    <row r="209" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C209" s="43" t="s">
+        <v>550</v>
+      </c>
+      <c r="D209" s="44">
+        <v>0</v>
+      </c>
+    </row>
     <row r="210" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B210" s="12" t="s">
+      <c r="C210" s="43" t="s">
+        <v>551</v>
+      </c>
+      <c r="D210" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B212" s="12" t="s">
         <v>552</v>
       </c>
-      <c r="C210" s="13"/>
-      <c r="D210" s="13"/>
-      <c r="E210" s="13"/>
-      <c r="F210" s="13"/>
-      <c r="G210" s="13"/>
-      <c r="H210" s="14"/>
+      <c r="C212" s="13"/>
+      <c r="D212" s="13"/>
+      <c r="E212" s="13"/>
+      <c r="F212" s="13"/>
+      <c r="G212" s="13"/>
+      <c r="H212" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -28598,7 +28714,7 @@
   <dimension ref="A2:Q163"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -39311,10 +39427,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q210"/>
+  <dimension ref="A2:Q212"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112:I114"/>
+    <sheetView topLeftCell="A94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -39380,7 +39496,7 @@
         <v>259</v>
       </c>
       <c r="D6" s="95" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.45">
@@ -39737,7 +39853,7 @@
         <v>302</v>
       </c>
       <c r="G27" s="93" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="H27" s="34" t="s">
         <v>81</v>
@@ -39760,7 +39876,7 @@
         <v>85</v>
       </c>
       <c r="G28" s="93" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="H28" s="34" t="s">
         <v>88</v>
@@ -39783,7 +39899,7 @@
         <v>307</v>
       </c>
       <c r="G29" s="93" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="H29" s="34" t="s">
         <v>95</v>
@@ -39866,7 +39982,7 @@
         <v>117</v>
       </c>
       <c r="D33" s="93" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E33" s="93" t="s">
         <v>87</v>
@@ -39875,7 +39991,7 @@
         <v>316</v>
       </c>
       <c r="G33" s="93" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="H33" s="34" t="s">
         <v>119</v>
@@ -39990,7 +40106,7 @@
         <v>326</v>
       </c>
       <c r="G38" s="93" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="H38" s="34" t="s">
         <v>146</v>
@@ -40208,94 +40324,94 @@
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C48" s="33" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D48" s="93" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E48" s="93" t="s">
         <v>87</v>
       </c>
       <c r="F48" s="93" t="s">
+        <v>683</v>
+      </c>
+      <c r="G48" s="93" t="s">
+        <v>734</v>
+      </c>
+      <c r="H48" s="34" t="s">
+        <v>684</v>
+      </c>
+      <c r="I48" s="93" t="s">
         <v>685</v>
-      </c>
-      <c r="G48" s="93" t="s">
-        <v>736</v>
-      </c>
-      <c r="H48" s="34" t="s">
-        <v>686</v>
-      </c>
-      <c r="I48" s="93" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C49" s="33" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D49" s="93" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E49" s="93" t="s">
         <v>87</v>
       </c>
       <c r="F49" s="93" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G49" s="93" t="s">
         <v>285</v>
       </c>
       <c r="H49" s="34" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="I49" s="93" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C50" s="33" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D50" s="93" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E50" s="93" t="s">
         <v>87</v>
       </c>
       <c r="F50" s="93" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G50" s="93" t="s">
         <v>285</v>
       </c>
       <c r="H50" s="34" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="I50" s="93" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C51" s="33" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D51" s="93" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="E51" s="93" t="s">
         <v>162</v>
       </c>
       <c r="F51" s="93" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="G51" s="93" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="H51" s="34" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="I51" s="93" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.45">
@@ -40639,7 +40755,7 @@
         <v>340</v>
       </c>
       <c r="I77" s="48" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="J77" t="s">
         <v>391</v>
@@ -40674,7 +40790,7 @@
         <v>340</v>
       </c>
       <c r="I78" s="48" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="J78" t="s">
         <v>391</v>
@@ -40762,16 +40878,16 @@
         <v>364</v>
       </c>
       <c r="C81" s="94" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D81" s="93" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E81" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F81" s="37" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G81" s="93" t="s">
         <v>410</v>
@@ -40780,7 +40896,7 @@
         <v>340</v>
       </c>
       <c r="I81" s="30" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="J81" s="48" t="s">
         <v>395</v>
@@ -40796,16 +40912,16 @@
         <v>364</v>
       </c>
       <c r="C82" s="94" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D82" s="93" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E82" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F82" s="37" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G82" s="93" t="s">
         <v>410</v>
@@ -40814,7 +40930,7 @@
         <v>340</v>
       </c>
       <c r="I82" s="30" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="J82" s="48" t="s">
         <v>395</v>
@@ -40830,16 +40946,16 @@
         <v>364</v>
       </c>
       <c r="C83" s="94" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D83" s="93" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E83" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F83" s="37" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="G83" s="93" t="s">
         <v>338</v>
@@ -40848,7 +40964,7 @@
         <v>340</v>
       </c>
       <c r="I83" s="30" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="J83" s="48" t="s">
         <v>395</v>
@@ -40864,13 +40980,13 @@
         <v>364</v>
       </c>
       <c r="C84" s="94" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="D84" s="93" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E84" s="93" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F84" s="37" t="s">
         <v>41</v>
@@ -40882,7 +40998,7 @@
         <v>340</v>
       </c>
       <c r="I84" s="30" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="J84" s="48" t="s">
         <v>395</v>
@@ -40918,7 +41034,7 @@
         <v>340</v>
       </c>
       <c r="I85" s="30" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="J85" t="s">
         <v>388</v>
@@ -41058,7 +41174,7 @@
         <v>340</v>
       </c>
       <c r="I89" s="50" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="J89" s="50" t="s">
         <v>388</v>
@@ -41097,7 +41213,7 @@
         <v>340</v>
       </c>
       <c r="I90" s="48" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="J90" s="50" t="s">
         <v>388</v>
@@ -41210,7 +41326,7 @@
         <v>340</v>
       </c>
       <c r="I93" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="J93" t="s">
         <v>391</v>
@@ -41351,7 +41467,7 @@
         <v>340</v>
       </c>
       <c r="I97" s="48" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="J97" t="s">
         <v>391</v>
@@ -41403,10 +41519,10 @@
         <v>364</v>
       </c>
       <c r="C99" s="94" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D99" s="93" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E99" s="93" t="s">
         <v>55</v>
@@ -41421,7 +41537,7 @@
         <v>340</v>
       </c>
       <c r="I99" s="48" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="J99" s="48" t="s">
         <v>391</v>
@@ -41438,10 +41554,10 @@
         <v>364</v>
       </c>
       <c r="C100" s="94" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D100" s="93" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E100" s="93" t="s">
         <v>55</v>
@@ -41456,7 +41572,7 @@
         <v>340</v>
       </c>
       <c r="I100" s="48" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="J100" s="48" t="s">
         <v>391</v>
@@ -41473,16 +41589,16 @@
         <v>364</v>
       </c>
       <c r="C101" s="94" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D101" s="93" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E101" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F101" s="37" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="G101" s="93" t="s">
         <v>333</v>
@@ -41491,7 +41607,7 @@
         <v>340</v>
       </c>
       <c r="I101" s="48" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J101" s="48" t="s">
         <v>391</v>
@@ -41565,7 +41681,7 @@
         <v>340</v>
       </c>
       <c r="I103" s="50" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="J103" s="50" t="s">
         <v>391</v>
@@ -41625,16 +41741,16 @@
         <v>364</v>
       </c>
       <c r="C105" s="94" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D105" s="98" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E105" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F105" s="41" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="G105" s="93" t="s">
         <v>338</v>
@@ -41643,7 +41759,7 @@
         <v>340</v>
       </c>
       <c r="I105" s="48" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="J105" s="50" t="s">
         <v>391</v>
@@ -41664,16 +41780,16 @@
         <v>364</v>
       </c>
       <c r="C106" s="94" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D106" s="98" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E106" s="93" t="s">
         <v>28</v>
       </c>
       <c r="F106" s="41" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="G106" s="93" t="s">
         <v>338</v>
@@ -41682,7 +41798,7 @@
         <v>340</v>
       </c>
       <c r="I106" s="48" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="J106" s="50" t="s">
         <v>391</v>
@@ -41701,16 +41817,16 @@
         <v>364</v>
       </c>
       <c r="C107" s="94" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D107" s="98" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E107" s="93" t="s">
         <v>28</v>
       </c>
       <c r="F107" s="41" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G107" s="93" t="s">
         <v>333</v>
@@ -41719,7 +41835,7 @@
         <v>340</v>
       </c>
       <c r="I107" s="26" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="J107" s="50" t="s">
         <v>391</v>
@@ -41756,7 +41872,7 @@
         <v>340</v>
       </c>
       <c r="I108" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="J108" t="s">
         <v>391</v>
@@ -41791,7 +41907,7 @@
         <v>340</v>
       </c>
       <c r="I109" s="48" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="J109" t="s">
         <v>391</v>
@@ -41887,7 +42003,7 @@
         <v>431</v>
       </c>
       <c r="E112" s="93" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="F112" s="39" t="s">
         <v>137</v>
@@ -41899,7 +42015,7 @@
         <v>340</v>
       </c>
       <c r="I112" s="50" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="J112" t="s">
         <v>395</v>
@@ -41934,7 +42050,7 @@
         <v>340</v>
       </c>
       <c r="I113" s="50" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="J113" t="s">
         <v>395</v>
@@ -41969,7 +42085,7 @@
         <v>340</v>
       </c>
       <c r="I114" s="50" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="J114" t="s">
         <v>395</v>
@@ -41985,26 +42101,26 @@
       <c r="B115" s="53" t="s">
         <v>423</v>
       </c>
-      <c r="C115" s="46" t="s">
+      <c r="C115" s="99" t="s">
         <v>153</v>
       </c>
       <c r="D115" s="93" t="s">
         <v>437</v>
       </c>
       <c r="E115" s="93" t="s">
-        <v>131</v>
+        <v>818</v>
       </c>
       <c r="F115" s="37" t="s">
-        <v>154</v>
+        <v>820</v>
       </c>
       <c r="G115" s="93" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="H115" s="93" t="s">
         <v>340</v>
       </c>
       <c r="I115" s="30" t="s">
-        <v>438</v>
+        <v>817</v>
       </c>
       <c r="J115" t="s">
         <v>391</v>
@@ -42027,19 +42143,19 @@
         <v>439</v>
       </c>
       <c r="E116" s="93" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="F116" s="37" t="s">
-        <v>160</v>
+        <v>821</v>
       </c>
       <c r="G116" s="93" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="H116" s="93" t="s">
         <v>340</v>
       </c>
       <c r="I116" s="26" t="s">
-        <v>440</v>
+        <v>819</v>
       </c>
       <c r="J116" t="s">
         <v>391</v>
@@ -42097,7 +42213,7 @@
         <v>445</v>
       </c>
       <c r="E118" s="93" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F118" s="37" t="s">
         <v>172</v>
@@ -42109,7 +42225,7 @@
         <v>340</v>
       </c>
       <c r="I118" s="48" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="J118" t="s">
         <v>391</v>
@@ -42144,7 +42260,7 @@
         <v>340</v>
       </c>
       <c r="I119" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="J119" t="s">
         <v>391</v>
@@ -42381,7 +42497,7 @@
         <v>599</v>
       </c>
       <c r="E126" s="93" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="F126" s="37" t="s">
         <v>600</v>
@@ -42392,8 +42508,8 @@
       <c r="H126" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I126" t="s">
-        <v>601</v>
+      <c r="I126" s="48" t="s">
+        <v>808</v>
       </c>
       <c r="J126" s="55" t="s">
         <v>457</v>
@@ -42408,28 +42524,28 @@
         <v>51</v>
       </c>
       <c r="B127" s="53" t="s">
-        <v>441</v>
-      </c>
-      <c r="C127" s="46" t="s">
-        <v>202</v>
+        <v>364</v>
+      </c>
+      <c r="C127" s="94" t="s">
+        <v>811</v>
       </c>
       <c r="D127" s="93" t="s">
-        <v>462</v>
+        <v>809</v>
       </c>
       <c r="E127" s="93" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F127" s="37" t="s">
-        <v>203</v>
+        <v>815</v>
       </c>
       <c r="G127" s="93" t="s">
-        <v>386</v>
+        <v>333</v>
       </c>
       <c r="H127" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I127" t="s">
-        <v>463</v>
+      <c r="I127" s="48" t="s">
+        <v>813</v>
       </c>
       <c r="J127" s="55" t="s">
         <v>457</v>
@@ -42444,28 +42560,28 @@
         <v>52</v>
       </c>
       <c r="B128" s="53" t="s">
-        <v>441</v>
+        <v>364</v>
       </c>
       <c r="C128" s="94" t="s">
-        <v>204</v>
+        <v>812</v>
       </c>
       <c r="D128" s="93" t="s">
-        <v>464</v>
+        <v>810</v>
       </c>
       <c r="E128" s="93" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F128" s="37" t="s">
-        <v>205</v>
+        <v>816</v>
       </c>
       <c r="G128" s="93" t="s">
-        <v>386</v>
+        <v>333</v>
       </c>
       <c r="H128" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I128" t="s">
-        <v>465</v>
+      <c r="I128" s="48" t="s">
+        <v>814</v>
       </c>
       <c r="J128" s="55" t="s">
         <v>457</v>
@@ -42480,28 +42596,28 @@
         <v>53</v>
       </c>
       <c r="B129" s="53" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C129" s="46" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D129" s="93" t="s">
-        <v>602</v>
+        <v>462</v>
       </c>
       <c r="E129" s="93" t="s">
-        <v>603</v>
+        <v>20</v>
       </c>
       <c r="F129" s="37" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G129" s="93" t="s">
-        <v>333</v>
+        <v>386</v>
       </c>
       <c r="H129" s="93" t="s">
         <v>340</v>
       </c>
       <c r="I129" t="s">
-        <v>604</v>
+        <v>463</v>
       </c>
       <c r="J129" s="55" t="s">
         <v>457</v>
@@ -42516,28 +42632,28 @@
         <v>54</v>
       </c>
       <c r="B130" s="53" t="s">
-        <v>444</v>
-      </c>
-      <c r="C130" s="46" t="s">
-        <v>208</v>
+        <v>441</v>
+      </c>
+      <c r="C130" s="94" t="s">
+        <v>204</v>
       </c>
       <c r="D130" s="93" t="s">
-        <v>605</v>
+        <v>464</v>
       </c>
       <c r="E130" s="93" t="s">
         <v>40</v>
       </c>
       <c r="F130" s="37" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G130" s="93" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="H130" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I130" s="30" t="s">
-        <v>468</v>
+      <c r="I130" t="s">
+        <v>465</v>
       </c>
       <c r="J130" s="55" t="s">
         <v>457</v>
@@ -42554,17 +42670,17 @@
       <c r="B131" s="53" t="s">
         <v>444</v>
       </c>
-      <c r="C131" s="94" t="s">
-        <v>606</v>
+      <c r="C131" s="46" t="s">
+        <v>206</v>
       </c>
       <c r="D131" s="93" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="E131" s="93" t="s">
-        <v>28</v>
+        <v>602</v>
       </c>
       <c r="F131" s="37" t="s">
-        <v>608</v>
+        <v>207</v>
       </c>
       <c r="G131" s="93" t="s">
         <v>333</v>
@@ -42573,7 +42689,7 @@
         <v>340</v>
       </c>
       <c r="I131" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="J131" s="55" t="s">
         <v>457</v>
@@ -42588,66 +42704,67 @@
         <v>56</v>
       </c>
       <c r="B132" s="53" t="s">
-        <v>384</v>
+        <v>444</v>
       </c>
       <c r="C132" s="46" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D132" s="93" t="s">
-        <v>469</v>
+        <v>604</v>
       </c>
       <c r="E132" s="93" t="s">
         <v>40</v>
       </c>
       <c r="F132" s="37" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G132" s="93" t="s">
-        <v>338</v>
+        <v>410</v>
       </c>
       <c r="H132" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I132" s="48" t="s">
-        <v>762</v>
-      </c>
-      <c r="J132" t="s">
-        <v>391</v>
-      </c>
-      <c r="K132" t="s">
-        <v>138</v>
-      </c>
+      <c r="I132" s="30" t="s">
+        <v>468</v>
+      </c>
+      <c r="J132" s="55" t="s">
+        <v>457</v>
+      </c>
+      <c r="K132" s="55">
+        <v>1</v>
+      </c>
+      <c r="M132" s="55"/>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A133" s="48">
         <v>57</v>
       </c>
       <c r="B133" s="53" t="s">
-        <v>364</v>
+        <v>444</v>
       </c>
       <c r="C133" s="94" t="s">
-        <v>213</v>
+        <v>605</v>
       </c>
       <c r="D133" s="93" t="s">
-        <v>471</v>
+        <v>606</v>
       </c>
       <c r="E133" s="93" t="s">
         <v>40</v>
       </c>
       <c r="F133" s="37" t="s">
-        <v>214</v>
+        <v>607</v>
       </c>
       <c r="G133" s="93" t="s">
-        <v>386</v>
+        <v>333</v>
       </c>
       <c r="H133" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I133" s="30" t="s">
-        <v>472</v>
-      </c>
-      <c r="J133" t="s">
-        <v>395</v>
+      <c r="I133" s="48" t="s">
+        <v>807</v>
+      </c>
+      <c r="J133" s="55" t="s">
+        <v>457</v>
       </c>
       <c r="K133" s="55">
         <v>1</v>
@@ -42659,36 +42776,35 @@
         <v>58</v>
       </c>
       <c r="B134" s="53" t="s">
-        <v>364</v>
-      </c>
-      <c r="C134" s="94" t="s">
-        <v>215</v>
+        <v>384</v>
+      </c>
+      <c r="C134" s="46" t="s">
+        <v>211</v>
       </c>
       <c r="D134" s="93" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E134" s="93" t="s">
         <v>40</v>
       </c>
       <c r="F134" s="37" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G134" s="93" t="s">
-        <v>386</v>
+        <v>338</v>
       </c>
       <c r="H134" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I134" s="30" t="s">
-        <v>474</v>
+      <c r="I134" s="48" t="s">
+        <v>759</v>
       </c>
       <c r="J134" t="s">
-        <v>395</v>
-      </c>
-      <c r="K134" s="55">
-        <v>1</v>
-      </c>
-      <c r="M134" s="55"/>
+        <v>391</v>
+      </c>
+      <c r="K134" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A135" s="48">
@@ -42697,33 +42813,34 @@
       <c r="B135" s="53" t="s">
         <v>364</v>
       </c>
-      <c r="C135" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="D135" s="95" t="s">
-        <v>475</v>
+      <c r="C135" s="94" t="s">
+        <v>213</v>
+      </c>
+      <c r="D135" s="93" t="s">
+        <v>471</v>
       </c>
       <c r="E135" s="93" t="s">
-        <v>238</v>
+        <v>40</v>
       </c>
       <c r="F135" s="37" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G135" s="93" t="s">
-        <v>476</v>
+        <v>386</v>
       </c>
       <c r="H135" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I135" t="s">
-        <v>610</v>
+      <c r="I135" s="30" t="s">
+        <v>472</v>
       </c>
       <c r="J135" t="s">
         <v>395</v>
       </c>
-      <c r="K135" t="s">
-        <v>57</v>
-      </c>
+      <c r="K135" s="55">
+        <v>1</v>
+      </c>
+      <c r="M135" s="55"/>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A136" s="48">
@@ -42732,17 +42849,17 @@
       <c r="B136" s="53" t="s">
         <v>364</v>
       </c>
-      <c r="C136" s="46" t="s">
-        <v>218</v>
-      </c>
-      <c r="D136" s="95" t="s">
-        <v>475</v>
+      <c r="C136" s="94" t="s">
+        <v>215</v>
+      </c>
+      <c r="D136" s="93" t="s">
+        <v>473</v>
       </c>
       <c r="E136" s="93" t="s">
-        <v>243</v>
+        <v>40</v>
       </c>
       <c r="F136" s="37" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G136" s="93" t="s">
         <v>386</v>
@@ -42751,14 +42868,15 @@
         <v>340</v>
       </c>
       <c r="I136" s="30" t="s">
-        <v>760</v>
+        <v>474</v>
       </c>
       <c r="J136" t="s">
         <v>395</v>
       </c>
-      <c r="K136" t="s">
-        <v>57</v>
-      </c>
+      <c r="K136" s="55">
+        <v>1</v>
+      </c>
+      <c r="M136" s="55"/>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A137" s="48">
@@ -42767,26 +42885,26 @@
       <c r="B137" s="53" t="s">
         <v>364</v>
       </c>
-      <c r="C137" s="94" t="s">
-        <v>611</v>
+      <c r="C137" s="46" t="s">
+        <v>216</v>
       </c>
       <c r="D137" s="95" t="s">
         <v>475</v>
       </c>
       <c r="E137" s="93" t="s">
-        <v>55</v>
+        <v>238</v>
       </c>
       <c r="F137" s="37" t="s">
-        <v>612</v>
+        <v>217</v>
       </c>
       <c r="G137" s="93" t="s">
-        <v>386</v>
+        <v>476</v>
       </c>
       <c r="H137" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I137" s="30" t="s">
-        <v>613</v>
+      <c r="I137" t="s">
+        <v>608</v>
       </c>
       <c r="J137" t="s">
         <v>395</v>
@@ -42803,28 +42921,28 @@
         <v>364</v>
       </c>
       <c r="C138" s="46" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D138" s="95" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E138" s="93" t="s">
-        <v>28</v>
+        <v>243</v>
       </c>
       <c r="F138" s="37" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G138" s="93" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="H138" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I138" t="s">
-        <v>480</v>
+      <c r="I138" s="30" t="s">
+        <v>757</v>
       </c>
       <c r="J138" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="K138" t="s">
         <v>57</v>
@@ -42837,26 +42955,26 @@
       <c r="B139" s="53" t="s">
         <v>364</v>
       </c>
-      <c r="C139" s="46" t="s">
-        <v>222</v>
+      <c r="C139" s="94" t="s">
+        <v>609</v>
       </c>
       <c r="D139" s="95" t="s">
-        <v>614</v>
+        <v>475</v>
       </c>
       <c r="E139" s="93" t="s">
-        <v>238</v>
+        <v>55</v>
       </c>
       <c r="F139" s="37" t="s">
-        <v>223</v>
+        <v>610</v>
       </c>
       <c r="G139" s="93" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="H139" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I139" s="48" t="s">
-        <v>798</v>
+      <c r="I139" s="30" t="s">
+        <v>611</v>
       </c>
       <c r="J139" t="s">
         <v>395</v>
@@ -42872,29 +42990,29 @@
       <c r="B140" s="53" t="s">
         <v>364</v>
       </c>
-      <c r="C140" s="94" t="s">
-        <v>615</v>
+      <c r="C140" s="46" t="s">
+        <v>220</v>
       </c>
       <c r="D140" s="95" t="s">
-        <v>616</v>
+        <v>479</v>
       </c>
       <c r="E140" s="93" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="F140" s="37" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G140" s="93" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="H140" s="93" t="s">
         <v>340</v>
       </c>
       <c r="I140" t="s">
-        <v>617</v>
+        <v>480</v>
       </c>
       <c r="J140" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K140" t="s">
         <v>57</v>
@@ -42908,31 +43026,31 @@
         <v>364</v>
       </c>
       <c r="C141" s="46" t="s">
-        <v>224</v>
-      </c>
-      <c r="D141" s="93" t="s">
-        <v>483</v>
+        <v>222</v>
+      </c>
+      <c r="D141" s="95" t="s">
+        <v>612</v>
       </c>
       <c r="E141" s="93" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="F141" s="37" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G141" s="93" t="s">
-        <v>338</v>
+        <v>410</v>
       </c>
       <c r="H141" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I141" t="s">
-        <v>434</v>
+      <c r="I141" s="48" t="s">
+        <v>795</v>
       </c>
       <c r="J141" t="s">
         <v>395</v>
       </c>
       <c r="K141" t="s">
-        <v>227</v>
+        <v>57</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.45">
@@ -42942,32 +43060,32 @@
       <c r="B142" s="53" t="s">
         <v>364</v>
       </c>
-      <c r="C142" s="46" t="s">
-        <v>232</v>
-      </c>
-      <c r="D142" s="93" t="s">
-        <v>486</v>
+      <c r="C142" s="94" t="s">
+        <v>613</v>
+      </c>
+      <c r="D142" s="95" t="s">
+        <v>614</v>
       </c>
       <c r="E142" s="93" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F142" s="37" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="G142" s="93" t="s">
-        <v>333</v>
+        <v>410</v>
       </c>
       <c r="H142" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I142" s="48" t="s">
-        <v>757</v>
+      <c r="I142" t="s">
+        <v>615</v>
       </c>
       <c r="J142" t="s">
         <v>395</v>
       </c>
       <c r="K142" t="s">
-        <v>227</v>
+        <v>57</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.45">
@@ -42977,26 +43095,26 @@
       <c r="B143" s="53" t="s">
         <v>364</v>
       </c>
-      <c r="C143" s="94" t="s">
-        <v>618</v>
+      <c r="C143" s="46" t="s">
+        <v>224</v>
       </c>
       <c r="D143" s="93" t="s">
-        <v>619</v>
+        <v>483</v>
       </c>
       <c r="E143" s="93" t="s">
-        <v>55</v>
+        <v>225</v>
       </c>
       <c r="F143" s="37" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G143" s="93" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="H143" s="93" t="s">
         <v>340</v>
       </c>
       <c r="I143" t="s">
-        <v>620</v>
+        <v>434</v>
       </c>
       <c r="J143" t="s">
         <v>395</v>
@@ -43013,31 +43131,31 @@
         <v>364</v>
       </c>
       <c r="C144" s="46" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D144" s="93" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E144" s="93" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="F144" s="37" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G144" s="93" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H144" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I144" t="s">
-        <v>485</v>
+      <c r="I144" s="48" t="s">
+        <v>754</v>
       </c>
       <c r="J144" t="s">
         <v>395</v>
       </c>
       <c r="K144" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.45">
@@ -43047,32 +43165,32 @@
       <c r="B145" s="53" t="s">
         <v>364</v>
       </c>
-      <c r="C145" s="46" t="s">
-        <v>235</v>
+      <c r="C145" s="94" t="s">
+        <v>616</v>
       </c>
       <c r="D145" s="93" t="s">
-        <v>488</v>
+        <v>617</v>
       </c>
       <c r="E145" s="93" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F145" s="37" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G145" s="93" t="s">
-        <v>386</v>
+        <v>333</v>
       </c>
       <c r="H145" s="93" t="s">
         <v>340</v>
       </c>
       <c r="I145" t="s">
-        <v>758</v>
+        <v>618</v>
       </c>
       <c r="J145" t="s">
         <v>395</v>
       </c>
       <c r="K145" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.45">
@@ -43082,26 +43200,26 @@
       <c r="B146" s="53" t="s">
         <v>364</v>
       </c>
-      <c r="C146" s="94" t="s">
-        <v>621</v>
+      <c r="C146" s="46" t="s">
+        <v>229</v>
       </c>
       <c r="D146" s="93" t="s">
-        <v>622</v>
+        <v>484</v>
       </c>
       <c r="E146" s="93" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="F146" s="37" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G146" s="93" t="s">
-        <v>386</v>
+        <v>338</v>
       </c>
       <c r="H146" s="93" t="s">
         <v>340</v>
       </c>
       <c r="I146" t="s">
-        <v>623</v>
+        <v>485</v>
       </c>
       <c r="J146" t="s">
         <v>395</v>
@@ -43118,16 +43236,16 @@
         <v>364</v>
       </c>
       <c r="C147" s="46" t="s">
-        <v>237</v>
-      </c>
-      <c r="D147" s="42" t="s">
-        <v>490</v>
+        <v>235</v>
+      </c>
+      <c r="D147" s="93" t="s">
+        <v>488</v>
       </c>
       <c r="E147" s="93" t="s">
-        <v>238</v>
+        <v>40</v>
       </c>
       <c r="F147" s="37" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G147" s="93" t="s">
         <v>386</v>
@@ -43135,14 +43253,14 @@
       <c r="H147" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I147" s="30" t="s">
-        <v>491</v>
+      <c r="I147" t="s">
+        <v>755</v>
       </c>
       <c r="J147" t="s">
         <v>395</v>
       </c>
       <c r="K147" t="s">
-        <v>57</v>
+        <v>231</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.45">
@@ -43152,17 +43270,17 @@
       <c r="B148" s="53" t="s">
         <v>364</v>
       </c>
-      <c r="C148" s="46" t="s">
-        <v>240</v>
-      </c>
-      <c r="D148" s="42" t="s">
-        <v>492</v>
+      <c r="C148" s="94" t="s">
+        <v>619</v>
+      </c>
+      <c r="D148" s="93" t="s">
+        <v>620</v>
       </c>
       <c r="E148" s="93" t="s">
-        <v>243</v>
+        <v>55</v>
       </c>
       <c r="F148" s="37" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G148" s="93" t="s">
         <v>386</v>
@@ -43170,16 +43288,15 @@
       <c r="H148" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I148" s="30" t="s">
-        <v>751</v>
+      <c r="I148" t="s">
+        <v>621</v>
       </c>
       <c r="J148" t="s">
         <v>395</v>
       </c>
       <c r="K148" t="s">
-        <v>57</v>
-      </c>
-      <c r="O148" s="50"/>
+        <v>231</v>
+      </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A149" s="48">
@@ -43189,16 +43306,16 @@
         <v>364</v>
       </c>
       <c r="C149" s="46" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D149" s="42" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E149" s="93" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F149" s="37" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G149" s="93" t="s">
         <v>386</v>
@@ -43207,7 +43324,7 @@
         <v>340</v>
       </c>
       <c r="I149" s="30" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="J149" t="s">
         <v>395</v>
@@ -43223,17 +43340,17 @@
       <c r="B150" s="53" t="s">
         <v>364</v>
       </c>
-      <c r="C150" s="94" t="s">
-        <v>245</v>
+      <c r="C150" s="46" t="s">
+        <v>240</v>
       </c>
       <c r="D150" s="42" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E150" s="93" t="s">
-        <v>49</v>
+        <v>243</v>
       </c>
       <c r="F150" s="37" t="s">
-        <v>41</v>
+        <v>241</v>
       </c>
       <c r="G150" s="93" t="s">
         <v>386</v>
@@ -43242,7 +43359,7 @@
         <v>340</v>
       </c>
       <c r="I150" s="30" t="s">
-        <v>497</v>
+        <v>748</v>
       </c>
       <c r="J150" t="s">
         <v>395</v>
@@ -43250,6 +43367,7 @@
       <c r="K150" t="s">
         <v>57</v>
       </c>
+      <c r="O150" s="50"/>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A151" s="48">
@@ -43258,14 +43376,14 @@
       <c r="B151" s="53" t="s">
         <v>364</v>
       </c>
-      <c r="C151" s="94" t="s">
-        <v>624</v>
+      <c r="C151" s="46" t="s">
+        <v>242</v>
       </c>
       <c r="D151" s="42" t="s">
-        <v>625</v>
+        <v>494</v>
       </c>
       <c r="E151" s="93" t="s">
-        <v>55</v>
+        <v>243</v>
       </c>
       <c r="F151" s="37" t="s">
         <v>244</v>
@@ -43276,8 +43394,8 @@
       <c r="H151" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I151" s="97" t="s">
-        <v>626</v>
+      <c r="I151" s="30" t="s">
+        <v>495</v>
       </c>
       <c r="J151" t="s">
         <v>395</v>
@@ -43294,13 +43412,13 @@
         <v>364</v>
       </c>
       <c r="C152" s="94" t="s">
-        <v>627</v>
+        <v>245</v>
       </c>
       <c r="D152" s="42" t="s">
-        <v>628</v>
+        <v>496</v>
       </c>
       <c r="E152" s="93" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F152" s="37" t="s">
         <v>41</v>
@@ -43312,7 +43430,7 @@
         <v>340</v>
       </c>
       <c r="I152" s="30" t="s">
-        <v>629</v>
+        <v>497</v>
       </c>
       <c r="J152" t="s">
         <v>395</v>
@@ -43328,32 +43446,32 @@
       <c r="B153" s="53" t="s">
         <v>364</v>
       </c>
-      <c r="C153" s="46" t="s">
-        <v>246</v>
+      <c r="C153" s="94" t="s">
+        <v>622</v>
       </c>
       <c r="D153" s="42" t="s">
-        <v>498</v>
+        <v>623</v>
       </c>
       <c r="E153" s="93" t="s">
-        <v>742</v>
+        <v>55</v>
       </c>
       <c r="F153" s="37" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G153" s="93" t="s">
-        <v>338</v>
+        <v>386</v>
       </c>
       <c r="H153" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I153" s="48" t="s">
-        <v>752</v>
+      <c r="I153" s="97" t="s">
+        <v>624</v>
       </c>
       <c r="J153" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="K153" t="s">
-        <v>248</v>
+        <v>57</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.45">
@@ -43364,31 +43482,31 @@
         <v>364</v>
       </c>
       <c r="C154" s="94" t="s">
-        <v>249</v>
+        <v>625</v>
       </c>
       <c r="D154" s="42" t="s">
-        <v>500</v>
+        <v>626</v>
       </c>
       <c r="E154" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F154" s="37" t="s">
-        <v>250</v>
+        <v>41</v>
       </c>
       <c r="G154" s="93" t="s">
-        <v>501</v>
+        <v>386</v>
       </c>
       <c r="H154" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I154" t="s">
-        <v>502</v>
+      <c r="I154" s="30" t="s">
+        <v>627</v>
       </c>
       <c r="J154" t="s">
         <v>395</v>
       </c>
-      <c r="K154" s="55">
-        <v>1</v>
+      <c r="K154" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.45">
@@ -43398,32 +43516,32 @@
       <c r="B155" s="53" t="s">
         <v>364</v>
       </c>
-      <c r="C155" s="94" t="s">
-        <v>251</v>
+      <c r="C155" s="46" t="s">
+        <v>246</v>
       </c>
       <c r="D155" s="42" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="E155" s="93" t="s">
-        <v>55</v>
+        <v>740</v>
       </c>
       <c r="F155" s="37" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G155" s="93" t="s">
-        <v>501</v>
+        <v>338</v>
       </c>
       <c r="H155" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I155" t="s">
-        <v>504</v>
+      <c r="I155" s="48" t="s">
+        <v>749</v>
       </c>
       <c r="J155" t="s">
-        <v>395</v>
-      </c>
-      <c r="K155" s="55">
-        <v>1</v>
+        <v>391</v>
+      </c>
+      <c r="K155" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.45">
@@ -43434,28 +43552,28 @@
         <v>364</v>
       </c>
       <c r="C156" s="94" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D156" s="42" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="E156" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F156" s="37" t="s">
-        <v>26</v>
+        <v>250</v>
       </c>
       <c r="G156" s="93" t="s">
-        <v>340</v>
+        <v>501</v>
       </c>
       <c r="H156" s="93" t="s">
         <v>340</v>
       </c>
       <c r="I156" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="J156" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="K156" s="55">
         <v>1</v>
@@ -43466,34 +43584,34 @@
         <v>81</v>
       </c>
       <c r="B157" s="53" t="s">
-        <v>444</v>
+        <v>364</v>
       </c>
       <c r="C157" s="94" t="s">
-        <v>779</v>
-      </c>
-      <c r="D157" s="43" t="s">
-        <v>780</v>
+        <v>251</v>
+      </c>
+      <c r="D157" s="42" t="s">
+        <v>503</v>
       </c>
       <c r="E157" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F157" s="37" t="s">
-        <v>782</v>
+        <v>250</v>
       </c>
       <c r="G157" s="93" t="s">
-        <v>333</v>
+        <v>501</v>
       </c>
       <c r="H157" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I157" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="J157" s="48" t="s">
-        <v>391</v>
-      </c>
-      <c r="K157" s="55" t="s">
-        <v>783</v>
+      <c r="I157" t="s">
+        <v>504</v>
+      </c>
+      <c r="J157" t="s">
+        <v>395</v>
+      </c>
+      <c r="K157" s="55">
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.45">
@@ -43501,19 +43619,19 @@
         <v>82</v>
       </c>
       <c r="B158" s="53" t="s">
-        <v>772</v>
+        <v>364</v>
       </c>
       <c r="C158" s="94" t="s">
-        <v>776</v>
-      </c>
-      <c r="D158" s="43" t="s">
-        <v>778</v>
+        <v>252</v>
+      </c>
+      <c r="D158" s="42" t="s">
+        <v>505</v>
       </c>
       <c r="E158" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F158" s="37" t="s">
-        <v>152</v>
+        <v>26</v>
       </c>
       <c r="G158" s="93" t="s">
         <v>340</v>
@@ -43521,14 +43639,14 @@
       <c r="H158" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I158" s="48" t="s">
-        <v>777</v>
-      </c>
-      <c r="J158" s="48" t="s">
-        <v>773</v>
-      </c>
-      <c r="K158" s="55" t="s">
-        <v>92</v>
+      <c r="I158" t="s">
+        <v>506</v>
+      </c>
+      <c r="J158" t="s">
+        <v>391</v>
+      </c>
+      <c r="K158" s="55">
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.45">
@@ -43536,34 +43654,34 @@
         <v>83</v>
       </c>
       <c r="B159" s="53" t="s">
-        <v>772</v>
+        <v>444</v>
       </c>
       <c r="C159" s="94" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="D159" s="43" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="E159" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F159" s="37" t="s">
-        <v>77</v>
+        <v>779</v>
       </c>
       <c r="G159" s="93" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="H159" s="93" t="s">
         <v>340</v>
       </c>
       <c r="I159" s="48" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="J159" s="48" t="s">
-        <v>773</v>
+        <v>391</v>
       </c>
       <c r="K159" s="55" t="s">
-        <v>92</v>
+        <v>780</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.45">
@@ -43571,34 +43689,34 @@
         <v>84</v>
       </c>
       <c r="B160" s="53" t="s">
-        <v>444</v>
+        <v>769</v>
       </c>
       <c r="C160" s="94" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="D160" s="43" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="E160" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F160" s="37" t="s">
-        <v>769</v>
+        <v>152</v>
       </c>
       <c r="G160" s="93" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H160" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I160" s="26" t="s">
-        <v>768</v>
+      <c r="I160" s="48" t="s">
+        <v>774</v>
       </c>
       <c r="J160" s="48" t="s">
-        <v>391</v>
-      </c>
-      <c r="K160" s="55">
-        <v>1</v>
+        <v>770</v>
+      </c>
+      <c r="K160" s="55" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.45">
@@ -43606,34 +43724,34 @@
         <v>85</v>
       </c>
       <c r="B161" s="53" t="s">
-        <v>430</v>
+        <v>769</v>
       </c>
       <c r="C161" s="94" t="s">
-        <v>799</v>
+        <v>768</v>
       </c>
       <c r="D161" s="43" t="s">
-        <v>801</v>
+        <v>772</v>
       </c>
       <c r="E161" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F161" s="37" t="s">
-        <v>800</v>
+        <v>77</v>
       </c>
       <c r="G161" s="93" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H161" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I161" s="26" t="s">
-        <v>802</v>
+      <c r="I161" s="48" t="s">
+        <v>771</v>
       </c>
       <c r="J161" s="48" t="s">
-        <v>391</v>
+        <v>770</v>
       </c>
       <c r="K161" s="55" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.45">
@@ -43641,19 +43759,19 @@
         <v>86</v>
       </c>
       <c r="B162" s="53" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C162" s="94" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D162" s="43" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E162" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F162" s="37" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="G162" s="93" t="s">
         <v>338</v>
@@ -43676,34 +43794,34 @@
         <v>87</v>
       </c>
       <c r="B163" s="53" t="s">
-        <v>364</v>
+        <v>430</v>
       </c>
       <c r="C163" s="94" t="s">
-        <v>630</v>
+        <v>796</v>
       </c>
       <c r="D163" s="43" t="s">
-        <v>631</v>
+        <v>798</v>
       </c>
       <c r="E163" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F163" s="37" t="s">
-        <v>632</v>
+        <v>797</v>
       </c>
       <c r="G163" s="93" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="H163" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I163" s="30" t="s">
-        <v>633</v>
+      <c r="I163" s="26" t="s">
+        <v>799</v>
       </c>
       <c r="J163" s="48" t="s">
-        <v>395</v>
-      </c>
-      <c r="K163" s="48" t="s">
-        <v>57</v>
+        <v>391</v>
+      </c>
+      <c r="K163" s="55" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.45">
@@ -43711,34 +43829,34 @@
         <v>88</v>
       </c>
       <c r="B164" s="53" t="s">
-        <v>364</v>
+        <v>441</v>
       </c>
       <c r="C164" s="94" t="s">
-        <v>634</v>
+        <v>760</v>
       </c>
       <c r="D164" s="43" t="s">
-        <v>635</v>
+        <v>763</v>
       </c>
       <c r="E164" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F164" s="37" t="s">
-        <v>636</v>
+        <v>761</v>
       </c>
       <c r="G164" s="93" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="H164" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="I164" s="30" t="s">
-        <v>637</v>
+      <c r="I164" s="26" t="s">
+        <v>762</v>
       </c>
       <c r="J164" s="48" t="s">
-        <v>395</v>
-      </c>
-      <c r="K164" s="48" t="s">
-        <v>57</v>
+        <v>391</v>
+      </c>
+      <c r="K164" s="55">
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.45">
@@ -43749,16 +43867,16 @@
         <v>364</v>
       </c>
       <c r="C165" s="94" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="D165" s="43" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="E165" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F165" s="37" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="G165" s="93" t="s">
         <v>333</v>
@@ -43767,7 +43885,7 @@
         <v>340</v>
       </c>
       <c r="I165" s="30" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="J165" s="48" t="s">
         <v>395</v>
@@ -43784,16 +43902,16 @@
         <v>364</v>
       </c>
       <c r="C166" s="94" t="s">
-        <v>642</v>
-      </c>
-      <c r="D166" s="93" t="s">
-        <v>643</v>
+        <v>632</v>
+      </c>
+      <c r="D166" s="43" t="s">
+        <v>633</v>
       </c>
       <c r="E166" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F166" s="37" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="G166" s="93" t="s">
         <v>333</v>
@@ -43802,7 +43920,7 @@
         <v>340</v>
       </c>
       <c r="I166" s="30" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="J166" s="48" t="s">
         <v>395</v>
@@ -43816,203 +43934,243 @@
         <v>91</v>
       </c>
       <c r="B167" s="53" t="s">
-        <v>790</v>
+        <v>364</v>
       </c>
       <c r="C167" s="94" t="s">
-        <v>794</v>
-      </c>
-      <c r="D167" s="93" t="s">
-        <v>793</v>
+        <v>636</v>
+      </c>
+      <c r="D167" s="43" t="s">
+        <v>637</v>
       </c>
       <c r="E167" s="93" t="s">
         <v>55</v>
       </c>
       <c r="F167" s="37" t="s">
+        <v>638</v>
+      </c>
+      <c r="G167" s="93" t="s">
+        <v>333</v>
+      </c>
+      <c r="H167" s="93" t="s">
+        <v>340</v>
+      </c>
+      <c r="I167" s="30" t="s">
+        <v>639</v>
+      </c>
+      <c r="J167" s="48" t="s">
+        <v>395</v>
+      </c>
+      <c r="K167" s="48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A168" s="48">
+        <v>92</v>
+      </c>
+      <c r="B168" s="53" t="s">
+        <v>364</v>
+      </c>
+      <c r="C168" s="94" t="s">
+        <v>640</v>
+      </c>
+      <c r="D168" s="93" t="s">
+        <v>641</v>
+      </c>
+      <c r="E168" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="F168" s="37" t="s">
+        <v>642</v>
+      </c>
+      <c r="G168" s="93" t="s">
+        <v>333</v>
+      </c>
+      <c r="H168" s="93" t="s">
+        <v>340</v>
+      </c>
+      <c r="I168" s="30" t="s">
+        <v>643</v>
+      </c>
+      <c r="J168" s="48" t="s">
+        <v>395</v>
+      </c>
+      <c r="K168" s="48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A169" s="48">
+        <v>93</v>
+      </c>
+      <c r="B169" s="53" t="s">
+        <v>787</v>
+      </c>
+      <c r="C169" s="94" t="s">
+        <v>791</v>
+      </c>
+      <c r="D169" s="93" t="s">
+        <v>790</v>
+      </c>
+      <c r="E169" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="F169" s="37" t="s">
+        <v>789</v>
+      </c>
+      <c r="G169" s="93" t="s">
+        <v>338</v>
+      </c>
+      <c r="H169" s="93" t="s">
+        <v>340</v>
+      </c>
+      <c r="I169" s="30" t="s">
         <v>792</v>
       </c>
-      <c r="G167" s="93" t="s">
-        <v>338</v>
-      </c>
-      <c r="H167" s="93" t="s">
-        <v>340</v>
-      </c>
-      <c r="I167" s="30" t="s">
-        <v>795</v>
-      </c>
-      <c r="J167" s="48" t="s">
+      <c r="J169" s="48" t="s">
         <v>391</v>
       </c>
-      <c r="K167" s="48" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="169" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B169" s="12" t="s">
+      <c r="K169" s="48" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="171" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B171" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="C169" s="13"/>
-      <c r="D169" s="13"/>
-      <c r="E169" s="13"/>
-      <c r="F169" s="13"/>
-      <c r="G169" s="13"/>
-      <c r="H169" s="14"/>
-      <c r="K169" s="51"/>
-      <c r="N169" s="51"/>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C170" s="27" t="s">
+      <c r="C171" s="13"/>
+      <c r="D171" s="13"/>
+      <c r="E171" s="13"/>
+      <c r="F171" s="13"/>
+      <c r="G171" s="13"/>
+      <c r="H171" s="14"/>
+      <c r="K171" s="51"/>
+      <c r="N171" s="51"/>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C172" s="27" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C171" s="31" t="s">
-        <v>509</v>
-      </c>
-      <c r="D171" s="93" t="s">
-        <v>510</v>
-      </c>
-      <c r="E171" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C172" s="31" t="s">
-        <v>512</v>
-      </c>
-      <c r="D172" s="93" t="s">
-        <v>513</v>
-      </c>
-      <c r="E172" t="s">
-        <v>514</v>
-      </c>
-      <c r="F172" t="s">
-        <v>513</v>
-      </c>
-      <c r="I172" s="59"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C173" s="31" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="D173" s="93" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E173" t="s">
-        <v>514</v>
-      </c>
-      <c r="F173" t="s">
-        <v>513</v>
-      </c>
-      <c r="I173" s="59"/>
-    </row>
-    <row r="174" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C174" s="31" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D174" s="93" t="s">
         <v>513</v>
       </c>
-      <c r="E174" s="55" t="s">
+      <c r="E174" t="s">
         <v>514</v>
       </c>
       <c r="F174" t="s">
         <v>513</v>
       </c>
-      <c r="J174" s="52"/>
-    </row>
-    <row r="175" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="I174" s="59"/>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C175" s="31" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D175" s="93" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E175" t="s">
         <v>514</v>
       </c>
       <c r="F175" t="s">
-        <v>514</v>
-      </c>
-      <c r="G175" s="55" t="s">
-        <v>518</v>
-      </c>
-      <c r="J175" s="52"/>
+        <v>513</v>
+      </c>
+      <c r="I175" s="59"/>
     </row>
     <row r="176" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C176" s="31" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D176" s="93" t="s">
         <v>513</v>
       </c>
-      <c r="E176" s="48" t="s">
+      <c r="E176" s="55" t="s">
+        <v>514</v>
+      </c>
+      <c r="F176" t="s">
         <v>513</v>
-      </c>
-      <c r="F176" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="G176" s="55" t="s">
-        <v>520</v>
       </c>
       <c r="J176" s="52"/>
     </row>
     <row r="177" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C177" s="31" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D177" s="93" t="s">
         <v>514</v>
       </c>
-      <c r="E177" s="55" t="s">
+      <c r="E177" t="s">
         <v>514</v>
       </c>
       <c r="F177" t="s">
         <v>514</v>
       </c>
       <c r="G177" s="55" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="J177" s="52"/>
     </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="178" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C178" s="31" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D178" s="93" t="s">
         <v>513</v>
       </c>
-      <c r="E178" t="s">
+      <c r="E178" s="48" t="s">
+        <v>513</v>
+      </c>
+      <c r="F178" s="48" t="s">
+        <v>513</v>
+      </c>
+      <c r="G178" s="55" t="s">
+        <v>520</v>
+      </c>
+      <c r="J178" s="52"/>
+    </row>
+    <row r="179" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C179" s="31" t="s">
+        <v>521</v>
+      </c>
+      <c r="D179" s="93" t="s">
         <v>514</v>
       </c>
-      <c r="F178" t="s">
-        <v>513</v>
-      </c>
-      <c r="J178" s="53"/>
-    </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C179" s="31" t="s">
-        <v>524</v>
-      </c>
-      <c r="D179" s="93" t="s">
-        <v>513</v>
-      </c>
-      <c r="E179" t="s">
+      <c r="E179" s="55" t="s">
         <v>514</v>
       </c>
       <c r="F179" t="s">
-        <v>513</v>
-      </c>
-      <c r="J179" s="53"/>
+        <v>514</v>
+      </c>
+      <c r="G179" s="55" t="s">
+        <v>522</v>
+      </c>
+      <c r="J179" s="52"/>
     </row>
     <row r="180" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C180" s="31" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D180" s="93" t="s">
         <v>513</v>
       </c>
-      <c r="E180" s="55" t="s">
+      <c r="E180" t="s">
         <v>514</v>
       </c>
       <c r="F180" t="s">
@@ -44022,12 +44180,12 @@
     </row>
     <row r="181" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C181" s="31" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D181" s="93" t="s">
         <v>513</v>
       </c>
-      <c r="E181" s="55" t="s">
+      <c r="E181" t="s">
         <v>514</v>
       </c>
       <c r="F181" t="s">
@@ -44036,11 +44194,8 @@
       <c r="J181" s="53"/>
     </row>
     <row r="182" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B182" s="53" t="s">
-        <v>527</v>
-      </c>
       <c r="C182" s="31" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D182" s="93" t="s">
         <v>513</v>
@@ -44054,11 +44209,8 @@
       <c r="J182" s="53"/>
     </row>
     <row r="183" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B183" s="53" t="s">
-        <v>529</v>
-      </c>
       <c r="C183" s="31" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D183" s="93" t="s">
         <v>513</v>
@@ -44073,10 +44225,10 @@
     </row>
     <row r="184" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B184" s="53" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C184" s="31" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D184" s="93" t="s">
         <v>513</v>
@@ -44094,7 +44246,7 @@
         <v>529</v>
       </c>
       <c r="C185" s="31" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D185" s="93" t="s">
         <v>513</v>
@@ -44105,60 +44257,62 @@
       <c r="F185" t="s">
         <v>513</v>
       </c>
+      <c r="J185" s="53"/>
     </row>
     <row r="186" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B186" s="53" t="s">
+        <v>529</v>
+      </c>
+      <c r="C186" s="31" t="s">
+        <v>531</v>
+      </c>
+      <c r="D186" s="93" t="s">
+        <v>513</v>
+      </c>
+      <c r="E186" s="55" t="s">
+        <v>514</v>
+      </c>
+      <c r="F186" t="s">
+        <v>513</v>
+      </c>
+      <c r="J186" s="53"/>
+    </row>
+    <row r="187" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B187" s="53" t="s">
+        <v>529</v>
+      </c>
+      <c r="C187" s="31" t="s">
+        <v>532</v>
+      </c>
+      <c r="D187" s="93" t="s">
+        <v>513</v>
+      </c>
+      <c r="E187" s="55" t="s">
+        <v>514</v>
+      </c>
+      <c r="F187" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="188" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B188" s="53" t="s">
         <v>533</v>
       </c>
-      <c r="C186" s="31" t="s">
+      <c r="C188" s="31" t="s">
         <v>534</v>
       </c>
-      <c r="D186" s="43" t="s">
-        <v>744</v>
-      </c>
-      <c r="E186" s="55" t="s">
+      <c r="D188" s="43" t="s">
+        <v>742</v>
+      </c>
+      <c r="E188" s="55" t="s">
         <v>535</v>
       </c>
-      <c r="F186" s="55" t="s">
+      <c r="F188" s="55" t="s">
         <v>536</v>
       </c>
-      <c r="G186" s="55" t="s">
-        <v>731</v>
-      </c>
-      <c r="H186" s="55"/>
-      <c r="I186" s="55"/>
-      <c r="J186" s="53"/>
-    </row>
-    <row r="187" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B187" s="53"/>
-      <c r="C187" s="31" t="s">
-        <v>646</v>
-      </c>
-      <c r="D187" s="43" t="s">
-        <v>514</v>
-      </c>
-      <c r="E187" s="55" t="s">
-        <v>647</v>
-      </c>
-      <c r="F187" s="55"/>
-      <c r="G187" s="55"/>
-      <c r="H187" s="55"/>
-      <c r="I187" s="55"/>
-      <c r="J187" s="53"/>
-    </row>
-    <row r="188" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B188" s="53"/>
-      <c r="C188" s="31" t="s">
-        <v>648</v>
-      </c>
-      <c r="D188" s="43" t="s">
-        <v>514</v>
-      </c>
-      <c r="E188" s="55" t="s">
-        <v>649</v>
-      </c>
-      <c r="F188" s="55"/>
-      <c r="G188" s="55"/>
+      <c r="G188" s="55" t="s">
+        <v>729</v>
+      </c>
       <c r="H188" s="55"/>
       <c r="I188" s="55"/>
       <c r="J188" s="53"/>
@@ -44166,15 +44320,15 @@
     <row r="189" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B189" s="53"/>
       <c r="C189" s="31" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="D189" s="43" t="s">
-        <v>513</v>
-      </c>
-      <c r="E189" s="55"/>
-      <c r="F189" s="55" t="s">
-        <v>730</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="E189" s="55" t="s">
+        <v>645</v>
+      </c>
+      <c r="F189" s="55"/>
       <c r="G189" s="55"/>
       <c r="H189" s="55"/>
       <c r="I189" s="55"/>
@@ -44183,15 +44337,15 @@
     <row r="190" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B190" s="53"/>
       <c r="C190" s="31" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="D190" s="43" t="s">
-        <v>513</v>
-      </c>
-      <c r="E190" s="55"/>
-      <c r="F190" s="55" t="s">
-        <v>744</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="E190" s="55" t="s">
+        <v>647</v>
+      </c>
+      <c r="F190" s="55"/>
       <c r="G190" s="55"/>
       <c r="H190" s="55"/>
       <c r="I190" s="55"/>
@@ -44200,13 +44354,15 @@
     <row r="191" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B191" s="53"/>
       <c r="C191" s="31" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D191" s="43" t="s">
         <v>513</v>
       </c>
       <c r="E191" s="55"/>
-      <c r="F191" s="55"/>
+      <c r="F191" s="55" t="s">
+        <v>728</v>
+      </c>
       <c r="G191" s="55"/>
       <c r="H191" s="55"/>
       <c r="I191" s="55"/>
@@ -44215,13 +44371,15 @@
     <row r="192" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B192" s="53"/>
       <c r="C192" s="31" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D192" s="43" t="s">
         <v>513</v>
       </c>
       <c r="E192" s="55"/>
-      <c r="F192" s="55"/>
+      <c r="F192" s="55" t="s">
+        <v>742</v>
+      </c>
       <c r="G192" s="55"/>
       <c r="H192" s="55"/>
       <c r="I192" s="55"/>
@@ -44230,7 +44388,7 @@
     <row r="193" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B193" s="53"/>
       <c r="C193" s="31" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="D193" s="43" t="s">
         <v>513</v>
@@ -44242,41 +44400,55 @@
       <c r="I193" s="55"/>
       <c r="J193" s="53"/>
     </row>
+    <row r="194" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B194" s="53"/>
+      <c r="C194" s="31" t="s">
+        <v>651</v>
+      </c>
+      <c r="D194" s="43" t="s">
+        <v>513</v>
+      </c>
+      <c r="E194" s="55"/>
+      <c r="F194" s="55"/>
+      <c r="G194" s="55"/>
+      <c r="H194" s="55"/>
+      <c r="I194" s="55"/>
+      <c r="J194" s="53"/>
+    </row>
     <row r="195" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B195" s="12" t="s">
+      <c r="B195" s="53"/>
+      <c r="C195" s="31" t="s">
+        <v>652</v>
+      </c>
+      <c r="D195" s="43" t="s">
+        <v>513</v>
+      </c>
+      <c r="E195" s="55"/>
+      <c r="F195" s="55"/>
+      <c r="G195" s="55"/>
+      <c r="H195" s="55"/>
+      <c r="I195" s="55"/>
+      <c r="J195" s="53"/>
+    </row>
+    <row r="197" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B197" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="C195" s="13"/>
-      <c r="D195" s="13"/>
-      <c r="E195" s="13"/>
-      <c r="F195" s="13"/>
-      <c r="G195" s="13"/>
-      <c r="H195" s="14"/>
-    </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C196" s="27" t="s">
+      <c r="C197" s="13"/>
+      <c r="D197" s="13"/>
+      <c r="E197" s="13"/>
+      <c r="F197" s="13"/>
+      <c r="G197" s="13"/>
+      <c r="H197" s="14"/>
+    </row>
+    <row r="198" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C198" s="27" t="s">
         <v>539</v>
-      </c>
-    </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C197" s="93" t="s">
-        <v>540</v>
-      </c>
-      <c r="D197" s="95" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C198" s="93" t="s">
-        <v>541</v>
-      </c>
-      <c r="D198" s="95" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="199" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C199" s="93" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D199" s="95" t="s">
         <v>514</v>
@@ -44284,86 +44456,102 @@
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C200" s="93" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D200" s="95" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="201" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C201" s="93" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D201" s="95" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="202" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C202" s="93" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D202" s="95" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="203" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C203" s="43" t="s">
-        <v>546</v>
-      </c>
-      <c r="D203" s="44">
-        <v>1500</v>
+      <c r="C203" s="93" t="s">
+        <v>544</v>
+      </c>
+      <c r="D203" s="95" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="204" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C204" s="43" t="s">
-        <v>547</v>
-      </c>
-      <c r="D204" s="44">
-        <v>800</v>
+      <c r="C204" s="93" t="s">
+        <v>545</v>
+      </c>
+      <c r="D204" s="95" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="205" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C205" s="43" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D205" s="44">
-        <v>150</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="206" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C206" s="43" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D206" s="44">
-        <v>0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="207" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C207" s="43" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D207" s="44">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="208" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C208" s="43" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D208" s="44">
         <v>0</v>
       </c>
     </row>
+    <row r="209" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C209" s="43" t="s">
+        <v>550</v>
+      </c>
+      <c r="D209" s="44">
+        <v>0</v>
+      </c>
+    </row>
     <row r="210" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B210" s="12" t="s">
+      <c r="C210" s="43" t="s">
+        <v>551</v>
+      </c>
+      <c r="D210" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B212" s="12" t="s">
         <v>552</v>
       </c>
-      <c r="C210" s="13"/>
-      <c r="D210" s="13"/>
-      <c r="E210" s="13"/>
-      <c r="F210" s="13"/>
-      <c r="G210" s="13"/>
-      <c r="H210" s="14"/>
+      <c r="C212" s="13"/>
+      <c r="D212" s="13"/>
+      <c r="E212" s="13"/>
+      <c r="F212" s="13"/>
+      <c r="G212" s="13"/>
+      <c r="H212" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -44426,7 +44614,7 @@
         <v>256</v>
       </c>
       <c r="D4" s="95" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.45">
@@ -44434,7 +44622,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="95" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.45">
@@ -44450,7 +44638,7 @@
         <v>261</v>
       </c>
       <c r="D7" s="93" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E7" t="s">
         <v>263</v>
@@ -44660,7 +44848,7 @@
         <v>287</v>
       </c>
       <c r="G21" s="93" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H21" s="34" t="s">
         <v>47</v>
@@ -48004,7 +48192,7 @@
         <v>256</v>
       </c>
       <c r="D4" s="95" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.45">
@@ -48012,7 +48200,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="95" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.45">
@@ -48028,7 +48216,7 @@
         <v>261</v>
       </c>
       <c r="D7" s="93" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E7" t="s">
         <v>263</v>
@@ -48238,7 +48426,7 @@
         <v>287</v>
       </c>
       <c r="G21" s="93" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="H21" s="34" t="s">
         <v>47</v>

--- a/RECC_Config_V2_4.xlsx
+++ b/RECC_Config_V2_4.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10272" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10272" uniqueCount="803">
   <si>
     <t>User Name</t>
   </si>
@@ -2434,6 +2434,9 @@
   </si>
   <si>
     <t>8e82f0fc-9028-46d8-b3ab-126552690928</t>
+  </si>
+  <si>
+    <t>[0,2,4,6,7]</t>
   </si>
 </sst>
 </file>
@@ -10941,8 +10944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11378,7 +11381,7 @@
         <v>303</v>
       </c>
       <c r="G27" s="96" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H27" s="34" t="s">
         <v>80</v>
@@ -11410,7 +11413,7 @@
         <v>84</v>
       </c>
       <c r="G28" s="96" t="s">
-        <v>308</v>
+        <v>802</v>
       </c>
       <c r="H28" s="34" t="s">
         <v>87</v>
@@ -11442,7 +11445,7 @@
         <v>312</v>
       </c>
       <c r="G29" s="96" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H29" s="34" t="s">
         <v>94</v>
@@ -15867,7 +15870,7 @@
         <v>712</v>
       </c>
       <c r="D181" s="96" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E181" t="s">
         <v>714</v>
@@ -15882,7 +15885,7 @@
         <v>715</v>
       </c>
       <c r="D182" s="96" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E182" t="s">
         <v>714</v>
@@ -15897,7 +15900,7 @@
         <v>716</v>
       </c>
       <c r="D183" s="96" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E183" s="55" t="s">
         <v>714</v>
@@ -15948,7 +15951,7 @@
         <v>721</v>
       </c>
       <c r="D186" s="96" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E186" s="55" t="s">
         <v>714</v>
@@ -15966,7 +15969,7 @@
         <v>723</v>
       </c>
       <c r="D187" s="96" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E187" t="s">
         <v>714</v>
@@ -15981,7 +15984,7 @@
         <v>724</v>
       </c>
       <c r="D188" s="96" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E188" t="s">
         <v>714</v>
@@ -15996,7 +15999,7 @@
         <v>725</v>
       </c>
       <c r="D189" s="96" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E189" s="55" t="s">
         <v>714</v>
@@ -16011,7 +16014,7 @@
         <v>726</v>
       </c>
       <c r="D190" s="96" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E190" s="55" t="s">
         <v>714</v>
@@ -16029,7 +16032,7 @@
         <v>728</v>
       </c>
       <c r="D191" s="96" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E191" s="55" t="s">
         <v>714</v>
@@ -16047,7 +16050,7 @@
         <v>730</v>
       </c>
       <c r="D192" s="96" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E192" s="55" t="s">
         <v>714</v>
@@ -16065,7 +16068,7 @@
         <v>731</v>
       </c>
       <c r="D193" s="96" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E193" s="55" t="s">
         <v>714</v>
@@ -16083,7 +16086,7 @@
         <v>732</v>
       </c>
       <c r="D194" s="96" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E194" s="55" t="s">
         <v>714</v>
@@ -16100,7 +16103,7 @@
         <v>734</v>
       </c>
       <c r="D195" s="43" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="E195" s="55" t="s">
         <v>736</v>

--- a/RECC_Config_V2_4.xlsx
+++ b/RECC_Config_V2_4.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="7" autoFilterDateGrouping="1" firstSheet="3" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9405" windowWidth="20730" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9405" windowWidth="20730" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Config" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="___" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RECC_Global_all" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RECC_Global_all_sectors" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RECC_Global" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RECC_Germany_detail" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="____" sheetId="6" state="visible" r:id="rId6"/>
@@ -583,9 +583,9 @@
     <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
     <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="5" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="5" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="0" name="Standard" xfId="0"/>
@@ -865,14 +865,14 @@
   <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="98" width="12.6640625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="98" width="31"/>
-    <col customWidth="1" max="4" min="4" style="98" width="26.53125"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="100" width="12.6640625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="100" width="31"/>
+    <col customWidth="1" max="4" min="4" style="100" width="26.53125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -901,12 +901,12 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="3" s="98">
+    <row customHeight="1" ht="15" r="3" s="100">
       <c r="A3" s="48" t="n"/>
       <c r="B3" s="5" t="n"/>
       <c r="C3" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="4" s="98">
+    <row customHeight="1" ht="15" r="4" s="100">
       <c r="A4" s="48" t="n"/>
       <c r="B4" s="6" t="inlineStr">
         <is>
@@ -1634,29 +1634,29 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:Q219"/>
+  <dimension ref="A2:Q220"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A142" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+      <selection activeCell="E190" sqref="E190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="98" width="10.6640625"/>
-    <col customWidth="1" max="2" min="2" style="98" width="36.33203125"/>
-    <col customWidth="1" max="3" min="3" style="98" width="42.9296875"/>
-    <col customWidth="1" max="4" min="4" style="98" width="39.6640625"/>
-    <col customWidth="1" max="5" min="5" style="98" width="25.6640625"/>
-    <col customWidth="1" max="6" min="6" style="98" width="21.6640625"/>
-    <col customWidth="1" max="7" min="7" style="98" width="38.3984375"/>
-    <col customWidth="1" max="8" min="8" style="98" width="12.33203125"/>
-    <col customWidth="1" max="9" min="9" style="98" width="38.3984375"/>
-    <col customWidth="1" max="11" min="10" style="98" width="11.53125"/>
-    <col customWidth="1" max="12" min="12" style="98" width="73.53125"/>
-    <col customWidth="1" max="13" min="13" style="98" width="39.86328125"/>
-    <col customWidth="1" max="14" min="14" style="98" width="90"/>
-    <col customWidth="1" max="66" min="15" style="98" width="10.6640625"/>
-    <col customWidth="1" max="16384" min="67" style="98" width="10.6640625"/>
+    <col customWidth="1" max="1" min="1" style="100" width="10.6640625"/>
+    <col customWidth="1" max="2" min="2" style="100" width="36.33203125"/>
+    <col customWidth="1" max="3" min="3" style="100" width="42.9296875"/>
+    <col customWidth="1" max="4" min="4" style="100" width="39.6640625"/>
+    <col customWidth="1" max="5" min="5" style="100" width="25.6640625"/>
+    <col customWidth="1" max="6" min="6" style="100" width="21.6640625"/>
+    <col customWidth="1" max="7" min="7" style="100" width="38.3984375"/>
+    <col customWidth="1" max="8" min="8" style="100" width="12.33203125"/>
+    <col customWidth="1" max="9" min="9" style="100" width="38.3984375"/>
+    <col customWidth="1" max="11" min="10" style="100" width="11.53125"/>
+    <col customWidth="1" max="12" min="12" style="100" width="73.53125"/>
+    <col customWidth="1" max="13" min="13" style="100" width="39.86328125"/>
+    <col customWidth="1" max="14" min="14" style="100" width="90"/>
+    <col customWidth="1" max="70" min="15" style="100" width="10.6640625"/>
+    <col customWidth="1" max="16384" min="71" style="100" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -4337,7 +4337,7 @@
           <t>use phase</t>
         </is>
       </c>
-      <c r="C89" s="99" t="inlineStr">
+      <c r="C89" s="98" t="inlineStr">
         <is>
           <t>3_EI_Products_UsePhase_resbuildings</t>
         </is>
@@ -4649,7 +4649,7 @@
           <t>[0]</t>
         </is>
       </c>
-      <c r="I94" s="100" t="inlineStr">
+      <c r="I94" s="99" t="inlineStr">
         <is>
           <t>adf3d059-1ebb-40e1-8b08-e9c5b58af1f7</t>
         </is>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.6" r="175" s="98">
+    <row customHeight="1" ht="15.6" r="175" s="100">
       <c r="A175" t="n">
         <v>99</v>
       </c>
@@ -9102,7 +9102,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.6" r="176" s="98">
+    <row customHeight="1" ht="15.6" r="176" s="100">
       <c r="A176" t="n">
         <v>100</v>
       </c>
@@ -9157,225 +9157,257 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="178" s="98">
-      <c r="B178" s="12" t="inlineStr">
+    <row customHeight="1" ht="15.6" r="177" s="100">
+      <c r="A177" t="n">
+        <v>101</v>
+      </c>
+      <c r="B177" s="51" t="inlineStr">
+        <is>
+          <t>use phase</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>X_FLAG_VehicleDownsizingDirection</t>
+        </is>
+      </c>
+      <c r="D177" s="94" t="inlineStr">
+        <is>
+          <t>Flag (Bool) that indicates the direction of vehicle downsizing (segment shift) in the parameter 3_SHA_DownSizing_Vehicles</t>
+        </is>
+      </c>
+      <c r="E177" s="94" t="inlineStr">
+        <is>
+          <t>V1.0</t>
+        </is>
+      </c>
+      <c r="F177" s="37" t="inlineStr">
+        <is>
+          <t>rS</t>
+        </is>
+      </c>
+      <c r="G177" s="94" t="inlineStr">
+        <is>
+          <t>[0,1]</t>
+        </is>
+      </c>
+      <c r="H177" s="94" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I177" s="30" t="inlineStr">
+        <is>
+          <t>6832c162-6b26-4ad8-8e9d-3bf47bf34c9f</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>SSP/RCP</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="179" s="100">
+      <c r="B179" s="12" t="inlineStr">
         <is>
           <t>Model flow control</t>
         </is>
       </c>
-      <c r="C178" s="13" t="n"/>
-      <c r="D178" s="13" t="n"/>
-      <c r="E178" s="13" t="n"/>
-      <c r="F178" s="13" t="n"/>
-      <c r="G178" s="13" t="n"/>
-      <c r="H178" s="14" t="n"/>
-      <c r="K178" s="49" t="n"/>
-      <c r="N178" s="49" t="n"/>
-    </row>
-    <row r="179">
-      <c r="C179" s="27" t="inlineStr">
+      <c r="C179" s="13" t="n"/>
+      <c r="D179" s="13" t="n"/>
+      <c r="E179" s="13" t="n"/>
+      <c r="F179" s="13" t="n"/>
+      <c r="G179" s="13" t="n"/>
+      <c r="H179" s="14" t="n"/>
+      <c r="K179" s="49" t="n"/>
+      <c r="N179" s="49" t="n"/>
+    </row>
+    <row r="180">
+      <c r="C180" s="27" t="inlineStr">
         <is>
           <t>Specify how model should run: which calculation blocks to perform, which solvers to use, etc.</t>
         </is>
       </c>
     </row>
-    <row r="180">
-      <c r="C180" s="31" t="inlineStr">
+    <row r="181">
+      <c r="C181" s="31" t="inlineStr">
         <is>
           <t>Logging_Verbosity</t>
         </is>
       </c>
-      <c r="D180" s="94" t="inlineStr">
+      <c r="D181" s="94" t="inlineStr">
         <is>
           <t>DEBUG</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="E181" t="inlineStr">
         <is>
           <t># Specify at which level of detail the comments, warnings, and error produced by the models are recorded.</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.6" r="181" s="98">
-      <c r="C181" s="31" t="inlineStr">
+    <row customHeight="1" ht="15.6" r="182" s="100">
+      <c r="C182" s="31" t="inlineStr">
         <is>
           <t>Include_REStrategy_FabYieldImprovement</t>
         </is>
       </c>
-      <c r="D181" s="94" t="inlineStr">
+      <c r="D182" s="94" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
+      <c r="E182" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="F182" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="I181" s="57" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.6" r="182" s="98">
-      <c r="C182" s="31" t="inlineStr">
+      <c r="I182" s="57" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.6" r="183" s="100">
+      <c r="C183" s="31" t="inlineStr">
         <is>
           <t>Include_REStrategy_FabScrapDiversion</t>
         </is>
       </c>
-      <c r="D182" s="94" t="inlineStr">
+      <c r="D183" s="94" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="F183" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="I182" s="57" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.6" r="183" s="98">
-      <c r="C183" s="31" t="inlineStr">
+      <c r="I183" s="57" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.6" r="184" s="100">
+      <c r="C184" s="31" t="inlineStr">
         <is>
           <t>Include_REStrategy_EoL_RR_Improvement</t>
         </is>
       </c>
-      <c r="D183" s="94" t="inlineStr">
+      <c r="D184" s="94" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="E183" s="53" t="inlineStr">
+      <c r="E184" s="53" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
+      <c r="F184" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="J183" s="50" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.6" r="184" s="98">
-      <c r="C184" s="31" t="inlineStr">
+      <c r="J184" s="50" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.6" r="185" s="100">
+      <c r="C185" s="31" t="inlineStr">
         <is>
           <t>ScrapExport</t>
         </is>
       </c>
-      <c r="D184" s="94" t="inlineStr">
+      <c r="D185" s="94" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="F185" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="G184" s="53" t="inlineStr">
+      <c r="G185" s="53" t="inlineStr">
         <is>
           <t>Set true if excess scrap can be exported to other sectors.</t>
         </is>
       </c>
-      <c r="J184" s="50" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="185" s="98">
-      <c r="C185" s="31" t="inlineStr">
+      <c r="J185" s="50" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="186" s="100">
+      <c r="C186" s="31" t="inlineStr">
         <is>
           <t>ScrapExportRecyclingCredit</t>
         </is>
       </c>
-      <c r="D185" s="94" t="inlineStr">
+      <c r="D186" s="94" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
+      <c r="F186" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="G185" s="53" t="inlineStr">
+      <c r="G186" s="53" t="inlineStr">
         <is>
           <t>True if an emissions credit for avoided primary production is to be given.</t>
         </is>
       </c>
-      <c r="J185" s="50" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="186" s="98">
-      <c r="C186" s="31" t="inlineStr">
+      <c r="J186" s="50" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="187" s="100">
+      <c r="C187" s="31" t="inlineStr">
         <is>
           <t>IncludeRecycling</t>
         </is>
       </c>
-      <c r="D186" s="94" t="inlineStr">
+      <c r="D187" s="94" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="E186" s="53" t="inlineStr">
+      <c r="E187" s="53" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
+      <c r="F187" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="G186" s="53" t="inlineStr">
+      <c r="G187" s="53" t="inlineStr">
         <is>
           <t>Set to False only if a scenario without any recycling is to be considered (as counterfactual scenario)</t>
         </is>
       </c>
-      <c r="J186" s="50" t="n"/>
-    </row>
-    <row r="187">
-      <c r="C187" s="31" t="inlineStr">
-        <is>
-          <t>Include_REStrategy_MaterialSubstitution</t>
-        </is>
-      </c>
-      <c r="D187" s="94" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="J187" s="51" t="n"/>
+      <c r="J187" s="50" t="n"/>
     </row>
     <row r="188">
       <c r="C188" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_UsingLessMaterialByDesign</t>
+          <t>Include_REStrategy_MaterialSubstitution</t>
         </is>
       </c>
       <c r="D188" s="94" t="inlineStr">
@@ -9398,7 +9430,7 @@
     <row r="189">
       <c r="C189" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_ReUse</t>
+          <t>Include_REStrategy_UsingLessMaterialByDesign</t>
         </is>
       </c>
       <c r="D189" s="94" t="inlineStr">
@@ -9406,7 +9438,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="E189" s="53" t="inlineStr">
+      <c r="E189" t="inlineStr">
         <is>
           <t>True</t>
         </is>
@@ -9421,35 +9453,30 @@
     <row r="190">
       <c r="C190" s="31" t="inlineStr">
         <is>
+          <t>Include_REStrategy_ReUse</t>
+        </is>
+      </c>
+      <c r="D190" s="94" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E190" s="53" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J190" s="51" t="n"/>
+    </row>
+    <row r="191">
+      <c r="C191" s="31" t="inlineStr">
+        <is>
           <t>Include_REStrategy_LifeTimeExtension</t>
-        </is>
-      </c>
-      <c r="D190" s="94" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E190" s="53" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="J190" s="51" t="n"/>
-    </row>
-    <row r="191">
-      <c r="B191" s="51" t="inlineStr">
-        <is>
-          <t>Buildings only:</t>
-        </is>
-      </c>
-      <c r="C191" s="31" t="inlineStr">
-        <is>
-          <t>Include_REStrategy_MoreIntenseUse</t>
         </is>
       </c>
       <c r="D191" s="94" t="inlineStr">
@@ -9472,17 +9499,17 @@
     <row r="192">
       <c r="B192" s="51" t="inlineStr">
         <is>
-          <t>Vehicles only:</t>
+          <t>Buildings only:</t>
         </is>
       </c>
       <c r="C192" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_CarSharing</t>
+          <t>Include_REStrategy_MoreIntenseUse</t>
         </is>
       </c>
       <c r="D192" s="94" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E192" s="53" t="inlineStr">
@@ -9505,7 +9532,7 @@
       </c>
       <c r="C193" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_RideSharing</t>
+          <t>Include_REStrategy_CarSharing</t>
         </is>
       </c>
       <c r="D193" s="94" t="inlineStr">
@@ -9533,7 +9560,7 @@
       </c>
       <c r="C194" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_ModalSplit</t>
+          <t>Include_REStrategy_RideSharing</t>
         </is>
       </c>
       <c r="D194" s="94" t="inlineStr">
@@ -9551,63 +9578,64 @@
           <t>False</t>
         </is>
       </c>
+      <c r="J194" s="51" t="n"/>
     </row>
     <row r="195">
       <c r="B195" s="51" t="inlineStr">
         <is>
+          <t>Vehicles only:</t>
+        </is>
+      </c>
+      <c r="C195" s="31" t="inlineStr">
+        <is>
+          <t>Include_REStrategy_ModalSplit</t>
+        </is>
+      </c>
+      <c r="D195" s="94" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E195" s="53" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="B196" s="51" t="inlineStr">
+        <is>
           <t>Select which sectors are included:</t>
         </is>
       </c>
-      <c r="C195" s="31" t="inlineStr">
+      <c r="C196" s="31" t="inlineStr">
         <is>
           <t>SectorSelect</t>
         </is>
       </c>
-      <c r="D195" s="43" t="inlineStr">
+      <c r="D196" s="43" t="inlineStr">
         <is>
           <t>['reb']</t>
         </is>
       </c>
-      <c r="E195" s="53" t="inlineStr">
+      <c r="E196" s="53" t="inlineStr">
         <is>
           <t>['pav']</t>
         </is>
       </c>
-      <c r="F195" s="53" t="inlineStr">
+      <c r="F196" s="53" t="inlineStr">
         <is>
           <t>['reb']</t>
         </is>
       </c>
-      <c r="G195" s="53" t="inlineStr">
+      <c r="G196" s="53" t="inlineStr">
         <is>
           <t>['pav':passenger vehicles,'reb':residential buildings,'nrb':non-residential buildings,'nrbg':nonres buildings, global,'ind': industry (electricity generation),'app':appliances]</t>
-        </is>
-      </c>
-      <c r="H195" s="53" t="n"/>
-      <c r="I195" s="53" t="n"/>
-      <c r="J195" s="51" t="n"/>
-    </row>
-    <row r="196">
-      <c r="B196" s="51" t="n"/>
-      <c r="C196" s="31" t="inlineStr">
-        <is>
-          <t>Include_Renovation_reb</t>
-        </is>
-      </c>
-      <c r="D196" s="43" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E196" s="53" t="inlineStr">
-        <is>
-          <t>Renovation of residential buildings included</t>
-        </is>
-      </c>
-      <c r="F196" s="53" t="n"/>
-      <c r="G196" s="53" t="inlineStr">
-        <is>
-          <t>['pav','reb']</t>
         </is>
       </c>
       <c r="H196" s="53" t="n"/>
@@ -9618,7 +9646,7 @@
       <c r="B197" s="51" t="n"/>
       <c r="C197" s="31" t="inlineStr">
         <is>
-          <t>Include_Renovation_nrb</t>
+          <t>Include_Renovation_reb</t>
         </is>
       </c>
       <c r="D197" s="43" t="inlineStr">
@@ -9628,11 +9656,15 @@
       </c>
       <c r="E197" s="53" t="inlineStr">
         <is>
-          <t>Renovation of nonresidential buildings included</t>
+          <t>Renovation of residential buildings included</t>
         </is>
       </c>
       <c r="F197" s="53" t="n"/>
-      <c r="G197" s="53" t="n"/>
+      <c r="G197" s="53" t="inlineStr">
+        <is>
+          <t>['pav','reb']</t>
+        </is>
+      </c>
       <c r="H197" s="53" t="n"/>
       <c r="I197" s="53" t="n"/>
       <c r="J197" s="51" t="n"/>
@@ -9641,15 +9673,19 @@
       <c r="B198" s="51" t="n"/>
       <c r="C198" s="31" t="inlineStr">
         <is>
-          <t>No_EE_Improvements</t>
+          <t>Include_Renovation_nrb</t>
         </is>
       </c>
       <c r="D198" s="43" t="inlineStr">
         <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="E198" s="53" t="n"/>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E198" s="53" t="inlineStr">
+        <is>
+          <t>Renovation of nonresidential buildings included</t>
+        </is>
+      </c>
       <c r="F198" s="53" t="n"/>
       <c r="G198" s="53" t="n"/>
       <c r="H198" s="53" t="n"/>
@@ -9660,7 +9696,7 @@
       <c r="B199" s="51" t="n"/>
       <c r="C199" s="31" t="inlineStr">
         <is>
-          <t>Reserved3</t>
+          <t>No_EE_Improvements</t>
         </is>
       </c>
       <c r="D199" s="43" t="inlineStr">
@@ -9679,7 +9715,7 @@
       <c r="B200" s="51" t="n"/>
       <c r="C200" s="31" t="inlineStr">
         <is>
-          <t>Reserved4</t>
+          <t>Reserved3</t>
         </is>
       </c>
       <c r="D200" s="43" t="inlineStr">
@@ -9688,6 +9724,7 @@
         </is>
       </c>
       <c r="E200" s="53" t="n"/>
+      <c r="F200" s="53" t="n"/>
       <c r="G200" s="53" t="n"/>
       <c r="H200" s="53" t="n"/>
       <c r="I200" s="53" t="n"/>
@@ -9697,7 +9734,7 @@
       <c r="B201" s="51" t="n"/>
       <c r="C201" s="31" t="inlineStr">
         <is>
-          <t>Reserved5</t>
+          <t>Reserved4</t>
         </is>
       </c>
       <c r="D201" s="43" t="inlineStr">
@@ -9706,7 +9743,6 @@
         </is>
       </c>
       <c r="E201" s="53" t="n"/>
-      <c r="F201" s="53" t="n"/>
       <c r="G201" s="53" t="n"/>
       <c r="H201" s="53" t="n"/>
       <c r="I201" s="53" t="n"/>
@@ -9716,7 +9752,7 @@
       <c r="B202" s="51" t="n"/>
       <c r="C202" s="31" t="inlineStr">
         <is>
-          <t>Reserved6</t>
+          <t>Reserved5</t>
         </is>
       </c>
       <c r="D202" s="43" t="inlineStr">
@@ -9731,42 +9767,49 @@
       <c r="I202" s="53" t="n"/>
       <c r="J202" s="51" t="n"/>
     </row>
-    <row r="204">
-      <c r="B204" s="12" t="inlineStr">
+    <row r="203">
+      <c r="B203" s="51" t="n"/>
+      <c r="C203" s="31" t="inlineStr">
+        <is>
+          <t>Reserved6</t>
+        </is>
+      </c>
+      <c r="D203" s="43" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E203" s="53" t="n"/>
+      <c r="F203" s="53" t="n"/>
+      <c r="G203" s="53" t="n"/>
+      <c r="H203" s="53" t="n"/>
+      <c r="I203" s="53" t="n"/>
+      <c r="J203" s="51" t="n"/>
+    </row>
+    <row r="205">
+      <c r="B205" s="12" t="inlineStr">
         <is>
           <t>Model output control</t>
         </is>
       </c>
-      <c r="C204" s="13" t="n"/>
-      <c r="D204" s="13" t="n"/>
-      <c r="E204" s="13" t="n"/>
-      <c r="F204" s="13" t="n"/>
-      <c r="G204" s="13" t="n"/>
-      <c r="H204" s="14" t="n"/>
-    </row>
-    <row r="205">
-      <c r="C205" s="27" t="inlineStr">
+      <c r="C205" s="13" t="n"/>
+      <c r="D205" s="13" t="n"/>
+      <c r="E205" s="13" t="n"/>
+      <c r="F205" s="13" t="n"/>
+      <c r="G205" s="13" t="n"/>
+      <c r="H205" s="14" t="n"/>
+    </row>
+    <row r="206">
+      <c r="C206" s="27" t="inlineStr">
         <is>
           <t>Control how model output is archived and which figures are created.</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="C206" s="94" t="inlineStr">
-        <is>
-          <t>PlotStocks</t>
-        </is>
-      </c>
-      <c r="D206" s="91" t="inlineStr">
-        <is>
-          <t>True</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="C207" s="94" t="inlineStr">
         <is>
-          <t>PlotMaterialDemand</t>
+          <t>PlotStocks</t>
         </is>
       </c>
       <c r="D207" s="91" t="inlineStr">
@@ -9778,7 +9821,7 @@
     <row r="208">
       <c r="C208" s="94" t="inlineStr">
         <is>
-          <t>PlotTotalGHGEmissions</t>
+          <t>PlotMaterialDemand</t>
         </is>
       </c>
       <c r="D208" s="91" t="inlineStr">
@@ -9790,19 +9833,19 @@
     <row r="209">
       <c r="C209" s="94" t="inlineStr">
         <is>
-          <t>UseGivenPlotBoundaries</t>
+          <t>PlotTotalGHGEmissions</t>
         </is>
       </c>
       <c r="D209" s="91" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="C210" s="94" t="inlineStr">
         <is>
-          <t>Reserved1</t>
+          <t>UseGivenPlotBoundaries</t>
         </is>
       </c>
       <c r="D210" s="91" t="inlineStr">
@@ -9814,59 +9857,61 @@
     <row r="211">
       <c r="C211" s="94" t="inlineStr">
         <is>
+          <t>Reserved1</t>
+        </is>
+      </c>
+      <c r="D211" s="91" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="C212" s="94" t="inlineStr">
+        <is>
           <t>Reserved2</t>
         </is>
       </c>
-      <c r="D211" s="91" t="inlineStr">
+      <c r="D212" s="91" t="inlineStr">
         <is>
           <t>False</t>
         </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="C212" s="43" t="inlineStr">
-        <is>
-          <t>Plot1Max</t>
-        </is>
-      </c>
-      <c r="D212" s="44" t="n">
-        <v>1500</v>
       </c>
     </row>
     <row r="213">
       <c r="C213" s="43" t="inlineStr">
         <is>
-          <t>Plot2Max</t>
+          <t>Plot1Max</t>
         </is>
       </c>
       <c r="D213" s="44" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="214">
       <c r="C214" s="43" t="inlineStr">
         <is>
-          <t>Plot3Max</t>
+          <t>Plot2Max</t>
         </is>
       </c>
       <c r="D214" s="44" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
     </row>
     <row r="215">
       <c r="C215" s="43" t="inlineStr">
         <is>
-          <t>Plot4Max</t>
+          <t>Plot3Max</t>
         </is>
       </c>
       <c r="D215" s="44" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="216">
       <c r="C216" s="43" t="inlineStr">
         <is>
-          <t>Plot5Max</t>
+          <t>Plot4Max</t>
         </is>
       </c>
       <c r="D216" s="44" t="n">
@@ -9876,25 +9921,35 @@
     <row r="217">
       <c r="C217" s="43" t="inlineStr">
         <is>
-          <t>Plot6Max</t>
+          <t>Plot5Max</t>
         </is>
       </c>
       <c r="D217" s="44" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="219">
-      <c r="B219" s="12" t="inlineStr">
+    <row r="218">
+      <c r="C218" s="43" t="inlineStr">
+        <is>
+          <t>Plot6Max</t>
+        </is>
+      </c>
+      <c r="D218" s="44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="B220" s="12" t="inlineStr">
         <is>
           <t>End of file</t>
         </is>
       </c>
-      <c r="C219" s="13" t="n"/>
-      <c r="D219" s="13" t="n"/>
-      <c r="E219" s="13" t="n"/>
-      <c r="F219" s="13" t="n"/>
-      <c r="G219" s="13" t="n"/>
-      <c r="H219" s="14" t="n"/>
+      <c r="C220" s="13" t="n"/>
+      <c r="D220" s="13" t="n"/>
+      <c r="E220" s="13" t="n"/>
+      <c r="F220" s="13" t="n"/>
+      <c r="G220" s="13" t="n"/>
+      <c r="H220" s="14" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.787401575" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.787401575"/>
@@ -9907,29 +9962,29 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:Q219"/>
+  <dimension ref="A2:Q220"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A142" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="C175" sqref="C175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="98" width="10.6640625"/>
-    <col customWidth="1" max="2" min="2" style="98" width="36.33203125"/>
-    <col customWidth="1" max="3" min="3" style="98" width="42.9296875"/>
-    <col customWidth="1" max="4" min="4" style="98" width="39.6640625"/>
-    <col customWidth="1" max="5" min="5" style="98" width="25.6640625"/>
-    <col customWidth="1" max="6" min="6" style="98" width="21.6640625"/>
-    <col customWidth="1" max="7" min="7" style="98" width="38.3984375"/>
-    <col customWidth="1" max="8" min="8" style="98" width="12.33203125"/>
-    <col customWidth="1" max="9" min="9" style="98" width="38.3984375"/>
-    <col customWidth="1" max="11" min="10" style="98" width="11.53125"/>
-    <col customWidth="1" max="12" min="12" style="98" width="73.53125"/>
-    <col customWidth="1" max="13" min="13" style="98" width="39.86328125"/>
-    <col customWidth="1" max="14" min="14" style="98" width="90"/>
-    <col customWidth="1" max="66" min="15" style="98" width="10.6640625"/>
-    <col customWidth="1" max="16384" min="67" style="98" width="10.6640625"/>
+    <col customWidth="1" max="1" min="1" style="100" width="10.6640625"/>
+    <col customWidth="1" max="2" min="2" style="100" width="36.33203125"/>
+    <col customWidth="1" max="3" min="3" style="100" width="42.9296875"/>
+    <col customWidth="1" max="4" min="4" style="100" width="39.6640625"/>
+    <col customWidth="1" max="5" min="5" style="100" width="25.6640625"/>
+    <col customWidth="1" max="6" min="6" style="100" width="21.6640625"/>
+    <col customWidth="1" max="7" min="7" style="100" width="38.3984375"/>
+    <col customWidth="1" max="8" min="8" style="100" width="12.33203125"/>
+    <col customWidth="1" max="9" min="9" style="100" width="38.3984375"/>
+    <col customWidth="1" max="11" min="10" style="100" width="11.53125"/>
+    <col customWidth="1" max="12" min="12" style="100" width="73.53125"/>
+    <col customWidth="1" max="13" min="13" style="100" width="39.86328125"/>
+    <col customWidth="1" max="14" min="14" style="100" width="90"/>
+    <col customWidth="1" max="70" min="15" style="100" width="10.6640625"/>
+    <col customWidth="1" max="16384" min="71" style="100" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -12610,7 +12665,7 @@
           <t>use phase</t>
         </is>
       </c>
-      <c r="C89" s="99" t="inlineStr">
+      <c r="C89" s="98" t="inlineStr">
         <is>
           <t>3_EI_Products_UsePhase_resbuildings</t>
         </is>
@@ -12922,7 +12977,7 @@
           <t>[0]</t>
         </is>
       </c>
-      <c r="I94" s="100" t="inlineStr">
+      <c r="I94" s="99" t="inlineStr">
         <is>
           <t>adf3d059-1ebb-40e1-8b08-e9c5b58af1f7</t>
         </is>
@@ -17320,7 +17375,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.6" r="175" s="98">
+    <row customHeight="1" ht="15.6" r="175" s="100">
       <c r="A175" t="n">
         <v>99</v>
       </c>
@@ -17375,7 +17430,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.6" r="176" s="98">
+    <row customHeight="1" ht="15.6" r="176" s="100">
       <c r="A176" t="n">
         <v>100</v>
       </c>
@@ -17430,225 +17485,257 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="178" s="98">
-      <c r="B178" s="12" t="inlineStr">
+    <row customHeight="1" ht="15.6" r="177" s="100">
+      <c r="A177" t="n">
+        <v>101</v>
+      </c>
+      <c r="B177" s="51" t="inlineStr">
+        <is>
+          <t>use phase</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>X_FLAG_VehicleDownsizingDirection</t>
+        </is>
+      </c>
+      <c r="D177" s="94" t="inlineStr">
+        <is>
+          <t>Flag (Bool) that indicates the direction of vehicle downsizing (segment shift) in the parameter 3_SHA_DownSizing_Vehicles</t>
+        </is>
+      </c>
+      <c r="E177" s="94" t="inlineStr">
+        <is>
+          <t>V1.0</t>
+        </is>
+      </c>
+      <c r="F177" s="37" t="inlineStr">
+        <is>
+          <t>rS</t>
+        </is>
+      </c>
+      <c r="G177" s="94" t="inlineStr">
+        <is>
+          <t>[0,1]</t>
+        </is>
+      </c>
+      <c r="H177" s="94" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I177" s="30" t="inlineStr">
+        <is>
+          <t>6832c162-6b26-4ad8-8e9d-3bf47bf34c9f</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>SSP/RCP</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="179" s="100">
+      <c r="B179" s="12" t="inlineStr">
         <is>
           <t>Model flow control</t>
         </is>
       </c>
-      <c r="C178" s="13" t="n"/>
-      <c r="D178" s="13" t="n"/>
-      <c r="E178" s="13" t="n"/>
-      <c r="F178" s="13" t="n"/>
-      <c r="G178" s="13" t="n"/>
-      <c r="H178" s="14" t="n"/>
-      <c r="K178" s="49" t="n"/>
-      <c r="N178" s="49" t="n"/>
-    </row>
-    <row r="179">
-      <c r="C179" s="27" t="inlineStr">
+      <c r="C179" s="13" t="n"/>
+      <c r="D179" s="13" t="n"/>
+      <c r="E179" s="13" t="n"/>
+      <c r="F179" s="13" t="n"/>
+      <c r="G179" s="13" t="n"/>
+      <c r="H179" s="14" t="n"/>
+      <c r="K179" s="49" t="n"/>
+      <c r="N179" s="49" t="n"/>
+    </row>
+    <row r="180">
+      <c r="C180" s="27" t="inlineStr">
         <is>
           <t>Specify how model should run: which calculation blocks to perform, which solvers to use, etc.</t>
         </is>
       </c>
     </row>
-    <row r="180">
-      <c r="C180" s="31" t="inlineStr">
+    <row r="181">
+      <c r="C181" s="31" t="inlineStr">
         <is>
           <t>Logging_Verbosity</t>
         </is>
       </c>
-      <c r="D180" s="94" t="inlineStr">
+      <c r="D181" s="94" t="inlineStr">
         <is>
           <t>DEBUG</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="E181" t="inlineStr">
         <is>
           <t># Specify at which level of detail the comments, warnings, and error produced by the models are recorded.</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.6" r="181" s="98">
-      <c r="C181" s="31" t="inlineStr">
+    <row customHeight="1" ht="15.6" r="182" s="100">
+      <c r="C182" s="31" t="inlineStr">
         <is>
           <t>Include_REStrategy_FabYieldImprovement</t>
         </is>
       </c>
-      <c r="D181" s="94" t="inlineStr">
+      <c r="D182" s="94" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
+      <c r="E182" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="F182" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="I181" s="57" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.6" r="182" s="98">
-      <c r="C182" s="31" t="inlineStr">
+      <c r="I182" s="57" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.6" r="183" s="100">
+      <c r="C183" s="31" t="inlineStr">
         <is>
           <t>Include_REStrategy_FabScrapDiversion</t>
         </is>
       </c>
-      <c r="D182" s="94" t="inlineStr">
+      <c r="D183" s="94" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="F183" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="I182" s="57" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.6" r="183" s="98">
-      <c r="C183" s="31" t="inlineStr">
+      <c r="I183" s="57" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.6" r="184" s="100">
+      <c r="C184" s="31" t="inlineStr">
         <is>
           <t>Include_REStrategy_EoL_RR_Improvement</t>
         </is>
       </c>
-      <c r="D183" s="94" t="inlineStr">
+      <c r="D184" s="94" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="E183" s="53" t="inlineStr">
+      <c r="E184" s="53" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
+      <c r="F184" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="J183" s="50" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.6" r="184" s="98">
-      <c r="C184" s="31" t="inlineStr">
+      <c r="J184" s="50" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.6" r="185" s="100">
+      <c r="C185" s="31" t="inlineStr">
         <is>
           <t>ScrapExport</t>
         </is>
       </c>
-      <c r="D184" s="94" t="inlineStr">
+      <c r="D185" s="94" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="F185" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="G184" s="53" t="inlineStr">
+      <c r="G185" s="53" t="inlineStr">
         <is>
           <t>Set true if excess scrap can be exported to other sectors.</t>
         </is>
       </c>
-      <c r="J184" s="50" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="185" s="98">
-      <c r="C185" s="31" t="inlineStr">
+      <c r="J185" s="50" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="186" s="100">
+      <c r="C186" s="31" t="inlineStr">
         <is>
           <t>ScrapExportRecyclingCredit</t>
         </is>
       </c>
-      <c r="D185" s="94" t="inlineStr">
+      <c r="D186" s="94" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
+      <c r="F186" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="G185" s="53" t="inlineStr">
+      <c r="G186" s="53" t="inlineStr">
         <is>
           <t>True if an emissions credit for avoided primary production is to be given.</t>
         </is>
       </c>
-      <c r="J185" s="50" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="186" s="98">
-      <c r="C186" s="31" t="inlineStr">
+      <c r="J186" s="50" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="187" s="100">
+      <c r="C187" s="31" t="inlineStr">
         <is>
           <t>IncludeRecycling</t>
         </is>
       </c>
-      <c r="D186" s="94" t="inlineStr">
+      <c r="D187" s="94" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="E186" s="53" t="inlineStr">
+      <c r="E187" s="53" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
+      <c r="F187" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="G186" s="53" t="inlineStr">
+      <c r="G187" s="53" t="inlineStr">
         <is>
           <t>Set to False only if a scenario without any recycling is to be considered (as counterfactual scenario)</t>
         </is>
       </c>
-      <c r="J186" s="50" t="n"/>
-    </row>
-    <row r="187">
-      <c r="C187" s="31" t="inlineStr">
-        <is>
-          <t>Include_REStrategy_MaterialSubstitution</t>
-        </is>
-      </c>
-      <c r="D187" s="94" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="J187" s="51" t="n"/>
+      <c r="J187" s="50" t="n"/>
     </row>
     <row r="188">
       <c r="C188" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_UsingLessMaterialByDesign</t>
+          <t>Include_REStrategy_MaterialSubstitution</t>
         </is>
       </c>
       <c r="D188" s="94" t="inlineStr">
@@ -17671,7 +17758,7 @@
     <row r="189">
       <c r="C189" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_ReUse</t>
+          <t>Include_REStrategy_UsingLessMaterialByDesign</t>
         </is>
       </c>
       <c r="D189" s="94" t="inlineStr">
@@ -17679,7 +17766,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="E189" s="53" t="inlineStr">
+      <c r="E189" t="inlineStr">
         <is>
           <t>True</t>
         </is>
@@ -17694,35 +17781,30 @@
     <row r="190">
       <c r="C190" s="31" t="inlineStr">
         <is>
+          <t>Include_REStrategy_ReUse</t>
+        </is>
+      </c>
+      <c r="D190" s="94" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E190" s="53" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J190" s="51" t="n"/>
+    </row>
+    <row r="191">
+      <c r="C191" s="31" t="inlineStr">
+        <is>
           <t>Include_REStrategy_LifeTimeExtension</t>
-        </is>
-      </c>
-      <c r="D190" s="94" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E190" s="53" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="J190" s="51" t="n"/>
-    </row>
-    <row r="191">
-      <c r="B191" s="51" t="inlineStr">
-        <is>
-          <t>Buildings only:</t>
-        </is>
-      </c>
-      <c r="C191" s="31" t="inlineStr">
-        <is>
-          <t>Include_REStrategy_MoreIntenseUse</t>
         </is>
       </c>
       <c r="D191" s="94" t="inlineStr">
@@ -17745,17 +17827,17 @@
     <row r="192">
       <c r="B192" s="51" t="inlineStr">
         <is>
-          <t>Vehicles only:</t>
+          <t>Buildings only:</t>
         </is>
       </c>
       <c r="C192" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_CarSharing</t>
+          <t>Include_REStrategy_MoreIntenseUse</t>
         </is>
       </c>
       <c r="D192" s="94" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E192" s="53" t="inlineStr">
@@ -17778,7 +17860,7 @@
       </c>
       <c r="C193" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_RideSharing</t>
+          <t>Include_REStrategy_CarSharing</t>
         </is>
       </c>
       <c r="D193" s="94" t="inlineStr">
@@ -17806,7 +17888,7 @@
       </c>
       <c r="C194" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_ModalSplit</t>
+          <t>Include_REStrategy_RideSharing</t>
         </is>
       </c>
       <c r="D194" s="94" t="inlineStr">
@@ -17824,63 +17906,64 @@
           <t>False</t>
         </is>
       </c>
+      <c r="J194" s="51" t="n"/>
     </row>
     <row r="195">
       <c r="B195" s="51" t="inlineStr">
         <is>
+          <t>Vehicles only:</t>
+        </is>
+      </c>
+      <c r="C195" s="31" t="inlineStr">
+        <is>
+          <t>Include_REStrategy_ModalSplit</t>
+        </is>
+      </c>
+      <c r="D195" s="94" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E195" s="53" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="B196" s="51" t="inlineStr">
+        <is>
           <t>Select which sectors are included:</t>
         </is>
       </c>
-      <c r="C195" s="31" t="inlineStr">
+      <c r="C196" s="31" t="inlineStr">
         <is>
           <t>SectorSelect</t>
         </is>
       </c>
-      <c r="D195" s="43" t="inlineStr">
+      <c r="D196" s="43" t="inlineStr">
         <is>
           <t>['reb']</t>
         </is>
       </c>
-      <c r="E195" s="53" t="inlineStr">
+      <c r="E196" s="53" t="inlineStr">
         <is>
           <t>['pav']</t>
         </is>
       </c>
-      <c r="F195" s="53" t="inlineStr">
+      <c r="F196" s="53" t="inlineStr">
         <is>
           <t>['reb']</t>
         </is>
       </c>
-      <c r="G195" s="53" t="inlineStr">
+      <c r="G196" s="53" t="inlineStr">
         <is>
           <t>['pav':passenger vehicles,'reb':residential buildings,'nrb':non-residential buildings,'nrbg':nonres buildings, global,'ind': industry (electricity generation),'app':appliances]</t>
-        </is>
-      </c>
-      <c r="H195" s="53" t="n"/>
-      <c r="I195" s="53" t="n"/>
-      <c r="J195" s="51" t="n"/>
-    </row>
-    <row r="196">
-      <c r="B196" s="51" t="n"/>
-      <c r="C196" s="31" t="inlineStr">
-        <is>
-          <t>Include_Renovation_reb</t>
-        </is>
-      </c>
-      <c r="D196" s="43" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E196" s="53" t="inlineStr">
-        <is>
-          <t>Renovation of residential buildings included</t>
-        </is>
-      </c>
-      <c r="F196" s="53" t="n"/>
-      <c r="G196" s="53" t="inlineStr">
-        <is>
-          <t>['pav','reb']</t>
         </is>
       </c>
       <c r="H196" s="53" t="n"/>
@@ -17891,7 +17974,7 @@
       <c r="B197" s="51" t="n"/>
       <c r="C197" s="31" t="inlineStr">
         <is>
-          <t>Include_Renovation_nrb</t>
+          <t>Include_Renovation_reb</t>
         </is>
       </c>
       <c r="D197" s="43" t="inlineStr">
@@ -17901,11 +17984,15 @@
       </c>
       <c r="E197" s="53" t="inlineStr">
         <is>
-          <t>Renovation of nonresidential buildings included</t>
+          <t>Renovation of residential buildings included</t>
         </is>
       </c>
       <c r="F197" s="53" t="n"/>
-      <c r="G197" s="53" t="n"/>
+      <c r="G197" s="53" t="inlineStr">
+        <is>
+          <t>['pav','reb']</t>
+        </is>
+      </c>
       <c r="H197" s="53" t="n"/>
       <c r="I197" s="53" t="n"/>
       <c r="J197" s="51" t="n"/>
@@ -17914,15 +18001,19 @@
       <c r="B198" s="51" t="n"/>
       <c r="C198" s="31" t="inlineStr">
         <is>
-          <t>No_EE_Improvements</t>
+          <t>Include_Renovation_nrb</t>
         </is>
       </c>
       <c r="D198" s="43" t="inlineStr">
         <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="E198" s="53" t="n"/>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E198" s="53" t="inlineStr">
+        <is>
+          <t>Renovation of nonresidential buildings included</t>
+        </is>
+      </c>
       <c r="F198" s="53" t="n"/>
       <c r="G198" s="53" t="n"/>
       <c r="H198" s="53" t="n"/>
@@ -17933,7 +18024,7 @@
       <c r="B199" s="51" t="n"/>
       <c r="C199" s="31" t="inlineStr">
         <is>
-          <t>Reserved3</t>
+          <t>No_EE_Improvements</t>
         </is>
       </c>
       <c r="D199" s="43" t="inlineStr">
@@ -17952,7 +18043,7 @@
       <c r="B200" s="51" t="n"/>
       <c r="C200" s="31" t="inlineStr">
         <is>
-          <t>Reserved4</t>
+          <t>Reserved3</t>
         </is>
       </c>
       <c r="D200" s="43" t="inlineStr">
@@ -17961,6 +18052,7 @@
         </is>
       </c>
       <c r="E200" s="53" t="n"/>
+      <c r="F200" s="53" t="n"/>
       <c r="G200" s="53" t="n"/>
       <c r="H200" s="53" t="n"/>
       <c r="I200" s="53" t="n"/>
@@ -17970,7 +18062,7 @@
       <c r="B201" s="51" t="n"/>
       <c r="C201" s="31" t="inlineStr">
         <is>
-          <t>Reserved5</t>
+          <t>Reserved4</t>
         </is>
       </c>
       <c r="D201" s="43" t="inlineStr">
@@ -17979,7 +18071,6 @@
         </is>
       </c>
       <c r="E201" s="53" t="n"/>
-      <c r="F201" s="53" t="n"/>
       <c r="G201" s="53" t="n"/>
       <c r="H201" s="53" t="n"/>
       <c r="I201" s="53" t="n"/>
@@ -17989,7 +18080,7 @@
       <c r="B202" s="51" t="n"/>
       <c r="C202" s="31" t="inlineStr">
         <is>
-          <t>Reserved6</t>
+          <t>Reserved5</t>
         </is>
       </c>
       <c r="D202" s="43" t="inlineStr">
@@ -18004,42 +18095,49 @@
       <c r="I202" s="53" t="n"/>
       <c r="J202" s="51" t="n"/>
     </row>
-    <row r="204">
-      <c r="B204" s="12" t="inlineStr">
+    <row r="203">
+      <c r="B203" s="51" t="n"/>
+      <c r="C203" s="31" t="inlineStr">
+        <is>
+          <t>Reserved6</t>
+        </is>
+      </c>
+      <c r="D203" s="43" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E203" s="53" t="n"/>
+      <c r="F203" s="53" t="n"/>
+      <c r="G203" s="53" t="n"/>
+      <c r="H203" s="53" t="n"/>
+      <c r="I203" s="53" t="n"/>
+      <c r="J203" s="51" t="n"/>
+    </row>
+    <row r="205">
+      <c r="B205" s="12" t="inlineStr">
         <is>
           <t>Model output control</t>
         </is>
       </c>
-      <c r="C204" s="13" t="n"/>
-      <c r="D204" s="13" t="n"/>
-      <c r="E204" s="13" t="n"/>
-      <c r="F204" s="13" t="n"/>
-      <c r="G204" s="13" t="n"/>
-      <c r="H204" s="14" t="n"/>
-    </row>
-    <row r="205">
-      <c r="C205" s="27" t="inlineStr">
+      <c r="C205" s="13" t="n"/>
+      <c r="D205" s="13" t="n"/>
+      <c r="E205" s="13" t="n"/>
+      <c r="F205" s="13" t="n"/>
+      <c r="G205" s="13" t="n"/>
+      <c r="H205" s="14" t="n"/>
+    </row>
+    <row r="206">
+      <c r="C206" s="27" t="inlineStr">
         <is>
           <t>Control how model output is archived and which figures are created.</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="C206" s="94" t="inlineStr">
-        <is>
-          <t>PlotStocks</t>
-        </is>
-      </c>
-      <c r="D206" s="91" t="inlineStr">
-        <is>
-          <t>True</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="C207" s="94" t="inlineStr">
         <is>
-          <t>PlotMaterialDemand</t>
+          <t>PlotStocks</t>
         </is>
       </c>
       <c r="D207" s="91" t="inlineStr">
@@ -18051,7 +18149,7 @@
     <row r="208">
       <c r="C208" s="94" t="inlineStr">
         <is>
-          <t>PlotTotalGHGEmissions</t>
+          <t>PlotMaterialDemand</t>
         </is>
       </c>
       <c r="D208" s="91" t="inlineStr">
@@ -18063,19 +18161,19 @@
     <row r="209">
       <c r="C209" s="94" t="inlineStr">
         <is>
-          <t>UseGivenPlotBoundaries</t>
+          <t>PlotTotalGHGEmissions</t>
         </is>
       </c>
       <c r="D209" s="91" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="C210" s="94" t="inlineStr">
         <is>
-          <t>Reserved1</t>
+          <t>UseGivenPlotBoundaries</t>
         </is>
       </c>
       <c r="D210" s="91" t="inlineStr">
@@ -18087,59 +18185,61 @@
     <row r="211">
       <c r="C211" s="94" t="inlineStr">
         <is>
+          <t>Reserved1</t>
+        </is>
+      </c>
+      <c r="D211" s="91" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="C212" s="94" t="inlineStr">
+        <is>
           <t>Reserved2</t>
         </is>
       </c>
-      <c r="D211" s="91" t="inlineStr">
+      <c r="D212" s="91" t="inlineStr">
         <is>
           <t>False</t>
         </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="C212" s="43" t="inlineStr">
-        <is>
-          <t>Plot1Max</t>
-        </is>
-      </c>
-      <c r="D212" s="44" t="n">
-        <v>1500</v>
       </c>
     </row>
     <row r="213">
       <c r="C213" s="43" t="inlineStr">
         <is>
-          <t>Plot2Max</t>
+          <t>Plot1Max</t>
         </is>
       </c>
       <c r="D213" s="44" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="214">
       <c r="C214" s="43" t="inlineStr">
         <is>
-          <t>Plot3Max</t>
+          <t>Plot2Max</t>
         </is>
       </c>
       <c r="D214" s="44" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
     </row>
     <row r="215">
       <c r="C215" s="43" t="inlineStr">
         <is>
-          <t>Plot4Max</t>
+          <t>Plot3Max</t>
         </is>
       </c>
       <c r="D215" s="44" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="216">
       <c r="C216" s="43" t="inlineStr">
         <is>
-          <t>Plot5Max</t>
+          <t>Plot4Max</t>
         </is>
       </c>
       <c r="D216" s="44" t="n">
@@ -18149,25 +18249,35 @@
     <row r="217">
       <c r="C217" s="43" t="inlineStr">
         <is>
-          <t>Plot6Max</t>
+          <t>Plot5Max</t>
         </is>
       </c>
       <c r="D217" s="44" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="219">
-      <c r="B219" s="12" t="inlineStr">
+    <row r="218">
+      <c r="C218" s="43" t="inlineStr">
+        <is>
+          <t>Plot6Max</t>
+        </is>
+      </c>
+      <c r="D218" s="44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="B220" s="12" t="inlineStr">
         <is>
           <t>End of file</t>
         </is>
       </c>
-      <c r="C219" s="13" t="n"/>
-      <c r="D219" s="13" t="n"/>
-      <c r="E219" s="13" t="n"/>
-      <c r="F219" s="13" t="n"/>
-      <c r="G219" s="13" t="n"/>
-      <c r="H219" s="14" t="n"/>
+      <c r="C220" s="13" t="n"/>
+      <c r="D220" s="13" t="n"/>
+      <c r="E220" s="13" t="n"/>
+      <c r="F220" s="13" t="n"/>
+      <c r="G220" s="13" t="n"/>
+      <c r="H220" s="14" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.787401575" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.787401575"/>
@@ -18180,29 +18290,29 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:Q219"/>
+  <dimension ref="A2:Q220"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A130" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="E175" sqref="E175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="98" width="10.6640625"/>
-    <col customWidth="1" max="2" min="2" style="98" width="36.33203125"/>
-    <col customWidth="1" max="3" min="3" style="98" width="42.9296875"/>
-    <col customWidth="1" max="4" min="4" style="98" width="39.6640625"/>
-    <col customWidth="1" max="5" min="5" style="98" width="25.6640625"/>
-    <col customWidth="1" max="6" min="6" style="98" width="21.6640625"/>
-    <col customWidth="1" max="7" min="7" style="98" width="38.3984375"/>
-    <col customWidth="1" max="8" min="8" style="98" width="12.33203125"/>
-    <col customWidth="1" max="9" min="9" style="98" width="38.3984375"/>
-    <col customWidth="1" max="11" min="10" style="98" width="11.53125"/>
-    <col customWidth="1" max="12" min="12" style="98" width="73.53125"/>
-    <col customWidth="1" max="13" min="13" style="98" width="39.86328125"/>
-    <col customWidth="1" max="14" min="14" style="98" width="90"/>
-    <col customWidth="1" max="66" min="15" style="98" width="10.6640625"/>
-    <col customWidth="1" max="16384" min="67" style="98" width="10.6640625"/>
+    <col customWidth="1" max="1" min="1" style="100" width="10.6640625"/>
+    <col customWidth="1" max="2" min="2" style="100" width="36.33203125"/>
+    <col customWidth="1" max="3" min="3" style="100" width="42.9296875"/>
+    <col customWidth="1" max="4" min="4" style="100" width="39.6640625"/>
+    <col customWidth="1" max="5" min="5" style="100" width="25.6640625"/>
+    <col customWidth="1" max="6" min="6" style="100" width="21.6640625"/>
+    <col customWidth="1" max="7" min="7" style="100" width="38.3984375"/>
+    <col customWidth="1" max="8" min="8" style="100" width="12.33203125"/>
+    <col customWidth="1" max="9" min="9" style="100" width="38.3984375"/>
+    <col customWidth="1" max="11" min="10" style="100" width="11.53125"/>
+    <col customWidth="1" max="12" min="12" style="100" width="73.53125"/>
+    <col customWidth="1" max="13" min="13" style="100" width="39.86328125"/>
+    <col customWidth="1" max="14" min="14" style="100" width="90"/>
+    <col customWidth="1" max="70" min="15" style="100" width="10.6640625"/>
+    <col customWidth="1" max="16384" min="71" style="100" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -20883,7 +20993,7 @@
           <t>use phase</t>
         </is>
       </c>
-      <c r="C89" s="99" t="inlineStr">
+      <c r="C89" s="98" t="inlineStr">
         <is>
           <t>3_EI_Products_UsePhase_resbuildings</t>
         </is>
@@ -21195,7 +21305,7 @@
           <t>[0]</t>
         </is>
       </c>
-      <c r="I94" s="100" t="inlineStr">
+      <c r="I94" s="99" t="inlineStr">
         <is>
           <t>adf3d059-1ebb-40e1-8b08-e9c5b58af1f7</t>
         </is>
@@ -25593,7 +25703,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.6" r="175" s="98">
+    <row customHeight="1" ht="15.6" r="175" s="100">
       <c r="A175" t="n">
         <v>99</v>
       </c>
@@ -25648,7 +25758,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.6" r="176" s="98">
+    <row customHeight="1" ht="15.6" r="176" s="100">
       <c r="A176" t="n">
         <v>100</v>
       </c>
@@ -25703,225 +25813,257 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="178" s="98">
-      <c r="B178" s="12" t="inlineStr">
+    <row customHeight="1" ht="15.6" r="177" s="100">
+      <c r="A177" t="n">
+        <v>101</v>
+      </c>
+      <c r="B177" s="51" t="inlineStr">
+        <is>
+          <t>use phase</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>X_FLAG_VehicleDownsizingDirection</t>
+        </is>
+      </c>
+      <c r="D177" s="94" t="inlineStr">
+        <is>
+          <t>Flag (Bool) that indicates the direction of vehicle downsizing (segment shift) in the parameter 3_SHA_DownSizing_Vehicles</t>
+        </is>
+      </c>
+      <c r="E177" s="94" t="inlineStr">
+        <is>
+          <t>V1.0</t>
+        </is>
+      </c>
+      <c r="F177" s="37" t="inlineStr">
+        <is>
+          <t>rS</t>
+        </is>
+      </c>
+      <c r="G177" s="94" t="inlineStr">
+        <is>
+          <t>[0,1]</t>
+        </is>
+      </c>
+      <c r="H177" s="94" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I177" s="30" t="inlineStr">
+        <is>
+          <t>6832c162-6b26-4ad8-8e9d-3bf47bf34c9f</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>SSP/RCP</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="179" s="100">
+      <c r="B179" s="12" t="inlineStr">
         <is>
           <t>Model flow control</t>
         </is>
       </c>
-      <c r="C178" s="13" t="n"/>
-      <c r="D178" s="13" t="n"/>
-      <c r="E178" s="13" t="n"/>
-      <c r="F178" s="13" t="n"/>
-      <c r="G178" s="13" t="n"/>
-      <c r="H178" s="14" t="n"/>
-      <c r="K178" s="49" t="n"/>
-      <c r="N178" s="49" t="n"/>
-    </row>
-    <row r="179">
-      <c r="C179" s="27" t="inlineStr">
+      <c r="C179" s="13" t="n"/>
+      <c r="D179" s="13" t="n"/>
+      <c r="E179" s="13" t="n"/>
+      <c r="F179" s="13" t="n"/>
+      <c r="G179" s="13" t="n"/>
+      <c r="H179" s="14" t="n"/>
+      <c r="K179" s="49" t="n"/>
+      <c r="N179" s="49" t="n"/>
+    </row>
+    <row r="180">
+      <c r="C180" s="27" t="inlineStr">
         <is>
           <t>Specify how model should run: which calculation blocks to perform, which solvers to use, etc.</t>
         </is>
       </c>
     </row>
-    <row r="180">
-      <c r="C180" s="31" t="inlineStr">
+    <row r="181">
+      <c r="C181" s="31" t="inlineStr">
         <is>
           <t>Logging_Verbosity</t>
         </is>
       </c>
-      <c r="D180" s="94" t="inlineStr">
+      <c r="D181" s="94" t="inlineStr">
         <is>
           <t>DEBUG</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="E181" t="inlineStr">
         <is>
           <t># Specify at which level of detail the comments, warnings, and error produced by the models are recorded.</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.6" r="181" s="98">
-      <c r="C181" s="31" t="inlineStr">
+    <row customHeight="1" ht="15.6" r="182" s="100">
+      <c r="C182" s="31" t="inlineStr">
         <is>
           <t>Include_REStrategy_FabYieldImprovement</t>
         </is>
       </c>
-      <c r="D181" s="94" t="inlineStr">
+      <c r="D182" s="94" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
+      <c r="E182" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="F182" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="I181" s="57" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.6" r="182" s="98">
-      <c r="C182" s="31" t="inlineStr">
+      <c r="I182" s="57" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.6" r="183" s="100">
+      <c r="C183" s="31" t="inlineStr">
         <is>
           <t>Include_REStrategy_FabScrapDiversion</t>
         </is>
       </c>
-      <c r="D182" s="94" t="inlineStr">
+      <c r="D183" s="94" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="F183" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="I182" s="57" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.6" r="183" s="98">
-      <c r="C183" s="31" t="inlineStr">
+      <c r="I183" s="57" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.6" r="184" s="100">
+      <c r="C184" s="31" t="inlineStr">
         <is>
           <t>Include_REStrategy_EoL_RR_Improvement</t>
         </is>
       </c>
-      <c r="D183" s="94" t="inlineStr">
+      <c r="D184" s="94" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="E183" s="53" t="inlineStr">
+      <c r="E184" s="53" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
+      <c r="F184" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="J183" s="50" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.6" r="184" s="98">
-      <c r="C184" s="31" t="inlineStr">
+      <c r="J184" s="50" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.6" r="185" s="100">
+      <c r="C185" s="31" t="inlineStr">
         <is>
           <t>ScrapExport</t>
         </is>
       </c>
-      <c r="D184" s="94" t="inlineStr">
+      <c r="D185" s="94" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="F185" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="G184" s="53" t="inlineStr">
+      <c r="G185" s="53" t="inlineStr">
         <is>
           <t>Set true if excess scrap can be exported to other sectors.</t>
         </is>
       </c>
-      <c r="J184" s="50" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="185" s="98">
-      <c r="C185" s="31" t="inlineStr">
+      <c r="J185" s="50" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="186" s="100">
+      <c r="C186" s="31" t="inlineStr">
         <is>
           <t>ScrapExportRecyclingCredit</t>
         </is>
       </c>
-      <c r="D185" s="94" t="inlineStr">
+      <c r="D186" s="94" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
+      <c r="F186" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="G185" s="53" t="inlineStr">
+      <c r="G186" s="53" t="inlineStr">
         <is>
           <t>True if an emissions credit for avoided primary production is to be given.</t>
         </is>
       </c>
-      <c r="J185" s="50" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="186" s="98">
-      <c r="C186" s="31" t="inlineStr">
+      <c r="J186" s="50" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="187" s="100">
+      <c r="C187" s="31" t="inlineStr">
         <is>
           <t>IncludeRecycling</t>
         </is>
       </c>
-      <c r="D186" s="94" t="inlineStr">
+      <c r="D187" s="94" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="E186" s="53" t="inlineStr">
+      <c r="E187" s="53" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
+      <c r="F187" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="G186" s="53" t="inlineStr">
+      <c r="G187" s="53" t="inlineStr">
         <is>
           <t>Set to False only if a scenario without any recycling is to be considered (as counterfactual scenario)</t>
         </is>
       </c>
-      <c r="J186" s="50" t="n"/>
-    </row>
-    <row r="187">
-      <c r="C187" s="31" t="inlineStr">
-        <is>
-          <t>Include_REStrategy_MaterialSubstitution</t>
-        </is>
-      </c>
-      <c r="D187" s="94" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="J187" s="51" t="n"/>
+      <c r="J187" s="50" t="n"/>
     </row>
     <row r="188">
       <c r="C188" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_UsingLessMaterialByDesign</t>
+          <t>Include_REStrategy_MaterialSubstitution</t>
         </is>
       </c>
       <c r="D188" s="94" t="inlineStr">
@@ -25944,7 +26086,7 @@
     <row r="189">
       <c r="C189" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_ReUse</t>
+          <t>Include_REStrategy_UsingLessMaterialByDesign</t>
         </is>
       </c>
       <c r="D189" s="94" t="inlineStr">
@@ -25952,7 +26094,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="E189" s="53" t="inlineStr">
+      <c r="E189" t="inlineStr">
         <is>
           <t>True</t>
         </is>
@@ -25967,35 +26109,30 @@
     <row r="190">
       <c r="C190" s="31" t="inlineStr">
         <is>
+          <t>Include_REStrategy_ReUse</t>
+        </is>
+      </c>
+      <c r="D190" s="94" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E190" s="53" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J190" s="51" t="n"/>
+    </row>
+    <row r="191">
+      <c r="C191" s="31" t="inlineStr">
+        <is>
           <t>Include_REStrategy_LifeTimeExtension</t>
-        </is>
-      </c>
-      <c r="D190" s="94" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="E190" s="53" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="J190" s="51" t="n"/>
-    </row>
-    <row r="191">
-      <c r="B191" s="51" t="inlineStr">
-        <is>
-          <t>Buildings only:</t>
-        </is>
-      </c>
-      <c r="C191" s="31" t="inlineStr">
-        <is>
-          <t>Include_REStrategy_MoreIntenseUse</t>
         </is>
       </c>
       <c r="D191" s="94" t="inlineStr">
@@ -26018,12 +26155,12 @@
     <row r="192">
       <c r="B192" s="51" t="inlineStr">
         <is>
-          <t>Vehicles only:</t>
+          <t>Buildings only:</t>
         </is>
       </c>
       <c r="C192" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_CarSharing</t>
+          <t>Include_REStrategy_MoreIntenseUse</t>
         </is>
       </c>
       <c r="D192" s="94" t="inlineStr">
@@ -26051,7 +26188,7 @@
       </c>
       <c r="C193" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_RideSharing</t>
+          <t>Include_REStrategy_CarSharing</t>
         </is>
       </c>
       <c r="D193" s="94" t="inlineStr">
@@ -26079,7 +26216,7 @@
       </c>
       <c r="C194" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_ModalSplit</t>
+          <t>Include_REStrategy_RideSharing</t>
         </is>
       </c>
       <c r="D194" s="94" t="inlineStr">
@@ -26097,63 +26234,64 @@
           <t>False</t>
         </is>
       </c>
+      <c r="J194" s="51" t="n"/>
     </row>
     <row r="195">
       <c r="B195" s="51" t="inlineStr">
         <is>
+          <t>Vehicles only:</t>
+        </is>
+      </c>
+      <c r="C195" s="31" t="inlineStr">
+        <is>
+          <t>Include_REStrategy_ModalSplit</t>
+        </is>
+      </c>
+      <c r="D195" s="94" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E195" s="53" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="B196" s="51" t="inlineStr">
+        <is>
           <t>Select which sectors are included:</t>
         </is>
       </c>
-      <c r="C195" s="31" t="inlineStr">
+      <c r="C196" s="31" t="inlineStr">
         <is>
           <t>SectorSelect</t>
         </is>
       </c>
-      <c r="D195" s="43" t="inlineStr">
+      <c r="D196" s="43" t="inlineStr">
         <is>
           <t>['reb']</t>
         </is>
       </c>
-      <c r="E195" s="53" t="inlineStr">
+      <c r="E196" s="53" t="inlineStr">
         <is>
           <t>['pav']</t>
         </is>
       </c>
-      <c r="F195" s="53" t="inlineStr">
+      <c r="F196" s="53" t="inlineStr">
         <is>
           <t>['reb']</t>
         </is>
       </c>
-      <c r="G195" s="53" t="inlineStr">
+      <c r="G196" s="53" t="inlineStr">
         <is>
           <t>['pav':passenger vehicles,'reb':residential buildings,'nrb':non-residential buildings,'nrbg':nonres buildings, global,'ind': industry (electricity generation),'app':appliances]</t>
-        </is>
-      </c>
-      <c r="H195" s="53" t="n"/>
-      <c r="I195" s="53" t="n"/>
-      <c r="J195" s="51" t="n"/>
-    </row>
-    <row r="196">
-      <c r="B196" s="51" t="n"/>
-      <c r="C196" s="31" t="inlineStr">
-        <is>
-          <t>Include_Renovation_reb</t>
-        </is>
-      </c>
-      <c r="D196" s="43" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E196" s="53" t="inlineStr">
-        <is>
-          <t>Renovation of residential buildings included</t>
-        </is>
-      </c>
-      <c r="F196" s="53" t="n"/>
-      <c r="G196" s="53" t="inlineStr">
-        <is>
-          <t>['pav','reb']</t>
         </is>
       </c>
       <c r="H196" s="53" t="n"/>
@@ -26164,7 +26302,7 @@
       <c r="B197" s="51" t="n"/>
       <c r="C197" s="31" t="inlineStr">
         <is>
-          <t>Include_Renovation_nrb</t>
+          <t>Include_Renovation_reb</t>
         </is>
       </c>
       <c r="D197" s="43" t="inlineStr">
@@ -26174,11 +26312,15 @@
       </c>
       <c r="E197" s="53" t="inlineStr">
         <is>
-          <t>Renovation of nonresidential buildings included</t>
+          <t>Renovation of residential buildings included</t>
         </is>
       </c>
       <c r="F197" s="53" t="n"/>
-      <c r="G197" s="53" t="n"/>
+      <c r="G197" s="53" t="inlineStr">
+        <is>
+          <t>['pav','reb']</t>
+        </is>
+      </c>
       <c r="H197" s="53" t="n"/>
       <c r="I197" s="53" t="n"/>
       <c r="J197" s="51" t="n"/>
@@ -26187,15 +26329,19 @@
       <c r="B198" s="51" t="n"/>
       <c r="C198" s="31" t="inlineStr">
         <is>
-          <t>No_EE_Improvements</t>
+          <t>Include_Renovation_nrb</t>
         </is>
       </c>
       <c r="D198" s="43" t="inlineStr">
         <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="E198" s="53" t="n"/>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E198" s="53" t="inlineStr">
+        <is>
+          <t>Renovation of nonresidential buildings included</t>
+        </is>
+      </c>
       <c r="F198" s="53" t="n"/>
       <c r="G198" s="53" t="n"/>
       <c r="H198" s="53" t="n"/>
@@ -26206,7 +26352,7 @@
       <c r="B199" s="51" t="n"/>
       <c r="C199" s="31" t="inlineStr">
         <is>
-          <t>Reserved3</t>
+          <t>No_EE_Improvements</t>
         </is>
       </c>
       <c r="D199" s="43" t="inlineStr">
@@ -26225,7 +26371,7 @@
       <c r="B200" s="51" t="n"/>
       <c r="C200" s="31" t="inlineStr">
         <is>
-          <t>Reserved4</t>
+          <t>Reserved3</t>
         </is>
       </c>
       <c r="D200" s="43" t="inlineStr">
@@ -26234,6 +26380,7 @@
         </is>
       </c>
       <c r="E200" s="53" t="n"/>
+      <c r="F200" s="53" t="n"/>
       <c r="G200" s="53" t="n"/>
       <c r="H200" s="53" t="n"/>
       <c r="I200" s="53" t="n"/>
@@ -26243,7 +26390,7 @@
       <c r="B201" s="51" t="n"/>
       <c r="C201" s="31" t="inlineStr">
         <is>
-          <t>Reserved5</t>
+          <t>Reserved4</t>
         </is>
       </c>
       <c r="D201" s="43" t="inlineStr">
@@ -26252,7 +26399,6 @@
         </is>
       </c>
       <c r="E201" s="53" t="n"/>
-      <c r="F201" s="53" t="n"/>
       <c r="G201" s="53" t="n"/>
       <c r="H201" s="53" t="n"/>
       <c r="I201" s="53" t="n"/>
@@ -26262,7 +26408,7 @@
       <c r="B202" s="51" t="n"/>
       <c r="C202" s="31" t="inlineStr">
         <is>
-          <t>Reserved6</t>
+          <t>Reserved5</t>
         </is>
       </c>
       <c r="D202" s="43" t="inlineStr">
@@ -26277,42 +26423,49 @@
       <c r="I202" s="53" t="n"/>
       <c r="J202" s="51" t="n"/>
     </row>
-    <row r="204">
-      <c r="B204" s="12" t="inlineStr">
+    <row r="203">
+      <c r="B203" s="51" t="n"/>
+      <c r="C203" s="31" t="inlineStr">
+        <is>
+          <t>Reserved6</t>
+        </is>
+      </c>
+      <c r="D203" s="43" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E203" s="53" t="n"/>
+      <c r="F203" s="53" t="n"/>
+      <c r="G203" s="53" t="n"/>
+      <c r="H203" s="53" t="n"/>
+      <c r="I203" s="53" t="n"/>
+      <c r="J203" s="51" t="n"/>
+    </row>
+    <row r="205">
+      <c r="B205" s="12" t="inlineStr">
         <is>
           <t>Model output control</t>
         </is>
       </c>
-      <c r="C204" s="13" t="n"/>
-      <c r="D204" s="13" t="n"/>
-      <c r="E204" s="13" t="n"/>
-      <c r="F204" s="13" t="n"/>
-      <c r="G204" s="13" t="n"/>
-      <c r="H204" s="14" t="n"/>
-    </row>
-    <row r="205">
-      <c r="C205" s="27" t="inlineStr">
+      <c r="C205" s="13" t="n"/>
+      <c r="D205" s="13" t="n"/>
+      <c r="E205" s="13" t="n"/>
+      <c r="F205" s="13" t="n"/>
+      <c r="G205" s="13" t="n"/>
+      <c r="H205" s="14" t="n"/>
+    </row>
+    <row r="206">
+      <c r="C206" s="27" t="inlineStr">
         <is>
           <t>Control how model output is archived and which figures are created.</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="C206" s="94" t="inlineStr">
-        <is>
-          <t>PlotStocks</t>
-        </is>
-      </c>
-      <c r="D206" s="91" t="inlineStr">
-        <is>
-          <t>True</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="C207" s="94" t="inlineStr">
         <is>
-          <t>PlotMaterialDemand</t>
+          <t>PlotStocks</t>
         </is>
       </c>
       <c r="D207" s="91" t="inlineStr">
@@ -26324,7 +26477,7 @@
     <row r="208">
       <c r="C208" s="94" t="inlineStr">
         <is>
-          <t>PlotTotalGHGEmissions</t>
+          <t>PlotMaterialDemand</t>
         </is>
       </c>
       <c r="D208" s="91" t="inlineStr">
@@ -26336,19 +26489,19 @@
     <row r="209">
       <c r="C209" s="94" t="inlineStr">
         <is>
-          <t>UseGivenPlotBoundaries</t>
+          <t>PlotTotalGHGEmissions</t>
         </is>
       </c>
       <c r="D209" s="91" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="C210" s="94" t="inlineStr">
         <is>
-          <t>Reserved1</t>
+          <t>UseGivenPlotBoundaries</t>
         </is>
       </c>
       <c r="D210" s="91" t="inlineStr">
@@ -26360,59 +26513,61 @@
     <row r="211">
       <c r="C211" s="94" t="inlineStr">
         <is>
+          <t>Reserved1</t>
+        </is>
+      </c>
+      <c r="D211" s="91" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="C212" s="94" t="inlineStr">
+        <is>
           <t>Reserved2</t>
         </is>
       </c>
-      <c r="D211" s="91" t="inlineStr">
+      <c r="D212" s="91" t="inlineStr">
         <is>
           <t>False</t>
         </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="C212" s="43" t="inlineStr">
-        <is>
-          <t>Plot1Max</t>
-        </is>
-      </c>
-      <c r="D212" s="44" t="n">
-        <v>1500</v>
       </c>
     </row>
     <row r="213">
       <c r="C213" s="43" t="inlineStr">
         <is>
-          <t>Plot2Max</t>
+          <t>Plot1Max</t>
         </is>
       </c>
       <c r="D213" s="44" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="214">
       <c r="C214" s="43" t="inlineStr">
         <is>
-          <t>Plot3Max</t>
+          <t>Plot2Max</t>
         </is>
       </c>
       <c r="D214" s="44" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
     </row>
     <row r="215">
       <c r="C215" s="43" t="inlineStr">
         <is>
-          <t>Plot4Max</t>
+          <t>Plot3Max</t>
         </is>
       </c>
       <c r="D215" s="44" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="216">
       <c r="C216" s="43" t="inlineStr">
         <is>
-          <t>Plot5Max</t>
+          <t>Plot4Max</t>
         </is>
       </c>
       <c r="D216" s="44" t="n">
@@ -26422,25 +26577,35 @@
     <row r="217">
       <c r="C217" s="43" t="inlineStr">
         <is>
-          <t>Plot6Max</t>
+          <t>Plot5Max</t>
         </is>
       </c>
       <c r="D217" s="44" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="219">
-      <c r="B219" s="12" t="inlineStr">
+    <row r="218">
+      <c r="C218" s="43" t="inlineStr">
+        <is>
+          <t>Plot6Max</t>
+        </is>
+      </c>
+      <c r="D218" s="44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="B220" s="12" t="inlineStr">
         <is>
           <t>End of file</t>
         </is>
       </c>
-      <c r="C219" s="13" t="n"/>
-      <c r="D219" s="13" t="n"/>
-      <c r="E219" s="13" t="n"/>
-      <c r="F219" s="13" t="n"/>
-      <c r="G219" s="13" t="n"/>
-      <c r="H219" s="14" t="n"/>
+      <c r="C220" s="13" t="n"/>
+      <c r="D220" s="13" t="n"/>
+      <c r="E220" s="13" t="n"/>
+      <c r="F220" s="13" t="n"/>
+      <c r="G220" s="13" t="n"/>
+      <c r="H220" s="14" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.787401575" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.787401575"/>
@@ -26472,8 +26637,8 @@
     <col bestFit="1" customWidth="1" max="9" min="9" style="54" width="8.265625"/>
     <col customWidth="1" max="10" min="10" style="56" width="39.86328125"/>
     <col customWidth="1" max="11" min="11" style="54" width="46.73046875"/>
-    <col customWidth="1" max="27" min="12" style="54" width="10.6640625"/>
-    <col customWidth="1" max="16384" min="28" style="54" width="10.6640625"/>
+    <col customWidth="1" max="31" min="12" style="54" width="10.6640625"/>
+    <col customWidth="1" max="16384" min="32" style="54" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="8">
@@ -28775,7 +28940,7 @@
       <c r="B101" s="59" t="n"/>
       <c r="D101" s="59" t="n"/>
     </row>
-    <row customHeight="1" ht="15.6" r="103" s="98">
+    <row customHeight="1" ht="15.6" r="103" s="100">
       <c r="H103" s="62" t="n"/>
       <c r="K103" s="62" t="n"/>
     </row>
@@ -28785,7 +28950,7 @@
     <row r="107">
       <c r="D107" s="56" t="n"/>
     </row>
-    <row customHeight="1" ht="15.6" r="108" s="98">
+    <row customHeight="1" ht="15.6" r="108" s="100">
       <c r="D108" s="56" t="n"/>
     </row>
     <row r="109">
@@ -28848,30 +29013,30 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:Q219"/>
+  <dimension ref="A2:Q220"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A148" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+      <selection activeCell="B174" sqref="B174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="98" width="10.6640625"/>
-    <col customWidth="1" max="2" min="2" style="98" width="36.33203125"/>
-    <col customWidth="1" max="3" min="3" style="98" width="42.9296875"/>
-    <col customWidth="1" max="4" min="4" style="98" width="39.6640625"/>
-    <col customWidth="1" max="5" min="5" style="98" width="25.6640625"/>
-    <col customWidth="1" max="6" min="6" style="98" width="21.6640625"/>
-    <col customWidth="1" max="7" min="7" style="98" width="38.3984375"/>
-    <col customWidth="1" max="8" min="8" style="98" width="12.33203125"/>
-    <col customWidth="1" max="9" min="9" style="98" width="38.3984375"/>
-    <col customWidth="1" max="10" min="10" style="98" width="14.46484375"/>
-    <col customWidth="1" max="11" min="11" style="98" width="17.73046875"/>
-    <col customWidth="1" max="12" min="12" style="98" width="15.53125"/>
-    <col customWidth="1" max="13" min="13" style="98" width="39.86328125"/>
-    <col customWidth="1" max="14" min="14" style="98" width="90"/>
-    <col customWidth="1" max="66" min="15" style="98" width="10.6640625"/>
-    <col customWidth="1" max="16384" min="67" style="98" width="10.6640625"/>
+    <col customWidth="1" max="1" min="1" style="100" width="10.6640625"/>
+    <col customWidth="1" max="2" min="2" style="100" width="36.33203125"/>
+    <col customWidth="1" max="3" min="3" style="100" width="42.9296875"/>
+    <col customWidth="1" max="4" min="4" style="100" width="39.6640625"/>
+    <col customWidth="1" max="5" min="5" style="100" width="25.6640625"/>
+    <col customWidth="1" max="6" min="6" style="100" width="21.6640625"/>
+    <col customWidth="1" max="7" min="7" style="100" width="38.3984375"/>
+    <col customWidth="1" max="8" min="8" style="100" width="12.33203125"/>
+    <col customWidth="1" max="9" min="9" style="100" width="38.3984375"/>
+    <col customWidth="1" max="10" min="10" style="100" width="14.46484375"/>
+    <col customWidth="1" max="11" min="11" style="100" width="17.73046875"/>
+    <col customWidth="1" max="12" min="12" style="100" width="15.53125"/>
+    <col customWidth="1" max="13" min="13" style="100" width="39.86328125"/>
+    <col customWidth="1" max="14" min="14" style="100" width="90"/>
+    <col customWidth="1" max="70" min="15" style="100" width="10.6640625"/>
+    <col customWidth="1" max="16384" min="71" style="100" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -31574,7 +31739,7 @@
           <t>use phase</t>
         </is>
       </c>
-      <c r="C89" s="99" t="inlineStr">
+      <c r="C89" s="98" t="inlineStr">
         <is>
           <t>3_EI_Products_UsePhase_resbuildings</t>
         </is>
@@ -31885,7 +32050,7 @@
           <t>[0]</t>
         </is>
       </c>
-      <c r="I94" s="100" t="inlineStr">
+      <c r="I94" s="99" t="inlineStr">
         <is>
           <t>adf3d059-1ebb-40e1-8b08-e9c5b58af1f7</t>
         </is>
@@ -36395,226 +36560,258 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.6" r="177" s="98"/>
-    <row customHeight="1" ht="15.6" r="178" s="98">
-      <c r="B178" s="12" t="inlineStr">
+    <row r="177">
+      <c r="A177" t="n">
+        <v>101</v>
+      </c>
+      <c r="B177" s="51" t="inlineStr">
+        <is>
+          <t>use phase</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>X_FLAG_VehicleDownsizingDirection</t>
+        </is>
+      </c>
+      <c r="D177" s="94" t="inlineStr">
+        <is>
+          <t>Flag (Bool) that indicates the direction of vehicle downsizing (segment shift) in the parameter 3_SHA_DownSizing_Vehicles</t>
+        </is>
+      </c>
+      <c r="E177" s="94" t="inlineStr">
+        <is>
+          <t>V1.0</t>
+        </is>
+      </c>
+      <c r="F177" s="37" t="inlineStr">
+        <is>
+          <t>rS</t>
+        </is>
+      </c>
+      <c r="G177" s="94" t="inlineStr">
+        <is>
+          <t>[0,1]</t>
+        </is>
+      </c>
+      <c r="H177" s="94" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I177" s="30" t="inlineStr">
+        <is>
+          <t>6832c162-6b26-4ad8-8e9d-3bf47bf34c9f</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>SSP/RCP</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.6" r="178" s="100"/>
+    <row customHeight="1" ht="15.6" r="179" s="100">
+      <c r="B179" s="12" t="inlineStr">
         <is>
           <t>Model flow control</t>
         </is>
       </c>
-      <c r="C178" s="13" t="n"/>
-      <c r="D178" s="13" t="n"/>
-      <c r="E178" s="13" t="n"/>
-      <c r="F178" s="13" t="n"/>
-      <c r="G178" s="13" t="n"/>
-      <c r="H178" s="14" t="n"/>
-      <c r="K178" s="49" t="n"/>
-      <c r="N178" s="49" t="n"/>
-    </row>
-    <row r="179">
-      <c r="C179" s="27" t="inlineStr">
+      <c r="C179" s="13" t="n"/>
+      <c r="D179" s="13" t="n"/>
+      <c r="E179" s="13" t="n"/>
+      <c r="F179" s="13" t="n"/>
+      <c r="G179" s="13" t="n"/>
+      <c r="H179" s="14" t="n"/>
+      <c r="K179" s="49" t="n"/>
+      <c r="N179" s="49" t="n"/>
+    </row>
+    <row r="180">
+      <c r="C180" s="27" t="inlineStr">
         <is>
           <t>Specify how model should run: which calculation blocks to perform, which solvers to use, etc.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="C180" s="31" t="inlineStr">
-        <is>
-          <t>Logging_Verbosity</t>
-        </is>
-      </c>
-      <c r="D180" s="94" t="inlineStr">
-        <is>
-          <t>DEBUG</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t># Specify at which level of detail the comments, warnings, and error produced by the models are recorded.</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="C181" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_FabYieldImprovement</t>
+          <t>Logging_Verbosity</t>
         </is>
       </c>
       <c r="D181" s="94" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>DEBUG</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="I181" s="57" t="n"/>
+          <t># Specify at which level of detail the comments, warnings, and error produced by the models are recorded.</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="C182" s="31" t="inlineStr">
         <is>
+          <t>Include_REStrategy_FabYieldImprovement</t>
+        </is>
+      </c>
+      <c r="D182" s="94" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I182" s="57" t="n"/>
+    </row>
+    <row r="183">
+      <c r="C183" s="31" t="inlineStr">
+        <is>
           <t>Include_REStrategy_FabScrapDiversion</t>
         </is>
       </c>
-      <c r="D182" s="94" t="inlineStr">
+      <c r="D183" s="94" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="F183" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="I182" s="57" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.6" r="183" s="98">
-      <c r="C183" s="31" t="inlineStr">
+      <c r="I183" s="57" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.6" r="184" s="100">
+      <c r="C184" s="31" t="inlineStr">
         <is>
           <t>Include_REStrategy_EoL_RR_Improvement</t>
         </is>
       </c>
-      <c r="D183" s="94" t="inlineStr">
+      <c r="D184" s="94" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="E183" s="53" t="inlineStr">
+      <c r="E184" s="53" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
+      <c r="F184" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="J183" s="50" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.6" r="184" s="98">
-      <c r="C184" s="31" t="inlineStr">
+      <c r="J184" s="50" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.6" r="185" s="100">
+      <c r="C185" s="31" t="inlineStr">
         <is>
           <t>ScrapExport</t>
         </is>
       </c>
-      <c r="D184" s="94" t="inlineStr">
+      <c r="D185" s="94" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="F185" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="G184" s="53" t="inlineStr">
+      <c r="G185" s="53" t="inlineStr">
         <is>
           <t>Set true if excess scrap can be exported to other sectors.</t>
         </is>
       </c>
-      <c r="J184" s="50" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.6" r="185" s="98">
-      <c r="C185" s="31" t="inlineStr">
+      <c r="J185" s="50" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.6" r="186" s="100">
+      <c r="C186" s="31" t="inlineStr">
         <is>
           <t>ScrapExportRecyclingCredit</t>
         </is>
       </c>
-      <c r="D185" s="94" t="inlineStr">
+      <c r="D186" s="94" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
+      <c r="F186" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="G185" s="53" t="inlineStr">
+      <c r="G186" s="53" t="inlineStr">
         <is>
           <t>True if an emissions credit for avoided primary production is to be given.</t>
         </is>
       </c>
-      <c r="J185" s="50" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.6" r="186" s="98">
-      <c r="C186" s="31" t="inlineStr">
+      <c r="J186" s="50" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.6" r="187" s="100">
+      <c r="C187" s="31" t="inlineStr">
         <is>
           <t>IncludeRecycling</t>
         </is>
       </c>
-      <c r="D186" s="94" t="inlineStr">
+      <c r="D187" s="94" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="E186" s="53" t="inlineStr">
+      <c r="E187" s="53" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
+      <c r="F187" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="G186" s="53" t="inlineStr">
+      <c r="G187" s="53" t="inlineStr">
         <is>
           <t>Set to False only if a scenario without any recycling is to be considered (as counterfactual scenario)</t>
         </is>
       </c>
-      <c r="J186" s="50" t="n"/>
-    </row>
-    <row r="187">
-      <c r="C187" s="31" t="inlineStr">
-        <is>
-          <t>Include_REStrategy_MaterialSubstitution</t>
-        </is>
-      </c>
-      <c r="D187" s="94" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="J187" s="51" t="n"/>
+      <c r="J187" s="50" t="n"/>
     </row>
     <row r="188">
       <c r="C188" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_UsingLessMaterialByDesign</t>
+          <t>Include_REStrategy_MaterialSubstitution</t>
         </is>
       </c>
       <c r="D188" s="94" t="inlineStr">
@@ -36637,7 +36834,7 @@
     <row r="189">
       <c r="C189" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_ReUse</t>
+          <t>Include_REStrategy_UsingLessMaterialByDesign</t>
         </is>
       </c>
       <c r="D189" s="94" t="inlineStr">
@@ -36645,7 +36842,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="E189" s="53" t="inlineStr">
+      <c r="E189" t="inlineStr">
         <is>
           <t>True</t>
         </is>
@@ -36660,35 +36857,30 @@
     <row r="190">
       <c r="C190" s="31" t="inlineStr">
         <is>
+          <t>Include_REStrategy_ReUse</t>
+        </is>
+      </c>
+      <c r="D190" s="94" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E190" s="53" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J190" s="51" t="n"/>
+    </row>
+    <row r="191">
+      <c r="C191" s="31" t="inlineStr">
+        <is>
           <t>Include_REStrategy_LifeTimeExtension</t>
-        </is>
-      </c>
-      <c r="D190" s="94" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E190" s="53" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="J190" s="51" t="n"/>
-    </row>
-    <row r="191">
-      <c r="B191" s="51" t="inlineStr">
-        <is>
-          <t>Buildings only:</t>
-        </is>
-      </c>
-      <c r="C191" s="31" t="inlineStr">
-        <is>
-          <t>Include_REStrategy_MoreIntenseUse</t>
         </is>
       </c>
       <c r="D191" s="94" t="inlineStr">
@@ -36711,12 +36903,12 @@
     <row r="192">
       <c r="B192" s="51" t="inlineStr">
         <is>
-          <t>Vehicles only:</t>
+          <t>Buildings only:</t>
         </is>
       </c>
       <c r="C192" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_CarSharing</t>
+          <t>Include_REStrategy_MoreIntenseUse</t>
         </is>
       </c>
       <c r="D192" s="94" t="inlineStr">
@@ -36744,7 +36936,7 @@
       </c>
       <c r="C193" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_RideSharing</t>
+          <t>Include_REStrategy_CarSharing</t>
         </is>
       </c>
       <c r="D193" s="94" t="inlineStr">
@@ -36772,7 +36964,7 @@
       </c>
       <c r="C194" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_ModalSplit</t>
+          <t>Include_REStrategy_RideSharing</t>
         </is>
       </c>
       <c r="D194" s="94" t="inlineStr">
@@ -36790,61 +36982,66 @@
           <t>False</t>
         </is>
       </c>
+      <c r="J194" s="51" t="n"/>
     </row>
     <row r="195">
       <c r="B195" s="51" t="inlineStr">
         <is>
+          <t>Vehicles only:</t>
+        </is>
+      </c>
+      <c r="C195" s="31" t="inlineStr">
+        <is>
+          <t>Include_REStrategy_ModalSplit</t>
+        </is>
+      </c>
+      <c r="D195" s="94" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E195" s="53" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="B196" s="51" t="inlineStr">
+        <is>
           <t>Select which sectors are included:</t>
         </is>
       </c>
-      <c r="C195" s="31" t="inlineStr">
+      <c r="C196" s="31" t="inlineStr">
         <is>
           <t>SectorSelect</t>
         </is>
       </c>
-      <c r="D195" s="43" t="inlineStr">
+      <c r="D196" s="43" t="inlineStr">
         <is>
           <t>['pav','reb']</t>
         </is>
       </c>
-      <c r="E195" s="53" t="inlineStr">
+      <c r="E196" s="53" t="inlineStr">
         <is>
           <t>['pav']</t>
         </is>
       </c>
-      <c r="F195" s="53" t="inlineStr">
+      <c r="F196" s="53" t="inlineStr">
         <is>
           <t>['reb']</t>
         </is>
       </c>
-      <c r="G195" s="53" t="inlineStr">
+      <c r="G196" s="53" t="inlineStr">
         <is>
           <t>['pav':passenger vehicles,'reb':residential buildings,'nrb':non-residential buildings,'nrbg':nonres buildings, global,'ind': industry (electricity generation),'app':appliances]</t>
         </is>
       </c>
-      <c r="H195" s="53" t="n"/>
-      <c r="I195" s="53" t="n"/>
-      <c r="J195" s="51" t="n"/>
-    </row>
-    <row r="196">
-      <c r="B196" s="51" t="n"/>
-      <c r="C196" s="31" t="inlineStr">
-        <is>
-          <t>Include_Renovation_reb</t>
-        </is>
-      </c>
-      <c r="D196" s="43" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E196" s="53" t="inlineStr">
-        <is>
-          <t>Renovation of residential buildings included</t>
-        </is>
-      </c>
-      <c r="F196" s="53" t="n"/>
-      <c r="G196" s="53" t="n"/>
       <c r="H196" s="53" t="n"/>
       <c r="I196" s="53" t="n"/>
       <c r="J196" s="51" t="n"/>
@@ -36853,7 +37050,7 @@
       <c r="B197" s="51" t="n"/>
       <c r="C197" s="31" t="inlineStr">
         <is>
-          <t>Include_Renovation_nrb</t>
+          <t>Include_Renovation_reb</t>
         </is>
       </c>
       <c r="D197" s="43" t="inlineStr">
@@ -36863,7 +37060,7 @@
       </c>
       <c r="E197" s="53" t="inlineStr">
         <is>
-          <t>Renovation of nonresidential buildings included</t>
+          <t>Renovation of residential buildings included</t>
         </is>
       </c>
       <c r="F197" s="53" t="n"/>
@@ -36876,20 +37073,20 @@
       <c r="B198" s="51" t="n"/>
       <c r="C198" s="31" t="inlineStr">
         <is>
-          <t>No_EE_Improvements</t>
+          <t>Include_Renovation_nrb</t>
         </is>
       </c>
       <c r="D198" s="43" t="inlineStr">
         <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="E198" s="53" t="n"/>
-      <c r="F198" s="53" t="inlineStr">
-        <is>
-          <t>['pav','reb','nrbg','app','ind']</t>
-        </is>
-      </c>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E198" s="53" t="inlineStr">
+        <is>
+          <t>Renovation of nonresidential buildings included</t>
+        </is>
+      </c>
+      <c r="F198" s="53" t="n"/>
       <c r="G198" s="53" t="n"/>
       <c r="H198" s="53" t="n"/>
       <c r="I198" s="53" t="n"/>
@@ -36899,7 +37096,7 @@
       <c r="B199" s="51" t="n"/>
       <c r="C199" s="31" t="inlineStr">
         <is>
-          <t>Reserved3</t>
+          <t>No_EE_Improvements</t>
         </is>
       </c>
       <c r="D199" s="43" t="inlineStr">
@@ -36910,7 +37107,7 @@
       <c r="E199" s="53" t="n"/>
       <c r="F199" s="53" t="inlineStr">
         <is>
-          <t>['nrbg']</t>
+          <t>['pav','reb','nrbg','app','ind']</t>
         </is>
       </c>
       <c r="G199" s="53" t="n"/>
@@ -36922,7 +37119,7 @@
       <c r="B200" s="51" t="n"/>
       <c r="C200" s="31" t="inlineStr">
         <is>
-          <t>Reserved4</t>
+          <t>Reserved3</t>
         </is>
       </c>
       <c r="D200" s="43" t="inlineStr">
@@ -36933,7 +37130,7 @@
       <c r="E200" s="53" t="n"/>
       <c r="F200" s="53" t="inlineStr">
         <is>
-          <t>['pav','reb']</t>
+          <t>['nrbg']</t>
         </is>
       </c>
       <c r="G200" s="53" t="n"/>
@@ -36945,7 +37142,7 @@
       <c r="B201" s="51" t="n"/>
       <c r="C201" s="31" t="inlineStr">
         <is>
-          <t>Reserved5</t>
+          <t>Reserved4</t>
         </is>
       </c>
       <c r="D201" s="43" t="inlineStr">
@@ -36956,7 +37153,7 @@
       <c r="E201" s="53" t="n"/>
       <c r="F201" s="53" t="inlineStr">
         <is>
-          <t>['nrbg','app','ind']</t>
+          <t>['pav','reb']</t>
         </is>
       </c>
       <c r="G201" s="53" t="n"/>
@@ -36968,7 +37165,7 @@
       <c r="B202" s="51" t="n"/>
       <c r="C202" s="31" t="inlineStr">
         <is>
-          <t>Reserved6</t>
+          <t>Reserved5</t>
         </is>
       </c>
       <c r="D202" s="43" t="inlineStr">
@@ -36977,48 +37174,59 @@
         </is>
       </c>
       <c r="E202" s="53" t="n"/>
-      <c r="F202" s="53" t="n"/>
+      <c r="F202" s="53" t="inlineStr">
+        <is>
+          <t>['nrbg','app','ind']</t>
+        </is>
+      </c>
       <c r="G202" s="53" t="n"/>
       <c r="H202" s="53" t="n"/>
       <c r="I202" s="53" t="n"/>
       <c r="J202" s="51" t="n"/>
     </row>
-    <row r="204">
-      <c r="B204" s="12" t="inlineStr">
+    <row r="203">
+      <c r="B203" s="51" t="n"/>
+      <c r="C203" s="31" t="inlineStr">
+        <is>
+          <t>Reserved6</t>
+        </is>
+      </c>
+      <c r="D203" s="43" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E203" s="53" t="n"/>
+      <c r="F203" s="53" t="n"/>
+      <c r="G203" s="53" t="n"/>
+      <c r="H203" s="53" t="n"/>
+      <c r="I203" s="53" t="n"/>
+      <c r="J203" s="51" t="n"/>
+    </row>
+    <row r="205">
+      <c r="B205" s="12" t="inlineStr">
         <is>
           <t>Model output control</t>
         </is>
       </c>
-      <c r="C204" s="13" t="n"/>
-      <c r="D204" s="13" t="n"/>
-      <c r="E204" s="13" t="n"/>
-      <c r="F204" s="13" t="n"/>
-      <c r="G204" s="13" t="n"/>
-      <c r="H204" s="14" t="n"/>
-    </row>
-    <row r="205">
-      <c r="C205" s="27" t="inlineStr">
+      <c r="C205" s="13" t="n"/>
+      <c r="D205" s="13" t="n"/>
+      <c r="E205" s="13" t="n"/>
+      <c r="F205" s="13" t="n"/>
+      <c r="G205" s="13" t="n"/>
+      <c r="H205" s="14" t="n"/>
+    </row>
+    <row r="206">
+      <c r="C206" s="27" t="inlineStr">
         <is>
           <t>Control how model output is archived and which figures are created.</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="C206" s="94" t="inlineStr">
-        <is>
-          <t>PlotStocks</t>
-        </is>
-      </c>
-      <c r="D206" s="91" t="inlineStr">
-        <is>
-          <t>True</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="C207" s="94" t="inlineStr">
         <is>
-          <t>PlotMaterialDemand</t>
+          <t>PlotStocks</t>
         </is>
       </c>
       <c r="D207" s="91" t="inlineStr">
@@ -37030,7 +37238,7 @@
     <row r="208">
       <c r="C208" s="94" t="inlineStr">
         <is>
-          <t>PlotTotalGHGEmissions</t>
+          <t>PlotMaterialDemand</t>
         </is>
       </c>
       <c r="D208" s="91" t="inlineStr">
@@ -37042,19 +37250,19 @@
     <row r="209">
       <c r="C209" s="94" t="inlineStr">
         <is>
-          <t>UseGivenPlotBoundaries</t>
+          <t>PlotTotalGHGEmissions</t>
         </is>
       </c>
       <c r="D209" s="91" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="C210" s="94" t="inlineStr">
         <is>
-          <t>Reserved1</t>
+          <t>UseGivenPlotBoundaries</t>
         </is>
       </c>
       <c r="D210" s="91" t="inlineStr">
@@ -37066,59 +37274,61 @@
     <row r="211">
       <c r="C211" s="94" t="inlineStr">
         <is>
+          <t>Reserved1</t>
+        </is>
+      </c>
+      <c r="D211" s="91" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="C212" s="94" t="inlineStr">
+        <is>
           <t>Reserved2</t>
         </is>
       </c>
-      <c r="D211" s="91" t="inlineStr">
+      <c r="D212" s="91" t="inlineStr">
         <is>
           <t>False</t>
         </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="C212" s="43" t="inlineStr">
-        <is>
-          <t>Plot1Max</t>
-        </is>
-      </c>
-      <c r="D212" s="44" t="n">
-        <v>1500</v>
       </c>
     </row>
     <row r="213">
       <c r="C213" s="43" t="inlineStr">
         <is>
-          <t>Plot2Max</t>
+          <t>Plot1Max</t>
         </is>
       </c>
       <c r="D213" s="44" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="214">
       <c r="C214" s="43" t="inlineStr">
         <is>
-          <t>Plot3Max</t>
+          <t>Plot2Max</t>
         </is>
       </c>
       <c r="D214" s="44" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
     </row>
     <row r="215">
       <c r="C215" s="43" t="inlineStr">
         <is>
-          <t>Plot4Max</t>
+          <t>Plot3Max</t>
         </is>
       </c>
       <c r="D215" s="44" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="216">
       <c r="C216" s="43" t="inlineStr">
         <is>
-          <t>Plot5Max</t>
+          <t>Plot4Max</t>
         </is>
       </c>
       <c r="D216" s="44" t="n">
@@ -37128,25 +37338,35 @@
     <row r="217">
       <c r="C217" s="43" t="inlineStr">
         <is>
-          <t>Plot6Max</t>
+          <t>Plot5Max</t>
         </is>
       </c>
       <c r="D217" s="44" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="219">
-      <c r="B219" s="12" t="inlineStr">
+    <row r="218">
+      <c r="C218" s="43" t="inlineStr">
+        <is>
+          <t>Plot6Max</t>
+        </is>
+      </c>
+      <c r="D218" s="44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="B220" s="12" t="inlineStr">
         <is>
           <t>End of file</t>
         </is>
       </c>
-      <c r="C219" s="13" t="n"/>
-      <c r="D219" s="13" t="n"/>
-      <c r="E219" s="13" t="n"/>
-      <c r="F219" s="13" t="n"/>
-      <c r="G219" s="13" t="n"/>
-      <c r="H219" s="14" t="n"/>
+      <c r="C220" s="13" t="n"/>
+      <c r="D220" s="13" t="n"/>
+      <c r="E220" s="13" t="n"/>
+      <c r="F220" s="13" t="n"/>
+      <c r="G220" s="13" t="n"/>
+      <c r="H220" s="14" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.787401575" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.787401575"/>
@@ -37159,30 +37379,30 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:Q219"/>
+  <dimension ref="A2:Q220"/>
   <sheetViews>
-    <sheetView topLeftCell="H210" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:N224"/>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="A177" sqref="A177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="98" width="10.6640625"/>
-    <col customWidth="1" max="2" min="2" style="98" width="36.33203125"/>
-    <col customWidth="1" max="3" min="3" style="98" width="42.9296875"/>
-    <col customWidth="1" max="4" min="4" style="98" width="39.6640625"/>
-    <col customWidth="1" max="5" min="5" style="98" width="25.6640625"/>
-    <col customWidth="1" max="6" min="6" style="98" width="21.6640625"/>
-    <col customWidth="1" max="7" min="7" style="98" width="38.3984375"/>
-    <col customWidth="1" max="8" min="8" style="98" width="12.33203125"/>
-    <col customWidth="1" max="9" min="9" style="98" width="38.3984375"/>
-    <col customWidth="1" max="10" min="10" style="98" width="14.46484375"/>
-    <col customWidth="1" max="11" min="11" style="98" width="17.73046875"/>
-    <col customWidth="1" max="12" min="12" style="98" width="15.53125"/>
-    <col customWidth="1" max="13" min="13" style="98" width="39.86328125"/>
-    <col customWidth="1" max="14" min="14" style="98" width="38.73046875"/>
-    <col customWidth="1" max="66" min="15" style="98" width="10.6640625"/>
-    <col customWidth="1" max="16384" min="67" style="98" width="10.6640625"/>
+    <col customWidth="1" max="1" min="1" style="100" width="10.6640625"/>
+    <col customWidth="1" max="2" min="2" style="100" width="36.33203125"/>
+    <col customWidth="1" max="3" min="3" style="100" width="42.9296875"/>
+    <col customWidth="1" max="4" min="4" style="100" width="39.6640625"/>
+    <col customWidth="1" max="5" min="5" style="100" width="25.6640625"/>
+    <col customWidth="1" max="6" min="6" style="100" width="21.6640625"/>
+    <col customWidth="1" max="7" min="7" style="100" width="38.3984375"/>
+    <col customWidth="1" max="8" min="8" style="100" width="12.33203125"/>
+    <col customWidth="1" max="9" min="9" style="100" width="38.3984375"/>
+    <col customWidth="1" max="10" min="10" style="100" width="14.46484375"/>
+    <col customWidth="1" max="11" min="11" style="100" width="17.73046875"/>
+    <col customWidth="1" max="12" min="12" style="100" width="15.53125"/>
+    <col customWidth="1" max="13" min="13" style="100" width="39.86328125"/>
+    <col customWidth="1" max="14" min="14" style="100" width="38.73046875"/>
+    <col customWidth="1" max="70" min="15" style="100" width="10.6640625"/>
+    <col customWidth="1" max="16384" min="71" style="100" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -39865,7 +40085,7 @@
           <t>use phase</t>
         </is>
       </c>
-      <c r="C89" s="99" t="inlineStr">
+      <c r="C89" s="98" t="inlineStr">
         <is>
           <t>3_EI_Products_UsePhase_resbuildings</t>
         </is>
@@ -40176,7 +40396,7 @@
           <t>[0]</t>
         </is>
       </c>
-      <c r="I94" s="100" t="inlineStr">
+      <c r="I94" s="99" t="inlineStr">
         <is>
           <t>adf3d059-1ebb-40e1-8b08-e9c5b58af1f7</t>
         </is>
@@ -44686,226 +44906,258 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.6" r="177" s="98"/>
-    <row customHeight="1" ht="15.6" r="178" s="98">
-      <c r="B178" s="12" t="inlineStr">
+    <row r="177">
+      <c r="A177" t="n">
+        <v>101</v>
+      </c>
+      <c r="B177" s="51" t="inlineStr">
+        <is>
+          <t>use phase</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>X_FLAG_VehicleDownsizingDirection</t>
+        </is>
+      </c>
+      <c r="D177" s="94" t="inlineStr">
+        <is>
+          <t>Flag (Bool) that indicates the direction of vehicle downsizing (segment shift) in the parameter 3_SHA_DownSizing_Vehicles</t>
+        </is>
+      </c>
+      <c r="E177" s="94" t="inlineStr">
+        <is>
+          <t>V1.0</t>
+        </is>
+      </c>
+      <c r="F177" s="37" t="inlineStr">
+        <is>
+          <t>rS</t>
+        </is>
+      </c>
+      <c r="G177" s="94" t="inlineStr">
+        <is>
+          <t>[0,1]</t>
+        </is>
+      </c>
+      <c r="H177" s="94" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I177" s="30" t="inlineStr">
+        <is>
+          <t>6832c162-6b26-4ad8-8e9d-3bf47bf34c9f</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>SSP/RCP</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.6" r="178" s="100"/>
+    <row customHeight="1" ht="15.6" r="179" s="100">
+      <c r="B179" s="12" t="inlineStr">
         <is>
           <t>Model flow control</t>
         </is>
       </c>
-      <c r="C178" s="13" t="n"/>
-      <c r="D178" s="13" t="n"/>
-      <c r="E178" s="13" t="n"/>
-      <c r="F178" s="13" t="n"/>
-      <c r="G178" s="13" t="n"/>
-      <c r="H178" s="14" t="n"/>
-      <c r="K178" s="49" t="n"/>
-      <c r="N178" s="49" t="n"/>
-    </row>
-    <row r="179">
-      <c r="C179" s="27" t="inlineStr">
+      <c r="C179" s="13" t="n"/>
+      <c r="D179" s="13" t="n"/>
+      <c r="E179" s="13" t="n"/>
+      <c r="F179" s="13" t="n"/>
+      <c r="G179" s="13" t="n"/>
+      <c r="H179" s="14" t="n"/>
+      <c r="K179" s="49" t="n"/>
+      <c r="N179" s="49" t="n"/>
+    </row>
+    <row r="180">
+      <c r="C180" s="27" t="inlineStr">
         <is>
           <t>Specify how model should run: which calculation blocks to perform, which solvers to use, etc.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="C180" s="31" t="inlineStr">
-        <is>
-          <t>Logging_Verbosity</t>
-        </is>
-      </c>
-      <c r="D180" s="94" t="inlineStr">
-        <is>
-          <t>DEBUG</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t># Specify at which level of detail the comments, warnings, and error produced by the models are recorded.</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="C181" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_FabYieldImprovement</t>
+          <t>Logging_Verbosity</t>
         </is>
       </c>
       <c r="D181" s="94" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>DEBUG</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="I181" s="57" t="n"/>
+          <t># Specify at which level of detail the comments, warnings, and error produced by the models are recorded.</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="C182" s="31" t="inlineStr">
         <is>
+          <t>Include_REStrategy_FabYieldImprovement</t>
+        </is>
+      </c>
+      <c r="D182" s="94" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I182" s="57" t="n"/>
+    </row>
+    <row r="183">
+      <c r="C183" s="31" t="inlineStr">
+        <is>
           <t>Include_REStrategy_FabScrapDiversion</t>
         </is>
       </c>
-      <c r="D182" s="94" t="inlineStr">
+      <c r="D183" s="94" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="F183" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="I182" s="57" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.6" r="183" s="98">
-      <c r="C183" s="31" t="inlineStr">
+      <c r="I183" s="57" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.6" r="184" s="100">
+      <c r="C184" s="31" t="inlineStr">
         <is>
           <t>Include_REStrategy_EoL_RR_Improvement</t>
         </is>
       </c>
-      <c r="D183" s="94" t="inlineStr">
+      <c r="D184" s="94" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="E183" s="53" t="inlineStr">
+      <c r="E184" s="53" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
+      <c r="F184" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="J183" s="50" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.6" r="184" s="98">
-      <c r="C184" s="31" t="inlineStr">
+      <c r="J184" s="50" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.6" r="185" s="100">
+      <c r="C185" s="31" t="inlineStr">
         <is>
           <t>ScrapExport</t>
         </is>
       </c>
-      <c r="D184" s="94" t="inlineStr">
+      <c r="D185" s="94" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="F185" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="G184" s="53" t="inlineStr">
+      <c r="G185" s="53" t="inlineStr">
         <is>
           <t>Set true if excess scrap can be exported to other sectors.</t>
         </is>
       </c>
-      <c r="J184" s="50" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.6" r="185" s="98">
-      <c r="C185" s="31" t="inlineStr">
+      <c r="J185" s="50" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.6" r="186" s="100">
+      <c r="C186" s="31" t="inlineStr">
         <is>
           <t>ScrapExportRecyclingCredit</t>
         </is>
       </c>
-      <c r="D185" s="94" t="inlineStr">
+      <c r="D186" s="94" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="F186" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
+      <c r="G186" s="53" t="inlineStr">
+        <is>
+          <t>True if an emissions credit for avoided primary production is to be given.</t>
+        </is>
+      </c>
+      <c r="J186" s="50" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.6" r="187" s="100">
+      <c r="C187" s="31" t="inlineStr">
+        <is>
+          <t>IncludeRecycling</t>
+        </is>
+      </c>
+      <c r="D187" s="94" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="G185" s="53" t="inlineStr">
-        <is>
-          <t>True if an emissions credit for avoided primary production is to be given.</t>
-        </is>
-      </c>
-      <c r="J185" s="50" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.6" r="186" s="98">
-      <c r="C186" s="31" t="inlineStr">
-        <is>
-          <t>IncludeRecycling</t>
-        </is>
-      </c>
-      <c r="D186" s="94" t="inlineStr">
+      <c r="E187" s="53" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="E186" s="53" t="inlineStr">
+      <c r="F187" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="G186" s="53" t="inlineStr">
+      <c r="G187" s="53" t="inlineStr">
         <is>
           <t>Set to False only if a scenario without any recycling is to be considered (as counterfactual scenario)</t>
         </is>
       </c>
-      <c r="J186" s="50" t="n"/>
-    </row>
-    <row r="187">
-      <c r="C187" s="31" t="inlineStr">
-        <is>
-          <t>Include_REStrategy_MaterialSubstitution</t>
-        </is>
-      </c>
-      <c r="D187" s="94" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="J187" s="51" t="n"/>
+      <c r="J187" s="50" t="n"/>
     </row>
     <row r="188">
       <c r="C188" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_UsingLessMaterialByDesign</t>
+          <t>Include_REStrategy_MaterialSubstitution</t>
         </is>
       </c>
       <c r="D188" s="94" t="inlineStr">
@@ -44928,7 +45180,7 @@
     <row r="189">
       <c r="C189" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_ReUse</t>
+          <t>Include_REStrategy_UsingLessMaterialByDesign</t>
         </is>
       </c>
       <c r="D189" s="94" t="inlineStr">
@@ -44936,7 +45188,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="E189" s="53" t="inlineStr">
+      <c r="E189" t="inlineStr">
         <is>
           <t>True</t>
         </is>
@@ -44951,35 +45203,30 @@
     <row r="190">
       <c r="C190" s="31" t="inlineStr">
         <is>
+          <t>Include_REStrategy_ReUse</t>
+        </is>
+      </c>
+      <c r="D190" s="94" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E190" s="53" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J190" s="51" t="n"/>
+    </row>
+    <row r="191">
+      <c r="C191" s="31" t="inlineStr">
+        <is>
           <t>Include_REStrategy_LifeTimeExtension</t>
-        </is>
-      </c>
-      <c r="D190" s="94" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E190" s="53" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="J190" s="51" t="n"/>
-    </row>
-    <row r="191">
-      <c r="B191" s="51" t="inlineStr">
-        <is>
-          <t>Buildings only:</t>
-        </is>
-      </c>
-      <c r="C191" s="31" t="inlineStr">
-        <is>
-          <t>Include_REStrategy_MoreIntenseUse</t>
         </is>
       </c>
       <c r="D191" s="94" t="inlineStr">
@@ -45002,12 +45249,12 @@
     <row r="192">
       <c r="B192" s="51" t="inlineStr">
         <is>
-          <t>Vehicles only:</t>
+          <t>Buildings only:</t>
         </is>
       </c>
       <c r="C192" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_CarSharing</t>
+          <t>Include_REStrategy_MoreIntenseUse</t>
         </is>
       </c>
       <c r="D192" s="94" t="inlineStr">
@@ -45035,7 +45282,7 @@
       </c>
       <c r="C193" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_RideSharing</t>
+          <t>Include_REStrategy_CarSharing</t>
         </is>
       </c>
       <c r="D193" s="94" t="inlineStr">
@@ -45063,81 +45310,82 @@
       </c>
       <c r="C194" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_ModalSplit</t>
+          <t>Include_REStrategy_RideSharing</t>
         </is>
       </c>
       <c r="D194" s="94" t="inlineStr">
         <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E194" s="53" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
           <t>False</t>
         </is>
       </c>
-      <c r="E194" s="53" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
+      <c r="J194" s="51" t="n"/>
     </row>
     <row r="195">
       <c r="B195" s="51" t="inlineStr">
         <is>
+          <t>Vehicles only:</t>
+        </is>
+      </c>
+      <c r="C195" s="31" t="inlineStr">
+        <is>
+          <t>Include_REStrategy_ModalSplit</t>
+        </is>
+      </c>
+      <c r="D195" s="94" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E195" s="53" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="B196" s="51" t="inlineStr">
+        <is>
           <t>Select which sectors are included:</t>
         </is>
       </c>
-      <c r="C195" s="31" t="inlineStr">
+      <c r="C196" s="31" t="inlineStr">
         <is>
           <t>SectorSelect</t>
         </is>
       </c>
-      <c r="D195" s="43" t="inlineStr">
+      <c r="D196" s="43" t="inlineStr">
         <is>
           <t>['pav','reb']</t>
         </is>
       </c>
-      <c r="E195" s="53" t="inlineStr">
+      <c r="E196" s="53" t="inlineStr">
         <is>
           <t>['pav']</t>
         </is>
       </c>
-      <c r="F195" s="53" t="inlineStr">
+      <c r="F196" s="53" t="inlineStr">
         <is>
           <t>['reb']</t>
         </is>
       </c>
-      <c r="G195" s="53" t="inlineStr">
+      <c r="G196" s="53" t="inlineStr">
         <is>
           <t>['pav':passenger vehicles,'reb':residential buildings,'nrb':non-residential buildings,'nrbg':nonres buildings, global,'ind': industry (electricity generation),'app':appliances]</t>
-        </is>
-      </c>
-      <c r="H195" s="53" t="n"/>
-      <c r="I195" s="53" t="n"/>
-      <c r="J195" s="51" t="n"/>
-    </row>
-    <row r="196">
-      <c r="B196" s="51" t="n"/>
-      <c r="C196" s="31" t="inlineStr">
-        <is>
-          <t>Include_Renovation_reb</t>
-        </is>
-      </c>
-      <c r="D196" s="43" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E196" s="53" t="inlineStr">
-        <is>
-          <t>Renovation of residential buildings included</t>
-        </is>
-      </c>
-      <c r="F196" s="53" t="n"/>
-      <c r="G196" s="53" t="inlineStr">
-        <is>
-          <t>['pav','reb']</t>
         </is>
       </c>
       <c r="H196" s="53" t="n"/>
@@ -45148,7 +45396,7 @@
       <c r="B197" s="51" t="n"/>
       <c r="C197" s="31" t="inlineStr">
         <is>
-          <t>Include_Renovation_nrb</t>
+          <t>Include_Renovation_reb</t>
         </is>
       </c>
       <c r="D197" s="43" t="inlineStr">
@@ -45158,11 +45406,15 @@
       </c>
       <c r="E197" s="53" t="inlineStr">
         <is>
-          <t>Renovation of nonresidential buildings included</t>
+          <t>Renovation of residential buildings included</t>
         </is>
       </c>
       <c r="F197" s="53" t="n"/>
-      <c r="G197" s="53" t="n"/>
+      <c r="G197" s="53" t="inlineStr">
+        <is>
+          <t>['pav','reb']</t>
+        </is>
+      </c>
       <c r="H197" s="53" t="n"/>
       <c r="I197" s="53" t="n"/>
       <c r="J197" s="51" t="n"/>
@@ -45171,15 +45423,19 @@
       <c r="B198" s="51" t="n"/>
       <c r="C198" s="31" t="inlineStr">
         <is>
-          <t>No_EE_Improvements</t>
+          <t>Include_Renovation_nrb</t>
         </is>
       </c>
       <c r="D198" s="43" t="inlineStr">
         <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="E198" s="53" t="n"/>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E198" s="53" t="inlineStr">
+        <is>
+          <t>Renovation of nonresidential buildings included</t>
+        </is>
+      </c>
       <c r="F198" s="53" t="n"/>
       <c r="G198" s="53" t="n"/>
       <c r="H198" s="53" t="n"/>
@@ -45190,7 +45446,7 @@
       <c r="B199" s="51" t="n"/>
       <c r="C199" s="31" t="inlineStr">
         <is>
-          <t>Reserved3</t>
+          <t>No_EE_Improvements</t>
         </is>
       </c>
       <c r="D199" s="43" t="inlineStr">
@@ -45209,7 +45465,7 @@
       <c r="B200" s="51" t="n"/>
       <c r="C200" s="31" t="inlineStr">
         <is>
-          <t>Reserved4</t>
+          <t>Reserved3</t>
         </is>
       </c>
       <c r="D200" s="43" t="inlineStr">
@@ -45218,6 +45474,7 @@
         </is>
       </c>
       <c r="E200" s="53" t="n"/>
+      <c r="F200" s="53" t="n"/>
       <c r="G200" s="53" t="n"/>
       <c r="H200" s="53" t="n"/>
       <c r="I200" s="53" t="n"/>
@@ -45227,7 +45484,7 @@
       <c r="B201" s="51" t="n"/>
       <c r="C201" s="31" t="inlineStr">
         <is>
-          <t>Reserved5</t>
+          <t>Reserved4</t>
         </is>
       </c>
       <c r="D201" s="43" t="inlineStr">
@@ -45236,7 +45493,6 @@
         </is>
       </c>
       <c r="E201" s="53" t="n"/>
-      <c r="F201" s="53" t="n"/>
       <c r="G201" s="53" t="n"/>
       <c r="H201" s="53" t="n"/>
       <c r="I201" s="53" t="n"/>
@@ -45246,7 +45502,7 @@
       <c r="B202" s="51" t="n"/>
       <c r="C202" s="31" t="inlineStr">
         <is>
-          <t>Reserved6</t>
+          <t>Reserved5</t>
         </is>
       </c>
       <c r="D202" s="43" t="inlineStr">
@@ -45261,42 +45517,49 @@
       <c r="I202" s="53" t="n"/>
       <c r="J202" s="51" t="n"/>
     </row>
-    <row r="204">
-      <c r="B204" s="12" t="inlineStr">
+    <row r="203">
+      <c r="B203" s="51" t="n"/>
+      <c r="C203" s="31" t="inlineStr">
+        <is>
+          <t>Reserved6</t>
+        </is>
+      </c>
+      <c r="D203" s="43" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E203" s="53" t="n"/>
+      <c r="F203" s="53" t="n"/>
+      <c r="G203" s="53" t="n"/>
+      <c r="H203" s="53" t="n"/>
+      <c r="I203" s="53" t="n"/>
+      <c r="J203" s="51" t="n"/>
+    </row>
+    <row r="205">
+      <c r="B205" s="12" t="inlineStr">
         <is>
           <t>Model output control</t>
         </is>
       </c>
-      <c r="C204" s="13" t="n"/>
-      <c r="D204" s="13" t="n"/>
-      <c r="E204" s="13" t="n"/>
-      <c r="F204" s="13" t="n"/>
-      <c r="G204" s="13" t="n"/>
-      <c r="H204" s="14" t="n"/>
-    </row>
-    <row r="205">
-      <c r="C205" s="27" t="inlineStr">
+      <c r="C205" s="13" t="n"/>
+      <c r="D205" s="13" t="n"/>
+      <c r="E205" s="13" t="n"/>
+      <c r="F205" s="13" t="n"/>
+      <c r="G205" s="13" t="n"/>
+      <c r="H205" s="14" t="n"/>
+    </row>
+    <row r="206">
+      <c r="C206" s="27" t="inlineStr">
         <is>
           <t>Control how model output is archived and which figures are created.</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="C206" s="94" t="inlineStr">
-        <is>
-          <t>PlotStocks</t>
-        </is>
-      </c>
-      <c r="D206" s="91" t="inlineStr">
-        <is>
-          <t>True</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="C207" s="94" t="inlineStr">
         <is>
-          <t>PlotMaterialDemand</t>
+          <t>PlotStocks</t>
         </is>
       </c>
       <c r="D207" s="91" t="inlineStr">
@@ -45308,7 +45571,7 @@
     <row r="208">
       <c r="C208" s="94" t="inlineStr">
         <is>
-          <t>PlotTotalGHGEmissions</t>
+          <t>PlotMaterialDemand</t>
         </is>
       </c>
       <c r="D208" s="91" t="inlineStr">
@@ -45320,19 +45583,19 @@
     <row r="209">
       <c r="C209" s="94" t="inlineStr">
         <is>
-          <t>UseGivenPlotBoundaries</t>
+          <t>PlotTotalGHGEmissions</t>
         </is>
       </c>
       <c r="D209" s="91" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="C210" s="94" t="inlineStr">
         <is>
-          <t>Reserved1</t>
+          <t>UseGivenPlotBoundaries</t>
         </is>
       </c>
       <c r="D210" s="91" t="inlineStr">
@@ -45344,59 +45607,61 @@
     <row r="211">
       <c r="C211" s="94" t="inlineStr">
         <is>
+          <t>Reserved1</t>
+        </is>
+      </c>
+      <c r="D211" s="91" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="C212" s="94" t="inlineStr">
+        <is>
           <t>Reserved2</t>
         </is>
       </c>
-      <c r="D211" s="91" t="inlineStr">
+      <c r="D212" s="91" t="inlineStr">
         <is>
           <t>False</t>
         </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="C212" s="43" t="inlineStr">
-        <is>
-          <t>Plot1Max</t>
-        </is>
-      </c>
-      <c r="D212" s="44" t="n">
-        <v>1500</v>
       </c>
     </row>
     <row r="213">
       <c r="C213" s="43" t="inlineStr">
         <is>
-          <t>Plot2Max</t>
+          <t>Plot1Max</t>
         </is>
       </c>
       <c r="D213" s="44" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="214">
       <c r="C214" s="43" t="inlineStr">
         <is>
-          <t>Plot3Max</t>
+          <t>Plot2Max</t>
         </is>
       </c>
       <c r="D214" s="44" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
     </row>
     <row r="215">
       <c r="C215" s="43" t="inlineStr">
         <is>
-          <t>Plot4Max</t>
+          <t>Plot3Max</t>
         </is>
       </c>
       <c r="D215" s="44" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="216">
       <c r="C216" s="43" t="inlineStr">
         <is>
-          <t>Plot5Max</t>
+          <t>Plot4Max</t>
         </is>
       </c>
       <c r="D216" s="44" t="n">
@@ -45406,25 +45671,35 @@
     <row r="217">
       <c r="C217" s="43" t="inlineStr">
         <is>
-          <t>Plot6Max</t>
+          <t>Plot5Max</t>
         </is>
       </c>
       <c r="D217" s="44" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="219">
-      <c r="B219" s="12" t="inlineStr">
+    <row r="218">
+      <c r="C218" s="43" t="inlineStr">
+        <is>
+          <t>Plot6Max</t>
+        </is>
+      </c>
+      <c r="D218" s="44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="B220" s="12" t="inlineStr">
         <is>
           <t>End of file</t>
         </is>
       </c>
-      <c r="C219" s="13" t="n"/>
-      <c r="D219" s="13" t="n"/>
-      <c r="E219" s="13" t="n"/>
-      <c r="F219" s="13" t="n"/>
-      <c r="G219" s="13" t="n"/>
-      <c r="H219" s="14" t="n"/>
+      <c r="C220" s="13" t="n"/>
+      <c r="D220" s="13" t="n"/>
+      <c r="E220" s="13" t="n"/>
+      <c r="F220" s="13" t="n"/>
+      <c r="G220" s="13" t="n"/>
+      <c r="H220" s="14" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.787401575" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.787401575"/>
@@ -45437,31 +45712,31 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:Q219"/>
+  <dimension ref="A2:Q220"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="D197" sqref="D197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="98" width="10.6640625"/>
-    <col customWidth="1" max="2" min="2" style="98" width="36.33203125"/>
-    <col customWidth="1" max="3" min="3" style="98" width="42.9296875"/>
-    <col customWidth="1" max="4" min="4" style="98" width="39.6640625"/>
-    <col customWidth="1" max="5" min="5" style="98" width="25.6640625"/>
-    <col customWidth="1" max="6" min="6" style="98" width="21.6640625"/>
-    <col customWidth="1" max="7" min="7" style="98" width="38.3984375"/>
-    <col customWidth="1" max="8" min="8" style="98" width="12.33203125"/>
-    <col customWidth="1" max="9" min="9" style="98" width="38.3984375"/>
-    <col customWidth="1" max="10" min="10" style="98" width="14.46484375"/>
-    <col customWidth="1" max="11" min="11" style="98" width="17.73046875"/>
-    <col customWidth="1" max="12" min="12" style="98" width="15.53125"/>
-    <col customWidth="1" max="13" min="13" style="98" width="39.86328125"/>
-    <col customWidth="1" max="14" min="14" style="98" width="46.46484375"/>
-    <col customWidth="1" max="15" min="15" style="98" width="22"/>
-    <col customWidth="1" max="66" min="16" style="98" width="10.6640625"/>
-    <col customWidth="1" max="16384" min="67" style="98" width="10.6640625"/>
+    <col customWidth="1" max="1" min="1" style="100" width="10.6640625"/>
+    <col customWidth="1" max="2" min="2" style="100" width="36.33203125"/>
+    <col customWidth="1" max="3" min="3" style="100" width="42.9296875"/>
+    <col customWidth="1" max="4" min="4" style="100" width="39.6640625"/>
+    <col customWidth="1" max="5" min="5" style="100" width="25.6640625"/>
+    <col customWidth="1" max="6" min="6" style="100" width="21.6640625"/>
+    <col customWidth="1" max="7" min="7" style="100" width="38.3984375"/>
+    <col customWidth="1" max="8" min="8" style="100" width="12.33203125"/>
+    <col customWidth="1" max="9" min="9" style="100" width="38.3984375"/>
+    <col customWidth="1" max="10" min="10" style="100" width="14.46484375"/>
+    <col customWidth="1" max="11" min="11" style="100" width="17.73046875"/>
+    <col customWidth="1" max="12" min="12" style="100" width="15.53125"/>
+    <col customWidth="1" max="13" min="13" style="100" width="39.86328125"/>
+    <col customWidth="1" max="14" min="14" style="100" width="46.46484375"/>
+    <col customWidth="1" max="15" min="15" style="100" width="22"/>
+    <col customWidth="1" max="70" min="16" style="100" width="10.6640625"/>
+    <col customWidth="1" max="16384" min="71" style="100" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -48184,7 +48459,7 @@
           <t>use phase</t>
         </is>
       </c>
-      <c r="C89" s="99" t="inlineStr">
+      <c r="C89" s="98" t="inlineStr">
         <is>
           <t>3_EI_Products_UsePhase_resbuildings</t>
         </is>
@@ -48495,7 +48770,7 @@
           <t>[0]</t>
         </is>
       </c>
-      <c r="I94" s="100" t="inlineStr">
+      <c r="I94" s="99" t="inlineStr">
         <is>
           <t>adf3d059-1ebb-40e1-8b08-e9c5b58af1f7</t>
         </is>
@@ -53005,296 +53280,318 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.6" r="177" s="98"/>
-    <row customHeight="1" ht="15.6" r="178" s="98">
-      <c r="B178" s="12" t="inlineStr">
+    <row r="177">
+      <c r="A177" t="n">
+        <v>101</v>
+      </c>
+      <c r="B177" s="51" t="inlineStr">
+        <is>
+          <t>use phase</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>X_FLAG_VehicleDownsizingDirection</t>
+        </is>
+      </c>
+      <c r="D177" s="94" t="inlineStr">
+        <is>
+          <t>Flag (Bool) that indicates the direction of vehicle downsizing (segment shift) in the parameter 3_SHA_DownSizing_Vehicles</t>
+        </is>
+      </c>
+      <c r="E177" s="94" t="inlineStr">
+        <is>
+          <t>V1.0</t>
+        </is>
+      </c>
+      <c r="F177" s="37" t="inlineStr">
+        <is>
+          <t>rS</t>
+        </is>
+      </c>
+      <c r="G177" s="94" t="inlineStr">
+        <is>
+          <t>[0,1]</t>
+        </is>
+      </c>
+      <c r="H177" s="94" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I177" s="30" t="inlineStr">
+        <is>
+          <t>6832c162-6b26-4ad8-8e9d-3bf47bf34c9f</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>SSP/RCP</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.6" r="178" s="100"/>
+    <row customHeight="1" ht="15.6" r="179" s="100">
+      <c r="B179" s="12" t="inlineStr">
         <is>
           <t>Model flow control</t>
         </is>
       </c>
-      <c r="C178" s="13" t="n"/>
-      <c r="D178" s="13" t="n"/>
-      <c r="E178" s="13" t="n"/>
-      <c r="F178" s="13" t="n"/>
-      <c r="G178" s="13" t="n"/>
-      <c r="H178" s="14" t="n"/>
-      <c r="K178" s="49" t="n"/>
-      <c r="N178" s="49" t="n"/>
-    </row>
-    <row r="179">
-      <c r="C179" s="27" t="inlineStr">
+      <c r="C179" s="13" t="n"/>
+      <c r="D179" s="13" t="n"/>
+      <c r="E179" s="13" t="n"/>
+      <c r="F179" s="13" t="n"/>
+      <c r="G179" s="13" t="n"/>
+      <c r="H179" s="14" t="n"/>
+      <c r="K179" s="49" t="n"/>
+      <c r="N179" s="49" t="n"/>
+    </row>
+    <row r="180">
+      <c r="C180" s="27" t="inlineStr">
         <is>
           <t>Specify how model should run: which calculation blocks to perform, which solvers to use, etc.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="C180" s="31" t="inlineStr">
-        <is>
-          <t>Logging_Verbosity</t>
-        </is>
-      </c>
-      <c r="D180" s="94" t="inlineStr">
-        <is>
-          <t>DEBUG</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t># Specify at which level of detail the comments, warnings, and error produced by the models are recorded.</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="C181" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_FabYieldImprovement</t>
+          <t>Logging_Verbosity</t>
         </is>
       </c>
       <c r="D181" s="94" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>DEBUG</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>False</t>
+          <t># Specify at which level of detail the comments, warnings, and error produced by the models are recorded.</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="C182" s="31" t="inlineStr">
         <is>
+          <t>Include_REStrategy_FabYieldImprovement</t>
+        </is>
+      </c>
+      <c r="D182" s="94" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="C183" s="31" t="inlineStr">
+        <is>
           <t>Include_REStrategy_FabScrapDiversion</t>
         </is>
       </c>
-      <c r="D182" s="94" t="inlineStr">
+      <c r="D183" s="94" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
+    </row>
+    <row customHeight="1" ht="15.6" r="184" s="100">
+      <c r="C184" s="31" t="inlineStr">
+        <is>
+          <t>Include_REStrategy_EoL_RR_Improvement</t>
+        </is>
+      </c>
+      <c r="D184" s="94" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="G182" t="inlineStr">
+      <c r="G184" s="53" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
+      <c r="H184" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-    </row>
-    <row customHeight="1" ht="15.6" r="183" s="98">
-      <c r="C183" s="31" t="inlineStr">
-        <is>
-          <t>Include_REStrategy_EoL_RR_Improvement</t>
-        </is>
-      </c>
-      <c r="D183" s="94" t="inlineStr">
+      <c r="J184" s="50" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.6" r="185" s="100">
+      <c r="C185" s="31" t="inlineStr">
+        <is>
+          <t>ScrapExport</t>
+        </is>
+      </c>
+      <c r="D185" s="94" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
+      <c r="G185" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="G183" s="53" t="inlineStr">
+      <c r="H185" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
+      <c r="J185" s="53" t="inlineStr">
+        <is>
+          <t>Set true if excess scrap can be exported to other sectors.</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.6" r="186" s="100">
+      <c r="C186" s="31" t="inlineStr">
+        <is>
+          <t>ScrapExportRecyclingCredit</t>
+        </is>
+      </c>
+      <c r="D186" s="94" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="J183" s="50" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.6" r="184" s="98">
-      <c r="C184" s="31" t="inlineStr">
-        <is>
-          <t>ScrapExport</t>
-        </is>
-      </c>
-      <c r="D184" s="94" t="inlineStr">
+      <c r="G186" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="H186" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="G184" t="inlineStr">
+      <c r="J186" s="53" t="inlineStr">
+        <is>
+          <t>True if an emissions credit for avoided primary production is to be given.</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.6" r="187" s="100">
+      <c r="C187" s="31" t="inlineStr">
+        <is>
+          <t>IncludeRecycling</t>
+        </is>
+      </c>
+      <c r="D187" s="94" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
+      <c r="E187" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="J184" s="53" t="inlineStr">
-        <is>
-          <t>Set true if excess scrap can be exported to other sectors.</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.6" r="185" s="98">
-      <c r="C185" s="31" t="inlineStr">
-        <is>
-          <t>ScrapExportRecyclingCredit</t>
-        </is>
-      </c>
-      <c r="D185" s="94" t="inlineStr">
+      <c r="F187" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="G187" s="53" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="G185" t="inlineStr">
+      <c r="H187" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J185" s="53" t="inlineStr">
-        <is>
-          <t>True if an emissions credit for avoided primary production is to be given.</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.6" r="186" s="98">
-      <c r="C186" s="31" t="inlineStr">
-        <is>
-          <t>IncludeRecycling</t>
-        </is>
-      </c>
-      <c r="D186" s="94" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="G186" s="53" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J186" s="53" t="inlineStr">
+      <c r="J187" s="53" t="inlineStr">
         <is>
           <t>Set to False only if a scenario without any recycling is to be considered (as counterfactual scenario)</t>
         </is>
       </c>
-    </row>
-    <row r="187">
-      <c r="C187" s="31" t="inlineStr">
-        <is>
-          <t>Include_REStrategy_MaterialSubstitution</t>
-        </is>
-      </c>
-      <c r="D187" s="94" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="J187" s="51" t="n"/>
     </row>
     <row r="188">
       <c r="C188" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_UsingLessMaterialByDesign</t>
+          <t>Include_REStrategy_MaterialSubstitution</t>
         </is>
       </c>
       <c r="D188" s="94" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -53322,25 +53619,25 @@
     <row r="189">
       <c r="C189" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_ReUse</t>
+          <t>Include_REStrategy_UsingLessMaterialByDesign</t>
         </is>
       </c>
       <c r="D189" s="94" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="G189" s="53" t="inlineStr">
+      <c r="G189" t="inlineStr">
         <is>
           <t>True</t>
         </is>
@@ -53355,45 +53652,40 @@
     <row r="190">
       <c r="C190" s="31" t="inlineStr">
         <is>
+          <t>Include_REStrategy_ReUse</t>
+        </is>
+      </c>
+      <c r="D190" s="94" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G190" s="53" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J190" s="51" t="n"/>
+    </row>
+    <row r="191">
+      <c r="C191" s="31" t="inlineStr">
+        <is>
           <t>Include_REStrategy_LifeTimeExtension</t>
-        </is>
-      </c>
-      <c r="D190" s="94" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="G190" s="53" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="J190" s="51" t="n"/>
-    </row>
-    <row r="191">
-      <c r="B191" s="51" t="inlineStr">
-        <is>
-          <t>Buildings only:</t>
-        </is>
-      </c>
-      <c r="C191" s="31" t="inlineStr">
-        <is>
-          <t>Include_REStrategy_MoreIntenseUse</t>
         </is>
       </c>
       <c r="D191" s="94" t="inlineStr">
@@ -53426,17 +53718,17 @@
     <row r="192">
       <c r="B192" s="51" t="inlineStr">
         <is>
-          <t>Vehicles only:</t>
+          <t>Buildings only:</t>
         </is>
       </c>
       <c r="C192" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_CarSharing</t>
+          <t>Include_REStrategy_MoreIntenseUse</t>
         </is>
       </c>
       <c r="D192" s="94" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -53469,12 +53761,12 @@
       </c>
       <c r="C193" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_RideSharing</t>
+          <t>Include_REStrategy_CarSharing</t>
         </is>
       </c>
       <c r="D193" s="94" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -53507,7 +53799,7 @@
       </c>
       <c r="C194" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_ModalSplit</t>
+          <t>Include_REStrategy_RideSharing</t>
         </is>
       </c>
       <c r="D194" s="94" t="inlineStr">
@@ -53535,86 +53827,93 @@
           <t>False</t>
         </is>
       </c>
+      <c r="J194" s="51" t="n"/>
     </row>
     <row r="195">
       <c r="B195" s="51" t="inlineStr">
         <is>
+          <t>Vehicles only:</t>
+        </is>
+      </c>
+      <c r="C195" s="31" t="inlineStr">
+        <is>
+          <t>Include_REStrategy_ModalSplit</t>
+        </is>
+      </c>
+      <c r="D195" s="94" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G195" s="53" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="B196" s="51" t="inlineStr">
+        <is>
           <t>Select which sectors are included:</t>
         </is>
       </c>
-      <c r="C195" s="31" t="inlineStr">
+      <c r="C196" s="31" t="inlineStr">
         <is>
           <t>SectorSelect</t>
         </is>
       </c>
-      <c r="D195" s="43" t="inlineStr">
+      <c r="D196" s="43" t="inlineStr">
+        <is>
+          <t>['nrb']</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>['pav','reb','nrb']</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>['pav','reb','nrb']</t>
+        </is>
+      </c>
+      <c r="G196" s="53" t="inlineStr">
         <is>
           <t>['pav']</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>['pav','reb','nrb']</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>['pav','reb','nrb']</t>
-        </is>
-      </c>
-      <c r="G195" s="53" t="inlineStr">
-        <is>
-          <t>['pav']</t>
-        </is>
-      </c>
-      <c r="H195" s="53" t="inlineStr">
+      <c r="H196" s="53" t="inlineStr">
         <is>
           <t>['reb']</t>
         </is>
       </c>
-      <c r="I195" s="53" t="inlineStr">
+      <c r="I196" s="53" t="inlineStr">
         <is>
           <t>['pav':passenger vehicles,'reb':residential buildings,'nrb':non-residential buildings,'nrbg':nonres buildings, global,'ind': industry (electricity generation),'app':appliances]</t>
         </is>
       </c>
-      <c r="J195" s="51" t="n"/>
-    </row>
-    <row r="196">
-      <c r="B196" s="51" t="n"/>
-      <c r="C196" s="31" t="inlineStr">
-        <is>
-          <t>Include_Renovation_reb</t>
-        </is>
-      </c>
-      <c r="D196" s="43" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="G196" s="53" t="inlineStr">
-        <is>
-          <t>Renovation of residential buildings included</t>
-        </is>
-      </c>
-      <c r="H196" s="53" t="n"/>
-      <c r="I196" s="53" t="n"/>
       <c r="J196" s="51" t="n"/>
     </row>
     <row r="197">
       <c r="B197" s="51" t="n"/>
       <c r="C197" s="31" t="inlineStr">
         <is>
-          <t>Include_Renovation_nrb</t>
+          <t>Include_Renovation_reb</t>
         </is>
       </c>
       <c r="D197" s="43" t="inlineStr">
@@ -53634,7 +53933,7 @@
       </c>
       <c r="G197" s="53" t="inlineStr">
         <is>
-          <t>Renovation of nonresidential buildings included</t>
+          <t>Renovation of residential buildings included</t>
         </is>
       </c>
       <c r="H197" s="53" t="n"/>
@@ -53645,30 +53944,30 @@
       <c r="B198" s="51" t="n"/>
       <c r="C198" s="31" t="inlineStr">
         <is>
-          <t>No_EE_Improvements</t>
+          <t>Include_Renovation_nrb</t>
         </is>
       </c>
       <c r="D198" s="43" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="G198" s="53" t="n"/>
-      <c r="H198" s="53" t="inlineStr">
-        <is>
-          <t>['pav','reb','nrbg','app','ind']</t>
-        </is>
-      </c>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G198" s="53" t="inlineStr">
+        <is>
+          <t>Renovation of nonresidential buildings included</t>
+        </is>
+      </c>
+      <c r="H198" s="53" t="n"/>
       <c r="I198" s="53" t="n"/>
       <c r="J198" s="51" t="n"/>
     </row>
@@ -53676,7 +53975,7 @@
       <c r="B199" s="51" t="n"/>
       <c r="C199" s="31" t="inlineStr">
         <is>
-          <t>Reserved3</t>
+          <t>No_EE_Improvements</t>
         </is>
       </c>
       <c r="D199" s="43" t="inlineStr">
@@ -53697,7 +53996,7 @@
       <c r="G199" s="53" t="n"/>
       <c r="H199" s="53" t="inlineStr">
         <is>
-          <t>['nrbg']</t>
+          <t>['pav','reb','nrbg','app','ind']</t>
         </is>
       </c>
       <c r="I199" s="53" t="n"/>
@@ -53707,7 +54006,7 @@
       <c r="B200" s="51" t="n"/>
       <c r="C200" s="31" t="inlineStr">
         <is>
-          <t>Reserved4</t>
+          <t>Reserved3</t>
         </is>
       </c>
       <c r="D200" s="43" t="inlineStr">
@@ -53728,7 +54027,7 @@
       <c r="G200" s="53" t="n"/>
       <c r="H200" s="53" t="inlineStr">
         <is>
-          <t>['pav','reb']</t>
+          <t>['nrbg']</t>
         </is>
       </c>
       <c r="I200" s="53" t="n"/>
@@ -53738,7 +54037,7 @@
       <c r="B201" s="51" t="n"/>
       <c r="C201" s="31" t="inlineStr">
         <is>
-          <t>Reserved5</t>
+          <t>Reserved4</t>
         </is>
       </c>
       <c r="D201" s="43" t="inlineStr">
@@ -53759,7 +54058,7 @@
       <c r="G201" s="53" t="n"/>
       <c r="H201" s="53" t="inlineStr">
         <is>
-          <t>['nrbg','app','ind']</t>
+          <t>['pav','reb']</t>
         </is>
       </c>
       <c r="I201" s="53" t="n"/>
@@ -53769,7 +54068,7 @@
       <c r="B202" s="51" t="n"/>
       <c r="C202" s="31" t="inlineStr">
         <is>
-          <t>Reserved6</t>
+          <t>Reserved5</t>
         </is>
       </c>
       <c r="D202" s="43" t="inlineStr">
@@ -53777,57 +54076,76 @@
           <t>False</t>
         </is>
       </c>
-      <c r="E202" s="53" t="inlineStr">
+      <c r="E202" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="F202" s="53" t="inlineStr">
+      <c r="F202" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
       <c r="G202" s="53" t="n"/>
-      <c r="H202" s="53" t="n"/>
+      <c r="H202" s="53" t="inlineStr">
+        <is>
+          <t>['nrbg','app','ind']</t>
+        </is>
+      </c>
       <c r="I202" s="53" t="n"/>
       <c r="J202" s="51" t="n"/>
     </row>
-    <row r="204">
-      <c r="B204" s="12" t="inlineStr">
+    <row r="203">
+      <c r="B203" s="51" t="n"/>
+      <c r="C203" s="31" t="inlineStr">
+        <is>
+          <t>Reserved6</t>
+        </is>
+      </c>
+      <c r="D203" s="43" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E203" s="53" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F203" s="53" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G203" s="53" t="n"/>
+      <c r="H203" s="53" t="n"/>
+      <c r="I203" s="53" t="n"/>
+      <c r="J203" s="51" t="n"/>
+    </row>
+    <row r="205">
+      <c r="B205" s="12" t="inlineStr">
         <is>
           <t>Model output control</t>
         </is>
       </c>
-      <c r="C204" s="13" t="n"/>
-      <c r="D204" s="13" t="n"/>
-      <c r="E204" s="13" t="n"/>
-      <c r="F204" s="13" t="n"/>
-      <c r="G204" s="13" t="n"/>
-      <c r="H204" s="14" t="n"/>
-    </row>
-    <row r="205">
-      <c r="C205" s="27" t="inlineStr">
+      <c r="C205" s="13" t="n"/>
+      <c r="D205" s="13" t="n"/>
+      <c r="E205" s="13" t="n"/>
+      <c r="F205" s="13" t="n"/>
+      <c r="G205" s="13" t="n"/>
+      <c r="H205" s="14" t="n"/>
+    </row>
+    <row r="206">
+      <c r="C206" s="27" t="inlineStr">
         <is>
           <t>Control how model output is archived and which figures are created.</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="C206" s="94" t="inlineStr">
-        <is>
-          <t>PlotStocks</t>
-        </is>
-      </c>
-      <c r="D206" s="91" t="inlineStr">
-        <is>
-          <t>True</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="C207" s="94" t="inlineStr">
         <is>
-          <t>PlotMaterialDemand</t>
+          <t>PlotStocks</t>
         </is>
       </c>
       <c r="D207" s="91" t="inlineStr">
@@ -53839,7 +54157,7 @@
     <row r="208">
       <c r="C208" s="94" t="inlineStr">
         <is>
-          <t>PlotTotalGHGEmissions</t>
+          <t>PlotMaterialDemand</t>
         </is>
       </c>
       <c r="D208" s="91" t="inlineStr">
@@ -53851,19 +54169,19 @@
     <row r="209">
       <c r="C209" s="94" t="inlineStr">
         <is>
-          <t>UseGivenPlotBoundaries</t>
+          <t>PlotTotalGHGEmissions</t>
         </is>
       </c>
       <c r="D209" s="91" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="C210" s="94" t="inlineStr">
         <is>
-          <t>Reserved1</t>
+          <t>UseGivenPlotBoundaries</t>
         </is>
       </c>
       <c r="D210" s="91" t="inlineStr">
@@ -53875,59 +54193,61 @@
     <row r="211">
       <c r="C211" s="94" t="inlineStr">
         <is>
+          <t>Reserved1</t>
+        </is>
+      </c>
+      <c r="D211" s="91" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="C212" s="94" t="inlineStr">
+        <is>
           <t>Reserved2</t>
         </is>
       </c>
-      <c r="D211" s="91" t="inlineStr">
+      <c r="D212" s="91" t="inlineStr">
         <is>
           <t>False</t>
         </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="C212" s="43" t="inlineStr">
-        <is>
-          <t>Plot1Max</t>
-        </is>
-      </c>
-      <c r="D212" s="44" t="n">
-        <v>1500</v>
       </c>
     </row>
     <row r="213">
       <c r="C213" s="43" t="inlineStr">
         <is>
-          <t>Plot2Max</t>
+          <t>Plot1Max</t>
         </is>
       </c>
       <c r="D213" s="44" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="214">
       <c r="C214" s="43" t="inlineStr">
         <is>
-          <t>Plot3Max</t>
+          <t>Plot2Max</t>
         </is>
       </c>
       <c r="D214" s="44" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
     </row>
     <row r="215">
       <c r="C215" s="43" t="inlineStr">
         <is>
-          <t>Plot4Max</t>
+          <t>Plot3Max</t>
         </is>
       </c>
       <c r="D215" s="44" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="216">
       <c r="C216" s="43" t="inlineStr">
         <is>
-          <t>Plot5Max</t>
+          <t>Plot4Max</t>
         </is>
       </c>
       <c r="D216" s="44" t="n">
@@ -53937,25 +54257,35 @@
     <row r="217">
       <c r="C217" s="43" t="inlineStr">
         <is>
-          <t>Plot6Max</t>
+          <t>Plot5Max</t>
         </is>
       </c>
       <c r="D217" s="44" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="219">
-      <c r="B219" s="12" t="inlineStr">
+    <row r="218">
+      <c r="C218" s="43" t="inlineStr">
+        <is>
+          <t>Plot6Max</t>
+        </is>
+      </c>
+      <c r="D218" s="44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="B220" s="12" t="inlineStr">
         <is>
           <t>End of file</t>
         </is>
       </c>
-      <c r="C219" s="13" t="n"/>
-      <c r="D219" s="13" t="n"/>
-      <c r="E219" s="13" t="n"/>
-      <c r="F219" s="13" t="n"/>
-      <c r="G219" s="13" t="n"/>
-      <c r="H219" s="14" t="n"/>
+      <c r="C220" s="13" t="n"/>
+      <c r="D220" s="13" t="n"/>
+      <c r="E220" s="13" t="n"/>
+      <c r="F220" s="13" t="n"/>
+      <c r="G220" s="13" t="n"/>
+      <c r="H220" s="14" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.787401575" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.787401575"/>
@@ -53987,30 +54317,30 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:Q219"/>
+  <dimension ref="A2:Q220"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="G189" sqref="G189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="98" width="10.6640625"/>
-    <col customWidth="1" max="2" min="2" style="98" width="36.33203125"/>
-    <col customWidth="1" max="3" min="3" style="98" width="42.9296875"/>
-    <col customWidth="1" max="4" min="4" style="98" width="39.6640625"/>
-    <col customWidth="1" max="5" min="5" style="98" width="25.6640625"/>
-    <col customWidth="1" max="6" min="6" style="98" width="21.6640625"/>
-    <col customWidth="1" max="7" min="7" style="98" width="38.3984375"/>
-    <col customWidth="1" max="8" min="8" style="98" width="12.33203125"/>
-    <col customWidth="1" max="9" min="9" style="98" width="38.3984375"/>
-    <col customWidth="1" max="10" min="10" style="98" width="14.46484375"/>
-    <col customWidth="1" max="11" min="11" style="98" width="17.73046875"/>
-    <col customWidth="1" max="12" min="12" style="98" width="15.53125"/>
-    <col customWidth="1" max="13" min="13" style="98" width="39.86328125"/>
-    <col customWidth="1" max="14" min="14" style="98" width="38.73046875"/>
-    <col customWidth="1" max="66" min="15" style="98" width="10.6640625"/>
-    <col customWidth="1" max="16384" min="67" style="98" width="10.6640625"/>
+    <col customWidth="1" max="1" min="1" style="100" width="10.6640625"/>
+    <col customWidth="1" max="2" min="2" style="100" width="36.33203125"/>
+    <col customWidth="1" max="3" min="3" style="100" width="42.9296875"/>
+    <col customWidth="1" max="4" min="4" style="100" width="39.6640625"/>
+    <col customWidth="1" max="5" min="5" style="100" width="25.6640625"/>
+    <col customWidth="1" max="6" min="6" style="100" width="21.6640625"/>
+    <col customWidth="1" max="7" min="7" style="100" width="38.3984375"/>
+    <col customWidth="1" max="8" min="8" style="100" width="12.33203125"/>
+    <col customWidth="1" max="9" min="9" style="100" width="38.3984375"/>
+    <col customWidth="1" max="10" min="10" style="100" width="14.46484375"/>
+    <col customWidth="1" max="11" min="11" style="100" width="17.73046875"/>
+    <col customWidth="1" max="12" min="12" style="100" width="15.53125"/>
+    <col customWidth="1" max="13" min="13" style="100" width="39.86328125"/>
+    <col customWidth="1" max="14" min="14" style="100" width="38.73046875"/>
+    <col customWidth="1" max="70" min="15" style="100" width="10.6640625"/>
+    <col customWidth="1" max="16384" min="71" style="100" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -56693,7 +57023,7 @@
           <t>use phase</t>
         </is>
       </c>
-      <c r="C89" s="99" t="inlineStr">
+      <c r="C89" s="98" t="inlineStr">
         <is>
           <t>3_EI_Products_UsePhase_resbuildings</t>
         </is>
@@ -57004,7 +57334,7 @@
           <t>[0]</t>
         </is>
       </c>
-      <c r="I94" s="100" t="inlineStr">
+      <c r="I94" s="99" t="inlineStr">
         <is>
           <t>adf3d059-1ebb-40e1-8b08-e9c5b58af1f7</t>
         </is>
@@ -61514,231 +61844,263 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.6" r="177" s="98"/>
-    <row customHeight="1" ht="15.6" r="178" s="98">
-      <c r="B178" s="12" t="inlineStr">
+    <row r="177">
+      <c r="A177" t="n">
+        <v>101</v>
+      </c>
+      <c r="B177" s="51" t="inlineStr">
+        <is>
+          <t>use phase</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>X_FLAG_VehicleDownsizingDirection</t>
+        </is>
+      </c>
+      <c r="D177" s="94" t="inlineStr">
+        <is>
+          <t>Flag (Bool) that indicates the direction of vehicle downsizing (segment shift) in the parameter 3_SHA_DownSizing_Vehicles</t>
+        </is>
+      </c>
+      <c r="E177" s="94" t="inlineStr">
+        <is>
+          <t>V1.0</t>
+        </is>
+      </c>
+      <c r="F177" s="37" t="inlineStr">
+        <is>
+          <t>rS</t>
+        </is>
+      </c>
+      <c r="G177" s="94" t="inlineStr">
+        <is>
+          <t>[0,1]</t>
+        </is>
+      </c>
+      <c r="H177" s="94" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I177" s="30" t="inlineStr">
+        <is>
+          <t>6832c162-6b26-4ad8-8e9d-3bf47bf34c9f</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>SSP/RCP</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.6" r="178" s="100"/>
+    <row customHeight="1" ht="15.6" r="179" s="100">
+      <c r="B179" s="12" t="inlineStr">
         <is>
           <t>Model flow control</t>
         </is>
       </c>
-      <c r="C178" s="13" t="n"/>
-      <c r="D178" s="13" t="n"/>
-      <c r="E178" s="13" t="n"/>
-      <c r="F178" s="13" t="n"/>
-      <c r="G178" s="13" t="n"/>
-      <c r="H178" s="14" t="n"/>
-      <c r="K178" s="49" t="n"/>
-      <c r="N178" s="49" t="n"/>
-    </row>
-    <row r="179">
-      <c r="C179" s="27" t="inlineStr">
+      <c r="C179" s="13" t="n"/>
+      <c r="D179" s="13" t="n"/>
+      <c r="E179" s="13" t="n"/>
+      <c r="F179" s="13" t="n"/>
+      <c r="G179" s="13" t="n"/>
+      <c r="H179" s="14" t="n"/>
+      <c r="K179" s="49" t="n"/>
+      <c r="N179" s="49" t="n"/>
+    </row>
+    <row r="180">
+      <c r="C180" s="27" t="inlineStr">
         <is>
           <t>Specify how model should run: which calculation blocks to perform, which solvers to use, etc.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="C180" s="31" t="inlineStr">
-        <is>
-          <t>Logging_Verbosity</t>
-        </is>
-      </c>
-      <c r="D180" s="94" t="inlineStr">
-        <is>
-          <t>DEBUG</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t># Specify at which level of detail the comments, warnings, and error produced by the models are recorded.</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="C181" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_FabYieldImprovement</t>
+          <t>Logging_Verbosity</t>
         </is>
       </c>
       <c r="D181" s="94" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>DEBUG</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="I181" s="57" t="n"/>
+          <t># Specify at which level of detail the comments, warnings, and error produced by the models are recorded.</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="C182" s="31" t="inlineStr">
         <is>
+          <t>Include_REStrategy_FabYieldImprovement</t>
+        </is>
+      </c>
+      <c r="D182" s="94" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I182" s="57" t="n"/>
+    </row>
+    <row r="183">
+      <c r="C183" s="31" t="inlineStr">
+        <is>
           <t>Include_REStrategy_FabScrapDiversion</t>
         </is>
       </c>
-      <c r="D182" s="94" t="inlineStr">
+      <c r="D183" s="94" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I183" s="57" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.6" r="184" s="100">
+      <c r="C184" s="31" t="inlineStr">
+        <is>
+          <t>Include_REStrategy_EoL_RR_Improvement</t>
+        </is>
+      </c>
+      <c r="D184" s="94" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E184" s="53" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="F184" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="I182" s="57" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.6" r="183" s="98">
-      <c r="C183" s="31" t="inlineStr">
-        <is>
-          <t>Include_REStrategy_EoL_RR_Improvement</t>
-        </is>
-      </c>
-      <c r="D183" s="94" t="inlineStr">
+      <c r="J184" s="50" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.6" r="185" s="100">
+      <c r="C185" s="31" t="inlineStr">
+        <is>
+          <t>ScrapExport</t>
+        </is>
+      </c>
+      <c r="D185" s="94" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="E183" s="53" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="J183" s="50" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.6" r="184" s="98">
-      <c r="C184" s="31" t="inlineStr">
-        <is>
-          <t>ScrapExport</t>
-        </is>
-      </c>
-      <c r="D184" s="94" t="inlineStr">
+      <c r="F185" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="G185" s="53" t="inlineStr">
+        <is>
+          <t>Set true if excess scrap can be exported to other sectors.</t>
+        </is>
+      </c>
+      <c r="J185" s="50" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.6" r="186" s="100">
+      <c r="C186" s="31" t="inlineStr">
+        <is>
+          <t>ScrapExportRecyclingCredit</t>
+        </is>
+      </c>
+      <c r="D186" s="94" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="G184" s="53" t="inlineStr">
-        <is>
-          <t>Set true if excess scrap can be exported to other sectors.</t>
-        </is>
-      </c>
-      <c r="J184" s="50" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.6" r="185" s="98">
-      <c r="C185" s="31" t="inlineStr">
-        <is>
-          <t>ScrapExportRecyclingCredit</t>
-        </is>
-      </c>
-      <c r="D185" s="94" t="inlineStr">
+      <c r="F186" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="G186" s="53" t="inlineStr">
+        <is>
+          <t>True if an emissions credit for avoided primary production is to be given.</t>
+        </is>
+      </c>
+      <c r="J186" s="50" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.6" r="187" s="100">
+      <c r="C187" s="31" t="inlineStr">
+        <is>
+          <t>IncludeRecycling</t>
+        </is>
+      </c>
+      <c r="D187" s="94" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
+      <c r="E187" s="53" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="G185" s="53" t="inlineStr">
-        <is>
-          <t>True if an emissions credit for avoided primary production is to be given.</t>
-        </is>
-      </c>
-      <c r="J185" s="50" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.6" r="186" s="98">
-      <c r="C186" s="31" t="inlineStr">
-        <is>
-          <t>IncludeRecycling</t>
-        </is>
-      </c>
-      <c r="D186" s="94" t="inlineStr">
+      <c r="F187" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="E186" s="53" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="G186" s="53" t="inlineStr">
+      <c r="G187" s="53" t="inlineStr">
         <is>
           <t>Set to False only if a scenario without any recycling is to be considered (as counterfactual scenario)</t>
         </is>
       </c>
-      <c r="J186" s="50" t="n"/>
-    </row>
-    <row r="187">
-      <c r="C187" s="31" t="inlineStr">
-        <is>
-          <t>Include_REStrategy_MaterialSubstitution</t>
-        </is>
-      </c>
-      <c r="D187" s="94" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="J187" s="51" t="n"/>
+      <c r="J187" s="50" t="n"/>
     </row>
     <row r="188">
       <c r="C188" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_UsingLessMaterialByDesign</t>
+          <t>Include_REStrategy_MaterialSubstitution</t>
         </is>
       </c>
       <c r="D188" s="94" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -61756,15 +62118,15 @@
     <row r="189">
       <c r="C189" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_ReUse</t>
+          <t>Include_REStrategy_UsingLessMaterialByDesign</t>
         </is>
       </c>
       <c r="D189" s="94" t="inlineStr">
         <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E189" s="53" t="inlineStr">
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
         <is>
           <t>True</t>
         </is>
@@ -61779,40 +62141,35 @@
     <row r="190">
       <c r="C190" s="31" t="inlineStr">
         <is>
+          <t>Include_REStrategy_ReUse</t>
+        </is>
+      </c>
+      <c r="D190" s="94" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E190" s="53" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J190" s="51" t="n"/>
+    </row>
+    <row r="191">
+      <c r="C191" s="31" t="inlineStr">
+        <is>
           <t>Include_REStrategy_LifeTimeExtension</t>
         </is>
       </c>
-      <c r="D190" s="94" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E190" s="53" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
+      <c r="D191" s="94" t="inlineStr">
         <is>
           <t>False</t>
-        </is>
-      </c>
-      <c r="J190" s="51" t="n"/>
-    </row>
-    <row r="191">
-      <c r="B191" s="51" t="inlineStr">
-        <is>
-          <t>Buildings only:</t>
-        </is>
-      </c>
-      <c r="C191" s="31" t="inlineStr">
-        <is>
-          <t>Include_REStrategy_MoreIntenseUse</t>
-        </is>
-      </c>
-      <c r="D191" s="94" t="inlineStr">
-        <is>
-          <t>True</t>
         </is>
       </c>
       <c r="E191" s="53" t="inlineStr">
@@ -61830,12 +62187,12 @@
     <row r="192">
       <c r="B192" s="51" t="inlineStr">
         <is>
-          <t>Vehicles only:</t>
+          <t>Buildings only:</t>
         </is>
       </c>
       <c r="C192" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_CarSharing</t>
+          <t>Include_REStrategy_MoreIntenseUse</t>
         </is>
       </c>
       <c r="D192" s="94" t="inlineStr">
@@ -61863,7 +62220,7 @@
       </c>
       <c r="C193" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_RideSharing</t>
+          <t>Include_REStrategy_CarSharing</t>
         </is>
       </c>
       <c r="D193" s="94" t="inlineStr">
@@ -61891,7 +62248,7 @@
       </c>
       <c r="C194" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_ModalSplit</t>
+          <t>Include_REStrategy_RideSharing</t>
         </is>
       </c>
       <c r="D194" s="94" t="inlineStr">
@@ -61909,63 +62266,64 @@
           <t>False</t>
         </is>
       </c>
+      <c r="J194" s="51" t="n"/>
     </row>
     <row r="195">
       <c r="B195" s="51" t="inlineStr">
         <is>
+          <t>Vehicles only:</t>
+        </is>
+      </c>
+      <c r="C195" s="31" t="inlineStr">
+        <is>
+          <t>Include_REStrategy_ModalSplit</t>
+        </is>
+      </c>
+      <c r="D195" s="94" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E195" s="53" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="B196" s="51" t="inlineStr">
+        <is>
           <t>Select which sectors are included:</t>
         </is>
       </c>
-      <c r="C195" s="31" t="inlineStr">
+      <c r="C196" s="31" t="inlineStr">
         <is>
           <t>SectorSelect</t>
         </is>
       </c>
-      <c r="D195" s="43" t="inlineStr">
+      <c r="D196" s="43" t="inlineStr">
         <is>
           <t>['reb']</t>
         </is>
       </c>
-      <c r="E195" s="53" t="inlineStr">
+      <c r="E196" s="53" t="inlineStr">
         <is>
           <t>['pav']</t>
         </is>
       </c>
-      <c r="F195" s="53" t="inlineStr">
+      <c r="F196" s="53" t="inlineStr">
         <is>
           <t>['reb']</t>
         </is>
       </c>
-      <c r="G195" s="53" t="inlineStr">
+      <c r="G196" s="53" t="inlineStr">
         <is>
           <t>['pav':passenger vehicles,'reb':residential buildings,'nrb':non-residential buildings,'nrbg':nonres buildings, global,'ind': industry (electricity generation),'app':appliances]</t>
-        </is>
-      </c>
-      <c r="H195" s="53" t="n"/>
-      <c r="I195" s="53" t="n"/>
-      <c r="J195" s="51" t="n"/>
-    </row>
-    <row r="196">
-      <c r="B196" s="51" t="n"/>
-      <c r="C196" s="31" t="inlineStr">
-        <is>
-          <t>Include_Renovation_reb</t>
-        </is>
-      </c>
-      <c r="D196" s="43" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E196" s="53" t="inlineStr">
-        <is>
-          <t>Renovation of residential buildings included</t>
-        </is>
-      </c>
-      <c r="F196" s="53" t="n"/>
-      <c r="G196" s="53" t="inlineStr">
-        <is>
-          <t>['pav','reb']</t>
         </is>
       </c>
       <c r="H196" s="53" t="n"/>
@@ -61976,7 +62334,7 @@
       <c r="B197" s="51" t="n"/>
       <c r="C197" s="31" t="inlineStr">
         <is>
-          <t>Include_Renovation_nrb</t>
+          <t>Include_Renovation_reb</t>
         </is>
       </c>
       <c r="D197" s="43" t="inlineStr">
@@ -61986,11 +62344,15 @@
       </c>
       <c r="E197" s="53" t="inlineStr">
         <is>
-          <t>Renovation of nonresidential buildings included</t>
+          <t>Renovation of residential buildings included</t>
         </is>
       </c>
       <c r="F197" s="53" t="n"/>
-      <c r="G197" s="53" t="n"/>
+      <c r="G197" s="53" t="inlineStr">
+        <is>
+          <t>['pav','reb']</t>
+        </is>
+      </c>
       <c r="H197" s="53" t="n"/>
       <c r="I197" s="53" t="n"/>
       <c r="J197" s="51" t="n"/>
@@ -61999,15 +62361,19 @@
       <c r="B198" s="51" t="n"/>
       <c r="C198" s="31" t="inlineStr">
         <is>
-          <t>No_EE_Improvements</t>
+          <t>Include_Renovation_nrb</t>
         </is>
       </c>
       <c r="D198" s="43" t="inlineStr">
         <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="E198" s="53" t="n"/>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E198" s="53" t="inlineStr">
+        <is>
+          <t>Renovation of nonresidential buildings included</t>
+        </is>
+      </c>
       <c r="F198" s="53" t="n"/>
       <c r="G198" s="53" t="n"/>
       <c r="H198" s="53" t="n"/>
@@ -62018,7 +62384,7 @@
       <c r="B199" s="51" t="n"/>
       <c r="C199" s="31" t="inlineStr">
         <is>
-          <t>Reserved3</t>
+          <t>No_EE_Improvements</t>
         </is>
       </c>
       <c r="D199" s="43" t="inlineStr">
@@ -62037,7 +62403,7 @@
       <c r="B200" s="51" t="n"/>
       <c r="C200" s="31" t="inlineStr">
         <is>
-          <t>Reserved4</t>
+          <t>Reserved3</t>
         </is>
       </c>
       <c r="D200" s="43" t="inlineStr">
@@ -62046,6 +62412,7 @@
         </is>
       </c>
       <c r="E200" s="53" t="n"/>
+      <c r="F200" s="53" t="n"/>
       <c r="G200" s="53" t="n"/>
       <c r="H200" s="53" t="n"/>
       <c r="I200" s="53" t="n"/>
@@ -62055,7 +62422,7 @@
       <c r="B201" s="51" t="n"/>
       <c r="C201" s="31" t="inlineStr">
         <is>
-          <t>Reserved5</t>
+          <t>Reserved4</t>
         </is>
       </c>
       <c r="D201" s="43" t="inlineStr">
@@ -62064,7 +62431,6 @@
         </is>
       </c>
       <c r="E201" s="53" t="n"/>
-      <c r="F201" s="53" t="n"/>
       <c r="G201" s="53" t="n"/>
       <c r="H201" s="53" t="n"/>
       <c r="I201" s="53" t="n"/>
@@ -62074,7 +62440,7 @@
       <c r="B202" s="51" t="n"/>
       <c r="C202" s="31" t="inlineStr">
         <is>
-          <t>Reserved6</t>
+          <t>Reserved5</t>
         </is>
       </c>
       <c r="D202" s="43" t="inlineStr">
@@ -62089,42 +62455,49 @@
       <c r="I202" s="53" t="n"/>
       <c r="J202" s="51" t="n"/>
     </row>
-    <row r="204">
-      <c r="B204" s="12" t="inlineStr">
+    <row r="203">
+      <c r="B203" s="51" t="n"/>
+      <c r="C203" s="31" t="inlineStr">
+        <is>
+          <t>Reserved6</t>
+        </is>
+      </c>
+      <c r="D203" s="43" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E203" s="53" t="n"/>
+      <c r="F203" s="53" t="n"/>
+      <c r="G203" s="53" t="n"/>
+      <c r="H203" s="53" t="n"/>
+      <c r="I203" s="53" t="n"/>
+      <c r="J203" s="51" t="n"/>
+    </row>
+    <row r="205">
+      <c r="B205" s="12" t="inlineStr">
         <is>
           <t>Model output control</t>
         </is>
       </c>
-      <c r="C204" s="13" t="n"/>
-      <c r="D204" s="13" t="n"/>
-      <c r="E204" s="13" t="n"/>
-      <c r="F204" s="13" t="n"/>
-      <c r="G204" s="13" t="n"/>
-      <c r="H204" s="14" t="n"/>
-    </row>
-    <row r="205">
-      <c r="C205" s="27" t="inlineStr">
+      <c r="C205" s="13" t="n"/>
+      <c r="D205" s="13" t="n"/>
+      <c r="E205" s="13" t="n"/>
+      <c r="F205" s="13" t="n"/>
+      <c r="G205" s="13" t="n"/>
+      <c r="H205" s="14" t="n"/>
+    </row>
+    <row r="206">
+      <c r="C206" s="27" t="inlineStr">
         <is>
           <t>Control how model output is archived and which figures are created.</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="C206" s="94" t="inlineStr">
-        <is>
-          <t>PlotStocks</t>
-        </is>
-      </c>
-      <c r="D206" s="91" t="inlineStr">
-        <is>
-          <t>True</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="C207" s="94" t="inlineStr">
         <is>
-          <t>PlotMaterialDemand</t>
+          <t>PlotStocks</t>
         </is>
       </c>
       <c r="D207" s="91" t="inlineStr">
@@ -62136,7 +62509,7 @@
     <row r="208">
       <c r="C208" s="94" t="inlineStr">
         <is>
-          <t>PlotTotalGHGEmissions</t>
+          <t>PlotMaterialDemand</t>
         </is>
       </c>
       <c r="D208" s="91" t="inlineStr">
@@ -62148,19 +62521,19 @@
     <row r="209">
       <c r="C209" s="94" t="inlineStr">
         <is>
-          <t>UseGivenPlotBoundaries</t>
+          <t>PlotTotalGHGEmissions</t>
         </is>
       </c>
       <c r="D209" s="91" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="C210" s="94" t="inlineStr">
         <is>
-          <t>Reserved1</t>
+          <t>UseGivenPlotBoundaries</t>
         </is>
       </c>
       <c r="D210" s="91" t="inlineStr">
@@ -62172,59 +62545,61 @@
     <row r="211">
       <c r="C211" s="94" t="inlineStr">
         <is>
+          <t>Reserved1</t>
+        </is>
+      </c>
+      <c r="D211" s="91" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="C212" s="94" t="inlineStr">
+        <is>
           <t>Reserved2</t>
         </is>
       </c>
-      <c r="D211" s="91" t="inlineStr">
+      <c r="D212" s="91" t="inlineStr">
         <is>
           <t>False</t>
         </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="C212" s="43" t="inlineStr">
-        <is>
-          <t>Plot1Max</t>
-        </is>
-      </c>
-      <c r="D212" s="44" t="n">
-        <v>1500</v>
       </c>
     </row>
     <row r="213">
       <c r="C213" s="43" t="inlineStr">
         <is>
-          <t>Plot2Max</t>
+          <t>Plot1Max</t>
         </is>
       </c>
       <c r="D213" s="44" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="214">
       <c r="C214" s="43" t="inlineStr">
         <is>
-          <t>Plot3Max</t>
+          <t>Plot2Max</t>
         </is>
       </c>
       <c r="D214" s="44" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
     </row>
     <row r="215">
       <c r="C215" s="43" t="inlineStr">
         <is>
-          <t>Plot4Max</t>
+          <t>Plot3Max</t>
         </is>
       </c>
       <c r="D215" s="44" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="216">
       <c r="C216" s="43" t="inlineStr">
         <is>
-          <t>Plot5Max</t>
+          <t>Plot4Max</t>
         </is>
       </c>
       <c r="D216" s="44" t="n">
@@ -62234,25 +62609,35 @@
     <row r="217">
       <c r="C217" s="43" t="inlineStr">
         <is>
-          <t>Plot6Max</t>
+          <t>Plot5Max</t>
         </is>
       </c>
       <c r="D217" s="44" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="219">
-      <c r="B219" s="12" t="inlineStr">
+    <row r="218">
+      <c r="C218" s="43" t="inlineStr">
+        <is>
+          <t>Plot6Max</t>
+        </is>
+      </c>
+      <c r="D218" s="44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="B220" s="12" t="inlineStr">
         <is>
           <t>End of file</t>
         </is>
       </c>
-      <c r="C219" s="13" t="n"/>
-      <c r="D219" s="13" t="n"/>
-      <c r="E219" s="13" t="n"/>
-      <c r="F219" s="13" t="n"/>
-      <c r="G219" s="13" t="n"/>
-      <c r="H219" s="14" t="n"/>
+      <c r="C220" s="13" t="n"/>
+      <c r="D220" s="13" t="n"/>
+      <c r="E220" s="13" t="n"/>
+      <c r="F220" s="13" t="n"/>
+      <c r="G220" s="13" t="n"/>
+      <c r="H220" s="14" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.787401575" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.787401575"/>
@@ -62265,29 +62650,29 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:Q219"/>
+  <dimension ref="A2:Q220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="98" width="10.6640625"/>
-    <col customWidth="1" max="2" min="2" style="98" width="36.33203125"/>
-    <col customWidth="1" max="3" min="3" style="98" width="42.9296875"/>
-    <col customWidth="1" max="4" min="4" style="98" width="39.6640625"/>
-    <col customWidth="1" max="5" min="5" style="98" width="25.6640625"/>
-    <col customWidth="1" max="6" min="6" style="98" width="21.6640625"/>
-    <col customWidth="1" max="7" min="7" style="98" width="38.3984375"/>
-    <col customWidth="1" max="8" min="8" style="98" width="12.33203125"/>
-    <col customWidth="1" max="9" min="9" style="98" width="38.3984375"/>
-    <col customWidth="1" max="11" min="10" style="98" width="11.53125"/>
-    <col customWidth="1" max="12" min="12" style="98" width="73.53125"/>
-    <col customWidth="1" max="13" min="13" style="98" width="39.86328125"/>
-    <col customWidth="1" max="14" min="14" style="98" width="90"/>
-    <col customWidth="1" max="66" min="15" style="98" width="10.6640625"/>
-    <col customWidth="1" max="16384" min="67" style="98" width="10.6640625"/>
+    <col customWidth="1" max="1" min="1" style="100" width="10.6640625"/>
+    <col customWidth="1" max="2" min="2" style="100" width="36.33203125"/>
+    <col customWidth="1" max="3" min="3" style="100" width="42.9296875"/>
+    <col customWidth="1" max="4" min="4" style="100" width="39.6640625"/>
+    <col customWidth="1" max="5" min="5" style="100" width="25.6640625"/>
+    <col customWidth="1" max="6" min="6" style="100" width="21.6640625"/>
+    <col customWidth="1" max="7" min="7" style="100" width="38.3984375"/>
+    <col customWidth="1" max="8" min="8" style="100" width="12.33203125"/>
+    <col customWidth="1" max="9" min="9" style="100" width="38.3984375"/>
+    <col customWidth="1" max="11" min="10" style="100" width="11.53125"/>
+    <col customWidth="1" max="12" min="12" style="100" width="73.53125"/>
+    <col customWidth="1" max="13" min="13" style="100" width="39.86328125"/>
+    <col customWidth="1" max="14" min="14" style="100" width="90"/>
+    <col customWidth="1" max="70" min="15" style="100" width="10.6640625"/>
+    <col customWidth="1" max="16384" min="71" style="100" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -64968,7 +65353,7 @@
           <t>use phase</t>
         </is>
       </c>
-      <c r="C89" s="99" t="inlineStr">
+      <c r="C89" s="98" t="inlineStr">
         <is>
           <t>3_EI_Products_UsePhase_resbuildings</t>
         </is>
@@ -65280,7 +65665,7 @@
           <t>[0]</t>
         </is>
       </c>
-      <c r="I94" s="100" t="inlineStr">
+      <c r="I94" s="99" t="inlineStr">
         <is>
           <t>adf3d059-1ebb-40e1-8b08-e9c5b58af1f7</t>
         </is>
@@ -69733,7 +70118,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.6" r="176" s="98">
+    <row customHeight="1" ht="15.6" r="176" s="100">
       <c r="A176" t="n">
         <v>100</v>
       </c>
@@ -69788,226 +70173,258 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.6" r="177" s="98"/>
-    <row customHeight="1" ht="15.75" r="178" s="98">
-      <c r="B178" s="12" t="inlineStr">
+    <row customHeight="1" ht="15.6" r="177" s="100">
+      <c r="A177" t="n">
+        <v>101</v>
+      </c>
+      <c r="B177" s="51" t="inlineStr">
+        <is>
+          <t>use phase</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>X_FLAG_VehicleDownsizingDirection</t>
+        </is>
+      </c>
+      <c r="D177" s="94" t="inlineStr">
+        <is>
+          <t>Flag (Bool) that indicates the direction of vehicle downsizing (segment shift) in the parameter 3_SHA_DownSizing_Vehicles</t>
+        </is>
+      </c>
+      <c r="E177" s="94" t="inlineStr">
+        <is>
+          <t>V1.0</t>
+        </is>
+      </c>
+      <c r="F177" s="37" t="inlineStr">
+        <is>
+          <t>rS</t>
+        </is>
+      </c>
+      <c r="G177" s="94" t="inlineStr">
+        <is>
+          <t>[0,1]</t>
+        </is>
+      </c>
+      <c r="H177" s="94" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I177" s="30" t="inlineStr">
+        <is>
+          <t>6832c162-6b26-4ad8-8e9d-3bf47bf34c9f</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>SSP/RCP</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.6" r="178" s="100"/>
+    <row customHeight="1" ht="15.75" r="179" s="100">
+      <c r="B179" s="12" t="inlineStr">
         <is>
           <t>Model flow control</t>
         </is>
       </c>
-      <c r="C178" s="13" t="n"/>
-      <c r="D178" s="13" t="n"/>
-      <c r="E178" s="13" t="n"/>
-      <c r="F178" s="13" t="n"/>
-      <c r="G178" s="13" t="n"/>
-      <c r="H178" s="14" t="n"/>
-      <c r="K178" s="49" t="n"/>
-      <c r="N178" s="49" t="n"/>
-    </row>
-    <row r="179">
-      <c r="C179" s="27" t="inlineStr">
+      <c r="C179" s="13" t="n"/>
+      <c r="D179" s="13" t="n"/>
+      <c r="E179" s="13" t="n"/>
+      <c r="F179" s="13" t="n"/>
+      <c r="G179" s="13" t="n"/>
+      <c r="H179" s="14" t="n"/>
+      <c r="K179" s="49" t="n"/>
+      <c r="N179" s="49" t="n"/>
+    </row>
+    <row r="180">
+      <c r="C180" s="27" t="inlineStr">
         <is>
           <t>Specify how model should run: which calculation blocks to perform, which solvers to use, etc.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="C180" s="31" t="inlineStr">
-        <is>
-          <t>Logging_Verbosity</t>
-        </is>
-      </c>
-      <c r="D180" s="94" t="inlineStr">
-        <is>
-          <t>DEBUG</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t># Specify at which level of detail the comments, warnings, and error produced by the models are recorded.</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="C181" s="31" t="inlineStr">
         <is>
+          <t>Logging_Verbosity</t>
+        </is>
+      </c>
+      <c r="D181" s="94" t="inlineStr">
+        <is>
+          <t>DEBUG</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t># Specify at which level of detail the comments, warnings, and error produced by the models are recorded.</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="C182" s="31" t="inlineStr">
+        <is>
           <t>Include_REStrategy_FabYieldImprovement</t>
         </is>
       </c>
-      <c r="D181" s="94" t="inlineStr">
+      <c r="D182" s="94" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
+      <c r="E182" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="F182" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="I181" s="57" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.6" r="182" s="98">
-      <c r="C182" s="31" t="inlineStr">
+      <c r="I182" s="57" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.6" r="183" s="100">
+      <c r="C183" s="31" t="inlineStr">
         <is>
           <t>Include_REStrategy_FabScrapDiversion</t>
         </is>
       </c>
-      <c r="D182" s="94" t="inlineStr">
+      <c r="D183" s="94" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="F183" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="I182" s="57" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.6" r="183" s="98">
-      <c r="C183" s="31" t="inlineStr">
+      <c r="I183" s="57" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.6" r="184" s="100">
+      <c r="C184" s="31" t="inlineStr">
         <is>
           <t>Include_REStrategy_EoL_RR_Improvement</t>
         </is>
       </c>
-      <c r="D183" s="94" t="inlineStr">
+      <c r="D184" s="94" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="E183" s="53" t="inlineStr">
+      <c r="E184" s="53" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
+      <c r="F184" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="J183" s="50" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.6" r="184" s="98">
-      <c r="C184" s="31" t="inlineStr">
+      <c r="J184" s="50" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.6" r="185" s="100">
+      <c r="C185" s="31" t="inlineStr">
         <is>
           <t>ScrapExport</t>
         </is>
       </c>
-      <c r="D184" s="94" t="inlineStr">
+      <c r="D185" s="94" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="F185" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="G184" s="53" t="inlineStr">
+      <c r="G185" s="53" t="inlineStr">
         <is>
           <t>Set true if excess scrap can be exported to other sectors.</t>
         </is>
       </c>
-      <c r="J184" s="50" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.6" r="185" s="98">
-      <c r="C185" s="31" t="inlineStr">
+      <c r="J185" s="50" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.6" r="186" s="100">
+      <c r="C186" s="31" t="inlineStr">
         <is>
           <t>ScrapExportRecyclingCredit</t>
         </is>
       </c>
-      <c r="D185" s="94" t="inlineStr">
+      <c r="D186" s="94" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
+      <c r="F186" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="G185" s="53" t="inlineStr">
+      <c r="G186" s="53" t="inlineStr">
         <is>
           <t>True if an emissions credit for avoided primary production is to be given.</t>
         </is>
       </c>
-      <c r="J185" s="50" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="186" s="98">
-      <c r="C186" s="31" t="inlineStr">
+      <c r="J186" s="50" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="187" s="100">
+      <c r="C187" s="31" t="inlineStr">
         <is>
           <t>IncludeRecycling</t>
         </is>
       </c>
-      <c r="D186" s="94" t="inlineStr">
+      <c r="D187" s="94" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="E186" s="53" t="inlineStr">
+      <c r="E187" s="53" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
+      <c r="F187" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="G186" s="53" t="inlineStr">
+      <c r="G187" s="53" t="inlineStr">
         <is>
           <t>Set to False only if a scenario without any recycling is to be considered (as counterfactual scenario)</t>
         </is>
       </c>
-      <c r="J186" s="50" t="n"/>
-    </row>
-    <row r="187">
-      <c r="C187" s="31" t="inlineStr">
-        <is>
-          <t>Include_REStrategy_MaterialSubstitution</t>
-        </is>
-      </c>
-      <c r="D187" s="94" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="J187" s="51" t="n"/>
+      <c r="J187" s="50" t="n"/>
     </row>
     <row r="188">
       <c r="C188" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_UsingLessMaterialByDesign</t>
+          <t>Include_REStrategy_MaterialSubstitution</t>
         </is>
       </c>
       <c r="D188" s="94" t="inlineStr">
@@ -70030,7 +70447,7 @@
     <row r="189">
       <c r="C189" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_ReUse</t>
+          <t>Include_REStrategy_UsingLessMaterialByDesign</t>
         </is>
       </c>
       <c r="D189" s="94" t="inlineStr">
@@ -70038,7 +70455,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="E189" s="53" t="inlineStr">
+      <c r="E189" t="inlineStr">
         <is>
           <t>True</t>
         </is>
@@ -70053,35 +70470,30 @@
     <row r="190">
       <c r="C190" s="31" t="inlineStr">
         <is>
+          <t>Include_REStrategy_ReUse</t>
+        </is>
+      </c>
+      <c r="D190" s="94" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E190" s="53" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J190" s="51" t="n"/>
+    </row>
+    <row r="191">
+      <c r="C191" s="31" t="inlineStr">
+        <is>
           <t>Include_REStrategy_LifeTimeExtension</t>
-        </is>
-      </c>
-      <c r="D190" s="94" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="E190" s="53" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="J190" s="51" t="n"/>
-    </row>
-    <row r="191">
-      <c r="B191" s="51" t="inlineStr">
-        <is>
-          <t>Buildings only:</t>
-        </is>
-      </c>
-      <c r="C191" s="31" t="inlineStr">
-        <is>
-          <t>Include_REStrategy_MoreIntenseUse</t>
         </is>
       </c>
       <c r="D191" s="94" t="inlineStr">
@@ -70104,12 +70516,12 @@
     <row r="192">
       <c r="B192" s="51" t="inlineStr">
         <is>
-          <t>Vehicles only:</t>
+          <t>Buildings only:</t>
         </is>
       </c>
       <c r="C192" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_CarSharing</t>
+          <t>Include_REStrategy_MoreIntenseUse</t>
         </is>
       </c>
       <c r="D192" s="94" t="inlineStr">
@@ -70137,7 +70549,7 @@
       </c>
       <c r="C193" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_RideSharing</t>
+          <t>Include_REStrategy_CarSharing</t>
         </is>
       </c>
       <c r="D193" s="94" t="inlineStr">
@@ -70165,7 +70577,7 @@
       </c>
       <c r="C194" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_ModalSplit</t>
+          <t>Include_REStrategy_RideSharing</t>
         </is>
       </c>
       <c r="D194" s="94" t="inlineStr">
@@ -70183,63 +70595,64 @@
           <t>False</t>
         </is>
       </c>
+      <c r="J194" s="51" t="n"/>
     </row>
     <row r="195">
       <c r="B195" s="51" t="inlineStr">
         <is>
+          <t>Vehicles only:</t>
+        </is>
+      </c>
+      <c r="C195" s="31" t="inlineStr">
+        <is>
+          <t>Include_REStrategy_ModalSplit</t>
+        </is>
+      </c>
+      <c r="D195" s="94" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E195" s="53" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="B196" s="51" t="inlineStr">
+        <is>
           <t>Select which sectors are included:</t>
         </is>
       </c>
-      <c r="C195" s="31" t="inlineStr">
+      <c r="C196" s="31" t="inlineStr">
         <is>
           <t>SectorSelect</t>
         </is>
       </c>
-      <c r="D195" s="43" t="inlineStr">
+      <c r="D196" s="43" t="inlineStr">
         <is>
           <t>['reb']</t>
         </is>
       </c>
-      <c r="E195" s="53" t="inlineStr">
+      <c r="E196" s="53" t="inlineStr">
         <is>
           <t>['pav']</t>
         </is>
       </c>
-      <c r="F195" s="53" t="inlineStr">
+      <c r="F196" s="53" t="inlineStr">
         <is>
           <t>['reb']</t>
         </is>
       </c>
-      <c r="G195" s="53" t="inlineStr">
+      <c r="G196" s="53" t="inlineStr">
         <is>
           <t>['pav':passenger vehicles,'reb':residential buildings,'nrb':non-residential buildings,'nrbg':nonres buildings, global,'ind': industry (electricity generation),'app':appliances]</t>
-        </is>
-      </c>
-      <c r="H195" s="53" t="n"/>
-      <c r="I195" s="53" t="n"/>
-      <c r="J195" s="51" t="n"/>
-    </row>
-    <row r="196">
-      <c r="B196" s="51" t="n"/>
-      <c r="C196" s="31" t="inlineStr">
-        <is>
-          <t>Include_Renovation_reb</t>
-        </is>
-      </c>
-      <c r="D196" s="43" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E196" s="53" t="inlineStr">
-        <is>
-          <t>Renovation of residential buildings included</t>
-        </is>
-      </c>
-      <c r="F196" s="53" t="n"/>
-      <c r="G196" s="53" t="inlineStr">
-        <is>
-          <t>['pav','reb']</t>
         </is>
       </c>
       <c r="H196" s="53" t="n"/>
@@ -70250,7 +70663,7 @@
       <c r="B197" s="51" t="n"/>
       <c r="C197" s="31" t="inlineStr">
         <is>
-          <t>Include_Renovation_nrb</t>
+          <t>Include_Renovation_reb</t>
         </is>
       </c>
       <c r="D197" s="43" t="inlineStr">
@@ -70260,11 +70673,15 @@
       </c>
       <c r="E197" s="53" t="inlineStr">
         <is>
-          <t>Renovation of nonresidential buildings included</t>
+          <t>Renovation of residential buildings included</t>
         </is>
       </c>
       <c r="F197" s="53" t="n"/>
-      <c r="G197" s="53" t="n"/>
+      <c r="G197" s="53" t="inlineStr">
+        <is>
+          <t>['pav','reb']</t>
+        </is>
+      </c>
       <c r="H197" s="53" t="n"/>
       <c r="I197" s="53" t="n"/>
       <c r="J197" s="51" t="n"/>
@@ -70273,15 +70690,19 @@
       <c r="B198" s="51" t="n"/>
       <c r="C198" s="31" t="inlineStr">
         <is>
-          <t>No_EE_Improvements</t>
+          <t>Include_Renovation_nrb</t>
         </is>
       </c>
       <c r="D198" s="43" t="inlineStr">
         <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="E198" s="53" t="n"/>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E198" s="53" t="inlineStr">
+        <is>
+          <t>Renovation of nonresidential buildings included</t>
+        </is>
+      </c>
       <c r="F198" s="53" t="n"/>
       <c r="G198" s="53" t="n"/>
       <c r="H198" s="53" t="n"/>
@@ -70292,7 +70713,7 @@
       <c r="B199" s="51" t="n"/>
       <c r="C199" s="31" t="inlineStr">
         <is>
-          <t>Reserved3</t>
+          <t>No_EE_Improvements</t>
         </is>
       </c>
       <c r="D199" s="43" t="inlineStr">
@@ -70311,7 +70732,7 @@
       <c r="B200" s="51" t="n"/>
       <c r="C200" s="31" t="inlineStr">
         <is>
-          <t>Reserved4</t>
+          <t>Reserved3</t>
         </is>
       </c>
       <c r="D200" s="43" t="inlineStr">
@@ -70320,6 +70741,7 @@
         </is>
       </c>
       <c r="E200" s="53" t="n"/>
+      <c r="F200" s="53" t="n"/>
       <c r="G200" s="53" t="n"/>
       <c r="H200" s="53" t="n"/>
       <c r="I200" s="53" t="n"/>
@@ -70329,7 +70751,7 @@
       <c r="B201" s="51" t="n"/>
       <c r="C201" s="31" t="inlineStr">
         <is>
-          <t>Reserved5</t>
+          <t>Reserved4</t>
         </is>
       </c>
       <c r="D201" s="43" t="inlineStr">
@@ -70338,7 +70760,6 @@
         </is>
       </c>
       <c r="E201" s="53" t="n"/>
-      <c r="F201" s="53" t="n"/>
       <c r="G201" s="53" t="n"/>
       <c r="H201" s="53" t="n"/>
       <c r="I201" s="53" t="n"/>
@@ -70348,7 +70769,7 @@
       <c r="B202" s="51" t="n"/>
       <c r="C202" s="31" t="inlineStr">
         <is>
-          <t>Reserved6</t>
+          <t>Reserved5</t>
         </is>
       </c>
       <c r="D202" s="43" t="inlineStr">
@@ -70363,42 +70784,49 @@
       <c r="I202" s="53" t="n"/>
       <c r="J202" s="51" t="n"/>
     </row>
-    <row r="204">
-      <c r="B204" s="12" t="inlineStr">
+    <row r="203">
+      <c r="B203" s="51" t="n"/>
+      <c r="C203" s="31" t="inlineStr">
+        <is>
+          <t>Reserved6</t>
+        </is>
+      </c>
+      <c r="D203" s="43" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E203" s="53" t="n"/>
+      <c r="F203" s="53" t="n"/>
+      <c r="G203" s="53" t="n"/>
+      <c r="H203" s="53" t="n"/>
+      <c r="I203" s="53" t="n"/>
+      <c r="J203" s="51" t="n"/>
+    </row>
+    <row r="205">
+      <c r="B205" s="12" t="inlineStr">
         <is>
           <t>Model output control</t>
         </is>
       </c>
-      <c r="C204" s="13" t="n"/>
-      <c r="D204" s="13" t="n"/>
-      <c r="E204" s="13" t="n"/>
-      <c r="F204" s="13" t="n"/>
-      <c r="G204" s="13" t="n"/>
-      <c r="H204" s="14" t="n"/>
-    </row>
-    <row r="205">
-      <c r="C205" s="27" t="inlineStr">
+      <c r="C205" s="13" t="n"/>
+      <c r="D205" s="13" t="n"/>
+      <c r="E205" s="13" t="n"/>
+      <c r="F205" s="13" t="n"/>
+      <c r="G205" s="13" t="n"/>
+      <c r="H205" s="14" t="n"/>
+    </row>
+    <row r="206">
+      <c r="C206" s="27" t="inlineStr">
         <is>
           <t>Control how model output is archived and which figures are created.</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="C206" s="94" t="inlineStr">
-        <is>
-          <t>PlotStocks</t>
-        </is>
-      </c>
-      <c r="D206" s="91" t="inlineStr">
-        <is>
-          <t>True</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="C207" s="94" t="inlineStr">
         <is>
-          <t>PlotMaterialDemand</t>
+          <t>PlotStocks</t>
         </is>
       </c>
       <c r="D207" s="91" t="inlineStr">
@@ -70410,7 +70838,7 @@
     <row r="208">
       <c r="C208" s="94" t="inlineStr">
         <is>
-          <t>PlotTotalGHGEmissions</t>
+          <t>PlotMaterialDemand</t>
         </is>
       </c>
       <c r="D208" s="91" t="inlineStr">
@@ -70422,19 +70850,19 @@
     <row r="209">
       <c r="C209" s="94" t="inlineStr">
         <is>
-          <t>UseGivenPlotBoundaries</t>
+          <t>PlotTotalGHGEmissions</t>
         </is>
       </c>
       <c r="D209" s="91" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="C210" s="94" t="inlineStr">
         <is>
-          <t>Reserved1</t>
+          <t>UseGivenPlotBoundaries</t>
         </is>
       </c>
       <c r="D210" s="91" t="inlineStr">
@@ -70446,59 +70874,61 @@
     <row r="211">
       <c r="C211" s="94" t="inlineStr">
         <is>
+          <t>Reserved1</t>
+        </is>
+      </c>
+      <c r="D211" s="91" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="C212" s="94" t="inlineStr">
+        <is>
           <t>Reserved2</t>
         </is>
       </c>
-      <c r="D211" s="91" t="inlineStr">
+      <c r="D212" s="91" t="inlineStr">
         <is>
           <t>False</t>
         </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="C212" s="43" t="inlineStr">
-        <is>
-          <t>Plot1Max</t>
-        </is>
-      </c>
-      <c r="D212" s="44" t="n">
-        <v>1500</v>
       </c>
     </row>
     <row r="213">
       <c r="C213" s="43" t="inlineStr">
         <is>
-          <t>Plot2Max</t>
+          <t>Plot1Max</t>
         </is>
       </c>
       <c r="D213" s="44" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="214">
       <c r="C214" s="43" t="inlineStr">
         <is>
-          <t>Plot3Max</t>
+          <t>Plot2Max</t>
         </is>
       </c>
       <c r="D214" s="44" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
     </row>
     <row r="215">
       <c r="C215" s="43" t="inlineStr">
         <is>
-          <t>Plot4Max</t>
+          <t>Plot3Max</t>
         </is>
       </c>
       <c r="D215" s="44" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="216">
       <c r="C216" s="43" t="inlineStr">
         <is>
-          <t>Plot5Max</t>
+          <t>Plot4Max</t>
         </is>
       </c>
       <c r="D216" s="44" t="n">
@@ -70508,25 +70938,35 @@
     <row r="217">
       <c r="C217" s="43" t="inlineStr">
         <is>
-          <t>Plot6Max</t>
+          <t>Plot5Max</t>
         </is>
       </c>
       <c r="D217" s="44" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="219">
-      <c r="B219" s="12" t="inlineStr">
+    <row r="218">
+      <c r="C218" s="43" t="inlineStr">
+        <is>
+          <t>Plot6Max</t>
+        </is>
+      </c>
+      <c r="D218" s="44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="B220" s="12" t="inlineStr">
         <is>
           <t>End of file</t>
         </is>
       </c>
-      <c r="C219" s="13" t="n"/>
-      <c r="D219" s="13" t="n"/>
-      <c r="E219" s="13" t="n"/>
-      <c r="F219" s="13" t="n"/>
-      <c r="G219" s="13" t="n"/>
-      <c r="H219" s="14" t="n"/>
+      <c r="C220" s="13" t="n"/>
+      <c r="D220" s="13" t="n"/>
+      <c r="E220" s="13" t="n"/>
+      <c r="F220" s="13" t="n"/>
+      <c r="G220" s="13" t="n"/>
+      <c r="H220" s="14" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.787401575" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.787401575"/>
@@ -70539,29 +70979,29 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:Q219"/>
+  <dimension ref="A2:Q220"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="B174" sqref="B174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="98" width="10.6640625"/>
-    <col customWidth="1" max="2" min="2" style="98" width="36.33203125"/>
-    <col customWidth="1" max="3" min="3" style="98" width="42.9296875"/>
-    <col customWidth="1" max="4" min="4" style="98" width="39.6640625"/>
-    <col customWidth="1" max="5" min="5" style="98" width="25.6640625"/>
-    <col customWidth="1" max="6" min="6" style="98" width="21.6640625"/>
-    <col customWidth="1" max="7" min="7" style="98" width="38.3984375"/>
-    <col customWidth="1" max="8" min="8" style="98" width="12.33203125"/>
-    <col customWidth="1" max="9" min="9" style="98" width="38.3984375"/>
-    <col customWidth="1" max="11" min="10" style="98" width="11.53125"/>
-    <col customWidth="1" max="12" min="12" style="98" width="73.53125"/>
-    <col customWidth="1" max="13" min="13" style="98" width="39.86328125"/>
-    <col customWidth="1" max="14" min="14" style="98" width="90"/>
-    <col customWidth="1" max="66" min="15" style="98" width="10.6640625"/>
-    <col customWidth="1" max="16384" min="67" style="98" width="10.6640625"/>
+    <col customWidth="1" max="1" min="1" style="100" width="10.6640625"/>
+    <col customWidth="1" max="2" min="2" style="100" width="36.33203125"/>
+    <col customWidth="1" max="3" min="3" style="100" width="42.9296875"/>
+    <col customWidth="1" max="4" min="4" style="100" width="39.6640625"/>
+    <col customWidth="1" max="5" min="5" style="100" width="25.6640625"/>
+    <col customWidth="1" max="6" min="6" style="100" width="21.6640625"/>
+    <col customWidth="1" max="7" min="7" style="100" width="38.3984375"/>
+    <col customWidth="1" max="8" min="8" style="100" width="12.33203125"/>
+    <col customWidth="1" max="9" min="9" style="100" width="38.3984375"/>
+    <col customWidth="1" max="11" min="10" style="100" width="11.53125"/>
+    <col customWidth="1" max="12" min="12" style="100" width="73.53125"/>
+    <col customWidth="1" max="13" min="13" style="100" width="39.86328125"/>
+    <col customWidth="1" max="14" min="14" style="100" width="90"/>
+    <col customWidth="1" max="70" min="15" style="100" width="10.6640625"/>
+    <col customWidth="1" max="16384" min="71" style="100" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -73242,7 +73682,7 @@
           <t>use phase</t>
         </is>
       </c>
-      <c r="C89" s="99" t="inlineStr">
+      <c r="C89" s="98" t="inlineStr">
         <is>
           <t>3_EI_Products_UsePhase_resbuildings</t>
         </is>
@@ -73554,7 +73994,7 @@
           <t>[0]</t>
         </is>
       </c>
-      <c r="I94" s="100" t="inlineStr">
+      <c r="I94" s="99" t="inlineStr">
         <is>
           <t>adf3d059-1ebb-40e1-8b08-e9c5b58af1f7</t>
         </is>
@@ -77952,7 +78392,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.6" r="175" s="98">
+    <row customHeight="1" ht="15.6" r="175" s="100">
       <c r="A175" t="n">
         <v>99</v>
       </c>
@@ -78007,7 +78447,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.6" r="176" s="98">
+    <row customHeight="1" ht="15.6" r="176" s="100">
       <c r="A176" t="n">
         <v>100</v>
       </c>
@@ -78062,225 +78502,257 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="178" s="98">
-      <c r="B178" s="12" t="inlineStr">
+    <row customHeight="1" ht="15.6" r="177" s="100">
+      <c r="A177" t="n">
+        <v>101</v>
+      </c>
+      <c r="B177" s="51" t="inlineStr">
+        <is>
+          <t>use phase</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>X_FLAG_VehicleDownsizingDirection</t>
+        </is>
+      </c>
+      <c r="D177" s="94" t="inlineStr">
+        <is>
+          <t>Flag (Bool) that indicates the direction of vehicle downsizing (segment shift) in the parameter 3_SHA_DownSizing_Vehicles</t>
+        </is>
+      </c>
+      <c r="E177" s="94" t="inlineStr">
+        <is>
+          <t>V1.0</t>
+        </is>
+      </c>
+      <c r="F177" s="37" t="inlineStr">
+        <is>
+          <t>rS</t>
+        </is>
+      </c>
+      <c r="G177" s="94" t="inlineStr">
+        <is>
+          <t>[0,1]</t>
+        </is>
+      </c>
+      <c r="H177" s="94" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I177" s="30" t="inlineStr">
+        <is>
+          <t>6832c162-6b26-4ad8-8e9d-3bf47bf34c9f</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>SSP/RCP</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="179" s="100">
+      <c r="B179" s="12" t="inlineStr">
         <is>
           <t>Model flow control</t>
         </is>
       </c>
-      <c r="C178" s="13" t="n"/>
-      <c r="D178" s="13" t="n"/>
-      <c r="E178" s="13" t="n"/>
-      <c r="F178" s="13" t="n"/>
-      <c r="G178" s="13" t="n"/>
-      <c r="H178" s="14" t="n"/>
-      <c r="K178" s="49" t="n"/>
-      <c r="N178" s="49" t="n"/>
-    </row>
-    <row r="179">
-      <c r="C179" s="27" t="inlineStr">
+      <c r="C179" s="13" t="n"/>
+      <c r="D179" s="13" t="n"/>
+      <c r="E179" s="13" t="n"/>
+      <c r="F179" s="13" t="n"/>
+      <c r="G179" s="13" t="n"/>
+      <c r="H179" s="14" t="n"/>
+      <c r="K179" s="49" t="n"/>
+      <c r="N179" s="49" t="n"/>
+    </row>
+    <row r="180">
+      <c r="C180" s="27" t="inlineStr">
         <is>
           <t>Specify how model should run: which calculation blocks to perform, which solvers to use, etc.</t>
         </is>
       </c>
     </row>
-    <row r="180">
-      <c r="C180" s="31" t="inlineStr">
+    <row r="181">
+      <c r="C181" s="31" t="inlineStr">
         <is>
           <t>Logging_Verbosity</t>
         </is>
       </c>
-      <c r="D180" s="94" t="inlineStr">
+      <c r="D181" s="94" t="inlineStr">
         <is>
           <t>DEBUG</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="E181" t="inlineStr">
         <is>
           <t># Specify at which level of detail the comments, warnings, and error produced by the models are recorded.</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.6" r="181" s="98">
-      <c r="C181" s="31" t="inlineStr">
+    <row customHeight="1" ht="15.6" r="182" s="100">
+      <c r="C182" s="31" t="inlineStr">
         <is>
           <t>Include_REStrategy_FabYieldImprovement</t>
         </is>
       </c>
-      <c r="D181" s="94" t="inlineStr">
+      <c r="D182" s="94" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
+      <c r="E182" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="F182" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="I181" s="57" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.6" r="182" s="98">
-      <c r="C182" s="31" t="inlineStr">
+      <c r="I182" s="57" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.6" r="183" s="100">
+      <c r="C183" s="31" t="inlineStr">
         <is>
           <t>Include_REStrategy_FabScrapDiversion</t>
         </is>
       </c>
-      <c r="D182" s="94" t="inlineStr">
+      <c r="D183" s="94" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="F183" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="I182" s="57" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.6" r="183" s="98">
-      <c r="C183" s="31" t="inlineStr">
+      <c r="I183" s="57" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.6" r="184" s="100">
+      <c r="C184" s="31" t="inlineStr">
         <is>
           <t>Include_REStrategy_EoL_RR_Improvement</t>
         </is>
       </c>
-      <c r="D183" s="94" t="inlineStr">
+      <c r="D184" s="94" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="E183" s="53" t="inlineStr">
+      <c r="E184" s="53" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
+      <c r="F184" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="J183" s="50" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.6" r="184" s="98">
-      <c r="C184" s="31" t="inlineStr">
+      <c r="J184" s="50" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.6" r="185" s="100">
+      <c r="C185" s="31" t="inlineStr">
         <is>
           <t>ScrapExport</t>
         </is>
       </c>
-      <c r="D184" s="94" t="inlineStr">
+      <c r="D185" s="94" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="F185" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="G184" s="53" t="inlineStr">
+      <c r="G185" s="53" t="inlineStr">
         <is>
           <t>Set true if excess scrap can be exported to other sectors.</t>
         </is>
       </c>
-      <c r="J184" s="50" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="185" s="98">
-      <c r="C185" s="31" t="inlineStr">
+      <c r="J185" s="50" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="186" s="100">
+      <c r="C186" s="31" t="inlineStr">
         <is>
           <t>ScrapExportRecyclingCredit</t>
         </is>
       </c>
-      <c r="D185" s="94" t="inlineStr">
+      <c r="D186" s="94" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
+      <c r="F186" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="G185" s="53" t="inlineStr">
+      <c r="G186" s="53" t="inlineStr">
         <is>
           <t>True if an emissions credit for avoided primary production is to be given.</t>
         </is>
       </c>
-      <c r="J185" s="50" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="186" s="98">
-      <c r="C186" s="31" t="inlineStr">
+      <c r="J186" s="50" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="187" s="100">
+      <c r="C187" s="31" t="inlineStr">
         <is>
           <t>IncludeRecycling</t>
         </is>
       </c>
-      <c r="D186" s="94" t="inlineStr">
+      <c r="D187" s="94" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="E186" s="53" t="inlineStr">
+      <c r="E187" s="53" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
+      <c r="F187" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="G186" s="53" t="inlineStr">
+      <c r="G187" s="53" t="inlineStr">
         <is>
           <t>Set to False only if a scenario without any recycling is to be considered (as counterfactual scenario)</t>
         </is>
       </c>
-      <c r="J186" s="50" t="n"/>
-    </row>
-    <row r="187">
-      <c r="C187" s="31" t="inlineStr">
-        <is>
-          <t>Include_REStrategy_MaterialSubstitution</t>
-        </is>
-      </c>
-      <c r="D187" s="94" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="J187" s="51" t="n"/>
+      <c r="J187" s="50" t="n"/>
     </row>
     <row r="188">
       <c r="C188" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_UsingLessMaterialByDesign</t>
+          <t>Include_REStrategy_MaterialSubstitution</t>
         </is>
       </c>
       <c r="D188" s="94" t="inlineStr">
@@ -78303,7 +78775,7 @@
     <row r="189">
       <c r="C189" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_ReUse</t>
+          <t>Include_REStrategy_UsingLessMaterialByDesign</t>
         </is>
       </c>
       <c r="D189" s="94" t="inlineStr">
@@ -78311,7 +78783,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="E189" s="53" t="inlineStr">
+      <c r="E189" t="inlineStr">
         <is>
           <t>True</t>
         </is>
@@ -78326,35 +78798,30 @@
     <row r="190">
       <c r="C190" s="31" t="inlineStr">
         <is>
+          <t>Include_REStrategy_ReUse</t>
+        </is>
+      </c>
+      <c r="D190" s="94" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E190" s="53" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J190" s="51" t="n"/>
+    </row>
+    <row r="191">
+      <c r="C191" s="31" t="inlineStr">
+        <is>
           <t>Include_REStrategy_LifeTimeExtension</t>
-        </is>
-      </c>
-      <c r="D190" s="94" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E190" s="53" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="J190" s="51" t="n"/>
-    </row>
-    <row r="191">
-      <c r="B191" s="51" t="inlineStr">
-        <is>
-          <t>Buildings only:</t>
-        </is>
-      </c>
-      <c r="C191" s="31" t="inlineStr">
-        <is>
-          <t>Include_REStrategy_MoreIntenseUse</t>
         </is>
       </c>
       <c r="D191" s="94" t="inlineStr">
@@ -78377,17 +78844,17 @@
     <row r="192">
       <c r="B192" s="51" t="inlineStr">
         <is>
-          <t>Vehicles only:</t>
+          <t>Buildings only:</t>
         </is>
       </c>
       <c r="C192" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_CarSharing</t>
+          <t>Include_REStrategy_MoreIntenseUse</t>
         </is>
       </c>
       <c r="D192" s="94" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E192" s="53" t="inlineStr">
@@ -78410,7 +78877,7 @@
       </c>
       <c r="C193" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_RideSharing</t>
+          <t>Include_REStrategy_CarSharing</t>
         </is>
       </c>
       <c r="D193" s="94" t="inlineStr">
@@ -78438,7 +78905,7 @@
       </c>
       <c r="C194" s="31" t="inlineStr">
         <is>
-          <t>Include_REStrategy_ModalSplit</t>
+          <t>Include_REStrategy_RideSharing</t>
         </is>
       </c>
       <c r="D194" s="94" t="inlineStr">
@@ -78456,63 +78923,64 @@
           <t>False</t>
         </is>
       </c>
+      <c r="J194" s="51" t="n"/>
     </row>
     <row r="195">
       <c r="B195" s="51" t="inlineStr">
         <is>
+          <t>Vehicles only:</t>
+        </is>
+      </c>
+      <c r="C195" s="31" t="inlineStr">
+        <is>
+          <t>Include_REStrategy_ModalSplit</t>
+        </is>
+      </c>
+      <c r="D195" s="94" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E195" s="53" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="B196" s="51" t="inlineStr">
+        <is>
           <t>Select which sectors are included:</t>
         </is>
       </c>
-      <c r="C195" s="31" t="inlineStr">
+      <c r="C196" s="31" t="inlineStr">
         <is>
           <t>SectorSelect</t>
         </is>
       </c>
-      <c r="D195" s="43" t="inlineStr">
+      <c r="D196" s="43" t="inlineStr">
         <is>
           <t>['reb']</t>
         </is>
       </c>
-      <c r="E195" s="53" t="inlineStr">
+      <c r="E196" s="53" t="inlineStr">
         <is>
           <t>['pav']</t>
         </is>
       </c>
-      <c r="F195" s="53" t="inlineStr">
+      <c r="F196" s="53" t="inlineStr">
         <is>
           <t>['reb']</t>
         </is>
       </c>
-      <c r="G195" s="53" t="inlineStr">
+      <c r="G196" s="53" t="inlineStr">
         <is>
           <t>['pav':passenger vehicles,'reb':residential buildings,'nrb':non-residential buildings,'nrbg':nonres buildings, global,'ind': industry (electricity generation),'app':appliances]</t>
-        </is>
-      </c>
-      <c r="H195" s="53" t="n"/>
-      <c r="I195" s="53" t="n"/>
-      <c r="J195" s="51" t="n"/>
-    </row>
-    <row r="196">
-      <c r="B196" s="51" t="n"/>
-      <c r="C196" s="31" t="inlineStr">
-        <is>
-          <t>Include_Renovation_reb</t>
-        </is>
-      </c>
-      <c r="D196" s="43" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E196" s="53" t="inlineStr">
-        <is>
-          <t>Renovation of residential buildings included</t>
-        </is>
-      </c>
-      <c r="F196" s="53" t="n"/>
-      <c r="G196" s="53" t="inlineStr">
-        <is>
-          <t>['pav','reb']</t>
         </is>
       </c>
       <c r="H196" s="53" t="n"/>
@@ -78523,7 +78991,7 @@
       <c r="B197" s="51" t="n"/>
       <c r="C197" s="31" t="inlineStr">
         <is>
-          <t>Include_Renovation_nrb</t>
+          <t>Include_Renovation_reb</t>
         </is>
       </c>
       <c r="D197" s="43" t="inlineStr">
@@ -78533,11 +79001,15 @@
       </c>
       <c r="E197" s="53" t="inlineStr">
         <is>
-          <t>Renovation of nonresidential buildings included</t>
+          <t>Renovation of residential buildings included</t>
         </is>
       </c>
       <c r="F197" s="53" t="n"/>
-      <c r="G197" s="53" t="n"/>
+      <c r="G197" s="53" t="inlineStr">
+        <is>
+          <t>['pav','reb']</t>
+        </is>
+      </c>
       <c r="H197" s="53" t="n"/>
       <c r="I197" s="53" t="n"/>
       <c r="J197" s="51" t="n"/>
@@ -78546,15 +79018,19 @@
       <c r="B198" s="51" t="n"/>
       <c r="C198" s="31" t="inlineStr">
         <is>
-          <t>No_EE_Improvements</t>
+          <t>Include_Renovation_nrb</t>
         </is>
       </c>
       <c r="D198" s="43" t="inlineStr">
         <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="E198" s="53" t="n"/>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E198" s="53" t="inlineStr">
+        <is>
+          <t>Renovation of nonresidential buildings included</t>
+        </is>
+      </c>
       <c r="F198" s="53" t="n"/>
       <c r="G198" s="53" t="n"/>
       <c r="H198" s="53" t="n"/>
@@ -78565,7 +79041,7 @@
       <c r="B199" s="51" t="n"/>
       <c r="C199" s="31" t="inlineStr">
         <is>
-          <t>Reserved3</t>
+          <t>No_EE_Improvements</t>
         </is>
       </c>
       <c r="D199" s="43" t="inlineStr">
@@ -78584,7 +79060,7 @@
       <c r="B200" s="51" t="n"/>
       <c r="C200" s="31" t="inlineStr">
         <is>
-          <t>Reserved4</t>
+          <t>Reserved3</t>
         </is>
       </c>
       <c r="D200" s="43" t="inlineStr">
@@ -78593,6 +79069,7 @@
         </is>
       </c>
       <c r="E200" s="53" t="n"/>
+      <c r="F200" s="53" t="n"/>
       <c r="G200" s="53" t="n"/>
       <c r="H200" s="53" t="n"/>
       <c r="I200" s="53" t="n"/>
@@ -78602,7 +79079,7 @@
       <c r="B201" s="51" t="n"/>
       <c r="C201" s="31" t="inlineStr">
         <is>
-          <t>Reserved5</t>
+          <t>Reserved4</t>
         </is>
       </c>
       <c r="D201" s="43" t="inlineStr">
@@ -78611,7 +79088,6 @@
         </is>
       </c>
       <c r="E201" s="53" t="n"/>
-      <c r="F201" s="53" t="n"/>
       <c r="G201" s="53" t="n"/>
       <c r="H201" s="53" t="n"/>
       <c r="I201" s="53" t="n"/>
@@ -78621,7 +79097,7 @@
       <c r="B202" s="51" t="n"/>
       <c r="C202" s="31" t="inlineStr">
         <is>
-          <t>Reserved6</t>
+          <t>Reserved5</t>
         </is>
       </c>
       <c r="D202" s="43" t="inlineStr">
@@ -78636,42 +79112,49 @@
       <c r="I202" s="53" t="n"/>
       <c r="J202" s="51" t="n"/>
     </row>
-    <row r="204">
-      <c r="B204" s="12" t="inlineStr">
+    <row r="203">
+      <c r="B203" s="51" t="n"/>
+      <c r="C203" s="31" t="inlineStr">
+        <is>
+          <t>Reserved6</t>
+        </is>
+      </c>
+      <c r="D203" s="43" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E203" s="53" t="n"/>
+      <c r="F203" s="53" t="n"/>
+      <c r="G203" s="53" t="n"/>
+      <c r="H203" s="53" t="n"/>
+      <c r="I203" s="53" t="n"/>
+      <c r="J203" s="51" t="n"/>
+    </row>
+    <row r="205">
+      <c r="B205" s="12" t="inlineStr">
         <is>
           <t>Model output control</t>
         </is>
       </c>
-      <c r="C204" s="13" t="n"/>
-      <c r="D204" s="13" t="n"/>
-      <c r="E204" s="13" t="n"/>
-      <c r="F204" s="13" t="n"/>
-      <c r="G204" s="13" t="n"/>
-      <c r="H204" s="14" t="n"/>
-    </row>
-    <row r="205">
-      <c r="C205" s="27" t="inlineStr">
+      <c r="C205" s="13" t="n"/>
+      <c r="D205" s="13" t="n"/>
+      <c r="E205" s="13" t="n"/>
+      <c r="F205" s="13" t="n"/>
+      <c r="G205" s="13" t="n"/>
+      <c r="H205" s="14" t="n"/>
+    </row>
+    <row r="206">
+      <c r="C206" s="27" t="inlineStr">
         <is>
           <t>Control how model output is archived and which figures are created.</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="C206" s="94" t="inlineStr">
-        <is>
-          <t>PlotStocks</t>
-        </is>
-      </c>
-      <c r="D206" s="91" t="inlineStr">
-        <is>
-          <t>True</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="C207" s="94" t="inlineStr">
         <is>
-          <t>PlotMaterialDemand</t>
+          <t>PlotStocks</t>
         </is>
       </c>
       <c r="D207" s="91" t="inlineStr">
@@ -78683,7 +79166,7 @@
     <row r="208">
       <c r="C208" s="94" t="inlineStr">
         <is>
-          <t>PlotTotalGHGEmissions</t>
+          <t>PlotMaterialDemand</t>
         </is>
       </c>
       <c r="D208" s="91" t="inlineStr">
@@ -78695,19 +79178,19 @@
     <row r="209">
       <c r="C209" s="94" t="inlineStr">
         <is>
-          <t>UseGivenPlotBoundaries</t>
+          <t>PlotTotalGHGEmissions</t>
         </is>
       </c>
       <c r="D209" s="91" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="C210" s="94" t="inlineStr">
         <is>
-          <t>Reserved1</t>
+          <t>UseGivenPlotBoundaries</t>
         </is>
       </c>
       <c r="D210" s="91" t="inlineStr">
@@ -78719,59 +79202,61 @@
     <row r="211">
       <c r="C211" s="94" t="inlineStr">
         <is>
+          <t>Reserved1</t>
+        </is>
+      </c>
+      <c r="D211" s="91" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="C212" s="94" t="inlineStr">
+        <is>
           <t>Reserved2</t>
         </is>
       </c>
-      <c r="D211" s="91" t="inlineStr">
+      <c r="D212" s="91" t="inlineStr">
         <is>
           <t>False</t>
         </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="C212" s="43" t="inlineStr">
-        <is>
-          <t>Plot1Max</t>
-        </is>
-      </c>
-      <c r="D212" s="44" t="n">
-        <v>1500</v>
       </c>
     </row>
     <row r="213">
       <c r="C213" s="43" t="inlineStr">
         <is>
-          <t>Plot2Max</t>
+          <t>Plot1Max</t>
         </is>
       </c>
       <c r="D213" s="44" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="214">
       <c r="C214" s="43" t="inlineStr">
         <is>
-          <t>Plot3Max</t>
+          <t>Plot2Max</t>
         </is>
       </c>
       <c r="D214" s="44" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
     </row>
     <row r="215">
       <c r="C215" s="43" t="inlineStr">
         <is>
-          <t>Plot4Max</t>
+          <t>Plot3Max</t>
         </is>
       </c>
       <c r="D215" s="44" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="216">
       <c r="C216" s="43" t="inlineStr">
         <is>
-          <t>Plot5Max</t>
+          <t>Plot4Max</t>
         </is>
       </c>
       <c r="D216" s="44" t="n">
@@ -78781,25 +79266,35 @@
     <row r="217">
       <c r="C217" s="43" t="inlineStr">
         <is>
-          <t>Plot6Max</t>
+          <t>Plot5Max</t>
         </is>
       </c>
       <c r="D217" s="44" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="219">
-      <c r="B219" s="12" t="inlineStr">
+    <row r="218">
+      <c r="C218" s="43" t="inlineStr">
+        <is>
+          <t>Plot6Max</t>
+        </is>
+      </c>
+      <c r="D218" s="44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="B220" s="12" t="inlineStr">
         <is>
           <t>End of file</t>
         </is>
       </c>
-      <c r="C219" s="13" t="n"/>
-      <c r="D219" s="13" t="n"/>
-      <c r="E219" s="13" t="n"/>
-      <c r="F219" s="13" t="n"/>
-      <c r="G219" s="13" t="n"/>
-      <c r="H219" s="14" t="n"/>
+      <c r="C220" s="13" t="n"/>
+      <c r="D220" s="13" t="n"/>
+      <c r="E220" s="13" t="n"/>
+      <c r="F220" s="13" t="n"/>
+      <c r="G220" s="13" t="n"/>
+      <c r="H220" s="14" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.787401575" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.787401575"/>

--- a/RECC_Config_V2_4.xlsx
+++ b/RECC_Config_V2_4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9405" windowWidth="20730" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9405" windowWidth="20730" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cover" sheetId="1" state="visible" r:id="rId1"/>
@@ -696,7 +696,7 @@
   </sheetPr>
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1485,8 +1485,8 @@
     <col bestFit="1" customWidth="1" max="9" min="9" style="53" width="8.265625"/>
     <col customWidth="1" max="10" min="10" style="55" width="39.86328125"/>
     <col customWidth="1" max="11" min="11" style="53" width="46.73046875"/>
-    <col customWidth="1" max="44" min="12" style="53" width="10.6640625"/>
-    <col customWidth="1" max="16384" min="45" style="53" width="10.6640625"/>
+    <col customWidth="1" max="49" min="12" style="53" width="10.6640625"/>
+    <col customWidth="1" max="16384" min="50" style="53" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="8">
@@ -1886,8 +1886,8 @@
   </sheetPr>
   <dimension ref="A2:Q221"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="D158" sqref="D158"/>
+    <sheetView tabSelected="1" topLeftCell="B100" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+      <selection activeCell="E126" sqref="E126:I126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1906,8 +1906,8 @@
     <col customWidth="1" max="12" min="12" style="69" width="15.53125"/>
     <col customWidth="1" max="13" min="13" style="69" width="39.86328125"/>
     <col customWidth="1" max="14" min="14" style="69" width="90"/>
-    <col customWidth="1" max="83" min="15" style="69" width="10.6640625"/>
-    <col customWidth="1" max="16384" min="84" style="69" width="10.6640625"/>
+    <col customWidth="1" max="88" min="15" style="69" width="10.6640625"/>
+    <col customWidth="1" max="16384" min="89" style="69" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -4121,7 +4121,7 @@
       </c>
       <c r="I81" s="29" t="inlineStr">
         <is>
-          <t>2a33b0fc-aed8-11e9-a2a3-2a2ae2dbcce4</t>
+          <t>5cdad46f-6d1f-4f5b-a4ba-d1475c4c8a2b</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4177,7 +4177,7 @@
       </c>
       <c r="I82" s="29" t="inlineStr">
         <is>
-          <t>2a33aa08-aed8-11e9-a2a3-2a2ae2dbcce4</t>
+          <t>9c7ed34d-6b43-4f77-bbb8-29a392f080bd</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4399,7 +4399,7 @@
       </c>
       <c r="I86" s="29" t="inlineStr">
         <is>
-          <t>b7ea8d0f-68ec-4e6d-a637-358ac54975c4</t>
+          <t>3636f7fd-a339-4664-a4f0-3557c3fa03db</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>2a33b48a-aed8-11e9-a2a3-2a2ae2dbcce4</t>
+          <t>e029c4c8-2312-4a18-ab1b-3c5d7e50893b</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5390,7 +5390,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>2a33aca6-aed8-11e9-a2a3-2a2ae2dbcce4</t>
+          <t>3527921f-9c7c-4ef8-ae43-aca22d05e7d0</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -6605,7 +6605,7 @@
       </c>
       <c r="E126" s="63" t="inlineStr">
         <is>
-          <t>V2.2</t>
+          <t>V2.3</t>
         </is>
       </c>
       <c r="F126" s="36" t="inlineStr">
@@ -6625,7 +6625,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>26720421-3b0c-4d6c-b3ca-010be568aa2e</t>
+          <t>67c3bf6f-ccb3-4d9d-89dc-1e62df664b7e</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -10083,10 +10083,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:Q220"/>
+  <dimension ref="A2:Q221"/>
   <sheetViews>
-    <sheetView topLeftCell="C59" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -10104,9 +10104,9 @@
     <col customWidth="1" max="11" min="11" style="69" width="17.73046875"/>
     <col customWidth="1" max="12" min="12" style="69" width="15.53125"/>
     <col customWidth="1" max="13" min="13" style="69" width="39.86328125"/>
-    <col customWidth="1" max="14" min="14" style="69" width="38.73046875"/>
-    <col customWidth="1" max="83" min="15" style="69" width="10.6640625"/>
-    <col customWidth="1" max="16384" min="84" style="69" width="10.6640625"/>
+    <col customWidth="1" max="14" min="14" style="69" width="90"/>
+    <col customWidth="1" max="88" min="15" style="69" width="10.6640625"/>
+    <col customWidth="1" max="16384" min="89" style="69" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -10182,7 +10182,7 @@
       </c>
       <c r="D7" s="63" t="inlineStr">
         <is>
-          <t>Global_North</t>
+          <t>Germany_detail</t>
         </is>
       </c>
     </row>
@@ -10494,7 +10494,7 @@
       </c>
       <c r="G21" s="63" t="inlineStr">
         <is>
-          <t>[2,13,31,32,33,34,35,36,37,38,39,9,4,40,41]</t>
+          <t>[33]</t>
         </is>
       </c>
       <c r="H21" s="33" t="inlineStr">
@@ -10717,7 +10717,7 @@
       </c>
       <c r="G27" s="63" t="inlineStr">
         <is>
-          <t>[0,1,2,3,4,5,22,23,24,25,26,27,28,29,30,31,32,33,34]</t>
+          <t>[0,1,2,3,4,5,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58]</t>
         </is>
       </c>
       <c r="H27" s="33" t="inlineStr">
@@ -10754,7 +10754,7 @@
       </c>
       <c r="G28" s="63" t="inlineStr">
         <is>
-          <t>[0,2]</t>
+          <t>[0,2,3]</t>
         </is>
       </c>
       <c r="H28" s="33" t="inlineStr">
@@ -10791,7 +10791,7 @@
       </c>
       <c r="G29" s="63" t="inlineStr">
         <is>
-          <t>[0,1,2,3,4,5,22,23,24,25,26,27,28,29,30,31,32,33,34]</t>
+          <t>[0,1,2,3,4,5,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58]</t>
         </is>
       </c>
       <c r="H29" s="33" t="inlineStr">
@@ -10939,7 +10939,7 @@
       </c>
       <c r="G33" s="63" t="inlineStr">
         <is>
-          <t>[24,25,26,27]</t>
+          <t>[0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23]</t>
         </is>
       </c>
       <c r="H33" s="33" t="inlineStr">
@@ -11494,7 +11494,7 @@
       </c>
       <c r="G48" s="63" t="inlineStr">
         <is>
-          <t>[0:19)</t>
+          <t>all</t>
         </is>
       </c>
       <c r="H48" s="33" t="inlineStr">
@@ -12321,7 +12321,7 @@
       </c>
       <c r="I81" s="29" t="inlineStr">
         <is>
-          <t>2a33b0fc-aed8-11e9-a2a3-2a2ae2dbcce4</t>
+          <t>5cdad46f-6d1f-4f5b-a4ba-d1475c4c8a2b</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -12329,7 +12329,11 @@
           <t>SSP/RCP</t>
         </is>
       </c>
-      <c r="K81" s="51" t="n"/>
+      <c r="K81" s="68" t="inlineStr">
+        <is>
+          <t>items/yr</t>
+        </is>
+      </c>
       <c r="M81" s="51" t="n"/>
     </row>
     <row r="82">
@@ -12373,7 +12377,7 @@
       </c>
       <c r="I82" s="29" t="inlineStr">
         <is>
-          <t>2a33aa08-aed8-11e9-a2a3-2a2ae2dbcce4</t>
+          <t>9c7ed34d-6b43-4f77-bbb8-29a392f080bd</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -12381,7 +12385,11 @@
           <t>SSP/RCP</t>
         </is>
       </c>
-      <c r="K82" s="51" t="n"/>
+      <c r="K82" s="68" t="inlineStr">
+        <is>
+          <t>GW/yr</t>
+        </is>
+      </c>
       <c r="M82" s="51" t="n"/>
     </row>
     <row r="83">
@@ -12433,7 +12441,11 @@
           <t>SSP/RCP</t>
         </is>
       </c>
-      <c r="K83" s="51" t="n"/>
+      <c r="K83" s="68" t="inlineStr">
+        <is>
+          <t>m2/yr</t>
+        </is>
+      </c>
       <c r="M83" s="51" t="n"/>
     </row>
     <row r="84">
@@ -12587,7 +12599,7 @@
       </c>
       <c r="I86" s="29" t="inlineStr">
         <is>
-          <t>b7ea8d0f-68ec-4e6d-a637-358ac54975c4</t>
+          <t>3636f7fd-a339-4664-a4f0-3557c3fa03db</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -13523,7 +13535,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>2a33b48a-aed8-11e9-a2a3-2a2ae2dbcce4</t>
+          <t>e029c4c8-2312-4a18-ab1b-3c5d7e50893b</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -13578,7 +13590,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>2a33aca6-aed8-11e9-a2a3-2a2ae2dbcce4</t>
+          <t>3527921f-9c7c-4ef8-ae43-aca22d05e7d0</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -13928,7 +13940,11 @@
           <t>Hist/fixed</t>
         </is>
       </c>
-      <c r="K110" s="47" t="n"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>kt/GW</t>
+        </is>
+      </c>
       <c r="L110" s="47" t="n"/>
       <c r="N110" s="47" t="n"/>
       <c r="O110" s="47" t="n"/>
@@ -13982,7 +13998,11 @@
           <t>Hist/fixed</t>
         </is>
       </c>
-      <c r="K111" s="47" t="n"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>g/item</t>
+        </is>
+      </c>
       <c r="L111" s="47" t="n"/>
       <c r="M111" s="47" t="n"/>
       <c r="N111" s="47" t="n"/>
@@ -14785,7 +14805,7 @@
       </c>
       <c r="E126" s="63" t="inlineStr">
         <is>
-          <t>V2.2</t>
+          <t>V2.3</t>
         </is>
       </c>
       <c r="F126" s="36" t="inlineStr">
@@ -14805,7 +14825,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>26720421-3b0c-4d6c-b3ca-010be568aa2e</t>
+          <t>67c3bf6f-ccb3-4d9d-89dc-1e62df664b7e</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -15156,12 +15176,12 @@
       </c>
       <c r="C133" s="65" t="inlineStr">
         <is>
-          <t>6_PR_LifeTimeExtension_appliances</t>
+          <t>6_PR_LifeTimeExtension_nonresbuildings_g</t>
         </is>
       </c>
       <c r="D133" s="63" t="inlineStr">
         <is>
-          <t>RE strategy: useful product lifetime extension, appliances</t>
+          <t>RE strategy: useful product lifetime extension, nonres. Buildings, global aggregate</t>
         </is>
       </c>
       <c r="E133" s="63" t="inlineStr">
@@ -15171,12 +15191,12 @@
       </c>
       <c r="F133" s="36" t="inlineStr">
         <is>
-          <t>aoS</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G133" s="63" t="inlineStr">
         <is>
-          <t>[0,1,2]</t>
+          <t>[0,1]</t>
         </is>
       </c>
       <c r="H133" s="63" t="inlineStr">
@@ -15210,12 +15230,12 @@
       </c>
       <c r="C134" s="65" t="inlineStr">
         <is>
-          <t>6_PR_LifeTimeExtension_industry</t>
+          <t>6_PR_LifeTimeExtension_appliances</t>
         </is>
       </c>
       <c r="D134" s="63" t="inlineStr">
         <is>
-          <t>RE strategy: useful product lifetime extension, industry</t>
+          <t>RE strategy: useful product lifetime extension, appliances</t>
         </is>
       </c>
       <c r="E134" s="63" t="inlineStr">
@@ -15225,7 +15245,7 @@
       </c>
       <c r="F134" s="36" t="inlineStr">
         <is>
-          <t>IlS</t>
+          <t>aoS</t>
         </is>
       </c>
       <c r="G134" s="63" t="inlineStr">
@@ -15259,32 +15279,32 @@
       </c>
       <c r="B135" s="50" t="inlineStr">
         <is>
-          <t>manufacturing</t>
-        </is>
-      </c>
-      <c r="C135" s="66" t="inlineStr">
-        <is>
-          <t>6_PR_FabricationYieldImprovement</t>
+          <t>use phase</t>
+        </is>
+      </c>
+      <c r="C135" s="65" t="inlineStr">
+        <is>
+          <t>6_PR_LifeTimeExtension_industry</t>
         </is>
       </c>
       <c r="D135" s="63" t="inlineStr">
         <is>
-          <t>RE strategy: fabrication yield improvement</t>
+          <t>RE strategy: useful product lifetime extension, industry</t>
         </is>
       </c>
       <c r="E135" s="63" t="inlineStr">
         <is>
-          <t>V2.1</t>
+          <t>V1.0</t>
         </is>
       </c>
       <c r="F135" s="36" t="inlineStr">
         <is>
-          <t>mgoS</t>
+          <t>IlS</t>
         </is>
       </c>
       <c r="G135" s="63" t="inlineStr">
         <is>
-          <t>[0,1,2,3]</t>
+          <t>[0,1,2]</t>
         </is>
       </c>
       <c r="H135" s="63" t="inlineStr">
@@ -15316,24 +15336,24 @@
           <t>manufacturing</t>
         </is>
       </c>
-      <c r="C136" s="65" t="inlineStr">
-        <is>
-          <t>6_PR_FabricationScrapDiversion</t>
+      <c r="C136" s="66" t="inlineStr">
+        <is>
+          <t>6_PR_FabricationYieldImprovement</t>
         </is>
       </c>
       <c r="D136" s="63" t="inlineStr">
         <is>
-          <t>RE strategy: fabrication scrap diversion</t>
+          <t>RE strategy: fabrication yield improvement</t>
         </is>
       </c>
       <c r="E136" s="63" t="inlineStr">
         <is>
-          <t>V1.2</t>
+          <t>V2.1</t>
         </is>
       </c>
       <c r="F136" s="36" t="inlineStr">
         <is>
-          <t>mwoS</t>
+          <t>mgoS</t>
         </is>
       </c>
       <c r="G136" s="63" t="inlineStr">
@@ -15367,32 +15387,32 @@
       </c>
       <c r="B137" s="50" t="inlineStr">
         <is>
-          <t>waste mgt. and remelting</t>
+          <t>manufacturing</t>
         </is>
       </c>
       <c r="C137" s="65" t="inlineStr">
         <is>
-          <t>6_PR_ReUse_Bld</t>
+          <t>6_PR_FabricationScrapDiversion</t>
         </is>
       </c>
       <c r="D137" s="63" t="inlineStr">
         <is>
-          <t>RE strategy: EoL product re-use res. buildings</t>
+          <t>RE strategy: fabrication scrap diversion</t>
         </is>
       </c>
       <c r="E137" s="63" t="inlineStr">
         <is>
-          <t>V3.3</t>
+          <t>V1.2</t>
         </is>
       </c>
       <c r="F137" s="36" t="inlineStr">
         <is>
-          <t>mBo</t>
+          <t>mwoS</t>
         </is>
       </c>
       <c r="G137" s="63" t="inlineStr">
         <is>
-          <t>[0,1,2]</t>
+          <t>[0,1,2,3]</t>
         </is>
       </c>
       <c r="H137" s="63" t="inlineStr">
@@ -15426,27 +15446,27 @@
       </c>
       <c r="C138" s="65" t="inlineStr">
         <is>
-          <t>6_PR_ReUse_Veh</t>
+          <t>6_PR_ReUse_Bld</t>
         </is>
       </c>
       <c r="D138" s="63" t="inlineStr">
         <is>
-          <t>RE strategy: EoL product re-use pass. vehicles</t>
+          <t>RE strategy: EoL product re-use res. buildings</t>
         </is>
       </c>
       <c r="E138" s="63" t="inlineStr">
         <is>
-          <t>V1.2</t>
+          <t>V3.3</t>
         </is>
       </c>
       <c r="F138" s="36" t="inlineStr">
         <is>
-          <t>mprtS</t>
+          <t>mBo</t>
         </is>
       </c>
       <c r="G138" s="63" t="inlineStr">
         <is>
-          <t>[0,1,2,3,4]</t>
+          <t>[0,1,2]</t>
         </is>
       </c>
       <c r="H138" s="63" t="inlineStr">
@@ -15480,12 +15500,12 @@
       </c>
       <c r="C139" s="65" t="inlineStr">
         <is>
-          <t>6_PR_ReUse_nonresBld</t>
+          <t>6_PR_ReUse_Veh</t>
         </is>
       </c>
       <c r="D139" s="63" t="inlineStr">
         <is>
-          <t>RE strategy: EoL product re-use nonres. buildings</t>
+          <t>RE strategy: EoL product re-use pass. vehicles</t>
         </is>
       </c>
       <c r="E139" s="63" t="inlineStr">
@@ -15495,12 +15515,12 @@
       </c>
       <c r="F139" s="36" t="inlineStr">
         <is>
-          <t>mNo</t>
+          <t>mprtS</t>
         </is>
       </c>
       <c r="G139" s="63" t="inlineStr">
         <is>
-          <t>[0,1,2]</t>
+          <t>[0,1,2,3,4]</t>
         </is>
       </c>
       <c r="H139" s="63" t="inlineStr">
@@ -15529,17 +15549,17 @@
       </c>
       <c r="B140" s="50" t="inlineStr">
         <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C140" s="66" t="inlineStr">
-        <is>
-          <t>6_PR_DirectEmissions</t>
+          <t>waste mgt. and remelting</t>
+        </is>
+      </c>
+      <c r="C140" s="65" t="inlineStr">
+        <is>
+          <t>6_PR_ReUse_nonresBld</t>
         </is>
       </c>
       <c r="D140" s="63" t="inlineStr">
         <is>
-          <t>Direct GHG emissions by fuel type</t>
+          <t>RE strategy: EoL product re-use nonres. buildings</t>
         </is>
       </c>
       <c r="E140" s="63" t="inlineStr">
@@ -15549,12 +15569,12 @@
       </c>
       <c r="F140" s="36" t="inlineStr">
         <is>
-          <t>Xn</t>
+          <t>mNo</t>
         </is>
       </c>
       <c r="G140" s="63" t="inlineStr">
         <is>
-          <t>[0,1]</t>
+          <t>[0,1,2]</t>
         </is>
       </c>
       <c r="H140" s="63" t="inlineStr">
@@ -15567,16 +15587,15 @@
           <t>5ccb9a9e-55c0-4762-9312-b0403c0ef205</t>
         </is>
       </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>Hist/fixed</t>
-        </is>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>kg of CO2-eq/MJ</t>
-        </is>
-      </c>
+      <c r="J140" s="52" t="inlineStr">
+        <is>
+          <t>RES</t>
+        </is>
+      </c>
+      <c r="K140" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" s="52" t="n"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -15584,17 +15603,17 @@
       </c>
       <c r="B141" s="50" t="inlineStr">
         <is>
-          <t>use phase</t>
-        </is>
-      </c>
-      <c r="C141" s="65" t="inlineStr">
-        <is>
-          <t>6_PR_CarSharingShare</t>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C141" s="66" t="inlineStr">
+        <is>
+          <t>6_PR_DirectEmissions</t>
         </is>
       </c>
       <c r="D141" s="63" t="inlineStr">
         <is>
-          <t>Share of total passenger-km provided by carsharing</t>
+          <t>Direct GHG emissions by fuel type</t>
         </is>
       </c>
       <c r="E141" s="63" t="inlineStr">
@@ -15604,12 +15623,12 @@
       </c>
       <c r="F141" s="36" t="inlineStr">
         <is>
-          <t>GotS</t>
+          <t>Xn</t>
         </is>
       </c>
       <c r="G141" s="63" t="inlineStr">
         <is>
-          <t>[0,1,2,3]</t>
+          <t>[0,1]</t>
         </is>
       </c>
       <c r="H141" s="63" t="inlineStr">
@@ -15624,13 +15643,14 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>SSP/RCP</t>
-        </is>
-      </c>
-      <c r="K141" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" s="52" t="n"/>
+          <t>Hist/fixed</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>kg of CO2-eq/MJ</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -15643,22 +15663,22 @@
       </c>
       <c r="C142" s="65" t="inlineStr">
         <is>
-          <t>6_PR_RideSharingShare</t>
+          <t>6_PR_CarSharingShare</t>
         </is>
       </c>
       <c r="D142" s="63" t="inlineStr">
         <is>
-          <t>Share of total passenger-km provided by ride-sharing</t>
+          <t>Share of total passenger-km provided by carsharing</t>
         </is>
       </c>
       <c r="E142" s="63" t="inlineStr">
         <is>
-          <t>V2.0</t>
+          <t>V1.2</t>
         </is>
       </c>
       <c r="F142" s="36" t="inlineStr">
         <is>
-          <t>GrtS</t>
+          <t>GotS</t>
         </is>
       </c>
       <c r="G142" s="63" t="inlineStr">
@@ -15695,29 +15715,29 @@
           <t>use phase</t>
         </is>
       </c>
-      <c r="C143" s="66" t="inlineStr">
-        <is>
-          <t>3_SHA_TypeSplit_Vehicles</t>
-        </is>
-      </c>
-      <c r="D143" s="61" t="inlineStr">
-        <is>
-          <t>Split product groups into different types, at point of final consumption</t>
+      <c r="C143" s="65" t="inlineStr">
+        <is>
+          <t>6_PR_RideSharingShare</t>
+        </is>
+      </c>
+      <c r="D143" s="63" t="inlineStr">
+        <is>
+          <t>Share of total passenger-km provided by ride-sharing</t>
         </is>
       </c>
       <c r="E143" s="63" t="inlineStr">
         <is>
-          <t>V3.0</t>
+          <t>V2.0</t>
         </is>
       </c>
       <c r="F143" s="36" t="inlineStr">
         <is>
-          <t>GrRpt</t>
+          <t>GrtS</t>
         </is>
       </c>
       <c r="G143" s="63" t="inlineStr">
         <is>
-          <t>[0,1,2,3,4]</t>
+          <t>[0,1,2,3]</t>
         </is>
       </c>
       <c r="H143" s="63" t="inlineStr">
@@ -15735,11 +15755,10 @@
           <t>SSP/RCP</t>
         </is>
       </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
+      <c r="K143" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" s="52" t="n"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -15752,7 +15771,7 @@
       </c>
       <c r="C144" s="66" t="inlineStr">
         <is>
-          <t>3_SHA_TypeSplit_Buildings</t>
+          <t>3_SHA_TypeSplit_Vehicles</t>
         </is>
       </c>
       <c r="D144" s="61" t="inlineStr">
@@ -15762,17 +15781,17 @@
       </c>
       <c r="E144" s="63" t="inlineStr">
         <is>
-          <t>V1.3</t>
+          <t>V3.0</t>
         </is>
       </c>
       <c r="F144" s="36" t="inlineStr">
         <is>
-          <t>BrtS</t>
+          <t>GrRpt</t>
         </is>
       </c>
       <c r="G144" s="63" t="inlineStr">
         <is>
-          <t>[0,1,2,3]</t>
+          <t>[0,1,2,3,4]</t>
         </is>
       </c>
       <c r="H144" s="63" t="inlineStr">
@@ -15805,9 +15824,9 @@
           <t>use phase</t>
         </is>
       </c>
-      <c r="C145" s="65" t="inlineStr">
-        <is>
-          <t>3_SHA_TypeSplit_NonResBuildings</t>
+      <c r="C145" s="66" t="inlineStr">
+        <is>
+          <t>3_SHA_TypeSplit_Buildings</t>
         </is>
       </c>
       <c r="D145" s="61" t="inlineStr">
@@ -15817,12 +15836,12 @@
       </c>
       <c r="E145" s="63" t="inlineStr">
         <is>
-          <t>V1.0</t>
+          <t>V1.3</t>
         </is>
       </c>
       <c r="F145" s="36" t="inlineStr">
         <is>
-          <t>NrtS</t>
+          <t>BrtS</t>
         </is>
       </c>
       <c r="G145" s="63" t="inlineStr">
@@ -15860,29 +15879,29 @@
           <t>use phase</t>
         </is>
       </c>
-      <c r="C146" s="66" t="inlineStr">
-        <is>
-          <t>3_SHA_EnergyCarrierSplit_Vehicles</t>
+      <c r="C146" s="65" t="inlineStr">
+        <is>
+          <t>3_SHA_TypeSplit_NonResBuildings</t>
         </is>
       </c>
       <c r="D146" s="61" t="inlineStr">
         <is>
-          <t>Split total energy consumption into different energy carriers, vehicles</t>
+          <t>Split product groups into different types, at point of final consumption</t>
         </is>
       </c>
       <c r="E146" s="63" t="inlineStr">
         <is>
-          <t>V1.1</t>
+          <t>V1.0</t>
         </is>
       </c>
       <c r="F146" s="36" t="inlineStr">
         <is>
-          <t>cpoVnS</t>
+          <t>NrtS</t>
         </is>
       </c>
       <c r="G146" s="63" t="inlineStr">
         <is>
-          <t>[0,1,2,3,4,5]</t>
+          <t>[0,1,2,3]</t>
         </is>
       </c>
       <c r="H146" s="63" t="inlineStr">
@@ -15897,7 +15916,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Hist/fixed</t>
+          <t>SSP/RCP</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -15917,27 +15936,27 @@
       </c>
       <c r="C147" s="66" t="inlineStr">
         <is>
-          <t>3_SHA_EnergyCarrierSplit_Buildings</t>
+          <t>3_SHA_EnergyCarrierSplit_Vehicles</t>
         </is>
       </c>
       <c r="D147" s="61" t="inlineStr">
         <is>
-          <t>Split total energy consumption into different energy carriers, residential buildings</t>
+          <t>Split total energy consumption into different energy carriers, vehicles</t>
         </is>
       </c>
       <c r="E147" s="63" t="inlineStr">
         <is>
-          <t>V2.3</t>
+          <t>V1.1</t>
         </is>
       </c>
       <c r="F147" s="36" t="inlineStr">
         <is>
-          <t>VRrnt</t>
+          <t>cpoVnS</t>
         </is>
       </c>
       <c r="G147" s="63" t="inlineStr">
         <is>
-          <t>[0,1,2,3,4]</t>
+          <t>[0,1,2,3,4,5]</t>
         </is>
       </c>
       <c r="H147" s="63" t="inlineStr">
@@ -15952,7 +15971,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>SSP/RCP</t>
+          <t>Hist/fixed</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -15970,19 +15989,19 @@
           <t>use phase</t>
         </is>
       </c>
-      <c r="C148" s="65" t="inlineStr">
-        <is>
-          <t>3_SHA_EnergyCarrierSplit_NonResBuildings</t>
+      <c r="C148" s="66" t="inlineStr">
+        <is>
+          <t>3_SHA_EnergyCarrierSplit_Buildings</t>
         </is>
       </c>
       <c r="D148" s="61" t="inlineStr">
         <is>
-          <t>Split total energy consumption into different energy carriers, nonresidential buildings</t>
+          <t>Split total energy consumption into different energy carriers, residential buildings</t>
         </is>
       </c>
       <c r="E148" s="63" t="inlineStr">
         <is>
-          <t>V1.0</t>
+          <t>V2.3</t>
         </is>
       </c>
       <c r="F148" s="36" t="inlineStr">
@@ -16025,29 +16044,29 @@
           <t>use phase</t>
         </is>
       </c>
-      <c r="C149" s="66" t="inlineStr">
-        <is>
-          <t>3_MC_VehicleArchetypes</t>
-        </is>
-      </c>
-      <c r="D149" s="63" t="inlineStr">
-        <is>
-          <t>Material composition of vehicle archetypes</t>
+      <c r="C149" s="65" t="inlineStr">
+        <is>
+          <t>3_SHA_EnergyCarrierSplit_NonResBuildings</t>
+        </is>
+      </c>
+      <c r="D149" s="61" t="inlineStr">
+        <is>
+          <t>Split total energy consumption into different energy carriers, nonresidential buildings</t>
         </is>
       </c>
       <c r="E149" s="63" t="inlineStr">
         <is>
-          <t>V2.0</t>
+          <t>V1.0</t>
         </is>
       </c>
       <c r="F149" s="36" t="inlineStr">
         <is>
-          <t>Am</t>
+          <t>VRrnt</t>
         </is>
       </c>
       <c r="G149" s="63" t="inlineStr">
         <is>
-          <t>[0,1]</t>
+          <t>[0,1,2,3,4]</t>
         </is>
       </c>
       <c r="H149" s="63" t="inlineStr">
@@ -16067,7 +16086,7 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>kg/unit, kg/m2</t>
+          <t>%</t>
         </is>
       </c>
     </row>
@@ -16080,29 +16099,29 @@
           <t>use phase</t>
         </is>
       </c>
-      <c r="C150" s="65" t="inlineStr">
-        <is>
-          <t>3_MC_BuildingArchetypes</t>
+      <c r="C150" s="66" t="inlineStr">
+        <is>
+          <t>3_MC_VehicleArchetypes</t>
         </is>
       </c>
       <c r="D150" s="63" t="inlineStr">
         <is>
-          <t>Material composition of building archetypes</t>
+          <t>Material composition of vehicle archetypes</t>
         </is>
       </c>
       <c r="E150" s="63" t="inlineStr">
         <is>
-          <t>V1.2</t>
+          <t>V2.0</t>
         </is>
       </c>
       <c r="F150" s="36" t="inlineStr">
         <is>
-          <t>Arm</t>
+          <t>Am</t>
         </is>
       </c>
       <c r="G150" s="63" t="inlineStr">
         <is>
-          <t>[0,1,2]</t>
+          <t>[0,1]</t>
         </is>
       </c>
       <c r="H150" s="63" t="inlineStr">
@@ -16137,17 +16156,17 @@
       </c>
       <c r="C151" s="65" t="inlineStr">
         <is>
-          <t>3_MC_NonResBuildingArchetypes</t>
+          <t>3_MC_BuildingArchetypes</t>
         </is>
       </c>
       <c r="D151" s="63" t="inlineStr">
         <is>
-          <t>Material composition of nonres building archetypes</t>
+          <t>Material composition of building archetypes</t>
         </is>
       </c>
       <c r="E151" s="63" t="inlineStr">
         <is>
-          <t>V1.0</t>
+          <t>V1.2</t>
         </is>
       </c>
       <c r="F151" s="36" t="inlineStr">
@@ -16190,29 +16209,29 @@
           <t>use phase</t>
         </is>
       </c>
-      <c r="C152" s="66" t="inlineStr">
-        <is>
-          <t>3_EI_VehicleArchetypes</t>
+      <c r="C152" s="65" t="inlineStr">
+        <is>
+          <t>3_MC_NonResBuildingArchetypes</t>
         </is>
       </c>
       <c r="D152" s="63" t="inlineStr">
         <is>
-          <t>Energy intensity of vehicle archetypes</t>
+          <t>Material composition of nonres building archetypes</t>
         </is>
       </c>
       <c r="E152" s="63" t="inlineStr">
         <is>
-          <t>V4.0</t>
+          <t>V1.0</t>
         </is>
       </c>
       <c r="F152" s="36" t="inlineStr">
         <is>
-          <t>An</t>
+          <t>Arm</t>
         </is>
       </c>
       <c r="G152" s="63" t="inlineStr">
         <is>
-          <t>[0,1]</t>
+          <t>[0,1,2]</t>
         </is>
       </c>
       <c r="H152" s="63" t="inlineStr">
@@ -16232,7 +16251,7 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>MJ/km, MJ/m2/yr</t>
+          <t>kg/unit, kg/m2</t>
         </is>
       </c>
     </row>
@@ -16247,27 +16266,27 @@
       </c>
       <c r="C153" s="66" t="inlineStr">
         <is>
-          <t>3_EI_BuildingArchetypes</t>
+          <t>3_EI_VehicleArchetypes</t>
         </is>
       </c>
       <c r="D153" s="63" t="inlineStr">
         <is>
-          <t>Energy intensity of building archetypes</t>
+          <t>Energy intensity of vehicle archetypes</t>
         </is>
       </c>
       <c r="E153" s="63" t="inlineStr">
         <is>
-          <t>V1.2</t>
+          <t>V4.0</t>
         </is>
       </c>
       <c r="F153" s="36" t="inlineStr">
         <is>
-          <t>ArVn</t>
+          <t>An</t>
         </is>
       </c>
       <c r="G153" s="63" t="inlineStr">
         <is>
-          <t>[0,1,2,3]</t>
+          <t>[0,1]</t>
         </is>
       </c>
       <c r="H153" s="63" t="inlineStr">
@@ -16300,19 +16319,19 @@
           <t>use phase</t>
         </is>
       </c>
-      <c r="C154" s="65" t="inlineStr">
-        <is>
-          <t>3_EI_NonResBuildingArchetypes</t>
+      <c r="C154" s="66" t="inlineStr">
+        <is>
+          <t>3_EI_BuildingArchetypes</t>
         </is>
       </c>
       <c r="D154" s="63" t="inlineStr">
         <is>
-          <t>Energy intensity of nonres building archetypes</t>
+          <t>Energy intensity of building archetypes</t>
         </is>
       </c>
       <c r="E154" s="63" t="inlineStr">
         <is>
-          <t>V1.0</t>
+          <t>V1.2</t>
         </is>
       </c>
       <c r="F154" s="36" t="inlineStr">
@@ -16355,24 +16374,24 @@
           <t>use phase</t>
         </is>
       </c>
-      <c r="C155" s="66" t="inlineStr">
-        <is>
-          <t>3_SHA_DownSizing_Vehicles</t>
-        </is>
-      </c>
-      <c r="D155" s="41" t="inlineStr">
-        <is>
-          <t>The values reflect the share of passenger cars versus light trucks in the new registration of cars.</t>
+      <c r="C155" s="65" t="inlineStr">
+        <is>
+          <t>3_EI_NonResBuildingArchetypes</t>
+        </is>
+      </c>
+      <c r="D155" s="63" t="inlineStr">
+        <is>
+          <t>Energy intensity of nonres building archetypes</t>
         </is>
       </c>
       <c r="E155" s="63" t="inlineStr">
         <is>
-          <t>V2.3</t>
+          <t>V1.0</t>
         </is>
       </c>
       <c r="F155" s="36" t="inlineStr">
         <is>
-          <t>srtS</t>
+          <t>ArVn</t>
         </is>
       </c>
       <c r="G155" s="63" t="inlineStr">
@@ -16397,7 +16416,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>MJ/km, MJ/m2/yr</t>
         </is>
       </c>
     </row>
@@ -16412,22 +16431,22 @@
       </c>
       <c r="C156" s="66" t="inlineStr">
         <is>
-          <t>3_SHA_LightWeighting_Vehicles</t>
+          <t>3_SHA_DownSizing_Vehicles</t>
         </is>
       </c>
       <c r="D156" s="41" t="inlineStr">
         <is>
-          <t>Market share of lightweight vehicle archetypes in total new registration of cars.</t>
+          <t>The values reflect the share of passenger cars versus light trucks in the new registration of cars.</t>
         </is>
       </c>
       <c r="E156" s="63" t="inlineStr">
         <is>
-          <t>V1.3</t>
+          <t>V2.3</t>
         </is>
       </c>
       <c r="F156" s="36" t="inlineStr">
         <is>
-          <t>prtS</t>
+          <t>srtS</t>
         </is>
       </c>
       <c r="G156" s="63" t="inlineStr">
@@ -16455,7 +16474,6 @@
           <t>%</t>
         </is>
       </c>
-      <c r="O156" s="47" t="n"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -16468,12 +16486,12 @@
       </c>
       <c r="C157" s="66" t="inlineStr">
         <is>
-          <t>3_SHA_DownSizing_Buildings</t>
+          <t>3_SHA_LightWeighting_Vehicles</t>
         </is>
       </c>
       <c r="D157" s="41" t="inlineStr">
         <is>
-          <t>The values reflect the share of downsized buildings in total new construction.</t>
+          <t>Market share of lightweight vehicle archetypes in total new registration of cars.</t>
         </is>
       </c>
       <c r="E157" s="63" t="inlineStr">
@@ -16483,7 +16501,7 @@
       </c>
       <c r="F157" s="36" t="inlineStr">
         <is>
-          <t>urtS</t>
+          <t>prtS</t>
         </is>
       </c>
       <c r="G157" s="63" t="inlineStr">
@@ -16511,6 +16529,7 @@
           <t>%</t>
         </is>
       </c>
+      <c r="O157" s="47" t="n"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -16521,24 +16540,24 @@
           <t>use phase</t>
         </is>
       </c>
-      <c r="C158" s="65" t="inlineStr">
-        <is>
-          <t>3_SHA_LightWeighting_Buildings</t>
+      <c r="C158" s="66" t="inlineStr">
+        <is>
+          <t>3_SHA_DownSizing_Buildings</t>
         </is>
       </c>
       <c r="D158" s="41" t="inlineStr">
         <is>
-          <t>Market share of lightweight buildings in total new construction.</t>
+          <t>The values reflect the share of downsized buildings in total new construction.</t>
         </is>
       </c>
       <c r="E158" s="63" t="inlineStr">
         <is>
-          <t>V2.2</t>
+          <t>V1.3</t>
         </is>
       </c>
       <c r="F158" s="36" t="inlineStr">
         <is>
-          <t>GrtS</t>
+          <t>urtS</t>
         </is>
       </c>
       <c r="G158" s="63" t="inlineStr">
@@ -16578,22 +16597,22 @@
       </c>
       <c r="C159" s="65" t="inlineStr">
         <is>
-          <t>3_SHA_DownSizing_NonResBuildings</t>
+          <t>3_SHA_LightWeighting_Buildings</t>
         </is>
       </c>
       <c r="D159" s="41" t="inlineStr">
         <is>
-          <t>The values reflect the share of downsized nonres buildings in total new construction.</t>
+          <t>Market share of lightweight buildings in total new construction.</t>
         </is>
       </c>
       <c r="E159" s="63" t="inlineStr">
         <is>
-          <t>V1.0</t>
+          <t>V2.2</t>
         </is>
       </c>
       <c r="F159" s="36" t="inlineStr">
         <is>
-          <t>urtS</t>
+          <t>GrtS</t>
         </is>
       </c>
       <c r="G159" s="63" t="inlineStr">
@@ -16633,12 +16652,12 @@
       </c>
       <c r="C160" s="65" t="inlineStr">
         <is>
-          <t>3_SHA_LightWeighting_NonResBuildings</t>
+          <t>3_SHA_DownSizing_NonResBuildings</t>
         </is>
       </c>
       <c r="D160" s="41" t="inlineStr">
         <is>
-          <t>Market share of lightweight nonres buildings in total new construction.</t>
+          <t>The values reflect the share of downsized nonres buildings in total new construction.</t>
         </is>
       </c>
       <c r="E160" s="63" t="inlineStr">
@@ -16648,7 +16667,7 @@
       </c>
       <c r="F160" s="36" t="inlineStr">
         <is>
-          <t>GrtS</t>
+          <t>urtS</t>
         </is>
       </c>
       <c r="G160" s="63" t="inlineStr">
@@ -16686,29 +16705,29 @@
           <t>use phase</t>
         </is>
       </c>
-      <c r="C161" s="66" t="inlineStr">
-        <is>
-          <t>6_PR_Calibration</t>
+      <c r="C161" s="65" t="inlineStr">
+        <is>
+          <t>3_SHA_LightWeighting_NonResBuildings</t>
         </is>
       </c>
       <c r="D161" s="41" t="inlineStr">
         <is>
-          <t>Calibration factors to match 2016 energy demand</t>
+          <t>Market share of lightweight nonres buildings in total new construction.</t>
         </is>
       </c>
       <c r="E161" s="63" t="inlineStr">
         <is>
-          <t>V2.4</t>
+          <t>V1.0</t>
         </is>
       </c>
       <c r="F161" s="36" t="inlineStr">
         <is>
-          <t>Cr</t>
+          <t>GrtS</t>
         </is>
       </c>
       <c r="G161" s="63" t="inlineStr">
         <is>
-          <t>[0,1]</t>
+          <t>[0,1,2,3]</t>
         </is>
       </c>
       <c r="H161" s="63" t="inlineStr">
@@ -16723,12 +16742,12 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Hist/fixed</t>
+          <t>SSP/RCP</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>ratio</t>
+          <t>%</t>
         </is>
       </c>
     </row>
@@ -16741,29 +16760,29 @@
           <t>use phase</t>
         </is>
       </c>
-      <c r="C162" s="65" t="inlineStr">
-        <is>
-          <t>6_MIP_CarSharing_Stock</t>
+      <c r="C162" s="66" t="inlineStr">
+        <is>
+          <t>6_PR_Calibration</t>
         </is>
       </c>
       <c r="D162" s="41" t="inlineStr">
         <is>
-          <t>ratio of per capita stock with vs. without carsharing</t>
+          <t>Calibration factors to match 2016 energy demand</t>
         </is>
       </c>
       <c r="E162" s="63" t="inlineStr">
         <is>
-          <t>V1.0</t>
+          <t>V2.4</t>
         </is>
       </c>
       <c r="F162" s="36" t="inlineStr">
         <is>
-          <t>Sr</t>
+          <t>Cr</t>
         </is>
       </c>
       <c r="G162" s="63" t="inlineStr">
         <is>
-          <t>[1,0]</t>
+          <t>[0,1]</t>
         </is>
       </c>
       <c r="H162" s="63" t="inlineStr">
@@ -16778,11 +16797,13 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>SSP/RCP</t>
-        </is>
-      </c>
-      <c r="K162" s="52" t="n">
-        <v>1</v>
+          <t>Hist/fixed</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>ratio</t>
+        </is>
       </c>
     </row>
     <row r="163">
@@ -16796,12 +16817,12 @@
       </c>
       <c r="C163" s="65" t="inlineStr">
         <is>
-          <t>6_MIP_RideSharing_Occupancy</t>
-        </is>
-      </c>
-      <c r="D163" s="42" t="inlineStr">
-        <is>
-          <t>ratio of vehicle occupancy rate with and without ride-sharing</t>
+          <t>6_MIP_CarSharing_Stock</t>
+        </is>
+      </c>
+      <c r="D163" s="41" t="inlineStr">
+        <is>
+          <t>ratio of per capita stock with vs. without carsharing</t>
         </is>
       </c>
       <c r="E163" s="63" t="inlineStr">
@@ -16849,12 +16870,12 @@
       </c>
       <c r="C164" s="65" t="inlineStr">
         <is>
-          <t>6_MIP_GWP_Bio</t>
+          <t>6_MIP_RideSharing_Occupancy</t>
         </is>
       </c>
       <c r="D164" s="42" t="inlineStr">
         <is>
-          <t>Global warming potential of biomass with storage and subsequent incineration, regrowth period: 60 years. Time horizon for integration: 100 years</t>
+          <t>ratio of vehicle occupancy rate with and without ride-sharing</t>
         </is>
       </c>
       <c r="E164" s="63" t="inlineStr">
@@ -16864,12 +16885,12 @@
       </c>
       <c r="F164" s="36" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>Sr</t>
         </is>
       </c>
       <c r="G164" s="63" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[1,0]</t>
         </is>
       </c>
       <c r="H164" s="63" t="inlineStr">
@@ -16884,7 +16905,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Hist/fixed</t>
+          <t>SSP/RCP</t>
         </is>
       </c>
       <c r="K164" s="52" t="n">
@@ -16897,17 +16918,17 @@
       </c>
       <c r="B165" s="50" t="inlineStr">
         <is>
-          <t>waste mgt. and remelting</t>
+          <t>use phase</t>
         </is>
       </c>
       <c r="C165" s="65" t="inlineStr">
         <is>
-          <t>4_PE_ElectricityFromWoodCombustion</t>
+          <t>6_MIP_GWP_Bio</t>
         </is>
       </c>
       <c r="D165" s="42" t="inlineStr">
         <is>
-          <t>Average electricity generated from combusting 1 kg of dry (ca. 20%) timber at end of life.</t>
+          <t>Global warming potential of biomass with storage and subsequent incineration, regrowth period: 60 years. Time horizon for integration: 100 years</t>
         </is>
       </c>
       <c r="E165" s="63" t="inlineStr">
@@ -16917,12 +16938,12 @@
       </c>
       <c r="F165" s="36" t="inlineStr">
         <is>
-          <t>wWn</t>
+          <t>c</t>
         </is>
       </c>
       <c r="G165" s="63" t="inlineStr">
         <is>
-          <t>[0,1,2]</t>
+          <t>[0]</t>
         </is>
       </c>
       <c r="H165" s="63" t="inlineStr">
@@ -16940,10 +16961,8 @@
           <t>Hist/fixed</t>
         </is>
       </c>
-      <c r="K165" s="52" t="inlineStr">
-        <is>
-          <t>GJ/ton</t>
-        </is>
+      <c r="K165" s="52" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -16952,17 +16971,17 @@
       </c>
       <c r="B166" s="50" t="inlineStr">
         <is>
-          <t>mining &amp; forestry</t>
+          <t>waste mgt. and remelting</t>
         </is>
       </c>
       <c r="C166" s="65" t="inlineStr">
         <is>
-          <t>3_LT_ForestRotationPeriod_FuelWood</t>
+          <t>4_PE_ElectricityFromWoodCombustion</t>
         </is>
       </c>
       <c r="D166" s="42" t="inlineStr">
         <is>
-          <t>Average Forest rotation period for fuel wood</t>
+          <t>Average electricity generated from combusting 1 kg of dry (ca. 20%) timber at end of life.</t>
         </is>
       </c>
       <c r="E166" s="63" t="inlineStr">
@@ -16972,12 +16991,12 @@
       </c>
       <c r="F166" s="36" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>wWn</t>
         </is>
       </c>
       <c r="G166" s="63" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[0,1,2]</t>
         </is>
       </c>
       <c r="H166" s="63" t="inlineStr">
@@ -16992,12 +17011,12 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Assumption, fixed</t>
+          <t>Hist/fixed</t>
         </is>
       </c>
       <c r="K166" s="52" t="inlineStr">
         <is>
-          <t>yr</t>
+          <t>GJ/ton</t>
         </is>
       </c>
     </row>
@@ -17012,12 +17031,12 @@
       </c>
       <c r="C167" s="65" t="inlineStr">
         <is>
-          <t>3_LT_ForestRotationPeriod_Timber</t>
+          <t>3_LT_ForestRotationPeriod_FuelWood</t>
         </is>
       </c>
       <c r="D167" s="42" t="inlineStr">
         <is>
-          <t>Average Forest rotation period for timber</t>
+          <t>Average Forest rotation period for fuel wood</t>
         </is>
       </c>
       <c r="E167" s="63" t="inlineStr">
@@ -17027,7 +17046,7 @@
       </c>
       <c r="F167" s="36" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>n</t>
         </is>
       </c>
       <c r="G167" s="63" t="inlineStr">
@@ -17062,17 +17081,17 @@
       </c>
       <c r="B168" s="50" t="inlineStr">
         <is>
-          <t>waste mgt. and remelting</t>
+          <t>mining &amp; forestry</t>
         </is>
       </c>
       <c r="C168" s="65" t="inlineStr">
         <is>
-          <t>3_MC_CO2FromWoodCombustion</t>
+          <t>3_LT_ForestRotationPeriod_Timber</t>
         </is>
       </c>
       <c r="D168" s="42" t="inlineStr">
         <is>
-          <t>Average CO2 emitted from burning/Combusting 1 kg of dry (ca. 20%) timber at end of life.</t>
+          <t>Average Forest rotation period for timber</t>
         </is>
       </c>
       <c r="E168" s="63" t="inlineStr">
@@ -17082,12 +17101,12 @@
       </c>
       <c r="F168" s="36" t="inlineStr">
         <is>
-          <t>Xm</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G168" s="63" t="inlineStr">
         <is>
-          <t>[0,1]</t>
+          <t>[0]</t>
         </is>
       </c>
       <c r="H168" s="63" t="inlineStr">
@@ -17102,11 +17121,13 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Hist/fixed</t>
-        </is>
-      </c>
-      <c r="K168" s="52" t="n">
-        <v>1</v>
+          <t>Assumption, fixed</t>
+        </is>
+      </c>
+      <c r="K168" s="52" t="inlineStr">
+        <is>
+          <t>yr</t>
+        </is>
       </c>
     </row>
     <row r="169">
@@ -17115,17 +17136,17 @@
       </c>
       <c r="B169" s="50" t="inlineStr">
         <is>
-          <t>energy supply</t>
+          <t>waste mgt. and remelting</t>
         </is>
       </c>
       <c r="C169" s="65" t="inlineStr">
         <is>
-          <t>3_EI_HeatingValueWoodPerCarbon</t>
+          <t>3_MC_CO2FromWoodCombustion</t>
         </is>
       </c>
       <c r="D169" s="42" t="inlineStr">
         <is>
-          <t>Average heat gained per mass of wood, expressed in lower heating value per kg of Carbon in wood.</t>
+          <t>Average CO2 emitted from burning/Combusting 1 kg of dry (ca. 20%) timber at end of life.</t>
         </is>
       </c>
       <c r="E169" s="63" t="inlineStr">
@@ -17135,7 +17156,7 @@
       </c>
       <c r="F169" s="36" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>Xm</t>
         </is>
       </c>
       <c r="G169" s="63" t="inlineStr">
@@ -17158,10 +17179,8 @@
           <t>Hist/fixed</t>
         </is>
       </c>
-      <c r="K169" s="52" t="inlineStr">
-        <is>
-          <t>MJ/kg</t>
-        </is>
+      <c r="K169" s="52" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -17170,17 +17189,17 @@
       </c>
       <c r="B170" s="50" t="inlineStr">
         <is>
-          <t>manufacturing</t>
+          <t>energy supply</t>
         </is>
       </c>
       <c r="C170" s="65" t="inlineStr">
         <is>
-          <t>3_MC_CementContentConcrete</t>
+          <t>3_EI_HeatingValueWoodPerCarbon</t>
         </is>
       </c>
       <c r="D170" s="42" t="inlineStr">
         <is>
-          <t>Average Cement content of concrete</t>
+          <t>Average heat gained per mass of wood, expressed in lower heating value per kg of Carbon in wood.</t>
         </is>
       </c>
       <c r="E170" s="63" t="inlineStr">
@@ -17190,7 +17209,7 @@
       </c>
       <c r="F170" s="36" t="inlineStr">
         <is>
-          <t>mm</t>
+          <t>en</t>
         </is>
       </c>
       <c r="G170" s="63" t="inlineStr">
@@ -17213,8 +17232,10 @@
           <t>Hist/fixed</t>
         </is>
       </c>
-      <c r="K170" s="52" t="n">
-        <v>1</v>
+      <c r="K170" s="52" t="inlineStr">
+        <is>
+          <t>MJ/kg</t>
+        </is>
       </c>
     </row>
     <row r="171">
@@ -17228,12 +17249,12 @@
       </c>
       <c r="C171" s="65" t="inlineStr">
         <is>
-          <t>3_SHA_CementContentReduction</t>
+          <t>3_MC_CementContentConcrete</t>
         </is>
       </c>
       <c r="D171" s="42" t="inlineStr">
         <is>
-          <t>Share of cement in concrete that can be reduced or replaced by other materials</t>
+          <t>Average Cement content of concrete</t>
         </is>
       </c>
       <c r="E171" s="63" t="inlineStr">
@@ -17243,12 +17264,12 @@
       </c>
       <c r="F171" s="36" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mm</t>
         </is>
       </c>
       <c r="G171" s="63" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[0,1]</t>
         </is>
       </c>
       <c r="H171" s="63" t="inlineStr">
@@ -17276,32 +17297,32 @@
       </c>
       <c r="B172" s="50" t="inlineStr">
         <is>
-          <t>use phase</t>
+          <t>manufacturing</t>
         </is>
       </c>
       <c r="C172" s="65" t="inlineStr">
         <is>
-          <t>3_SHA_MaxRenovationPotential_ResBuildings</t>
+          <t>3_SHA_CementContentReduction</t>
         </is>
       </c>
       <c r="D172" s="42" t="inlineStr">
         <is>
-          <t>Share of 2015 stock of resbuildings that can be renovated</t>
+          <t>Share of cement in concrete that can be reduced or replaced by other materials</t>
         </is>
       </c>
       <c r="E172" s="63" t="inlineStr">
         <is>
-          <t>V1.1</t>
+          <t>V1.0</t>
         </is>
       </c>
       <c r="F172" s="36" t="inlineStr">
         <is>
-          <t>rcB</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G172" s="63" t="inlineStr">
         <is>
-          <t>[0,1,2]</t>
+          <t>[0]</t>
         </is>
       </c>
       <c r="H172" s="63" t="inlineStr">
@@ -17316,13 +17337,11 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>SSP/RCP</t>
-        </is>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
+          <t>Hist/fixed</t>
+        </is>
+      </c>
+      <c r="K172" s="52" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -17336,22 +17355,22 @@
       </c>
       <c r="C173" s="65" t="inlineStr">
         <is>
-          <t>3_SHA_MaxRenovationPotential_NonResBuildings</t>
+          <t>3_SHA_MaxRenovationPotential_ResBuildings</t>
         </is>
       </c>
       <c r="D173" s="42" t="inlineStr">
         <is>
-          <t>Share of 2015 stock of nonresbuildings that can be renovated</t>
+          <t>Share of 2015 stock of resbuildings that can be renovated</t>
         </is>
       </c>
       <c r="E173" s="63" t="inlineStr">
         <is>
-          <t>V1.0</t>
+          <t>V1.1</t>
         </is>
       </c>
       <c r="F173" s="36" t="inlineStr">
         <is>
-          <t>rcN</t>
+          <t>rcB</t>
         </is>
       </c>
       <c r="G173" s="63" t="inlineStr">
@@ -17391,22 +17410,22 @@
       </c>
       <c r="C174" s="65" t="inlineStr">
         <is>
-          <t>3_SHA_EnergySavingsPot_Renovation_ResBuildings</t>
+          <t>3_SHA_MaxRenovationPotential_NonResBuildings</t>
         </is>
       </c>
       <c r="D174" s="42" t="inlineStr">
         <is>
-          <t>Reduction in specific energy consumption of resbuildings, in %.</t>
+          <t>Share of 2015 stock of nonresbuildings that can be renovated</t>
         </is>
       </c>
       <c r="E174" s="63" t="inlineStr">
         <is>
-          <t>V1.1</t>
+          <t>V1.0</t>
         </is>
       </c>
       <c r="F174" s="36" t="inlineStr">
         <is>
-          <t>rSB</t>
+          <t>rcN</t>
         </is>
       </c>
       <c r="G174" s="63" t="inlineStr">
@@ -17446,22 +17465,22 @@
       </c>
       <c r="C175" s="65" t="inlineStr">
         <is>
-          <t>3_SHA_EnergySavingsPot_Renovation_NonResBuildings</t>
-        </is>
-      </c>
-      <c r="D175" s="63" t="inlineStr">
-        <is>
-          <t>Reduction in specific energy consumption of nonresbuildings, in %.</t>
+          <t>3_SHA_EnergySavingsPot_Renovation_ResBuildings</t>
+        </is>
+      </c>
+      <c r="D175" s="42" t="inlineStr">
+        <is>
+          <t>Reduction in specific energy consumption of resbuildings, in %.</t>
         </is>
       </c>
       <c r="E175" s="63" t="inlineStr">
         <is>
-          <t>V1.0</t>
+          <t>V1.1</t>
         </is>
       </c>
       <c r="F175" s="36" t="inlineStr">
         <is>
-          <t>rSN</t>
+          <t>rSB</t>
         </is>
       </c>
       <c r="G175" s="63" t="inlineStr">
@@ -17496,17 +17515,17 @@
       </c>
       <c r="B176" s="50" t="inlineStr">
         <is>
-          <t>system</t>
+          <t>use phase</t>
         </is>
       </c>
       <c r="C176" s="65" t="inlineStr">
         <is>
-          <t>6_MIP_CharacterisationFactors</t>
+          <t>3_SHA_EnergySavingsPot_Renovation_NonResBuildings</t>
         </is>
       </c>
       <c r="D176" s="63" t="inlineStr">
         <is>
-          <t>Characteristation factors to link emissions/pressures to environmental and social midpoint indicators.</t>
+          <t>Reduction in specific energy consumption of nonresbuildings, in %.</t>
         </is>
       </c>
       <c r="E176" s="63" t="inlineStr">
@@ -17516,12 +17535,12 @@
       </c>
       <c r="F176" s="36" t="inlineStr">
         <is>
-          <t>xX</t>
+          <t>rSN</t>
         </is>
       </c>
       <c r="G176" s="63" t="inlineStr">
         <is>
-          <t>[0,1]</t>
+          <t>[0,1,2]</t>
         </is>
       </c>
       <c r="H176" s="63" t="inlineStr">
@@ -17536,12 +17555,12 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Hist/fixed</t>
+          <t>SSP/RCP</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>mics. Units</t>
+          <t>%</t>
         </is>
       </c>
     </row>
@@ -17551,150 +17570,185 @@
       </c>
       <c r="B177" s="50" t="inlineStr">
         <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="C177" s="65" t="inlineStr">
+        <is>
+          <t>6_MIP_CharacterisationFactors</t>
+        </is>
+      </c>
+      <c r="D177" s="63" t="inlineStr">
+        <is>
+          <t>Characteristation factors to link emissions/pressures to environmental and social midpoint indicators.</t>
+        </is>
+      </c>
+      <c r="E177" s="63" t="inlineStr">
+        <is>
+          <t>V1.0</t>
+        </is>
+      </c>
+      <c r="F177" s="36" t="inlineStr">
+        <is>
+          <t>xX</t>
+        </is>
+      </c>
+      <c r="G177" s="63" t="inlineStr">
+        <is>
+          <t>[0,1]</t>
+        </is>
+      </c>
+      <c r="H177" s="63" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I177" s="29" t="inlineStr">
+        <is>
+          <t>90394658-cf86-4c5e-8fa6-1b19bb540063</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>Hist/fixed</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>mics. Units</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>102</v>
+      </c>
+      <c r="B178" s="50" t="inlineStr">
+        <is>
           <t>use phase</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="C178" t="inlineStr">
         <is>
           <t>8_FLAG_VehicleDownsizingDirection</t>
         </is>
       </c>
-      <c r="D177" s="63" t="inlineStr">
+      <c r="D178" s="63" t="inlineStr">
         <is>
           <t>Flag (Bool) that indicates the direction of vehicle downsizing (segment shift) in the parameter 3_SHA_DownSizing_Vehicles</t>
         </is>
       </c>
-      <c r="E177" s="63" t="inlineStr">
+      <c r="E178" s="63" t="inlineStr">
         <is>
           <t>V1.0</t>
         </is>
       </c>
-      <c r="F177" s="36" t="inlineStr">
+      <c r="F178" s="36" t="inlineStr">
         <is>
           <t>rS</t>
         </is>
       </c>
-      <c r="G177" s="63" t="inlineStr">
+      <c r="G178" s="63" t="inlineStr">
         <is>
           <t>[0,1]</t>
         </is>
       </c>
-      <c r="H177" s="63" t="inlineStr">
-        <is>
-          <t>[0]</t>
-        </is>
-      </c>
-      <c r="I177" s="29" t="inlineStr">
-        <is>
-          <t>90394658-cf86-4c5e-8fa6-1b19bb540063</t>
-        </is>
-      </c>
-      <c r="J177" t="inlineStr">
+      <c r="H178" s="63" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I178" s="29" t="inlineStr">
+        <is>
+          <t>6832c162-6b26-4ad8-8e9d-3bf47bf34c9f</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
         <is>
           <t>SSP/RCP</t>
         </is>
       </c>
-      <c r="K177" t="inlineStr">
+      <c r="K178" t="inlineStr">
         <is>
           <t>Bool</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.6" r="178" s="69">
-      <c r="I178" s="29" t="inlineStr">
-        <is>
-          <t>6832c162-6b26-4ad8-8e9d-3bf47bf34c9f</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.6" r="179" s="69">
-      <c r="B179" s="12" t="inlineStr">
+    <row customHeight="1" ht="15.6" r="179" s="69"/>
+    <row customHeight="1" ht="15.6" r="180" s="69">
+      <c r="B180" s="12" t="inlineStr">
         <is>
           <t>Model flow control</t>
         </is>
       </c>
-      <c r="C179" s="13" t="n"/>
-      <c r="D179" s="13" t="n"/>
-      <c r="E179" s="13" t="n"/>
-      <c r="F179" s="13" t="n"/>
-      <c r="G179" s="13" t="n"/>
-      <c r="H179" s="14" t="n"/>
-      <c r="K179" s="48" t="n"/>
-      <c r="N179" s="48" t="n"/>
-    </row>
-    <row r="180">
-      <c r="C180" s="70" t="inlineStr">
+      <c r="C180" s="13" t="n"/>
+      <c r="D180" s="13" t="n"/>
+      <c r="E180" s="13" t="n"/>
+      <c r="F180" s="13" t="n"/>
+      <c r="G180" s="13" t="n"/>
+      <c r="H180" s="14" t="n"/>
+      <c r="K180" s="48" t="n"/>
+      <c r="N180" s="48" t="n"/>
+    </row>
+    <row r="181">
+      <c r="C181" s="70" t="inlineStr">
         <is>
           <t>Specify how model should run: which calculation blocks to perform, which solvers to use, etc.</t>
         </is>
       </c>
-      <c r="E180" s="70" t="inlineStr">
+      <c r="E181" s="70" t="inlineStr">
         <is>
           <t>Comment</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="C181" s="30" t="inlineStr">
-        <is>
-          <t>Logging_Verbosity</t>
-        </is>
-      </c>
-      <c r="D181" s="63" t="inlineStr">
-        <is>
-          <t>DEBUG</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t># Specify at which level of detail the comments, warnings, and error produced by the models are recorded.</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="C182" s="30" t="inlineStr">
         <is>
-          <t>Include_REStrategy_FabYieldImprovement</t>
+          <t>Logging_Verbosity</t>
         </is>
       </c>
       <c r="D182" s="63" t="inlineStr">
         <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="I182" s="56" t="n"/>
+          <t>DEBUG</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t># Specify at which level of detail the comments, warnings, and error produced by the models are recorded.</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="C183" s="30" t="inlineStr">
         <is>
+          <t>Include_REStrategy_FabYieldImprovement</t>
+        </is>
+      </c>
+      <c r="D183" s="63" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I183" s="56" t="n"/>
+    </row>
+    <row r="184">
+      <c r="C184" s="30" t="inlineStr">
+        <is>
           <t>Include_REStrategy_FabScrapDiversion</t>
         </is>
       </c>
-      <c r="D183" s="63" t="inlineStr">
+      <c r="D184" s="63" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="I183" s="56" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.6" r="184" s="69">
-      <c r="C184" s="30" t="inlineStr">
-        <is>
-          <t>Include_REStrategy_EoL_RR_Improvement</t>
-        </is>
-      </c>
-      <c r="D184" s="63" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E184" s="52" t="n"/>
-      <c r="J184" s="49" t="n"/>
+      <c r="I184" s="56" t="n"/>
     </row>
     <row customHeight="1" ht="15.6" r="185" s="69">
       <c r="C185" s="30" t="inlineStr">
         <is>
-          <t>ScrapExport</t>
+          <t>Include_REStrategy_EoL_RR_Improvement</t>
         </is>
       </c>
       <c r="D185" s="63" t="inlineStr">
@@ -17702,17 +17756,13 @@
           <t>True</t>
         </is>
       </c>
-      <c r="E185" s="52" t="inlineStr">
-        <is>
-          <t>Set true if excess scrap can be exported to other sectors.</t>
-        </is>
-      </c>
+      <c r="E185" s="52" t="n"/>
       <c r="J185" s="49" t="n"/>
     </row>
     <row customHeight="1" ht="15.6" r="186" s="69">
       <c r="C186" s="30" t="inlineStr">
         <is>
-          <t>ScrapExportRecyclingCredit</t>
+          <t>ScrapExport</t>
         </is>
       </c>
       <c r="D186" s="63" t="inlineStr">
@@ -17722,7 +17772,7 @@
       </c>
       <c r="E186" s="52" t="inlineStr">
         <is>
-          <t>True if an emissions credit for avoided primary production is to be given.</t>
+          <t>Set true if excess scrap can be exported to other sectors.</t>
         </is>
       </c>
       <c r="J186" s="49" t="n"/>
@@ -17730,43 +17780,48 @@
     <row customHeight="1" ht="15.6" r="187" s="69">
       <c r="C187" s="30" t="inlineStr">
         <is>
+          <t>ScrapExportRecyclingCredit</t>
+        </is>
+      </c>
+      <c r="D187" s="63" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E187" s="52" t="inlineStr">
+        <is>
+          <t>True if an emissions credit for avoided primary production is to be given.</t>
+        </is>
+      </c>
+      <c r="J187" s="49" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.6" r="188" s="69">
+      <c r="C188" s="30" t="inlineStr">
+        <is>
           <t>IncludeRecycling</t>
         </is>
       </c>
-      <c r="D187" s="63" t="inlineStr">
+      <c r="D188" s="63" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="E187" s="52" t="inlineStr">
+      <c r="E188" s="52" t="inlineStr">
         <is>
           <t>Set to False only if a scenario without any recycling is to be considered (as counterfactual scenario)</t>
         </is>
       </c>
-      <c r="J187" s="49" t="n"/>
-    </row>
-    <row r="188">
-      <c r="C188" s="30" t="inlineStr">
-        <is>
-          <t>Include_REStrategy_MaterialSubstitution</t>
-        </is>
-      </c>
-      <c r="D188" s="63" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J188" s="50" t="n"/>
+      <c r="J188" s="49" t="n"/>
     </row>
     <row r="189">
       <c r="C189" s="30" t="inlineStr">
         <is>
-          <t>Include_REStrategy_UsingLessMaterialByDesign</t>
+          <t>Include_REStrategy_MaterialSubstitution</t>
         </is>
       </c>
       <c r="D189" s="63" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J189" s="50" t="n"/>
@@ -17774,7 +17829,7 @@
     <row r="190">
       <c r="C190" s="30" t="inlineStr">
         <is>
-          <t>Include_REStrategy_ReUse</t>
+          <t>Include_REStrategy_UsingLessMaterialByDesign</t>
         </is>
       </c>
       <c r="D190" s="63" t="inlineStr">
@@ -17782,13 +17837,12 @@
           <t>True</t>
         </is>
       </c>
-      <c r="E190" s="52" t="n"/>
       <c r="J190" s="50" t="n"/>
     </row>
     <row r="191">
       <c r="C191" s="30" t="inlineStr">
         <is>
-          <t>Include_REStrategy_LifeTimeExtension</t>
+          <t>Include_REStrategy_ReUse</t>
         </is>
       </c>
       <c r="D191" s="63" t="inlineStr">
@@ -17800,19 +17854,14 @@
       <c r="J191" s="50" t="n"/>
     </row>
     <row r="192">
-      <c r="B192" s="50" t="inlineStr">
-        <is>
-          <t>Buildings only:</t>
-        </is>
-      </c>
       <c r="C192" s="30" t="inlineStr">
         <is>
-          <t>Include_REStrategy_MoreIntenseUse</t>
+          <t>Include_REStrategy_LifeTimeExtension</t>
         </is>
       </c>
       <c r="D192" s="63" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E192" s="52" t="n"/>
@@ -17821,12 +17870,12 @@
     <row r="193">
       <c r="B193" s="50" t="inlineStr">
         <is>
-          <t>Vehicles only:</t>
+          <t>Buildings only:</t>
         </is>
       </c>
       <c r="C193" s="30" t="inlineStr">
         <is>
-          <t>Include_REStrategy_CarSharing</t>
+          <t>Include_REStrategy_MoreIntenseUse</t>
         </is>
       </c>
       <c r="D193" s="63" t="inlineStr">
@@ -17845,12 +17894,12 @@
       </c>
       <c r="C194" s="30" t="inlineStr">
         <is>
-          <t>Include_REStrategy_RideSharing</t>
+          <t>Include_REStrategy_CarSharing</t>
         </is>
       </c>
       <c r="D194" s="63" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E194" s="52" t="n"/>
@@ -17864,56 +17913,52 @@
       </c>
       <c r="C195" s="30" t="inlineStr">
         <is>
-          <t>Include_REStrategy_ModalSplit</t>
+          <t>Include_REStrategy_RideSharing</t>
         </is>
       </c>
       <c r="D195" s="63" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E195" s="52" t="n"/>
+      <c r="J195" s="50" t="n"/>
     </row>
     <row r="196">
       <c r="B196" s="50" t="inlineStr">
         <is>
+          <t>Vehicles only:</t>
+        </is>
+      </c>
+      <c r="C196" s="30" t="inlineStr">
+        <is>
+          <t>Include_REStrategy_ModalSplit</t>
+        </is>
+      </c>
+      <c r="D196" s="63" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E196" s="52" t="n"/>
+    </row>
+    <row r="197">
+      <c r="B197" s="50" t="inlineStr">
+        <is>
           <t>Select which sectors are included:</t>
         </is>
       </c>
-      <c r="C196" s="30" t="inlineStr">
+      <c r="C197" s="30" t="inlineStr">
         <is>
           <t>SectorSelect</t>
         </is>
       </c>
-      <c r="D196" s="42" t="inlineStr">
-        <is>
-          <t>['pav','reb']</t>
-        </is>
-      </c>
-      <c r="E196" s="52" t="n"/>
-      <c r="F196" s="52" t="n"/>
-      <c r="G196" s="52" t="n"/>
-      <c r="H196" s="52" t="n"/>
-      <c r="I196" s="52" t="n"/>
-      <c r="J196" s="50" t="n"/>
-    </row>
-    <row r="197">
-      <c r="B197" s="50" t="n"/>
-      <c r="C197" s="30" t="inlineStr">
-        <is>
-          <t>Include_Renovation_reb</t>
-        </is>
-      </c>
       <c r="D197" s="42" t="inlineStr">
         <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E197" s="52" t="inlineStr">
-        <is>
-          <t>Renovation of residential buildings included</t>
-        </is>
-      </c>
+          <t>['pav']</t>
+        </is>
+      </c>
+      <c r="E197" s="52" t="n"/>
       <c r="F197" s="52" t="n"/>
       <c r="G197" s="52" t="n"/>
       <c r="H197" s="52" t="n"/>
@@ -17924,7 +17969,7 @@
       <c r="B198" s="50" t="n"/>
       <c r="C198" s="30" t="inlineStr">
         <is>
-          <t>Include_Renovation_nrb</t>
+          <t>Include_Renovation_reb</t>
         </is>
       </c>
       <c r="D198" s="42" t="inlineStr">
@@ -17934,7 +17979,7 @@
       </c>
       <c r="E198" s="52" t="inlineStr">
         <is>
-          <t>Renovation of nonresidential buildings included</t>
+          <t>Renovation of residential buildings included</t>
         </is>
       </c>
       <c r="F198" s="52" t="n"/>
@@ -17947,15 +17992,19 @@
       <c r="B199" s="50" t="n"/>
       <c r="C199" s="30" t="inlineStr">
         <is>
-          <t>No_EE_Improvements</t>
+          <t>Include_Renovation_nrb</t>
         </is>
       </c>
       <c r="D199" s="42" t="inlineStr">
         <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="E199" s="52" t="n"/>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E199" s="52" t="inlineStr">
+        <is>
+          <t>Renovation of nonresidential buildings included</t>
+        </is>
+      </c>
       <c r="F199" s="52" t="n"/>
       <c r="G199" s="52" t="n"/>
       <c r="H199" s="52" t="n"/>
@@ -17966,7 +18015,7 @@
       <c r="B200" s="50" t="n"/>
       <c r="C200" s="30" t="inlineStr">
         <is>
-          <t>Reserved3</t>
+          <t>No_EE_Improvements</t>
         </is>
       </c>
       <c r="D200" s="42" t="inlineStr">
@@ -17985,7 +18034,7 @@
       <c r="B201" s="50" t="n"/>
       <c r="C201" s="30" t="inlineStr">
         <is>
-          <t>Reserved4</t>
+          <t>Reserved3</t>
         </is>
       </c>
       <c r="D201" s="42" t="inlineStr">
@@ -17994,6 +18043,7 @@
         </is>
       </c>
       <c r="E201" s="52" t="n"/>
+      <c r="F201" s="52" t="n"/>
       <c r="G201" s="52" t="n"/>
       <c r="H201" s="52" t="n"/>
       <c r="I201" s="52" t="n"/>
@@ -18003,7 +18053,7 @@
       <c r="B202" s="50" t="n"/>
       <c r="C202" s="30" t="inlineStr">
         <is>
-          <t>Reserved5</t>
+          <t>Reserved4</t>
         </is>
       </c>
       <c r="D202" s="42" t="inlineStr">
@@ -18022,7 +18072,7 @@
       <c r="B203" s="50" t="n"/>
       <c r="C203" s="30" t="inlineStr">
         <is>
-          <t>Reserved6</t>
+          <t>Reserved5</t>
         </is>
       </c>
       <c r="D203" s="42" t="inlineStr">
@@ -18037,42 +18087,49 @@
       <c r="I203" s="52" t="n"/>
       <c r="J203" s="50" t="n"/>
     </row>
-    <row r="205">
-      <c r="B205" s="12" t="inlineStr">
+    <row r="204">
+      <c r="B204" s="50" t="n"/>
+      <c r="C204" s="30" t="inlineStr">
+        <is>
+          <t>Reserved6</t>
+        </is>
+      </c>
+      <c r="D204" s="42" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E204" s="52" t="n"/>
+      <c r="F204" s="52" t="n"/>
+      <c r="G204" s="52" t="n"/>
+      <c r="H204" s="52" t="n"/>
+      <c r="I204" s="52" t="n"/>
+      <c r="J204" s="50" t="n"/>
+    </row>
+    <row r="206">
+      <c r="B206" s="12" t="inlineStr">
         <is>
           <t>Model output control</t>
         </is>
       </c>
-      <c r="C205" s="13" t="n"/>
-      <c r="D205" s="13" t="n"/>
-      <c r="E205" s="13" t="n"/>
-      <c r="F205" s="13" t="n"/>
-      <c r="G205" s="13" t="n"/>
-      <c r="H205" s="14" t="n"/>
-    </row>
-    <row r="206">
-      <c r="C206" s="70" t="inlineStr">
+      <c r="C206" s="13" t="n"/>
+      <c r="D206" s="13" t="n"/>
+      <c r="E206" s="13" t="n"/>
+      <c r="F206" s="13" t="n"/>
+      <c r="G206" s="13" t="n"/>
+      <c r="H206" s="14" t="n"/>
+    </row>
+    <row r="207">
+      <c r="C207" s="70" t="inlineStr">
         <is>
           <t>Control how model output is archived and which figures are created.</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="C207" s="63" t="inlineStr">
-        <is>
-          <t>PlotStocks</t>
-        </is>
-      </c>
-      <c r="D207" s="61" t="inlineStr">
-        <is>
-          <t>True</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="C208" s="63" t="inlineStr">
         <is>
-          <t>PlotMaterialDemand</t>
+          <t>PlotStocks</t>
         </is>
       </c>
       <c r="D208" s="61" t="inlineStr">
@@ -18084,7 +18141,7 @@
     <row r="209">
       <c r="C209" s="63" t="inlineStr">
         <is>
-          <t>PlotTotalGHGEmissions</t>
+          <t>PlotMaterialDemand</t>
         </is>
       </c>
       <c r="D209" s="61" t="inlineStr">
@@ -18096,19 +18153,19 @@
     <row r="210">
       <c r="C210" s="63" t="inlineStr">
         <is>
-          <t>UseGivenPlotBoundaries</t>
+          <t>PlotTotalGHGEmissions</t>
         </is>
       </c>
       <c r="D210" s="61" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="C211" s="63" t="inlineStr">
         <is>
-          <t>Reserved1</t>
+          <t>UseGivenPlotBoundaries</t>
         </is>
       </c>
       <c r="D211" s="61" t="inlineStr">
@@ -18120,59 +18177,61 @@
     <row r="212">
       <c r="C212" s="63" t="inlineStr">
         <is>
+          <t>Reserved1</t>
+        </is>
+      </c>
+      <c r="D212" s="61" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="C213" s="63" t="inlineStr">
+        <is>
           <t>Reserved2</t>
         </is>
       </c>
-      <c r="D212" s="61" t="inlineStr">
+      <c r="D213" s="61" t="inlineStr">
         <is>
           <t>False</t>
         </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="C213" s="42" t="inlineStr">
-        <is>
-          <t>Plot1Max</t>
-        </is>
-      </c>
-      <c r="D213" s="43" t="n">
-        <v>1500</v>
       </c>
     </row>
     <row r="214">
       <c r="C214" s="42" t="inlineStr">
         <is>
-          <t>Plot2Max</t>
+          <t>Plot1Max</t>
         </is>
       </c>
       <c r="D214" s="43" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="215">
       <c r="C215" s="42" t="inlineStr">
         <is>
-          <t>Plot3Max</t>
+          <t>Plot2Max</t>
         </is>
       </c>
       <c r="D215" s="43" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
     </row>
     <row r="216">
       <c r="C216" s="42" t="inlineStr">
         <is>
-          <t>Plot4Max</t>
+          <t>Plot3Max</t>
         </is>
       </c>
       <c r="D216" s="43" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="217">
       <c r="C217" s="42" t="inlineStr">
         <is>
-          <t>Plot5Max</t>
+          <t>Plot4Max</t>
         </is>
       </c>
       <c r="D217" s="43" t="n">
@@ -18182,25 +18241,35 @@
     <row r="218">
       <c r="C218" s="42" t="inlineStr">
         <is>
-          <t>Plot6Max</t>
+          <t>Plot5Max</t>
         </is>
       </c>
       <c r="D218" s="43" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="220">
-      <c r="B220" s="12" t="inlineStr">
+    <row r="219">
+      <c r="C219" s="42" t="inlineStr">
+        <is>
+          <t>Plot6Max</t>
+        </is>
+      </c>
+      <c r="D219" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="B221" s="12" t="inlineStr">
         <is>
           <t>End of file</t>
         </is>
       </c>
-      <c r="C220" s="13" t="n"/>
-      <c r="D220" s="13" t="n"/>
-      <c r="E220" s="13" t="n"/>
-      <c r="F220" s="13" t="n"/>
-      <c r="G220" s="13" t="n"/>
-      <c r="H220" s="14" t="n"/>
+      <c r="C221" s="13" t="n"/>
+      <c r="D221" s="13" t="n"/>
+      <c r="E221" s="13" t="n"/>
+      <c r="F221" s="13" t="n"/>
+      <c r="G221" s="13" t="n"/>
+      <c r="H221" s="14" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.787401575" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.787401575"/>
@@ -18213,17 +18282,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:Q220"/>
+  <dimension ref="A2:Q221"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView topLeftCell="A115" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="E126" sqref="E126:I126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="69" width="10.6640625"/>
     <col customWidth="1" max="2" min="2" style="69" width="36.33203125"/>
-    <col customWidth="1" max="3" min="3" style="69" width="42.9296875"/>
+    <col customWidth="1" max="3" min="3" style="69" width="53.3984375"/>
     <col customWidth="1" max="4" min="4" style="69" width="39.6640625"/>
     <col customWidth="1" max="5" min="5" style="69" width="25.6640625"/>
     <col customWidth="1" max="6" min="6" style="69" width="21.6640625"/>
@@ -18234,10 +18303,9 @@
     <col customWidth="1" max="11" min="11" style="69" width="17.73046875"/>
     <col customWidth="1" max="12" min="12" style="69" width="15.53125"/>
     <col customWidth="1" max="13" min="13" style="69" width="39.86328125"/>
-    <col customWidth="1" max="14" min="14" style="69" width="46.46484375"/>
-    <col customWidth="1" max="15" min="15" style="69" width="22"/>
-    <col customWidth="1" max="83" min="16" style="69" width="10.6640625"/>
-    <col customWidth="1" max="16384" min="84" style="69" width="10.6640625"/>
+    <col customWidth="1" max="14" min="14" style="69" width="90"/>
+    <col customWidth="1" max="88" min="15" style="69" width="10.6640625"/>
+    <col customWidth="1" max="16384" min="89" style="69" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -18277,7 +18345,7 @@
       </c>
       <c r="D4" s="61" t="inlineStr">
         <is>
-          <t>RECC_Germany</t>
+          <t>RECC_Global</t>
         </is>
       </c>
     </row>
@@ -18289,7 +18357,7 @@
       </c>
       <c r="D5" s="61" t="inlineStr">
         <is>
-          <t>Evaluate six RE strategies for Germany</t>
+          <t>Evaluate six RE strategies for 20 world regions</t>
         </is>
       </c>
     </row>
@@ -18313,7 +18381,7 @@
       </c>
       <c r="D7" s="63" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Global</t>
         </is>
       </c>
     </row>
@@ -18625,7 +18693,7 @@
       </c>
       <c r="G21" s="63" t="inlineStr">
         <is>
-          <t>[33]</t>
+          <t>[2,13,31,32,33,34,35,36,37,38,39,9,4,12,40,41,42,43,44,45]</t>
         </is>
       </c>
       <c r="H21" s="33" t="inlineStr">
@@ -18846,10 +18914,9 @@
           <t>Manufacturing_i3</t>
         </is>
       </c>
-      <c r="G27" s="63" t="inlineStr">
-        <is>
-          <t>[0,1,2,3,4,5,22,23,24,25,26,27,28,29,30,31,32,33,34]</t>
-        </is>
+      <c r="G27" s="63">
+        <f>G29</f>
+        <v/>
       </c>
       <c r="H27" s="33" t="inlineStr">
         <is>
@@ -18885,7 +18952,7 @@
       </c>
       <c r="G28" s="63" t="inlineStr">
         <is>
-          <t>[0,2]</t>
+          <t>[0,2,4,6,7]</t>
         </is>
       </c>
       <c r="H28" s="33" t="inlineStr">
@@ -18922,7 +18989,7 @@
       </c>
       <c r="G29" s="63" t="inlineStr">
         <is>
-          <t>[0,1,2,3,4,5,22,23,24,25,26,27,28,29,30,31,32,33,34]</t>
+          <t>[0,1,2,3,4,5,22,23,24,25,26,27,28,29,30,31,32,33,34,59,60,61,62,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93,94,95,96,97,98,99,100,101,102,103,104,105]</t>
         </is>
       </c>
       <c r="H29" s="33" t="inlineStr">
@@ -19625,7 +19692,7 @@
       </c>
       <c r="G48" s="63" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>[0:19)</t>
         </is>
       </c>
       <c r="H48" s="33" t="inlineStr">
@@ -20452,7 +20519,7 @@
       </c>
       <c r="I81" s="29" t="inlineStr">
         <is>
-          <t>2a33b0fc-aed8-11e9-a2a3-2a2ae2dbcce4</t>
+          <t>5cdad46f-6d1f-4f5b-a4ba-d1475c4c8a2b</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -20460,7 +20527,11 @@
           <t>SSP/RCP</t>
         </is>
       </c>
-      <c r="K81" s="51" t="n"/>
+      <c r="K81" s="68" t="inlineStr">
+        <is>
+          <t>items/yr</t>
+        </is>
+      </c>
       <c r="M81" s="51" t="n"/>
     </row>
     <row r="82">
@@ -20504,7 +20575,7 @@
       </c>
       <c r="I82" s="29" t="inlineStr">
         <is>
-          <t>2a33aa08-aed8-11e9-a2a3-2a2ae2dbcce4</t>
+          <t>9c7ed34d-6b43-4f77-bbb8-29a392f080bd</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -20512,7 +20583,11 @@
           <t>SSP/RCP</t>
         </is>
       </c>
-      <c r="K82" s="51" t="n"/>
+      <c r="K82" s="68" t="inlineStr">
+        <is>
+          <t>GW/yr</t>
+        </is>
+      </c>
       <c r="M82" s="51" t="n"/>
     </row>
     <row r="83">
@@ -20564,7 +20639,11 @@
           <t>SSP/RCP</t>
         </is>
       </c>
-      <c r="K83" s="51" t="n"/>
+      <c r="K83" s="68" t="inlineStr">
+        <is>
+          <t>m2/yr</t>
+        </is>
+      </c>
       <c r="M83" s="51" t="n"/>
     </row>
     <row r="84">
@@ -20718,7 +20797,7 @@
       </c>
       <c r="I86" s="29" t="inlineStr">
         <is>
-          <t>b7ea8d0f-68ec-4e6d-a637-358ac54975c4</t>
+          <t>3636f7fd-a339-4664-a4f0-3557c3fa03db</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -21654,7 +21733,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>2a33b48a-aed8-11e9-a2a3-2a2ae2dbcce4</t>
+          <t>e029c4c8-2312-4a18-ab1b-3c5d7e50893b</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -21709,7 +21788,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>2a33aca6-aed8-11e9-a2a3-2a2ae2dbcce4</t>
+          <t>3527921f-9c7c-4ef8-ae43-aca22d05e7d0</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -22059,7 +22138,11 @@
           <t>Hist/fixed</t>
         </is>
       </c>
-      <c r="K110" s="47" t="n"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>kt/GW</t>
+        </is>
+      </c>
       <c r="L110" s="47" t="n"/>
       <c r="N110" s="47" t="n"/>
       <c r="O110" s="47" t="n"/>
@@ -22113,7 +22196,11 @@
           <t>Hist/fixed</t>
         </is>
       </c>
-      <c r="K111" s="47" t="n"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>g/item</t>
+        </is>
+      </c>
       <c r="L111" s="47" t="n"/>
       <c r="M111" s="47" t="n"/>
       <c r="N111" s="47" t="n"/>
@@ -22916,7 +23003,7 @@
       </c>
       <c r="E126" s="63" t="inlineStr">
         <is>
-          <t>V2.2</t>
+          <t>V2.3</t>
         </is>
       </c>
       <c r="F126" s="36" t="inlineStr">
@@ -22936,7 +23023,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>26720421-3b0c-4d6c-b3ca-010be568aa2e</t>
+          <t>67c3bf6f-ccb3-4d9d-89dc-1e62df664b7e</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -23287,12 +23374,12 @@
       </c>
       <c r="C133" s="65" t="inlineStr">
         <is>
-          <t>6_PR_LifeTimeExtension_appliances</t>
+          <t>6_PR_LifeTimeExtension_nonresbuildings_g</t>
         </is>
       </c>
       <c r="D133" s="63" t="inlineStr">
         <is>
-          <t>RE strategy: useful product lifetime extension, appliances</t>
+          <t>RE strategy: useful product lifetime extension, nonres. Buildings, global aggregate</t>
         </is>
       </c>
       <c r="E133" s="63" t="inlineStr">
@@ -23302,12 +23389,12 @@
       </c>
       <c r="F133" s="36" t="inlineStr">
         <is>
-          <t>aoS</t>
+          <t>No</t>
         </is>
       </c>
       <c r="G133" s="63" t="inlineStr">
         <is>
-          <t>[0,1,2]</t>
+          <t>[0,1]</t>
         </is>
       </c>
       <c r="H133" s="63" t="inlineStr">
@@ -23341,12 +23428,12 @@
       </c>
       <c r="C134" s="65" t="inlineStr">
         <is>
-          <t>6_PR_LifeTimeExtension_industry</t>
+          <t>6_PR_LifeTimeExtension_appliances</t>
         </is>
       </c>
       <c r="D134" s="63" t="inlineStr">
         <is>
-          <t>RE strategy: useful product lifetime extension, industry</t>
+          <t>RE strategy: useful product lifetime extension, appliances</t>
         </is>
       </c>
       <c r="E134" s="63" t="inlineStr">
@@ -23356,7 +23443,7 @@
       </c>
       <c r="F134" s="36" t="inlineStr">
         <is>
-          <t>IlS</t>
+          <t>aoS</t>
         </is>
       </c>
       <c r="G134" s="63" t="inlineStr">
@@ -23390,32 +23477,32 @@
       </c>
       <c r="B135" s="50" t="inlineStr">
         <is>
-          <t>manufacturing</t>
-        </is>
-      </c>
-      <c r="C135" s="66" t="inlineStr">
-        <is>
-          <t>6_PR_FabricationYieldImprovement</t>
+          <t>use phase</t>
+        </is>
+      </c>
+      <c r="C135" s="65" t="inlineStr">
+        <is>
+          <t>6_PR_LifeTimeExtension_industry</t>
         </is>
       </c>
       <c r="D135" s="63" t="inlineStr">
         <is>
-          <t>RE strategy: fabrication yield improvement</t>
+          <t>RE strategy: useful product lifetime extension, industry</t>
         </is>
       </c>
       <c r="E135" s="63" t="inlineStr">
         <is>
-          <t>V2.1</t>
+          <t>V1.0</t>
         </is>
       </c>
       <c r="F135" s="36" t="inlineStr">
         <is>
-          <t>mgoS</t>
+          <t>IlS</t>
         </is>
       </c>
       <c r="G135" s="63" t="inlineStr">
         <is>
-          <t>[0,1,2,3]</t>
+          <t>[0,1,2]</t>
         </is>
       </c>
       <c r="H135" s="63" t="inlineStr">
@@ -23447,24 +23534,24 @@
           <t>manufacturing</t>
         </is>
       </c>
-      <c r="C136" s="65" t="inlineStr">
-        <is>
-          <t>6_PR_FabricationScrapDiversion</t>
+      <c r="C136" s="66" t="inlineStr">
+        <is>
+          <t>6_PR_FabricationYieldImprovement</t>
         </is>
       </c>
       <c r="D136" s="63" t="inlineStr">
         <is>
-          <t>RE strategy: fabrication scrap diversion</t>
+          <t>RE strategy: fabrication yield improvement</t>
         </is>
       </c>
       <c r="E136" s="63" t="inlineStr">
         <is>
-          <t>V1.2</t>
+          <t>V2.1</t>
         </is>
       </c>
       <c r="F136" s="36" t="inlineStr">
         <is>
-          <t>mwoS</t>
+          <t>mgoS</t>
         </is>
       </c>
       <c r="G136" s="63" t="inlineStr">
@@ -23498,32 +23585,32 @@
       </c>
       <c r="B137" s="50" t="inlineStr">
         <is>
-          <t>waste mgt. and remelting</t>
+          <t>manufacturing</t>
         </is>
       </c>
       <c r="C137" s="65" t="inlineStr">
         <is>
-          <t>6_PR_ReUse_Bld</t>
+          <t>6_PR_FabricationScrapDiversion</t>
         </is>
       </c>
       <c r="D137" s="63" t="inlineStr">
         <is>
-          <t>RE strategy: EoL product re-use res. buildings</t>
+          <t>RE strategy: fabrication scrap diversion</t>
         </is>
       </c>
       <c r="E137" s="63" t="inlineStr">
         <is>
-          <t>V3.3</t>
+          <t>V1.2</t>
         </is>
       </c>
       <c r="F137" s="36" t="inlineStr">
         <is>
-          <t>mBo</t>
+          <t>mwoS</t>
         </is>
       </c>
       <c r="G137" s="63" t="inlineStr">
         <is>
-          <t>[0,1,2]</t>
+          <t>[0,1,2,3]</t>
         </is>
       </c>
       <c r="H137" s="63" t="inlineStr">
@@ -23557,27 +23644,27 @@
       </c>
       <c r="C138" s="65" t="inlineStr">
         <is>
-          <t>6_PR_ReUse_Veh</t>
+          <t>6_PR_ReUse_Bld</t>
         </is>
       </c>
       <c r="D138" s="63" t="inlineStr">
         <is>
-          <t>RE strategy: EoL product re-use pass. vehicles</t>
+          <t>RE strategy: EoL product re-use res. buildings</t>
         </is>
       </c>
       <c r="E138" s="63" t="inlineStr">
         <is>
-          <t>V1.2</t>
+          <t>V3.3</t>
         </is>
       </c>
       <c r="F138" s="36" t="inlineStr">
         <is>
-          <t>mprtS</t>
+          <t>mBo</t>
         </is>
       </c>
       <c r="G138" s="63" t="inlineStr">
         <is>
-          <t>[0,1,2,3,4]</t>
+          <t>[0,1,2]</t>
         </is>
       </c>
       <c r="H138" s="63" t="inlineStr">
@@ -23611,12 +23698,12 @@
       </c>
       <c r="C139" s="65" t="inlineStr">
         <is>
-          <t>6_PR_ReUse_nonresBld</t>
+          <t>6_PR_ReUse_Veh</t>
         </is>
       </c>
       <c r="D139" s="63" t="inlineStr">
         <is>
-          <t>RE strategy: EoL product re-use nonres. buildings</t>
+          <t>RE strategy: EoL product re-use pass. vehicles</t>
         </is>
       </c>
       <c r="E139" s="63" t="inlineStr">
@@ -23626,12 +23713,12 @@
       </c>
       <c r="F139" s="36" t="inlineStr">
         <is>
-          <t>mNo</t>
+          <t>mprtS</t>
         </is>
       </c>
       <c r="G139" s="63" t="inlineStr">
         <is>
-          <t>[0,1,2]</t>
+          <t>[0,1,2,3,4]</t>
         </is>
       </c>
       <c r="H139" s="63" t="inlineStr">
@@ -23660,17 +23747,17 @@
       </c>
       <c r="B140" s="50" t="inlineStr">
         <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="C140" s="66" t="inlineStr">
-        <is>
-          <t>6_PR_DirectEmissions</t>
+          <t>waste mgt. and remelting</t>
+        </is>
+      </c>
+      <c r="C140" s="65" t="inlineStr">
+        <is>
+          <t>6_PR_ReUse_nonresBld</t>
         </is>
       </c>
       <c r="D140" s="63" t="inlineStr">
         <is>
-          <t>Direct GHG emissions by fuel type</t>
+          <t>RE strategy: EoL product re-use nonres. buildings</t>
         </is>
       </c>
       <c r="E140" s="63" t="inlineStr">
@@ -23680,12 +23767,12 @@
       </c>
       <c r="F140" s="36" t="inlineStr">
         <is>
-          <t>Xn</t>
+          <t>mNo</t>
         </is>
       </c>
       <c r="G140" s="63" t="inlineStr">
         <is>
-          <t>[0,1]</t>
+          <t>[0,1,2]</t>
         </is>
       </c>
       <c r="H140" s="63" t="inlineStr">
@@ -23698,16 +23785,15 @@
           <t>5ccb9a9e-55c0-4762-9312-b0403c0ef205</t>
         </is>
       </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>Hist/fixed</t>
-        </is>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>kg of CO2-eq/MJ</t>
-        </is>
-      </c>
+      <c r="J140" s="52" t="inlineStr">
+        <is>
+          <t>RES</t>
+        </is>
+      </c>
+      <c r="K140" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" s="52" t="n"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -23715,17 +23801,17 @@
       </c>
       <c r="B141" s="50" t="inlineStr">
         <is>
-          <t>use phase</t>
-        </is>
-      </c>
-      <c r="C141" s="65" t="inlineStr">
-        <is>
-          <t>6_PR_CarSharingShare</t>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="C141" s="66" t="inlineStr">
+        <is>
+          <t>6_PR_DirectEmissions</t>
         </is>
       </c>
       <c r="D141" s="63" t="inlineStr">
         <is>
-          <t>Share of total passenger-km provided by carsharing</t>
+          <t>Direct GHG emissions by fuel type</t>
         </is>
       </c>
       <c r="E141" s="63" t="inlineStr">
@@ -23735,12 +23821,12 @@
       </c>
       <c r="F141" s="36" t="inlineStr">
         <is>
-          <t>GotS</t>
+          <t>Xn</t>
         </is>
       </c>
       <c r="G141" s="63" t="inlineStr">
         <is>
-          <t>[0,1,2,3]</t>
+          <t>[0,1]</t>
         </is>
       </c>
       <c r="H141" s="63" t="inlineStr">
@@ -23755,13 +23841,14 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>SSP/RCP</t>
-        </is>
-      </c>
-      <c r="K141" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" s="52" t="n"/>
+          <t>Hist/fixed</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>kg of CO2-eq/MJ</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -23774,22 +23861,22 @@
       </c>
       <c r="C142" s="65" t="inlineStr">
         <is>
-          <t>6_PR_RideSharingShare</t>
+          <t>6_PR_CarSharingShare</t>
         </is>
       </c>
       <c r="D142" s="63" t="inlineStr">
         <is>
-          <t>Share of total passenger-km provided by ride-sharing</t>
+          <t>Share of total passenger-km provided by carsharing</t>
         </is>
       </c>
       <c r="E142" s="63" t="inlineStr">
         <is>
-          <t>V2.0</t>
+          <t>V1.2</t>
         </is>
       </c>
       <c r="F142" s="36" t="inlineStr">
         <is>
-          <t>GrtS</t>
+          <t>GotS</t>
         </is>
       </c>
       <c r="G142" s="63" t="inlineStr">
@@ -23826,29 +23913,29 @@
           <t>use phase</t>
         </is>
       </c>
-      <c r="C143" s="66" t="inlineStr">
-        <is>
-          <t>3_SHA_TypeSplit_Vehicles</t>
-        </is>
-      </c>
-      <c r="D143" s="61" t="inlineStr">
-        <is>
-          <t>Split product groups into different types, at point of final consumption</t>
+      <c r="C143" s="65" t="inlineStr">
+        <is>
+          <t>6_PR_RideSharingShare</t>
+        </is>
+      </c>
+      <c r="D143" s="63" t="inlineStr">
+        <is>
+          <t>Share of total passenger-km provided by ride-sharing</t>
         </is>
       </c>
       <c r="E143" s="63" t="inlineStr">
         <is>
-          <t>V3.0</t>
+          <t>V2.0</t>
         </is>
       </c>
       <c r="F143" s="36" t="inlineStr">
         <is>
-          <t>GrRpt</t>
+          <t>GrtS</t>
         </is>
       </c>
       <c r="G143" s="63" t="inlineStr">
         <is>
-          <t>[0,1,2,3,4]</t>
+          <t>[0,1,2,3]</t>
         </is>
       </c>
       <c r="H143" s="63" t="inlineStr">
@@ -23866,11 +23953,10 @@
           <t>SSP/RCP</t>
         </is>
       </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
+      <c r="K143" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" s="52" t="n"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -23883,7 +23969,7 @@
       </c>
       <c r="C144" s="66" t="inlineStr">
         <is>
-          <t>3_SHA_TypeSplit_Buildings</t>
+          <t>3_SHA_TypeSplit_Vehicles</t>
         </is>
       </c>
       <c r="D144" s="61" t="inlineStr">
@@ -23893,17 +23979,17 @@
       </c>
       <c r="E144" s="63" t="inlineStr">
         <is>
-          <t>V1.3</t>
+          <t>V3.0</t>
         </is>
       </c>
       <c r="F144" s="36" t="inlineStr">
         <is>
-          <t>BrtS</t>
+          <t>GrRpt</t>
         </is>
       </c>
       <c r="G144" s="63" t="inlineStr">
         <is>
-          <t>[0,1,2,3]</t>
+          <t>[0,1,2,3,4]</t>
         </is>
       </c>
       <c r="H144" s="63" t="inlineStr">
@@ -23936,9 +24022,9 @@
           <t>use phase</t>
         </is>
       </c>
-      <c r="C145" s="65" t="inlineStr">
-        <is>
-          <t>3_SHA_TypeSplit_NonResBuildings</t>
+      <c r="C145" s="66" t="inlineStr">
+        <is>
+          <t>3_SHA_TypeSplit_Buildings</t>
         </is>
       </c>
       <c r="D145" s="61" t="inlineStr">
@@ -23948,12 +24034,12 @@
       </c>
       <c r="E145" s="63" t="inlineStr">
         <is>
-          <t>V1.0</t>
+          <t>V1.3</t>
         </is>
       </c>
       <c r="F145" s="36" t="inlineStr">
         <is>
-          <t>NrtS</t>
+          <t>BrtS</t>
         </is>
       </c>
       <c r="G145" s="63" t="inlineStr">
@@ -23991,29 +24077,29 @@
           <t>use phase</t>
         </is>
       </c>
-      <c r="C146" s="66" t="inlineStr">
-        <is>
-          <t>3_SHA_EnergyCarrierSplit_Vehicles</t>
+      <c r="C146" s="65" t="inlineStr">
+        <is>
+          <t>3_SHA_TypeSplit_NonResBuildings</t>
         </is>
       </c>
       <c r="D146" s="61" t="inlineStr">
         <is>
-          <t>Split total energy consumption into different energy carriers, vehicles</t>
+          <t>Split product groups into different types, at point of final consumption</t>
         </is>
       </c>
       <c r="E146" s="63" t="inlineStr">
         <is>
-          <t>V1.1</t>
+          <t>V1.0</t>
         </is>
       </c>
       <c r="F146" s="36" t="inlineStr">
         <is>
-          <t>cpoVnS</t>
+          <t>NrtS</t>
         </is>
       </c>
       <c r="G146" s="63" t="inlineStr">
         <is>
-          <t>[0,1,2,3,4,5]</t>
+          <t>[0,1,2,3]</t>
         </is>
       </c>
       <c r="H146" s="63" t="inlineStr">
@@ -24028,7 +24114,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Hist/fixed</t>
+          <t>SSP/RCP</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -24048,27 +24134,27 @@
       </c>
       <c r="C147" s="66" t="inlineStr">
         <is>
-          <t>3_SHA_EnergyCarrierSplit_Buildings</t>
+          <t>3_SHA_EnergyCarrierSplit_Vehicles</t>
         </is>
       </c>
       <c r="D147" s="61" t="inlineStr">
         <is>
-          <t>Split total energy consumption into different energy carriers, residential buildings</t>
+          <t>Split total energy consumption into different energy carriers, vehicles</t>
         </is>
       </c>
       <c r="E147" s="63" t="inlineStr">
         <is>
-          <t>V2.3</t>
+          <t>V1.1</t>
         </is>
       </c>
       <c r="F147" s="36" t="inlineStr">
         <is>
-          <t>VRrnt</t>
+          <t>cpoVnS</t>
         </is>
       </c>
       <c r="G147" s="63" t="inlineStr">
         <is>
-          <t>[0,1,2,3,4]</t>
+          <t>[0,1,2,3,4,5]</t>
         </is>
       </c>
       <c r="H147" s="63" t="inlineStr">
@@ -24083,7 +24169,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>SSP/RCP</t>
+          <t>Hist/fixed</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -24101,19 +24187,19 @@
           <t>use phase</t>
         </is>
       </c>
-      <c r="C148" s="65" t="inlineStr">
-        <is>
-          <t>3_SHA_EnergyCarrierSplit_NonResBuildings</t>
+      <c r="C148" s="66" t="inlineStr">
+        <is>
+          <t>3_SHA_EnergyCarrierSplit_Buildings</t>
         </is>
       </c>
       <c r="D148" s="61" t="inlineStr">
         <is>
-          <t>Split total energy consumption into different energy carriers, nonresidential buildings</t>
+          <t>Split total energy consumption into different energy carriers, residential buildings</t>
         </is>
       </c>
       <c r="E148" s="63" t="inlineStr">
         <is>
-          <t>V1.0</t>
+          <t>V2.3</t>
         </is>
       </c>
       <c r="F148" s="36" t="inlineStr">
@@ -24156,29 +24242,29 @@
           <t>use phase</t>
         </is>
       </c>
-      <c r="C149" s="66" t="inlineStr">
-        <is>
-          <t>3_MC_VehicleArchetypes</t>
-        </is>
-      </c>
-      <c r="D149" s="63" t="inlineStr">
-        <is>
-          <t>Material composition of vehicle archetypes</t>
+      <c r="C149" s="65" t="inlineStr">
+        <is>
+          <t>3_SHA_EnergyCarrierSplit_NonResBuildings</t>
+        </is>
+      </c>
+      <c r="D149" s="61" t="inlineStr">
+        <is>
+          <t>Split total energy consumption into different energy carriers, nonresidential buildings</t>
         </is>
       </c>
       <c r="E149" s="63" t="inlineStr">
         <is>
-          <t>V2.0</t>
+          <t>V1.0</t>
         </is>
       </c>
       <c r="F149" s="36" t="inlineStr">
         <is>
-          <t>Am</t>
+          <t>VRrnt</t>
         </is>
       </c>
       <c r="G149" s="63" t="inlineStr">
         <is>
-          <t>[0,1]</t>
+          <t>[0,1,2,3,4]</t>
         </is>
       </c>
       <c r="H149" s="63" t="inlineStr">
@@ -24198,7 +24284,7 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>kg/unit, kg/m2</t>
+          <t>%</t>
         </is>
       </c>
     </row>
@@ -24211,29 +24297,29 @@
           <t>use phase</t>
         </is>
       </c>
-      <c r="C150" s="65" t="inlineStr">
-        <is>
-          <t>3_MC_BuildingArchetypes</t>
+      <c r="C150" s="66" t="inlineStr">
+        <is>
+          <t>3_MC_VehicleArchetypes</t>
         </is>
       </c>
       <c r="D150" s="63" t="inlineStr">
         <is>
-          <t>Material composition of building archetypes</t>
+          <t>Material composition of vehicle archetypes</t>
         </is>
       </c>
       <c r="E150" s="63" t="inlineStr">
         <is>
-          <t>V1.2</t>
+          <t>V2.0</t>
         </is>
       </c>
       <c r="F150" s="36" t="inlineStr">
         <is>
-          <t>Arm</t>
+          <t>Am</t>
         </is>
       </c>
       <c r="G150" s="63" t="inlineStr">
         <is>
-          <t>[0,1,2]</t>
+          <t>[0,1]</t>
         </is>
       </c>
       <c r="H150" s="63" t="inlineStr">
@@ -24268,17 +24354,17 @@
       </c>
       <c r="C151" s="65" t="inlineStr">
         <is>
-          <t>3_MC_NonResBuildingArchetypes</t>
+          <t>3_MC_BuildingArchetypes</t>
         </is>
       </c>
       <c r="D151" s="63" t="inlineStr">
         <is>
-          <t>Material composition of nonres building archetypes</t>
+          <t>Material composition of building archetypes</t>
         </is>
       </c>
       <c r="E151" s="63" t="inlineStr">
         <is>
-          <t>V1.0</t>
+          <t>V1.2</t>
         </is>
       </c>
       <c r="F151" s="36" t="inlineStr">
@@ -24321,29 +24407,29 @@
           <t>use phase</t>
         </is>
       </c>
-      <c r="C152" s="66" t="inlineStr">
-        <is>
-          <t>3_EI_VehicleArchetypes</t>
+      <c r="C152" s="65" t="inlineStr">
+        <is>
+          <t>3_MC_NonResBuildingArchetypes</t>
         </is>
       </c>
       <c r="D152" s="63" t="inlineStr">
         <is>
-          <t>Energy intensity of vehicle archetypes</t>
+          <t>Material composition of nonres building archetypes</t>
         </is>
       </c>
       <c r="E152" s="63" t="inlineStr">
         <is>
-          <t>V4.0</t>
+          <t>V1.0</t>
         </is>
       </c>
       <c r="F152" s="36" t="inlineStr">
         <is>
-          <t>An</t>
+          <t>Arm</t>
         </is>
       </c>
       <c r="G152" s="63" t="inlineStr">
         <is>
-          <t>[0,1]</t>
+          <t>[0,1,2]</t>
         </is>
       </c>
       <c r="H152" s="63" t="inlineStr">
@@ -24363,7 +24449,7 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>MJ/km, MJ/m2/yr</t>
+          <t>kg/unit, kg/m2</t>
         </is>
       </c>
     </row>
@@ -24378,27 +24464,27 @@
       </c>
       <c r="C153" s="66" t="inlineStr">
         <is>
-          <t>3_EI_BuildingArchetypes</t>
+          <t>3_EI_VehicleArchetypes</t>
         </is>
       </c>
       <c r="D153" s="63" t="inlineStr">
         <is>
-          <t>Energy intensity of building archetypes</t>
+          <t>Energy intensity of vehicle archetypes</t>
         </is>
       </c>
       <c r="E153" s="63" t="inlineStr">
         <is>
-          <t>V1.2</t>
+          <t>V4.0</t>
         </is>
       </c>
       <c r="F153" s="36" t="inlineStr">
         <is>
-          <t>ArVn</t>
+          <t>An</t>
         </is>
       </c>
       <c r="G153" s="63" t="inlineStr">
         <is>
-          <t>[0,1,2,3]</t>
+          <t>[0,1]</t>
         </is>
       </c>
       <c r="H153" s="63" t="inlineStr">
@@ -24431,19 +24517,19 @@
           <t>use phase</t>
         </is>
       </c>
-      <c r="C154" s="65" t="inlineStr">
-        <is>
-          <t>3_EI_NonResBuildingArchetypes</t>
+      <c r="C154" s="66" t="inlineStr">
+        <is>
+          <t>3_EI_BuildingArchetypes</t>
         </is>
       </c>
       <c r="D154" s="63" t="inlineStr">
         <is>
-          <t>Energy intensity of nonres building archetypes</t>
+          <t>Energy intensity of building archetypes</t>
         </is>
       </c>
       <c r="E154" s="63" t="inlineStr">
         <is>
-          <t>V1.0</t>
+          <t>V1.2</t>
         </is>
       </c>
       <c r="F154" s="36" t="inlineStr">
@@ -24486,24 +24572,24 @@
           <t>use phase</t>
         </is>
       </c>
-      <c r="C155" s="66" t="inlineStr">
-        <is>
-          <t>3_SHA_DownSizing_Vehicles</t>
-        </is>
-      </c>
-      <c r="D155" s="41" t="inlineStr">
-        <is>
-          <t>The values reflect the share of passenger cars versus light trucks in the new registration of cars.</t>
+      <c r="C155" s="65" t="inlineStr">
+        <is>
+          <t>3_EI_NonResBuildingArchetypes</t>
+        </is>
+      </c>
+      <c r="D155" s="63" t="inlineStr">
+        <is>
+          <t>Energy intensity of nonres building archetypes</t>
         </is>
       </c>
       <c r="E155" s="63" t="inlineStr">
         <is>
-          <t>V2.3</t>
+          <t>V1.0</t>
         </is>
       </c>
       <c r="F155" s="36" t="inlineStr">
         <is>
-          <t>srtS</t>
+          <t>ArVn</t>
         </is>
       </c>
       <c r="G155" s="63" t="inlineStr">
@@ -24528,7 +24614,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>MJ/km, MJ/m2/yr</t>
         </is>
       </c>
     </row>
@@ -24543,22 +24629,22 @@
       </c>
       <c r="C156" s="66" t="inlineStr">
         <is>
-          <t>3_SHA_LightWeighting_Vehicles</t>
+          <t>3_SHA_DownSizing_Vehicles</t>
         </is>
       </c>
       <c r="D156" s="41" t="inlineStr">
         <is>
-          <t>Market share of lightweight vehicle archetypes in total new registration of cars.</t>
+          <t>The values reflect the share of passenger cars versus light trucks in the new registration of cars.</t>
         </is>
       </c>
       <c r="E156" s="63" t="inlineStr">
         <is>
-          <t>V1.3</t>
+          <t>V2.3</t>
         </is>
       </c>
       <c r="F156" s="36" t="inlineStr">
         <is>
-          <t>prtS</t>
+          <t>srtS</t>
         </is>
       </c>
       <c r="G156" s="63" t="inlineStr">
@@ -24586,7 +24672,6 @@
           <t>%</t>
         </is>
       </c>
-      <c r="O156" s="47" t="n"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -24599,12 +24684,12 @@
       </c>
       <c r="C157" s="66" t="inlineStr">
         <is>
-          <t>3_SHA_DownSizing_Buildings</t>
+          <t>3_SHA_LightWeighting_Vehicles</t>
         </is>
       </c>
       <c r="D157" s="41" t="inlineStr">
         <is>
-          <t>The values reflect the share of downsized buildings in total new construction.</t>
+          <t>Market share of lightweight vehicle archetypes in total new registration of cars.</t>
         </is>
       </c>
       <c r="E157" s="63" t="inlineStr">
@@ -24614,7 +24699,7 @@
       </c>
       <c r="F157" s="36" t="inlineStr">
         <is>
-          <t>urtS</t>
+          <t>prtS</t>
         </is>
       </c>
       <c r="G157" s="63" t="inlineStr">
@@ -24642,6 +24727,7 @@
           <t>%</t>
         </is>
       </c>
+      <c r="O157" s="47" t="n"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -24652,24 +24738,24 @@
           <t>use phase</t>
         </is>
       </c>
-      <c r="C158" s="65" t="inlineStr">
-        <is>
-          <t>3_SHA_LightWeighting_Buildings</t>
+      <c r="C158" s="66" t="inlineStr">
+        <is>
+          <t>3_SHA_DownSizing_Buildings</t>
         </is>
       </c>
       <c r="D158" s="41" t="inlineStr">
         <is>
-          <t>Market share of lightweight buildings in total new construction.</t>
+          <t>The values reflect the share of downsized buildings in total new construction.</t>
         </is>
       </c>
       <c r="E158" s="63" t="inlineStr">
         <is>
-          <t>V2.2</t>
+          <t>V1.3</t>
         </is>
       </c>
       <c r="F158" s="36" t="inlineStr">
         <is>
-          <t>GrtS</t>
+          <t>urtS</t>
         </is>
       </c>
       <c r="G158" s="63" t="inlineStr">
@@ -24709,22 +24795,22 @@
       </c>
       <c r="C159" s="65" t="inlineStr">
         <is>
-          <t>3_SHA_DownSizing_NonResBuildings</t>
+          <t>3_SHA_LightWeighting_Buildings</t>
         </is>
       </c>
       <c r="D159" s="41" t="inlineStr">
         <is>
-          <t>The values reflect the share of downsized nonres buildings in total new construction.</t>
+          <t>Market share of lightweight buildings in total new construction.</t>
         </is>
       </c>
       <c r="E159" s="63" t="inlineStr">
         <is>
-          <t>V1.0</t>
+          <t>V2.2</t>
         </is>
       </c>
       <c r="F159" s="36" t="inlineStr">
         <is>
-          <t>urtS</t>
+          <t>GrtS</t>
         </is>
       </c>
       <c r="G159" s="63" t="inlineStr">
@@ -24764,12 +24850,12 @@
       </c>
       <c r="C160" s="65" t="inlineStr">
         <is>
-          <t>3_SHA_LightWeighting_NonResBuildings</t>
+          <t>3_SHA_DownSizing_NonResBuildings</t>
         </is>
       </c>
       <c r="D160" s="41" t="inlineStr">
         <is>
-          <t>Market share of lightweight nonres buildings in total new construction.</t>
+          <t>The values reflect the share of downsized nonres buildings in total new construction.</t>
         </is>
       </c>
       <c r="E160" s="63" t="inlineStr">
@@ -24779,7 +24865,7 @@
       </c>
       <c r="F160" s="36" t="inlineStr">
         <is>
-          <t>GrtS</t>
+          <t>urtS</t>
         </is>
       </c>
       <c r="G160" s="63" t="inlineStr">
@@ -24817,29 +24903,29 @@
           <t>use phase</t>
         </is>
       </c>
-      <c r="C161" s="66" t="inlineStr">
-        <is>
-          <t>6_PR_Calibration</t>
+      <c r="C161" s="65" t="inlineStr">
+        <is>
+          <t>3_SHA_LightWeighting_NonResBuildings</t>
         </is>
       </c>
       <c r="D161" s="41" t="inlineStr">
         <is>
-          <t>Calibration factors to match 2016 energy demand</t>
+          <t>Market share of lightweight nonres buildings in total new construction.</t>
         </is>
       </c>
       <c r="E161" s="63" t="inlineStr">
         <is>
-          <t>V2.4</t>
+          <t>V1.0</t>
         </is>
       </c>
       <c r="F161" s="36" t="inlineStr">
         <is>
-          <t>Cr</t>
+          <t>GrtS</t>
         </is>
       </c>
       <c r="G161" s="63" t="inlineStr">
         <is>
-          <t>[0,1]</t>
+          <t>[0,1,2,3]</t>
         </is>
       </c>
       <c r="H161" s="63" t="inlineStr">
@@ -24854,12 +24940,12 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Hist/fixed</t>
+          <t>SSP/RCP</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>ratio</t>
+          <t>%</t>
         </is>
       </c>
     </row>
@@ -24872,29 +24958,29 @@
           <t>use phase</t>
         </is>
       </c>
-      <c r="C162" s="65" t="inlineStr">
-        <is>
-          <t>6_MIP_CarSharing_Stock</t>
+      <c r="C162" s="66" t="inlineStr">
+        <is>
+          <t>6_PR_Calibration</t>
         </is>
       </c>
       <c r="D162" s="41" t="inlineStr">
         <is>
-          <t>ratio of per capita stock with vs. without carsharing</t>
+          <t>Calibration factors to match 2016 energy demand</t>
         </is>
       </c>
       <c r="E162" s="63" t="inlineStr">
         <is>
-          <t>V1.0</t>
+          <t>V2.4</t>
         </is>
       </c>
       <c r="F162" s="36" t="inlineStr">
         <is>
-          <t>Sr</t>
+          <t>Cr</t>
         </is>
       </c>
       <c r="G162" s="63" t="inlineStr">
         <is>
-          <t>[1,0]</t>
+          <t>[0,1]</t>
         </is>
       </c>
       <c r="H162" s="63" t="inlineStr">
@@ -24909,11 +24995,13 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>SSP/RCP</t>
-        </is>
-      </c>
-      <c r="K162" s="52" t="n">
-        <v>1</v>
+          <t>Hist/fixed</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>ratio</t>
+        </is>
       </c>
     </row>
     <row r="163">
@@ -24927,12 +25015,12 @@
       </c>
       <c r="C163" s="65" t="inlineStr">
         <is>
-          <t>6_MIP_RideSharing_Occupancy</t>
-        </is>
-      </c>
-      <c r="D163" s="42" t="inlineStr">
-        <is>
-          <t>ratio of vehicle occupancy rate with and without ride-sharing</t>
+          <t>6_MIP_CarSharing_Stock</t>
+        </is>
+      </c>
+      <c r="D163" s="41" t="inlineStr">
+        <is>
+          <t>ratio of per capita stock with vs. without carsharing</t>
         </is>
       </c>
       <c r="E163" s="63" t="inlineStr">
@@ -24980,12 +25068,12 @@
       </c>
       <c r="C164" s="65" t="inlineStr">
         <is>
-          <t>6_MIP_GWP_Bio</t>
+          <t>6_MIP_RideSharing_Occupancy</t>
         </is>
       </c>
       <c r="D164" s="42" t="inlineStr">
         <is>
-          <t>Global warming potential of biomass with storage and subsequent incineration, regrowth period: 60 years. Time horizon for integration: 100 years</t>
+          <t>ratio of vehicle occupancy rate with and without ride-sharing</t>
         </is>
       </c>
       <c r="E164" s="63" t="inlineStr">
@@ -24995,12 +25083,12 @@
       </c>
       <c r="F164" s="36" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>Sr</t>
         </is>
       </c>
       <c r="G164" s="63" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[1,0]</t>
         </is>
       </c>
       <c r="H164" s="63" t="inlineStr">
@@ -25015,7 +25103,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Hist/fixed</t>
+          <t>SSP/RCP</t>
         </is>
       </c>
       <c r="K164" s="52" t="n">
@@ -25028,17 +25116,17 @@
       </c>
       <c r="B165" s="50" t="inlineStr">
         <is>
-          <t>waste mgt. and remelting</t>
+          <t>use phase</t>
         </is>
       </c>
       <c r="C165" s="65" t="inlineStr">
         <is>
-          <t>4_PE_ElectricityFromWoodCombustion</t>
+          <t>6_MIP_GWP_Bio</t>
         </is>
       </c>
       <c r="D165" s="42" t="inlineStr">
         <is>
-          <t>Average electricity generated from combusting 1 kg of dry (ca. 20%) timber at end of life.</t>
+          <t>Global warming potential of biomass with storage and subsequent incineration, regrowth period: 60 years. Time horizon for integration: 100 years</t>
         </is>
       </c>
       <c r="E165" s="63" t="inlineStr">
@@ -25048,12 +25136,12 @@
       </c>
       <c r="F165" s="36" t="inlineStr">
         <is>
-          <t>wWn</t>
+          <t>c</t>
         </is>
       </c>
       <c r="G165" s="63" t="inlineStr">
         <is>
-          <t>[0,1,2]</t>
+          <t>[0]</t>
         </is>
       </c>
       <c r="H165" s="63" t="inlineStr">
@@ -25071,10 +25159,8 @@
           <t>Hist/fixed</t>
         </is>
       </c>
-      <c r="K165" s="52" t="inlineStr">
-        <is>
-          <t>GJ/ton</t>
-        </is>
+      <c r="K165" s="52" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -25083,17 +25169,17 @@
       </c>
       <c r="B166" s="50" t="inlineStr">
         <is>
-          <t>mining &amp; forestry</t>
+          <t>waste mgt. and remelting</t>
         </is>
       </c>
       <c r="C166" s="65" t="inlineStr">
         <is>
-          <t>3_LT_ForestRotationPeriod_FuelWood</t>
+          <t>4_PE_ElectricityFromWoodCombustion</t>
         </is>
       </c>
       <c r="D166" s="42" t="inlineStr">
         <is>
-          <t>Average Forest rotation period for fuel wood</t>
+          <t>Average electricity generated from combusting 1 kg of dry (ca. 20%) timber at end of life.</t>
         </is>
       </c>
       <c r="E166" s="63" t="inlineStr">
@@ -25103,12 +25189,12 @@
       </c>
       <c r="F166" s="36" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>wWn</t>
         </is>
       </c>
       <c r="G166" s="63" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[0,1,2]</t>
         </is>
       </c>
       <c r="H166" s="63" t="inlineStr">
@@ -25123,12 +25209,12 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Assumption, fixed</t>
+          <t>Hist/fixed</t>
         </is>
       </c>
       <c r="K166" s="52" t="inlineStr">
         <is>
-          <t>yr</t>
+          <t>GJ/ton</t>
         </is>
       </c>
     </row>
@@ -25143,12 +25229,12 @@
       </c>
       <c r="C167" s="65" t="inlineStr">
         <is>
-          <t>3_LT_ForestRotationPeriod_Timber</t>
+          <t>3_LT_ForestRotationPeriod_FuelWood</t>
         </is>
       </c>
       <c r="D167" s="42" t="inlineStr">
         <is>
-          <t>Average Forest rotation period for timber</t>
+          <t>Average Forest rotation period for fuel wood</t>
         </is>
       </c>
       <c r="E167" s="63" t="inlineStr">
@@ -25158,7 +25244,7 @@
       </c>
       <c r="F167" s="36" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>n</t>
         </is>
       </c>
       <c r="G167" s="63" t="inlineStr">
@@ -25193,17 +25279,17 @@
       </c>
       <c r="B168" s="50" t="inlineStr">
         <is>
-          <t>waste mgt. and remelting</t>
+          <t>mining &amp; forestry</t>
         </is>
       </c>
       <c r="C168" s="65" t="inlineStr">
         <is>
-          <t>3_MC_CO2FromWoodCombustion</t>
+          <t>3_LT_ForestRotationPeriod_Timber</t>
         </is>
       </c>
       <c r="D168" s="42" t="inlineStr">
         <is>
-          <t>Average CO2 emitted from burning/Combusting 1 kg of dry (ca. 20%) timber at end of life.</t>
+          <t>Average Forest rotation period for timber</t>
         </is>
       </c>
       <c r="E168" s="63" t="inlineStr">
@@ -25213,12 +25299,12 @@
       </c>
       <c r="F168" s="36" t="inlineStr">
         <is>
-          <t>Xm</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G168" s="63" t="inlineStr">
         <is>
-          <t>[0,1]</t>
+          <t>[0]</t>
         </is>
       </c>
       <c r="H168" s="63" t="inlineStr">
@@ -25233,11 +25319,13 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Hist/fixed</t>
-        </is>
-      </c>
-      <c r="K168" s="52" t="n">
-        <v>1</v>
+          <t>Assumption, fixed</t>
+        </is>
+      </c>
+      <c r="K168" s="52" t="inlineStr">
+        <is>
+          <t>yr</t>
+        </is>
       </c>
     </row>
     <row r="169">
@@ -25246,17 +25334,17 @@
       </c>
       <c r="B169" s="50" t="inlineStr">
         <is>
-          <t>energy supply</t>
+          <t>waste mgt. and remelting</t>
         </is>
       </c>
       <c r="C169" s="65" t="inlineStr">
         <is>
-          <t>3_EI_HeatingValueWoodPerCarbon</t>
+          <t>3_MC_CO2FromWoodCombustion</t>
         </is>
       </c>
       <c r="D169" s="42" t="inlineStr">
         <is>
-          <t>Average heat gained per mass of wood, expressed in lower heating value per kg of Carbon in wood.</t>
+          <t>Average CO2 emitted from burning/Combusting 1 kg of dry (ca. 20%) timber at end of life.</t>
         </is>
       </c>
       <c r="E169" s="63" t="inlineStr">
@@ -25266,7 +25354,7 @@
       </c>
       <c r="F169" s="36" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>Xm</t>
         </is>
       </c>
       <c r="G169" s="63" t="inlineStr">
@@ -25289,10 +25377,8 @@
           <t>Hist/fixed</t>
         </is>
       </c>
-      <c r="K169" s="52" t="inlineStr">
-        <is>
-          <t>MJ/kg</t>
-        </is>
+      <c r="K169" s="52" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -25301,17 +25387,17 @@
       </c>
       <c r="B170" s="50" t="inlineStr">
         <is>
-          <t>manufacturing</t>
+          <t>energy supply</t>
         </is>
       </c>
       <c r="C170" s="65" t="inlineStr">
         <is>
-          <t>3_MC_CementContentConcrete</t>
+          <t>3_EI_HeatingValueWoodPerCarbon</t>
         </is>
       </c>
       <c r="D170" s="42" t="inlineStr">
         <is>
-          <t>Average Cement content of concrete</t>
+          <t>Average heat gained per mass of wood, expressed in lower heating value per kg of Carbon in wood.</t>
         </is>
       </c>
       <c r="E170" s="63" t="inlineStr">
@@ -25321,7 +25407,7 @@
       </c>
       <c r="F170" s="36" t="inlineStr">
         <is>
-          <t>mm</t>
+          <t>en</t>
         </is>
       </c>
       <c r="G170" s="63" t="inlineStr">
@@ -25344,8 +25430,10 @@
           <t>Hist/fixed</t>
         </is>
       </c>
-      <c r="K170" s="52" t="n">
-        <v>1</v>
+      <c r="K170" s="52" t="inlineStr">
+        <is>
+          <t>MJ/kg</t>
+        </is>
       </c>
     </row>
     <row r="171">
@@ -25359,12 +25447,12 @@
       </c>
       <c r="C171" s="65" t="inlineStr">
         <is>
-          <t>3_SHA_CementContentReduction</t>
+          <t>3_MC_CementContentConcrete</t>
         </is>
       </c>
       <c r="D171" s="42" t="inlineStr">
         <is>
-          <t>Share of cement in concrete that can be reduced or replaced by other materials</t>
+          <t>Average Cement content of concrete</t>
         </is>
       </c>
       <c r="E171" s="63" t="inlineStr">
@@ -25374,12 +25462,12 @@
       </c>
       <c r="F171" s="36" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mm</t>
         </is>
       </c>
       <c r="G171" s="63" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[0,1]</t>
         </is>
       </c>
       <c r="H171" s="63" t="inlineStr">
@@ -25407,32 +25495,32 @@
       </c>
       <c r="B172" s="50" t="inlineStr">
         <is>
-          <t>use phase</t>
+          <t>manufacturing</t>
         </is>
       </c>
       <c r="C172" s="65" t="inlineStr">
         <is>
-          <t>3_SHA_MaxRenovationPotential_ResBuildings</t>
+          <t>3_SHA_CementContentReduction</t>
         </is>
       </c>
       <c r="D172" s="42" t="inlineStr">
         <is>
-          <t>Share of 2015 stock of resbuildings that can be renovated</t>
+          <t>Share of cement in concrete that can be reduced or replaced by other materials</t>
         </is>
       </c>
       <c r="E172" s="63" t="inlineStr">
         <is>
-          <t>V1.1</t>
+          <t>V1.0</t>
         </is>
       </c>
       <c r="F172" s="36" t="inlineStr">
         <is>
-          <t>rcB</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G172" s="63" t="inlineStr">
         <is>
-          <t>[0,1,2]</t>
+          <t>[0]</t>
         </is>
       </c>
       <c r="H172" s="63" t="inlineStr">
@@ -25447,13 +25535,11 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>SSP/RCP</t>
-        </is>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
+          <t>Hist/fixed</t>
+        </is>
+      </c>
+      <c r="K172" s="52" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -25467,22 +25553,22 @@
       </c>
       <c r="C173" s="65" t="inlineStr">
         <is>
-          <t>3_SHA_MaxRenovationPotential_NonResBuildings</t>
+          <t>3_SHA_MaxRenovationPotential_ResBuildings</t>
         </is>
       </c>
       <c r="D173" s="42" t="inlineStr">
         <is>
-          <t>Share of 2015 stock of nonresbuildings that can be renovated</t>
+          <t>Share of 2015 stock of resbuildings that can be renovated</t>
         </is>
       </c>
       <c r="E173" s="63" t="inlineStr">
         <is>
-          <t>V1.0</t>
+          <t>V1.1</t>
         </is>
       </c>
       <c r="F173" s="36" t="inlineStr">
         <is>
-          <t>rcN</t>
+          <t>rcB</t>
         </is>
       </c>
       <c r="G173" s="63" t="inlineStr">
@@ -25522,22 +25608,22 @@
       </c>
       <c r="C174" s="65" t="inlineStr">
         <is>
-          <t>3_SHA_EnergySavingsPot_Renovation_ResBuildings</t>
+          <t>3_SHA_MaxRenovationPotential_NonResBuildings</t>
         </is>
       </c>
       <c r="D174" s="42" t="inlineStr">
         <is>
-          <t>Reduction in specific energy consumption of resbuildings, in %.</t>
+          <t>Share of 2015 stock of nonresbuildings that can be renovated</t>
         </is>
       </c>
       <c r="E174" s="63" t="inlineStr">
         <is>
-          <t>V1.1</t>
+          <t>V1.0</t>
         </is>
       </c>
       <c r="F174" s="36" t="inlineStr">
         <is>
-          <t>rSB</t>
+          <t>rcN</t>
         </is>
       </c>
       <c r="G174" s="63" t="inlineStr">
@@ -25577,22 +25663,22 @@
       </c>
       <c r="C175" s="65" t="inlineStr">
         <is>
-          <t>3_SHA_EnergySavingsPot_Renovation_NonResBuildings</t>
-        </is>
-      </c>
-      <c r="D175" s="63" t="inlineStr">
-        <is>
-          <t>Reduction in specific energy consumption of nonresbuildings, in %.</t>
+          <t>3_SHA_EnergySavingsPot_Renovation_ResBuildings</t>
+        </is>
+      </c>
+      <c r="D175" s="42" t="inlineStr">
+        <is>
+          <t>Reduction in specific energy consumption of resbuildings, in %.</t>
         </is>
       </c>
       <c r="E175" s="63" t="inlineStr">
         <is>
-          <t>V1.0</t>
+          <t>V1.1</t>
         </is>
       </c>
       <c r="F175" s="36" t="inlineStr">
         <is>
-          <t>rSN</t>
+          <t>rSB</t>
         </is>
       </c>
       <c r="G175" s="63" t="inlineStr">
@@ -25627,17 +25713,17 @@
       </c>
       <c r="B176" s="50" t="inlineStr">
         <is>
-          <t>system</t>
+          <t>use phase</t>
         </is>
       </c>
       <c r="C176" s="65" t="inlineStr">
         <is>
-          <t>6_MIP_CharacterisationFactors</t>
+          <t>3_SHA_EnergySavingsPot_Renovation_NonResBuildings</t>
         </is>
       </c>
       <c r="D176" s="63" t="inlineStr">
         <is>
-          <t>Characteristation factors to link emissions/pressures to environmental and social midpoint indicators.</t>
+          <t>Reduction in specific energy consumption of nonresbuildings, in %.</t>
         </is>
       </c>
       <c r="E176" s="63" t="inlineStr">
@@ -25647,12 +25733,12 @@
       </c>
       <c r="F176" s="36" t="inlineStr">
         <is>
-          <t>xX</t>
+          <t>rSN</t>
         </is>
       </c>
       <c r="G176" s="63" t="inlineStr">
         <is>
-          <t>[0,1]</t>
+          <t>[0,1,2]</t>
         </is>
       </c>
       <c r="H176" s="63" t="inlineStr">
@@ -25667,12 +25753,12 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Hist/fixed</t>
+          <t>SSP/RCP</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>mics. Units</t>
+          <t>%</t>
         </is>
       </c>
     </row>
@@ -25682,147 +25768,185 @@
       </c>
       <c r="B177" s="50" t="inlineStr">
         <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="C177" s="65" t="inlineStr">
+        <is>
+          <t>6_MIP_CharacterisationFactors</t>
+        </is>
+      </c>
+      <c r="D177" s="63" t="inlineStr">
+        <is>
+          <t>Characteristation factors to link emissions/pressures to environmental and social midpoint indicators.</t>
+        </is>
+      </c>
+      <c r="E177" s="63" t="inlineStr">
+        <is>
+          <t>V1.0</t>
+        </is>
+      </c>
+      <c r="F177" s="36" t="inlineStr">
+        <is>
+          <t>xX</t>
+        </is>
+      </c>
+      <c r="G177" s="63" t="inlineStr">
+        <is>
+          <t>[0,1]</t>
+        </is>
+      </c>
+      <c r="H177" s="63" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I177" s="29" t="inlineStr">
+        <is>
+          <t>90394658-cf86-4c5e-8fa6-1b19bb540063</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>Hist/fixed</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>mics. Units</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>102</v>
+      </c>
+      <c r="B178" s="50" t="inlineStr">
+        <is>
           <t>use phase</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="C178" t="inlineStr">
         <is>
           <t>8_FLAG_VehicleDownsizingDirection</t>
         </is>
       </c>
-      <c r="D177" s="63" t="inlineStr">
+      <c r="D178" s="63" t="inlineStr">
         <is>
           <t>Flag (Bool) that indicates the direction of vehicle downsizing (segment shift) in the parameter 3_SHA_DownSizing_Vehicles</t>
         </is>
       </c>
-      <c r="E177" s="63" t="inlineStr">
+      <c r="E178" s="63" t="inlineStr">
         <is>
           <t>V1.0</t>
         </is>
       </c>
-      <c r="F177" s="36" t="inlineStr">
+      <c r="F178" s="36" t="inlineStr">
         <is>
           <t>rS</t>
         </is>
       </c>
-      <c r="G177" s="63" t="inlineStr">
+      <c r="G178" s="63" t="inlineStr">
         <is>
           <t>[0,1]</t>
         </is>
       </c>
-      <c r="H177" s="63" t="inlineStr">
-        <is>
-          <t>[0]</t>
-        </is>
-      </c>
-      <c r="I177" s="29" t="inlineStr">
-        <is>
-          <t>90394658-cf86-4c5e-8fa6-1b19bb540063</t>
-        </is>
-      </c>
-      <c r="J177" t="inlineStr">
+      <c r="H178" s="63" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I178" s="29" t="inlineStr">
+        <is>
+          <t>6832c162-6b26-4ad8-8e9d-3bf47bf34c9f</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
         <is>
           <t>SSP/RCP</t>
         </is>
       </c>
-      <c r="K177" t="inlineStr">
+      <c r="K178" t="inlineStr">
         <is>
           <t>Bool</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.6" r="178" s="69">
-      <c r="I178" s="29" t="inlineStr">
-        <is>
-          <t>6832c162-6b26-4ad8-8e9d-3bf47bf34c9f</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.6" r="179" s="69">
-      <c r="B179" s="12" t="inlineStr">
+    <row customHeight="1" ht="15.6" r="179" s="69"/>
+    <row customHeight="1" ht="15.6" r="180" s="69">
+      <c r="B180" s="12" t="inlineStr">
         <is>
           <t>Model flow control</t>
         </is>
       </c>
-      <c r="C179" s="13" t="n"/>
-      <c r="D179" s="13" t="n"/>
-      <c r="E179" s="13" t="n"/>
-      <c r="F179" s="13" t="n"/>
-      <c r="G179" s="13" t="n"/>
-      <c r="H179" s="14" t="n"/>
-      <c r="K179" s="48" t="n"/>
-      <c r="N179" s="48" t="n"/>
-    </row>
-    <row r="180">
-      <c r="C180" s="70" t="inlineStr">
+      <c r="C180" s="13" t="n"/>
+      <c r="D180" s="13" t="n"/>
+      <c r="E180" s="13" t="n"/>
+      <c r="F180" s="13" t="n"/>
+      <c r="G180" s="13" t="n"/>
+      <c r="H180" s="14" t="n"/>
+      <c r="K180" s="48" t="n"/>
+      <c r="N180" s="48" t="n"/>
+    </row>
+    <row r="181">
+      <c r="C181" s="70" t="inlineStr">
         <is>
           <t>Specify how model should run: which calculation blocks to perform, which solvers to use, etc.</t>
         </is>
       </c>
-      <c r="E180" s="70" t="inlineStr">
+      <c r="E181" s="70" t="inlineStr">
         <is>
           <t>Comment</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="C181" s="30" t="inlineStr">
-        <is>
-          <t>Logging_Verbosity</t>
-        </is>
-      </c>
-      <c r="D181" s="63" t="inlineStr">
-        <is>
-          <t>DEBUG</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t># Specify at which level of detail the comments, warnings, and error produced by the models are recorded.</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="C182" s="30" t="inlineStr">
         <is>
-          <t>Include_REStrategy_FabYieldImprovement</t>
+          <t>Logging_Verbosity</t>
         </is>
       </c>
       <c r="D182" s="63" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>DEBUG</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t># Specify at which level of detail the comments, warnings, and error produced by the models are recorded.</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="C183" s="30" t="inlineStr">
         <is>
+          <t>Include_REStrategy_FabYieldImprovement</t>
+        </is>
+      </c>
+      <c r="D183" s="63" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I183" s="56" t="n"/>
+    </row>
+    <row r="184">
+      <c r="C184" s="30" t="inlineStr">
+        <is>
           <t>Include_REStrategy_FabScrapDiversion</t>
         </is>
       </c>
-      <c r="D183" s="63" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.6" r="184" s="69">
-      <c r="C184" s="30" t="inlineStr">
-        <is>
-          <t>Include_REStrategy_EoL_RR_Improvement</t>
-        </is>
-      </c>
       <c r="D184" s="63" t="inlineStr">
         <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="E184" s="49" t="n"/>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I184" s="56" t="n"/>
     </row>
     <row customHeight="1" ht="15.6" r="185" s="69">
       <c r="C185" s="30" t="inlineStr">
         <is>
-          <t>ScrapExport</t>
+          <t>Include_REStrategy_EoL_RR_Improvement</t>
         </is>
       </c>
       <c r="D185" s="63" t="inlineStr">
@@ -25830,68 +25954,72 @@
           <t>True</t>
         </is>
       </c>
-      <c r="E185" s="52" t="inlineStr">
-        <is>
-          <t>Set true if excess scrap can be exported to other sectors.</t>
-        </is>
-      </c>
+      <c r="E185" s="52" t="n"/>
+      <c r="J185" s="49" t="n"/>
     </row>
     <row customHeight="1" ht="15.6" r="186" s="69">
       <c r="C186" s="30" t="inlineStr">
         <is>
-          <t>ScrapExportRecyclingCredit</t>
+          <t>ScrapExport</t>
         </is>
       </c>
       <c r="D186" s="63" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E186" s="52" t="inlineStr">
         <is>
-          <t>True if an emissions credit for avoided primary production is to be given.</t>
-        </is>
-      </c>
+          <t>Set true if excess scrap can be exported to other sectors.</t>
+        </is>
+      </c>
+      <c r="J186" s="49" t="n"/>
     </row>
     <row customHeight="1" ht="15.6" r="187" s="69">
       <c r="C187" s="30" t="inlineStr">
         <is>
+          <t>ScrapExportRecyclingCredit</t>
+        </is>
+      </c>
+      <c r="D187" s="63" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E187" s="52" t="inlineStr">
+        <is>
+          <t>True if an emissions credit for avoided primary production is to be given.</t>
+        </is>
+      </c>
+      <c r="J187" s="49" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.6" r="188" s="69">
+      <c r="C188" s="30" t="inlineStr">
+        <is>
           <t>IncludeRecycling</t>
         </is>
       </c>
-      <c r="D187" s="63" t="inlineStr">
+      <c r="D188" s="63" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="E187" s="52" t="inlineStr">
+      <c r="E188" s="52" t="inlineStr">
         <is>
           <t>Set to False only if a scenario without any recycling is to be considered (as counterfactual scenario)</t>
         </is>
       </c>
-    </row>
-    <row r="188">
-      <c r="C188" s="30" t="inlineStr">
-        <is>
-          <t>Include_REStrategy_MaterialSubstitution</t>
-        </is>
-      </c>
-      <c r="D188" s="63" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="J188" s="50" t="n"/>
+      <c r="J188" s="49" t="n"/>
     </row>
     <row r="189">
       <c r="C189" s="30" t="inlineStr">
         <is>
-          <t>Include_REStrategy_UsingLessMaterialByDesign</t>
+          <t>Include_REStrategy_MaterialSubstitution</t>
         </is>
       </c>
       <c r="D189" s="63" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J189" s="50" t="n"/>
@@ -25899,12 +26027,12 @@
     <row r="190">
       <c r="C190" s="30" t="inlineStr">
         <is>
-          <t>Include_REStrategy_ReUse</t>
+          <t>Include_REStrategy_UsingLessMaterialByDesign</t>
         </is>
       </c>
       <c r="D190" s="63" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J190" s="50" t="n"/>
@@ -25912,50 +26040,48 @@
     <row r="191">
       <c r="C191" s="30" t="inlineStr">
         <is>
+          <t>Include_REStrategy_ReUse</t>
+        </is>
+      </c>
+      <c r="D191" s="63" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E191" s="52" t="n"/>
+      <c r="J191" s="50" t="n"/>
+    </row>
+    <row r="192">
+      <c r="C192" s="30" t="inlineStr">
+        <is>
           <t>Include_REStrategy_LifeTimeExtension</t>
         </is>
       </c>
-      <c r="D191" s="63" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="J191" s="50" t="n"/>
-    </row>
-    <row r="192">
-      <c r="B192" s="50" t="inlineStr">
-        <is>
-          <t>Buildings only:</t>
-        </is>
-      </c>
-      <c r="C192" s="30" t="inlineStr">
-        <is>
-          <t>Include_REStrategy_MoreIntenseUse</t>
-        </is>
-      </c>
       <c r="D192" s="63" t="inlineStr">
         <is>
-          <t>False</t>
-        </is>
-      </c>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E192" s="52" t="n"/>
       <c r="J192" s="50" t="n"/>
     </row>
     <row r="193">
       <c r="B193" s="50" t="inlineStr">
         <is>
-          <t>Vehicles only:</t>
+          <t>Buildings only:</t>
         </is>
       </c>
       <c r="C193" s="30" t="inlineStr">
         <is>
-          <t>Include_REStrategy_CarSharing</t>
+          <t>Include_REStrategy_MoreIntenseUse</t>
         </is>
       </c>
       <c r="D193" s="63" t="inlineStr">
         <is>
-          <t>False</t>
-        </is>
-      </c>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E193" s="52" t="n"/>
       <c r="J193" s="50" t="n"/>
     </row>
     <row r="194">
@@ -25966,14 +26092,15 @@
       </c>
       <c r="C194" s="30" t="inlineStr">
         <is>
-          <t>Include_REStrategy_RideSharing</t>
+          <t>Include_REStrategy_CarSharing</t>
         </is>
       </c>
       <c r="D194" s="63" t="inlineStr">
         <is>
-          <t>False</t>
-        </is>
-      </c>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E194" s="52" t="n"/>
       <c r="J194" s="50" t="n"/>
     </row>
     <row r="195">
@@ -25984,57 +26111,63 @@
       </c>
       <c r="C195" s="30" t="inlineStr">
         <is>
-          <t>Include_REStrategy_ModalSplit</t>
+          <t>Include_REStrategy_RideSharing</t>
         </is>
       </c>
       <c r="D195" s="63" t="inlineStr">
         <is>
-          <t>False</t>
-        </is>
-      </c>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E195" s="52" t="n"/>
+      <c r="J195" s="50" t="n"/>
     </row>
     <row r="196">
       <c r="B196" s="50" t="inlineStr">
         <is>
+          <t>Vehicles only:</t>
+        </is>
+      </c>
+      <c r="C196" s="30" t="inlineStr">
+        <is>
+          <t>Include_REStrategy_ModalSplit</t>
+        </is>
+      </c>
+      <c r="D196" s="63" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E196" s="52" t="n"/>
+    </row>
+    <row r="197">
+      <c r="B197" s="50" t="inlineStr">
+        <is>
           <t>Select which sectors are included:</t>
         </is>
       </c>
-      <c r="C196" s="30" t="inlineStr">
+      <c r="C197" s="30" t="inlineStr">
         <is>
           <t>SectorSelect</t>
         </is>
       </c>
-      <c r="D196" s="42" t="inlineStr">
-        <is>
-          <t>['reb']</t>
-        </is>
-      </c>
-      <c r="J196" s="50" t="n"/>
-    </row>
-    <row r="197">
-      <c r="B197" s="50" t="n"/>
-      <c r="C197" s="30" t="inlineStr">
-        <is>
-          <t>Include_Renovation_reb</t>
-        </is>
-      </c>
       <c r="D197" s="42" t="inlineStr">
         <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E197" s="52" t="inlineStr">
-        <is>
-          <t>Renovation of residential buildings included</t>
-        </is>
-      </c>
+          <t>['pav','reb']</t>
+        </is>
+      </c>
+      <c r="E197" s="52" t="n"/>
+      <c r="F197" s="52" t="n"/>
+      <c r="G197" s="52" t="n"/>
+      <c r="H197" s="52" t="n"/>
+      <c r="I197" s="52" t="n"/>
       <c r="J197" s="50" t="n"/>
     </row>
     <row r="198">
       <c r="B198" s="50" t="n"/>
       <c r="C198" s="30" t="inlineStr">
         <is>
-          <t>Include_Renovation_nrb</t>
+          <t>Include_Renovation_reb</t>
         </is>
       </c>
       <c r="D198" s="42" t="inlineStr">
@@ -26044,30 +26177,43 @@
       </c>
       <c r="E198" s="52" t="inlineStr">
         <is>
-          <t>Renovation of nonresidential buildings included</t>
-        </is>
-      </c>
+          <t>Renovation of residential buildings included</t>
+        </is>
+      </c>
+      <c r="F198" s="52" t="n"/>
+      <c r="G198" s="52" t="n"/>
+      <c r="H198" s="52" t="n"/>
+      <c r="I198" s="52" t="n"/>
       <c r="J198" s="50" t="n"/>
     </row>
     <row r="199">
       <c r="B199" s="50" t="n"/>
       <c r="C199" s="30" t="inlineStr">
         <is>
-          <t>No_EE_Improvements</t>
+          <t>Include_Renovation_nrb</t>
         </is>
       </c>
       <c r="D199" s="42" t="inlineStr">
         <is>
-          <t>False</t>
-        </is>
-      </c>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E199" s="52" t="inlineStr">
+        <is>
+          <t>Renovation of nonresidential buildings included</t>
+        </is>
+      </c>
+      <c r="F199" s="52" t="n"/>
+      <c r="G199" s="52" t="n"/>
+      <c r="H199" s="52" t="n"/>
+      <c r="I199" s="52" t="n"/>
       <c r="J199" s="50" t="n"/>
     </row>
     <row r="200">
       <c r="B200" s="50" t="n"/>
       <c r="C200" s="30" t="inlineStr">
         <is>
-          <t>Reserved3</t>
+          <t>No_EE_Improvements</t>
         </is>
       </c>
       <c r="D200" s="42" t="inlineStr">
@@ -26075,13 +26221,18 @@
           <t>False</t>
         </is>
       </c>
+      <c r="E200" s="52" t="n"/>
+      <c r="F200" s="52" t="n"/>
+      <c r="G200" s="52" t="n"/>
+      <c r="H200" s="52" t="n"/>
+      <c r="I200" s="52" t="n"/>
       <c r="J200" s="50" t="n"/>
     </row>
     <row r="201">
       <c r="B201" s="50" t="n"/>
       <c r="C201" s="30" t="inlineStr">
         <is>
-          <t>Reserved4</t>
+          <t>Reserved3</t>
         </is>
       </c>
       <c r="D201" s="42" t="inlineStr">
@@ -26089,13 +26240,18 @@
           <t>False</t>
         </is>
       </c>
+      <c r="E201" s="52" t="n"/>
+      <c r="F201" s="52" t="n"/>
+      <c r="G201" s="52" t="n"/>
+      <c r="H201" s="52" t="n"/>
+      <c r="I201" s="52" t="n"/>
       <c r="J201" s="50" t="n"/>
     </row>
     <row r="202">
       <c r="B202" s="50" t="n"/>
       <c r="C202" s="30" t="inlineStr">
         <is>
-          <t>Reserved5</t>
+          <t>Reserved4</t>
         </is>
       </c>
       <c r="D202" s="42" t="inlineStr">
@@ -26103,58 +26259,75 @@
           <t>False</t>
         </is>
       </c>
+      <c r="E202" s="52" t="n"/>
+      <c r="F202" s="52" t="n"/>
+      <c r="G202" s="52" t="n"/>
+      <c r="H202" s="52" t="n"/>
+      <c r="I202" s="52" t="n"/>
       <c r="J202" s="50" t="n"/>
     </row>
     <row r="203">
       <c r="B203" s="50" t="n"/>
       <c r="C203" s="30" t="inlineStr">
         <is>
+          <t>Reserved5</t>
+        </is>
+      </c>
+      <c r="D203" s="42" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E203" s="52" t="n"/>
+      <c r="F203" s="52" t="n"/>
+      <c r="G203" s="52" t="n"/>
+      <c r="H203" s="52" t="n"/>
+      <c r="I203" s="52" t="n"/>
+      <c r="J203" s="50" t="n"/>
+    </row>
+    <row r="204">
+      <c r="B204" s="50" t="n"/>
+      <c r="C204" s="30" t="inlineStr">
+        <is>
           <t>Reserved6</t>
         </is>
       </c>
-      <c r="D203" s="42" t="inlineStr">
+      <c r="D204" s="42" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="J203" s="50" t="n"/>
-    </row>
-    <row r="205">
-      <c r="B205" s="12" t="inlineStr">
+      <c r="E204" s="52" t="n"/>
+      <c r="F204" s="52" t="n"/>
+      <c r="G204" s="52" t="n"/>
+      <c r="H204" s="52" t="n"/>
+      <c r="I204" s="52" t="n"/>
+      <c r="J204" s="50" t="n"/>
+    </row>
+    <row r="206">
+      <c r="B206" s="12" t="inlineStr">
         <is>
           <t>Model output control</t>
         </is>
       </c>
-      <c r="C205" s="13" t="n"/>
-      <c r="D205" s="13" t="n"/>
-      <c r="E205" s="13" t="n"/>
-      <c r="F205" s="13" t="n"/>
-      <c r="G205" s="13" t="n"/>
-      <c r="H205" s="14" t="n"/>
-    </row>
-    <row r="206">
-      <c r="C206" s="70" t="inlineStr">
+      <c r="C206" s="13" t="n"/>
+      <c r="D206" s="13" t="n"/>
+      <c r="E206" s="13" t="n"/>
+      <c r="F206" s="13" t="n"/>
+      <c r="G206" s="13" t="n"/>
+      <c r="H206" s="14" t="n"/>
+    </row>
+    <row r="207">
+      <c r="C207" s="70" t="inlineStr">
         <is>
           <t>Control how model output is archived and which figures are created.</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="C207" s="63" t="inlineStr">
-        <is>
-          <t>PlotStocks</t>
-        </is>
-      </c>
-      <c r="D207" s="61" t="inlineStr">
-        <is>
-          <t>True</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="C208" s="63" t="inlineStr">
         <is>
-          <t>PlotMaterialDemand</t>
+          <t>PlotStocks</t>
         </is>
       </c>
       <c r="D208" s="61" t="inlineStr">
@@ -26166,7 +26339,7 @@
     <row r="209">
       <c r="C209" s="63" t="inlineStr">
         <is>
-          <t>PlotTotalGHGEmissions</t>
+          <t>PlotMaterialDemand</t>
         </is>
       </c>
       <c r="D209" s="61" t="inlineStr">
@@ -26178,19 +26351,19 @@
     <row r="210">
       <c r="C210" s="63" t="inlineStr">
         <is>
-          <t>UseGivenPlotBoundaries</t>
+          <t>PlotTotalGHGEmissions</t>
         </is>
       </c>
       <c r="D210" s="61" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="C211" s="63" t="inlineStr">
         <is>
-          <t>Reserved1</t>
+          <t>UseGivenPlotBoundaries</t>
         </is>
       </c>
       <c r="D211" s="61" t="inlineStr">
@@ -26202,59 +26375,61 @@
     <row r="212">
       <c r="C212" s="63" t="inlineStr">
         <is>
+          <t>Reserved1</t>
+        </is>
+      </c>
+      <c r="D212" s="61" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="C213" s="63" t="inlineStr">
+        <is>
           <t>Reserved2</t>
         </is>
       </c>
-      <c r="D212" s="61" t="inlineStr">
+      <c r="D213" s="61" t="inlineStr">
         <is>
           <t>False</t>
         </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="C213" s="42" t="inlineStr">
-        <is>
-          <t>Plot1Max</t>
-        </is>
-      </c>
-      <c r="D213" s="43" t="n">
-        <v>1500</v>
       </c>
     </row>
     <row r="214">
       <c r="C214" s="42" t="inlineStr">
         <is>
-          <t>Plot2Max</t>
+          <t>Plot1Max</t>
         </is>
       </c>
       <c r="D214" s="43" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="215">
       <c r="C215" s="42" t="inlineStr">
         <is>
-          <t>Plot3Max</t>
+          <t>Plot2Max</t>
         </is>
       </c>
       <c r="D215" s="43" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
     </row>
     <row r="216">
       <c r="C216" s="42" t="inlineStr">
         <is>
-          <t>Plot4Max</t>
+          <t>Plot3Max</t>
         </is>
       </c>
       <c r="D216" s="43" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="217">
       <c r="C217" s="42" t="inlineStr">
         <is>
-          <t>Plot5Max</t>
+          <t>Plot4Max</t>
         </is>
       </c>
       <c r="D217" s="43" t="n">
@@ -26264,25 +26439,35 @@
     <row r="218">
       <c r="C218" s="42" t="inlineStr">
         <is>
-          <t>Plot6Max</t>
+          <t>Plot5Max</t>
         </is>
       </c>
       <c r="D218" s="43" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="220">
-      <c r="B220" s="12" t="inlineStr">
+    <row r="219">
+      <c r="C219" s="42" t="inlineStr">
+        <is>
+          <t>Plot6Max</t>
+        </is>
+      </c>
+      <c r="D219" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="B221" s="12" t="inlineStr">
         <is>
           <t>End of file</t>
         </is>
       </c>
-      <c r="C220" s="13" t="n"/>
-      <c r="D220" s="13" t="n"/>
-      <c r="E220" s="13" t="n"/>
-      <c r="F220" s="13" t="n"/>
-      <c r="G220" s="13" t="n"/>
-      <c r="H220" s="14" t="n"/>
+      <c r="C221" s="13" t="n"/>
+      <c r="D221" s="13" t="n"/>
+      <c r="E221" s="13" t="n"/>
+      <c r="F221" s="13" t="n"/>
+      <c r="G221" s="13" t="n"/>
+      <c r="H221" s="14" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.787401575" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.787401575"/>

--- a/RECC_Config_V2_4.xlsx
+++ b/RECC_Config_V2_4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9405" windowWidth="20730" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9405" windowWidth="20730" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cover" sheetId="1" state="visible" r:id="rId1"/>
@@ -1485,8 +1485,8 @@
     <col bestFit="1" customWidth="1" max="9" min="9" style="53" width="8.265625"/>
     <col customWidth="1" max="10" min="10" style="55" width="39.86328125"/>
     <col customWidth="1" max="11" min="11" style="53" width="46.73046875"/>
-    <col customWidth="1" max="49" min="12" style="53" width="10.6640625"/>
-    <col customWidth="1" max="16384" min="50" style="53" width="10.6640625"/>
+    <col customWidth="1" max="52" min="12" style="53" width="10.6640625"/>
+    <col customWidth="1" max="16384" min="53" style="53" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="8">
@@ -1886,7 +1886,7 @@
   </sheetPr>
   <dimension ref="A2:Q221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B100" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView topLeftCell="B100" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="E126" sqref="E126:I126"/>
     </sheetView>
   </sheetViews>
@@ -1906,8 +1906,8 @@
     <col customWidth="1" max="12" min="12" style="69" width="15.53125"/>
     <col customWidth="1" max="13" min="13" style="69" width="39.86328125"/>
     <col customWidth="1" max="14" min="14" style="69" width="90"/>
-    <col customWidth="1" max="88" min="15" style="69" width="10.6640625"/>
-    <col customWidth="1" max="16384" min="89" style="69" width="10.6640625"/>
+    <col customWidth="1" max="91" min="15" style="69" width="10.6640625"/>
+    <col customWidth="1" max="16384" min="92" style="69" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -10085,8 +10085,8 @@
   </sheetPr>
   <dimension ref="A2:Q221"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="E132" sqref="E132"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="D186" sqref="D186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -10105,8 +10105,8 @@
     <col customWidth="1" max="12" min="12" style="69" width="15.53125"/>
     <col customWidth="1" max="13" min="13" style="69" width="39.86328125"/>
     <col customWidth="1" max="14" min="14" style="69" width="90"/>
-    <col customWidth="1" max="88" min="15" style="69" width="10.6640625"/>
-    <col customWidth="1" max="16384" min="89" style="69" width="10.6640625"/>
+    <col customWidth="1" max="91" min="15" style="69" width="10.6640625"/>
+    <col customWidth="1" max="16384" min="92" style="69" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -10182,7 +10182,7 @@
       </c>
       <c r="D7" s="63" t="inlineStr">
         <is>
-          <t>Germany_detail</t>
+          <t>Global_all</t>
         </is>
       </c>
     </row>
@@ -10494,7 +10494,7 @@
       </c>
       <c r="G21" s="63" t="inlineStr">
         <is>
-          <t>[33]</t>
+          <t>[2,13,31,32,33,34,35,36,37,38,39,9,4,12,40,41,42,43,44,45]</t>
         </is>
       </c>
       <c r="H21" s="33" t="inlineStr">
@@ -10717,7 +10717,7 @@
       </c>
       <c r="G27" s="63" t="inlineStr">
         <is>
-          <t>[0,1,2,3,4,5,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58]</t>
+          <t>[0,1,2,3,4,5,22,23,24,25,26,27,28,29,30,31,32,33,34,59,60,61,62,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93,94,95,96,97,98,99,100,101,102,103,104,105]</t>
         </is>
       </c>
       <c r="H27" s="33" t="inlineStr">
@@ -10754,7 +10754,7 @@
       </c>
       <c r="G28" s="63" t="inlineStr">
         <is>
-          <t>[0,2,3]</t>
+          <t>[0,2,4,6,7]</t>
         </is>
       </c>
       <c r="H28" s="33" t="inlineStr">
@@ -10791,7 +10791,7 @@
       </c>
       <c r="G29" s="63" t="inlineStr">
         <is>
-          <t>[0,1,2,3,4,5,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58]</t>
+          <t>[0,1,2,3,4,5,22,23,24,25,26,27,28,29,30,31,32,33,34,59,60,61,62,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93,94,95,96,97,98,99,100,101,102,103,104,105]</t>
         </is>
       </c>
       <c r="H29" s="33" t="inlineStr">
@@ -10939,7 +10939,7 @@
       </c>
       <c r="G33" s="63" t="inlineStr">
         <is>
-          <t>[0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23]</t>
+          <t>[24,25,26,27]</t>
         </is>
       </c>
       <c r="H33" s="33" t="inlineStr">
@@ -11494,7 +11494,7 @@
       </c>
       <c r="G48" s="63" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>[0:19)</t>
         </is>
       </c>
       <c r="H48" s="33" t="inlineStr">
@@ -17727,7 +17727,7 @@
       </c>
       <c r="D183" s="63" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="I183" s="56" t="n"/>
@@ -17740,7 +17740,7 @@
       </c>
       <c r="D184" s="63" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="I184" s="56" t="n"/>
@@ -17753,7 +17753,7 @@
       </c>
       <c r="D185" s="63" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E185" s="52" t="n"/>
@@ -17767,7 +17767,7 @@
       </c>
       <c r="D186" s="63" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E186" s="52" t="inlineStr">
@@ -17785,7 +17785,7 @@
       </c>
       <c r="D187" s="63" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E187" s="52" t="inlineStr">
@@ -17821,7 +17821,7 @@
       </c>
       <c r="D189" s="63" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J189" s="50" t="n"/>
@@ -17834,7 +17834,7 @@
       </c>
       <c r="D190" s="63" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J190" s="50" t="n"/>
@@ -17847,7 +17847,7 @@
       </c>
       <c r="D191" s="63" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E191" s="52" t="n"/>
@@ -17861,7 +17861,7 @@
       </c>
       <c r="D192" s="63" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E192" s="52" t="n"/>
@@ -17899,7 +17899,7 @@
       </c>
       <c r="D194" s="63" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E194" s="52" t="n"/>
@@ -17918,7 +17918,7 @@
       </c>
       <c r="D195" s="63" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E195" s="52" t="n"/>
@@ -17955,7 +17955,7 @@
       </c>
       <c r="D197" s="42" t="inlineStr">
         <is>
-          <t>['pav']</t>
+          <t>['pav','reb','nrbg','app','ind']</t>
         </is>
       </c>
       <c r="E197" s="52" t="n"/>
@@ -18284,8 +18284,8 @@
   </sheetPr>
   <dimension ref="A2:Q221"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="E126" sqref="E126:I126"/>
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -18304,8 +18304,8 @@
     <col customWidth="1" max="12" min="12" style="69" width="15.53125"/>
     <col customWidth="1" max="13" min="13" style="69" width="39.86328125"/>
     <col customWidth="1" max="14" min="14" style="69" width="90"/>
-    <col customWidth="1" max="88" min="15" style="69" width="10.6640625"/>
-    <col customWidth="1" max="16384" min="89" style="69" width="10.6640625"/>
+    <col customWidth="1" max="91" min="15" style="69" width="10.6640625"/>
+    <col customWidth="1" max="16384" min="92" style="69" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -18693,7 +18693,7 @@
       </c>
       <c r="G21" s="63" t="inlineStr">
         <is>
-          <t>[2,13,31,32,33,34,35,36,37,38,39,9,4,12,40,41,42,43,44,45]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="H21" s="33" t="inlineStr">
@@ -18914,9 +18914,10 @@
           <t>Manufacturing_i3</t>
         </is>
       </c>
-      <c r="G27" s="63">
-        <f>G29</f>
-        <v/>
+      <c r="G27" s="63" t="inlineStr">
+        <is>
+          <t>[0,1,2,3,4,5,59,60,61,62,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93,94,95,96,97,98,99,100,101,102,103,104,105]</t>
+        </is>
       </c>
       <c r="H27" s="33" t="inlineStr">
         <is>
@@ -18952,7 +18953,7 @@
       </c>
       <c r="G28" s="63" t="inlineStr">
         <is>
-          <t>[0,2,4,6,7]</t>
+          <t>[4,6,7]</t>
         </is>
       </c>
       <c r="H28" s="33" t="inlineStr">
@@ -18989,7 +18990,7 @@
       </c>
       <c r="G29" s="63" t="inlineStr">
         <is>
-          <t>[0,1,2,3,4,5,22,23,24,25,26,27,28,29,30,31,32,33,34,59,60,61,62,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93,94,95,96,97,98,99,100,101,102,103,104,105]</t>
+          <t>[0,1,2,3,4,5,59,60,61,62,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93,94,95,96,97,98,99,100,101,102,103,104,105]</t>
         </is>
       </c>
       <c r="H29" s="33" t="inlineStr">
@@ -19692,7 +19693,7 @@
       </c>
       <c r="G48" s="63" t="inlineStr">
         <is>
-          <t>[0:19)</t>
+          <t>[0:6)</t>
         </is>
       </c>
       <c r="H48" s="33" t="inlineStr">
@@ -25925,7 +25926,7 @@
       </c>
       <c r="D183" s="63" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="I183" s="56" t="n"/>
@@ -25938,7 +25939,7 @@
       </c>
       <c r="D184" s="63" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="I184" s="56" t="n"/>
@@ -25951,7 +25952,7 @@
       </c>
       <c r="D185" s="63" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E185" s="52" t="n"/>
@@ -26019,7 +26020,7 @@
       </c>
       <c r="D189" s="63" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J189" s="50" t="n"/>
@@ -26032,7 +26033,7 @@
       </c>
       <c r="D190" s="63" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J190" s="50" t="n"/>
@@ -26045,7 +26046,7 @@
       </c>
       <c r="D191" s="63" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E191" s="52" t="n"/>
@@ -26059,7 +26060,7 @@
       </c>
       <c r="D192" s="63" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E192" s="52" t="n"/>
@@ -26078,7 +26079,7 @@
       </c>
       <c r="D193" s="63" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E193" s="52" t="n"/>
@@ -26097,7 +26098,7 @@
       </c>
       <c r="D194" s="63" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E194" s="52" t="n"/>
@@ -26116,7 +26117,7 @@
       </c>
       <c r="D195" s="63" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E195" s="52" t="n"/>
@@ -26153,7 +26154,7 @@
       </c>
       <c r="D197" s="42" t="inlineStr">
         <is>
-          <t>['pav','reb']</t>
+          <t>['nrbg','app','ind']</t>
         </is>
       </c>
       <c r="E197" s="52" t="n"/>
@@ -26481,10 +26482,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B3:K30"/>
+  <dimension ref="B3:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -26520,6 +26521,11 @@
           <t>'pav','reb','nrb'</t>
         </is>
       </c>
+      <c r="G3" s="64" t="inlineStr">
+        <is>
+          <t>ind','nrbg','app'</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
@@ -26572,6 +26578,11 @@
       <c r="F5" t="inlineStr">
         <is>
           <t>[0,2,3]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[4,6,7]</t>
         </is>
       </c>
     </row>
@@ -26618,6 +26629,11 @@
       <c r="K8" s="63" t="inlineStr">
         <is>
           <t>RECC Germany detail</t>
+        </is>
+      </c>
+      <c r="L8" s="63" t="inlineStr">
+        <is>
+          <t>RECC global ind app nrbg</t>
         </is>
       </c>
     </row>
@@ -26647,6 +26663,7 @@
       <c r="I9" s="63" t="n"/>
       <c r="J9" s="63" t="n"/>
       <c r="K9" s="63" t="n"/>
+      <c r="L9" s="63" t="n"/>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
@@ -26690,6 +26707,11 @@
           <t>[0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23]</t>
         </is>
       </c>
+      <c r="L10" s="63" t="inlineStr">
+        <is>
+          <t>[24,25,26,27]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
@@ -26733,6 +26755,11 @@
           <t>all</t>
         </is>
       </c>
+      <c r="L11" s="63" t="inlineStr">
+        <is>
+          <t>[0:6)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
@@ -26776,6 +26803,11 @@
           <t>[0,1,2,3,4,5,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58]</t>
         </is>
       </c>
+      <c r="L12" s="63" t="inlineStr">
+        <is>
+          <t>[0,1,2,3,4,5,59,60,61,62,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93,94,95,96,97,98,99,100,101,102,103,104,105]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
@@ -26819,6 +26851,11 @@
           <t>[0,2,3]</t>
         </is>
       </c>
+      <c r="L13" s="63" t="inlineStr">
+        <is>
+          <t>[4,6,7]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
@@ -26860,6 +26897,11 @@
       <c r="K14" s="63" t="inlineStr">
         <is>
           <t>[0,1,2,3,4,5,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58]</t>
+        </is>
+      </c>
+      <c r="L14" s="63" t="inlineStr">
+        <is>
+          <t>[0,1,2,3,4,5,59,60,61,62,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93,94,95,96,97,98,99,100,101,102,103,104,105]</t>
         </is>
       </c>
     </row>

--- a/RECC_Config_V2_4.xlsx
+++ b/RECC_Config_V2_4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9405" windowWidth="20730" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9405" windowWidth="20730" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cover" sheetId="1" state="visible" r:id="rId1"/>
@@ -1485,8 +1485,8 @@
     <col bestFit="1" customWidth="1" max="9" min="9" style="53" width="8.265625"/>
     <col customWidth="1" max="10" min="10" style="55" width="39.86328125"/>
     <col customWidth="1" max="11" min="11" style="53" width="46.73046875"/>
-    <col customWidth="1" max="52" min="12" style="53" width="10.6640625"/>
-    <col customWidth="1" max="16384" min="53" style="53" width="10.6640625"/>
+    <col customWidth="1" max="53" min="12" style="53" width="10.6640625"/>
+    <col customWidth="1" max="16384" min="54" style="53" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="8">
@@ -1886,8 +1886,8 @@
   </sheetPr>
   <dimension ref="A2:Q221"/>
   <sheetViews>
-    <sheetView topLeftCell="B100" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="E126" sqref="E126:I126"/>
+    <sheetView topLeftCell="C94" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+      <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1906,8 +1906,8 @@
     <col customWidth="1" max="12" min="12" style="69" width="15.53125"/>
     <col customWidth="1" max="13" min="13" style="69" width="39.86328125"/>
     <col customWidth="1" max="14" min="14" style="69" width="90"/>
-    <col customWidth="1" max="91" min="15" style="69" width="10.6640625"/>
-    <col customWidth="1" max="16384" min="92" style="69" width="10.6640625"/>
+    <col customWidth="1" max="92" min="15" style="69" width="10.6640625"/>
+    <col customWidth="1" max="16384" min="93" style="69" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -5205,7 +5205,7 @@
       </c>
       <c r="E101" s="63" t="inlineStr">
         <is>
-          <t>V4.1</t>
+          <t>V4.2</t>
         </is>
       </c>
       <c r="F101" s="36" t="inlineStr">
@@ -5225,7 +5225,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>6b281381-56a8-4761-a998-b3af0c4e2a80</t>
+          <t>3586fa40-404b-4f4b-afbb-ce76c5cf5402</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -10085,8 +10085,8 @@
   </sheetPr>
   <dimension ref="A2:Q221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="D186" sqref="D186"/>
+    <sheetView topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -10105,8 +10105,8 @@
     <col customWidth="1" max="12" min="12" style="69" width="15.53125"/>
     <col customWidth="1" max="13" min="13" style="69" width="39.86328125"/>
     <col customWidth="1" max="14" min="14" style="69" width="90"/>
-    <col customWidth="1" max="91" min="15" style="69" width="10.6640625"/>
-    <col customWidth="1" max="16384" min="92" style="69" width="10.6640625"/>
+    <col customWidth="1" max="92" min="15" style="69" width="10.6640625"/>
+    <col customWidth="1" max="16384" min="93" style="69" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -10182,7 +10182,7 @@
       </c>
       <c r="D7" s="63" t="inlineStr">
         <is>
-          <t>Global_all</t>
+          <t>Germany_detail</t>
         </is>
       </c>
     </row>
@@ -10494,7 +10494,7 @@
       </c>
       <c r="G21" s="63" t="inlineStr">
         <is>
-          <t>[2,13,31,32,33,34,35,36,37,38,39,9,4,12,40,41,42,43,44,45]</t>
+          <t>[33]</t>
         </is>
       </c>
       <c r="H21" s="33" t="inlineStr">
@@ -10717,7 +10717,7 @@
       </c>
       <c r="G27" s="63" t="inlineStr">
         <is>
-          <t>[0,1,2,3,4,5,22,23,24,25,26,27,28,29,30,31,32,33,34,59,60,61,62,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93,94,95,96,97,98,99,100,101,102,103,104,105]</t>
+          <t>[0,1,2,3,4,5,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58]</t>
         </is>
       </c>
       <c r="H27" s="33" t="inlineStr">
@@ -10754,7 +10754,7 @@
       </c>
       <c r="G28" s="63" t="inlineStr">
         <is>
-          <t>[0,2,4,6,7]</t>
+          <t>[0,2,3]</t>
         </is>
       </c>
       <c r="H28" s="33" t="inlineStr">
@@ -10791,7 +10791,7 @@
       </c>
       <c r="G29" s="63" t="inlineStr">
         <is>
-          <t>[0,1,2,3,4,5,22,23,24,25,26,27,28,29,30,31,32,33,34,59,60,61,62,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93,94,95,96,97,98,99,100,101,102,103,104,105]</t>
+          <t>[0,1,2,3,4,5,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58]</t>
         </is>
       </c>
       <c r="H29" s="33" t="inlineStr">
@@ -10939,7 +10939,7 @@
       </c>
       <c r="G33" s="63" t="inlineStr">
         <is>
-          <t>[24,25,26,27]</t>
+          <t>[0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23]</t>
         </is>
       </c>
       <c r="H33" s="33" t="inlineStr">
@@ -11494,7 +11494,7 @@
       </c>
       <c r="G48" s="63" t="inlineStr">
         <is>
-          <t>[0:19)</t>
+          <t>all</t>
         </is>
       </c>
       <c r="H48" s="33" t="inlineStr">
@@ -13405,7 +13405,7 @@
       </c>
       <c r="E101" s="63" t="inlineStr">
         <is>
-          <t>V4.1</t>
+          <t>V4.2</t>
         </is>
       </c>
       <c r="F101" s="36" t="inlineStr">
@@ -13425,7 +13425,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>6b281381-56a8-4761-a998-b3af0c4e2a80</t>
+          <t>3586fa40-404b-4f4b-afbb-ce76c5cf5402</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -17727,7 +17727,7 @@
       </c>
       <c r="D183" s="63" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="I183" s="56" t="n"/>
@@ -17740,7 +17740,7 @@
       </c>
       <c r="D184" s="63" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="I184" s="56" t="n"/>
@@ -17753,7 +17753,7 @@
       </c>
       <c r="D185" s="63" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E185" s="52" t="n"/>
@@ -17767,7 +17767,7 @@
       </c>
       <c r="D186" s="63" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E186" s="52" t="inlineStr">
@@ -17785,7 +17785,7 @@
       </c>
       <c r="D187" s="63" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E187" s="52" t="inlineStr">
@@ -17821,7 +17821,7 @@
       </c>
       <c r="D189" s="63" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J189" s="50" t="n"/>
@@ -17834,7 +17834,7 @@
       </c>
       <c r="D190" s="63" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J190" s="50" t="n"/>
@@ -17847,7 +17847,7 @@
       </c>
       <c r="D191" s="63" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E191" s="52" t="n"/>
@@ -17861,7 +17861,7 @@
       </c>
       <c r="D192" s="63" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E192" s="52" t="n"/>
@@ -17880,7 +17880,7 @@
       </c>
       <c r="D193" s="63" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E193" s="52" t="n"/>
@@ -17955,7 +17955,7 @@
       </c>
       <c r="D197" s="42" t="inlineStr">
         <is>
-          <t>['pav','reb','nrbg','app','ind']</t>
+          <t>['nrb']</t>
         </is>
       </c>
       <c r="E197" s="52" t="n"/>
@@ -18284,8 +18284,8 @@
   </sheetPr>
   <dimension ref="A2:Q221"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="E101" sqref="E101:I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -18304,8 +18304,8 @@
     <col customWidth="1" max="12" min="12" style="69" width="15.53125"/>
     <col customWidth="1" max="13" min="13" style="69" width="39.86328125"/>
     <col customWidth="1" max="14" min="14" style="69" width="90"/>
-    <col customWidth="1" max="91" min="15" style="69" width="10.6640625"/>
-    <col customWidth="1" max="16384" min="92" style="69" width="10.6640625"/>
+    <col customWidth="1" max="92" min="15" style="69" width="10.6640625"/>
+    <col customWidth="1" max="16384" min="93" style="69" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -21604,7 +21604,7 @@
       </c>
       <c r="E101" s="63" t="inlineStr">
         <is>
-          <t>V4.1</t>
+          <t>V4.2</t>
         </is>
       </c>
       <c r="F101" s="36" t="inlineStr">
@@ -21624,7 +21624,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>6b281381-56a8-4761-a998-b3af0c4e2a80</t>
+          <t>3586fa40-404b-4f4b-afbb-ce76c5cf5402</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">

--- a/RECC_Config_V2_4.xlsx
+++ b/RECC_Config_V2_4.xlsx
@@ -1485,8 +1485,8 @@
     <col bestFit="1" customWidth="1" max="9" min="9" style="53" width="8.265625"/>
     <col customWidth="1" max="10" min="10" style="55" width="39.86328125"/>
     <col customWidth="1" max="11" min="11" style="53" width="46.73046875"/>
-    <col customWidth="1" max="53" min="12" style="53" width="10.6640625"/>
-    <col customWidth="1" max="16384" min="54" style="53" width="10.6640625"/>
+    <col customWidth="1" max="54" min="12" style="53" width="10.6640625"/>
+    <col customWidth="1" max="16384" min="55" style="53" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="8">
@@ -1906,8 +1906,8 @@
     <col customWidth="1" max="12" min="12" style="69" width="15.53125"/>
     <col customWidth="1" max="13" min="13" style="69" width="39.86328125"/>
     <col customWidth="1" max="14" min="14" style="69" width="90"/>
-    <col customWidth="1" max="92" min="15" style="69" width="10.6640625"/>
-    <col customWidth="1" max="16384" min="93" style="69" width="10.6640625"/>
+    <col customWidth="1" max="93" min="15" style="69" width="10.6640625"/>
+    <col customWidth="1" max="16384" min="94" style="69" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -10105,8 +10105,8 @@
     <col customWidth="1" max="12" min="12" style="69" width="15.53125"/>
     <col customWidth="1" max="13" min="13" style="69" width="39.86328125"/>
     <col customWidth="1" max="14" min="14" style="69" width="90"/>
-    <col customWidth="1" max="92" min="15" style="69" width="10.6640625"/>
-    <col customWidth="1" max="16384" min="93" style="69" width="10.6640625"/>
+    <col customWidth="1" max="93" min="15" style="69" width="10.6640625"/>
+    <col customWidth="1" max="16384" min="94" style="69" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -17727,7 +17727,7 @@
       </c>
       <c r="D183" s="63" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="I183" s="56" t="n"/>
@@ -17740,7 +17740,7 @@
       </c>
       <c r="D184" s="63" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="I184" s="56" t="n"/>
@@ -17753,7 +17753,7 @@
       </c>
       <c r="D185" s="63" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E185" s="52" t="n"/>
@@ -17821,7 +17821,7 @@
       </c>
       <c r="D189" s="63" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J189" s="50" t="n"/>
@@ -17834,7 +17834,7 @@
       </c>
       <c r="D190" s="63" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J190" s="50" t="n"/>
@@ -17847,7 +17847,7 @@
       </c>
       <c r="D191" s="63" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E191" s="52" t="n"/>
@@ -17861,7 +17861,7 @@
       </c>
       <c r="D192" s="63" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E192" s="52" t="n"/>
@@ -17880,7 +17880,7 @@
       </c>
       <c r="D193" s="63" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E193" s="52" t="n"/>
@@ -17955,7 +17955,7 @@
       </c>
       <c r="D197" s="42" t="inlineStr">
         <is>
-          <t>['nrb']</t>
+          <t>['pav']</t>
         </is>
       </c>
       <c r="E197" s="52" t="n"/>
@@ -18284,8 +18284,8 @@
   </sheetPr>
   <dimension ref="A2:Q221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="E101" sqref="E101:I101"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="F120" sqref="F120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -18304,8 +18304,8 @@
     <col customWidth="1" max="12" min="12" style="69" width="15.53125"/>
     <col customWidth="1" max="13" min="13" style="69" width="39.86328125"/>
     <col customWidth="1" max="14" min="14" style="69" width="90"/>
-    <col customWidth="1" max="92" min="15" style="69" width="10.6640625"/>
-    <col customWidth="1" max="16384" min="93" style="69" width="10.6640625"/>
+    <col customWidth="1" max="93" min="15" style="69" width="10.6640625"/>
+    <col customWidth="1" max="16384" min="94" style="69" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="2">

--- a/RECC_Config_V2_4.xlsx
+++ b/RECC_Config_V2_4.xlsx
@@ -10182,7 +10182,7 @@
       </c>
       <c r="D7" s="63" t="inlineStr">
         <is>
-          <t>Germany_detail</t>
+          <t>R5.2REF_Other</t>
         </is>
       </c>
     </row>
@@ -10494,7 +10494,7 @@
       </c>
       <c r="G21" s="63" t="inlineStr">
         <is>
-          <t>[33]</t>
+          <t>[41]</t>
         </is>
       </c>
       <c r="H21" s="33" t="inlineStr">
@@ -10717,7 +10717,7 @@
       </c>
       <c r="G27" s="63" t="inlineStr">
         <is>
-          <t>[0,1,2,3,4,5,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58]</t>
+          <t>[0,1,2,3,4,5,22,23,24,25,26,27,28,29,30,31,32,33,34]</t>
         </is>
       </c>
       <c r="H27" s="33" t="inlineStr">
@@ -10754,7 +10754,7 @@
       </c>
       <c r="G28" s="63" t="inlineStr">
         <is>
-          <t>[0,2,3]</t>
+          <t>[0,2]</t>
         </is>
       </c>
       <c r="H28" s="33" t="inlineStr">
@@ -10791,7 +10791,7 @@
       </c>
       <c r="G29" s="63" t="inlineStr">
         <is>
-          <t>[0,1,2,3,4,5,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58]</t>
+          <t>[0,1,2,3,4,5,22,23,24,25,26,27,28,29,30,31,32,33,34]</t>
         </is>
       </c>
       <c r="H29" s="33" t="inlineStr">
@@ -10939,7 +10939,7 @@
       </c>
       <c r="G33" s="63" t="inlineStr">
         <is>
-          <t>[0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23]</t>
+          <t>[24,25,26,27]</t>
         </is>
       </c>
       <c r="H33" s="33" t="inlineStr">
@@ -11494,7 +11494,7 @@
       </c>
       <c r="G48" s="63" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>[0:19)</t>
         </is>
       </c>
       <c r="H48" s="33" t="inlineStr">
@@ -17727,7 +17727,7 @@
       </c>
       <c r="D183" s="63" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="I183" s="56" t="n"/>
@@ -17740,7 +17740,7 @@
       </c>
       <c r="D184" s="63" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="I184" s="56" t="n"/>
@@ -17753,7 +17753,7 @@
       </c>
       <c r="D185" s="63" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E185" s="52" t="n"/>
@@ -17821,7 +17821,7 @@
       </c>
       <c r="D189" s="63" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J189" s="50" t="n"/>
@@ -17834,7 +17834,7 @@
       </c>
       <c r="D190" s="63" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J190" s="50" t="n"/>
@@ -17847,7 +17847,7 @@
       </c>
       <c r="D191" s="63" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E191" s="52" t="n"/>
@@ -17861,7 +17861,7 @@
       </c>
       <c r="D192" s="63" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E192" s="52" t="n"/>
@@ -17899,7 +17899,7 @@
       </c>
       <c r="D194" s="63" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E194" s="52" t="n"/>
@@ -17918,7 +17918,7 @@
       </c>
       <c r="D195" s="63" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E195" s="52" t="n"/>

--- a/RECC_Config_V2_4.xlsx
+++ b/RECC_Config_V2_4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9405" windowWidth="20730" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9405" windowWidth="20730" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cover" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Config_Sandbox" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" calcOnSave="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -1485,8 +1485,8 @@
     <col bestFit="1" customWidth="1" max="9" min="9" style="53" width="8.265625"/>
     <col customWidth="1" max="10" min="10" style="55" width="39.86328125"/>
     <col customWidth="1" max="11" min="11" style="53" width="46.73046875"/>
-    <col customWidth="1" max="57" min="12" style="53" width="10.6640625"/>
-    <col customWidth="1" max="16384" min="58" style="53" width="10.6640625"/>
+    <col customWidth="1" max="59" min="12" style="53" width="10.6640625"/>
+    <col customWidth="1" max="16384" min="60" style="53" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="8">
@@ -1886,8 +1886,8 @@
   </sheetPr>
   <dimension ref="A2:Q222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B180" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="C215" sqref="C215"/>
+    <sheetView topLeftCell="C73" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+      <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1906,8 +1906,8 @@
     <col customWidth="1" max="12" min="12" style="68" width="15.53125"/>
     <col customWidth="1" max="13" min="13" style="68" width="39.86328125"/>
     <col customWidth="1" max="14" min="14" style="68" width="90"/>
-    <col customWidth="1" max="96" min="15" style="68" width="10.6640625"/>
-    <col customWidth="1" max="16384" min="97" style="68" width="10.6640625"/>
+    <col customWidth="1" max="98" min="15" style="68" width="10.6640625"/>
+    <col customWidth="1" max="16384" min="99" style="68" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -4065,7 +4065,7 @@
       </c>
       <c r="I80" s="29" t="inlineStr">
         <is>
-          <t>3d7b8c27-f22c-42f8-be81-09589a4308eb</t>
+          <t>eb5b84f4-b288-46ef-a3cc-eeb9737dbfb0</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4686,7 +4686,7 @@
       </c>
       <c r="I91" s="29" t="inlineStr">
         <is>
-          <t>e57ce987-d7fa-4a43-a710-eb42610c859d</t>
+          <t>f4c746dd-b6cc-483e-9d3c-1e3b6f361c84</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -5116,7 +5116,7 @@
       </c>
       <c r="I99" s="29" t="inlineStr">
         <is>
-          <t>65738ce3-9052-4f6a-8a3a-2fb6ea0eed1e</t>
+          <t>157e822f-80a7-4fe1-a774-eb382556a99e</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -7547,7 +7547,7 @@
       </c>
       <c r="I143" s="29" t="inlineStr">
         <is>
-          <t>bf2da225-58ee-4419-b8ba-d6005808d227</t>
+          <t>09f30b78-0552-4644-bf3a-c24a3737049a</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="I144" s="29" t="inlineStr">
         <is>
-          <t>b2ab2c2b-8471-46c1-ae33-251c2bb271bf</t>
+          <t>4071bfc7-73e4-4415-9a1c-fd8c7091373f</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -8315,7 +8315,7 @@
       </c>
       <c r="I157" s="29" t="inlineStr">
         <is>
-          <t>a7c699a7-0ac8-45f2-9a1c-78913b472a82</t>
+          <t>e8782126-cf9c-4958-b1d0-f142667a5f66</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8323,10 +8323,8 @@
           <t>SSP/RCP</t>
         </is>
       </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
+      <c r="K157" s="52" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -8734,7 +8732,7 @@
       </c>
       <c r="E165" s="63" t="inlineStr">
         <is>
-          <t>V1.0</t>
+          <t>V1.1</t>
         </is>
       </c>
       <c r="F165" s="36" t="inlineStr">
@@ -8754,7 +8752,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>d5553445-c90f-4422-bf80-94640f68ab2c</t>
+          <t>3586fa40-404b-4f4b-afbb-ce76c5cf5402</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -10139,8 +10137,8 @@
   </sheetPr>
   <dimension ref="A2:Q222"/>
   <sheetViews>
-    <sheetView topLeftCell="C165" workbookViewId="0">
-      <selection activeCell="I146" sqref="I146"/>
+    <sheetView topLeftCell="C60" workbookViewId="0">
+      <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -10159,8 +10157,8 @@
     <col customWidth="1" max="12" min="12" style="68" width="15.53125"/>
     <col customWidth="1" max="13" min="13" style="68" width="39.86328125"/>
     <col customWidth="1" max="14" min="14" style="68" width="90"/>
-    <col customWidth="1" max="96" min="15" style="68" width="10.6640625"/>
-    <col customWidth="1" max="16384" min="97" style="68" width="10.6640625"/>
+    <col customWidth="1" max="98" min="15" style="68" width="10.6640625"/>
+    <col customWidth="1" max="16384" min="99" style="68" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -10236,7 +10234,7 @@
       </c>
       <c r="D7" s="63" t="inlineStr">
         <is>
-          <t>Germany_detail</t>
+          <t>Global</t>
         </is>
       </c>
     </row>
@@ -10548,7 +10546,7 @@
       </c>
       <c r="G21" s="63" t="inlineStr">
         <is>
-          <t>[33]</t>
+          <t>[2,13,31,32,33,34,35,36,37,38,39,9,4,12,40,41,42,43,44,45]</t>
         </is>
       </c>
       <c r="H21" s="33" t="inlineStr">
@@ -10771,7 +10769,7 @@
       </c>
       <c r="G27" s="63" t="inlineStr">
         <is>
-          <t>[0,1,2,3,4,5,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58]</t>
+          <t>[0,1,2,3,4,5,22,23,24,25,26,27,28,29,30,31,32,33,34]</t>
         </is>
       </c>
       <c r="H27" s="33" t="inlineStr">
@@ -10808,7 +10806,7 @@
       </c>
       <c r="G28" s="63" t="inlineStr">
         <is>
-          <t>[0,2,3]</t>
+          <t>[0,2]</t>
         </is>
       </c>
       <c r="H28" s="33" t="inlineStr">
@@ -10845,7 +10843,7 @@
       </c>
       <c r="G29" s="63" t="inlineStr">
         <is>
-          <t>[0,1,2,3,4,5,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58]</t>
+          <t>[0,1,2,3,4,5,22,23,24,25,26,27,28,29,30,31,32,33,34]</t>
         </is>
       </c>
       <c r="H29" s="33" t="inlineStr">
@@ -10993,7 +10991,7 @@
       </c>
       <c r="G33" s="63" t="inlineStr">
         <is>
-          <t>[0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23]</t>
+          <t>[24,25,26,27]</t>
         </is>
       </c>
       <c r="H33" s="33" t="inlineStr">
@@ -11548,7 +11546,7 @@
       </c>
       <c r="G48" s="63" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>[0:19)</t>
         </is>
       </c>
       <c r="H48" s="33" t="inlineStr">
@@ -12319,7 +12317,7 @@
       </c>
       <c r="I80" s="29" t="inlineStr">
         <is>
-          <t>3d7b8c27-f22c-42f8-be81-09589a4308eb</t>
+          <t>eb5b84f4-b288-46ef-a3cc-eeb9737dbfb0</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -12940,7 +12938,7 @@
       </c>
       <c r="I91" s="29" t="inlineStr">
         <is>
-          <t>e57ce987-d7fa-4a43-a710-eb42610c859d</t>
+          <t>f4c746dd-b6cc-483e-9d3c-1e3b6f361c84</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -13370,7 +13368,7 @@
       </c>
       <c r="I99" s="29" t="inlineStr">
         <is>
-          <t>65738ce3-9052-4f6a-8a3a-2fb6ea0eed1e</t>
+          <t>157e822f-80a7-4fe1-a774-eb382556a99e</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -15801,7 +15799,7 @@
       </c>
       <c r="I143" s="29" t="inlineStr">
         <is>
-          <t>bf2da225-58ee-4419-b8ba-d6005808d227</t>
+          <t>09f30b78-0552-4644-bf3a-c24a3737049a</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -15855,7 +15853,7 @@
       </c>
       <c r="I144" s="29" t="inlineStr">
         <is>
-          <t>b2ab2c2b-8471-46c1-ae33-251c2bb271bf</t>
+          <t>4071bfc7-73e4-4415-9a1c-fd8c7091373f</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -16569,7 +16567,7 @@
       </c>
       <c r="I157" s="29" t="inlineStr">
         <is>
-          <t>a7c699a7-0ac8-45f2-9a1c-78913b472a82</t>
+          <t>e8782126-cf9c-4958-b1d0-f142667a5f66</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -16577,10 +16575,8 @@
           <t>SSP/RCP</t>
         </is>
       </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
+      <c r="K157" s="52" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -16988,7 +16984,7 @@
       </c>
       <c r="E165" s="63" t="inlineStr">
         <is>
-          <t>V1.0</t>
+          <t>V1.1</t>
         </is>
       </c>
       <c r="F165" s="36" t="inlineStr">
@@ -17008,7 +17004,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>d5553445-c90f-4422-bf80-94640f68ab2c</t>
+          <t>3586fa40-404b-4f4b-afbb-ce76c5cf5402</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -17942,7 +17938,7 @@
       </c>
       <c r="D191" s="63" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J191" s="50" t="n"/>
@@ -17969,7 +17965,7 @@
       </c>
       <c r="D193" s="63" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E193" s="52" t="n"/>
@@ -17988,7 +17984,7 @@
       </c>
       <c r="D194" s="63" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E194" s="52" t="n"/>
@@ -18007,7 +18003,7 @@
       </c>
       <c r="D195" s="63" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E195" s="52" t="n"/>
@@ -18026,7 +18022,7 @@
       </c>
       <c r="D196" s="63" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E196" s="52" t="n"/>
@@ -18063,7 +18059,7 @@
       </c>
       <c r="D198" s="42" t="inlineStr">
         <is>
-          <t>['pav']</t>
+          <t>['pav','reb']</t>
         </is>
       </c>
       <c r="E198" s="52" t="n"/>
@@ -18313,7 +18309,7 @@
         </is>
       </c>
       <c r="D215" s="43" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
     </row>
     <row r="216">
@@ -18392,8 +18388,8 @@
   </sheetPr>
   <dimension ref="A2:Q222"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="I146" sqref="I146"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="I76" sqref="I76:K179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -18412,8 +18408,8 @@
     <col customWidth="1" max="12" min="12" style="68" width="15.53125"/>
     <col customWidth="1" max="13" min="13" style="68" width="39.86328125"/>
     <col customWidth="1" max="14" min="14" style="68" width="90"/>
-    <col customWidth="1" max="96" min="15" style="68" width="10.6640625"/>
-    <col customWidth="1" max="16384" min="97" style="68" width="10.6640625"/>
+    <col customWidth="1" max="98" min="15" style="68" width="10.6640625"/>
+    <col customWidth="1" max="16384" min="99" style="68" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -20572,7 +20568,7 @@
       </c>
       <c r="I80" s="29" t="inlineStr">
         <is>
-          <t>3d7b8c27-f22c-42f8-be81-09589a4308eb</t>
+          <t>eb5b84f4-b288-46ef-a3cc-eeb9737dbfb0</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -21193,7 +21189,7 @@
       </c>
       <c r="I91" s="29" t="inlineStr">
         <is>
-          <t>e57ce987-d7fa-4a43-a710-eb42610c859d</t>
+          <t>f4c746dd-b6cc-483e-9d3c-1e3b6f361c84</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -21623,7 +21619,7 @@
       </c>
       <c r="I99" s="29" t="inlineStr">
         <is>
-          <t>65738ce3-9052-4f6a-8a3a-2fb6ea0eed1e</t>
+          <t>157e822f-80a7-4fe1-a774-eb382556a99e</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -24054,7 +24050,7 @@
       </c>
       <c r="I143" s="29" t="inlineStr">
         <is>
-          <t>bf2da225-58ee-4419-b8ba-d6005808d227</t>
+          <t>09f30b78-0552-4644-bf3a-c24a3737049a</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -24108,7 +24104,7 @@
       </c>
       <c r="I144" s="29" t="inlineStr">
         <is>
-          <t>b2ab2c2b-8471-46c1-ae33-251c2bb271bf</t>
+          <t>4071bfc7-73e4-4415-9a1c-fd8c7091373f</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -24822,7 +24818,7 @@
       </c>
       <c r="I157" s="29" t="inlineStr">
         <is>
-          <t>a7c699a7-0ac8-45f2-9a1c-78913b472a82</t>
+          <t>e8782126-cf9c-4958-b1d0-f142667a5f66</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -24830,10 +24826,8 @@
           <t>SSP/RCP</t>
         </is>
       </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
+      <c r="K157" s="52" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -25241,7 +25235,7 @@
       </c>
       <c r="E165" s="63" t="inlineStr">
         <is>
-          <t>V1.0</t>
+          <t>V1.1</t>
         </is>
       </c>
       <c r="F165" s="36" t="inlineStr">
@@ -25261,7 +25255,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>d5553445-c90f-4422-bf80-94640f68ab2c</t>
+          <t>3586fa40-404b-4f4b-afbb-ce76c5cf5402</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">

--- a/RECC_Config_V2_4.xlsx
+++ b/RECC_Config_V2_4.xlsx
@@ -10234,7 +10234,7 @@
       </c>
       <c r="D7" s="63" t="inlineStr">
         <is>
-          <t>Global</t>
+          <t>Global_North</t>
         </is>
       </c>
     </row>
@@ -10546,7 +10546,7 @@
       </c>
       <c r="G21" s="63" t="inlineStr">
         <is>
-          <t>[2,13,31,32,33,34,35,36,37,38,39,9,4,12,40,41,42,43,44,45]</t>
+          <t>[2,13,31,32,33,34,35,36,37,38,39,9,4,40,41]</t>
         </is>
       </c>
       <c r="H21" s="33" t="inlineStr">
